--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E03140-D65F-8C42-A671-EF97FFCB69A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF1F0F6-C604-2146-992A-7351074235B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="500" windowWidth="34500" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="34500" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
     <sheet name="Not qualified" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Database!$A$1:$H$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Database!$A$1:$H$203</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="535">
   <si>
     <t>Article Title</t>
   </si>
@@ -1625,12 +1625,69 @@
   <si>
     <t>fed sig faster</t>
   </si>
+  <si>
+    <t>water_column</t>
+  </si>
+  <si>
+    <t>suspended</t>
+  </si>
+  <si>
+    <t>seabed</t>
+  </si>
+  <si>
+    <t>sectors</t>
+  </si>
+  <si>
+    <t>Pseudo-nitzschia australis</t>
+  </si>
+  <si>
+    <t>N-no dep rate; great refs</t>
+  </si>
+  <si>
+    <t>small (70–85 mm)</t>
+  </si>
+  <si>
+    <t>medium (85–100 mm)</t>
+  </si>
+  <si>
+    <t>large (100–115 mm)</t>
+  </si>
+  <si>
+    <t>very large (&gt;115 mm</t>
+  </si>
+  <si>
+    <t>gonad</t>
+  </si>
+  <si>
+    <t>N-no dep rate; many field obs</t>
+  </si>
+  <si>
+    <t>NAC</t>
+  </si>
+  <si>
+    <t>0 mg/L</t>
+  </si>
+  <si>
+    <t>50 mg/L</t>
+  </si>
+  <si>
+    <t>250 mg/L</t>
+  </si>
+  <si>
+    <t>adductor muscle</t>
+  </si>
+  <si>
+    <t>more NAC sig faster</t>
+  </si>
+  <si>
+    <t>Pseudo-nitzschia sp.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1669,8 +1726,14 @@
       <sz val="10"/>
       <name val="AdvPLI"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1707,6 +1770,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1720,7 +1795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1731,8 +1806,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1740,6 +1813,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2055,10 +2137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2072,9 +2154,9 @@
     <col min="7" max="7" width="52.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -3264,179 +3346,179 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="12" customFormat="1">
-      <c r="A45" s="12">
+    <row r="45" spans="1:16" s="10" customFormat="1">
+      <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="10">
         <v>0.22</v>
       </c>
-      <c r="P45" s="13" t="s">
+      <c r="P45" s="11" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="12" customFormat="1">
-      <c r="A46" s="12">
+    <row r="46" spans="1:16" s="10" customFormat="1">
+      <c r="A46" s="10">
         <v>5</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="L46" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="M46" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="P46" s="13" t="s">
+      <c r="P46" s="11" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="12" customFormat="1">
-      <c r="A47" s="12">
+    <row r="47" spans="1:16" s="10" customFormat="1">
+      <c r="A47" s="10">
         <v>5</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K47" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="10">
         <v>0.08</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="P47" s="11" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="12" customFormat="1">
-      <c r="A48" s="12">
+    <row r="48" spans="1:16" s="10" customFormat="1">
+      <c r="A48" s="10">
         <v>5</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K48" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="10">
         <v>0.08</v>
       </c>
-      <c r="P48" s="13" t="s">
+      <c r="P48" s="11" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3497,248 +3579,248 @@
         <v>338</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="14" customFormat="1">
-      <c r="A52" s="14">
+    <row r="52" spans="1:16" s="12" customFormat="1">
+      <c r="A52" s="12">
         <v>71</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K52" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="L52" s="15" t="s">
+      <c r="L52" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="14" customFormat="1">
-      <c r="A53" s="14">
+    <row r="53" spans="1:16" s="12" customFormat="1">
+      <c r="A53" s="12">
         <v>71</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="J53" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="14" customFormat="1">
-      <c r="A54" s="14">
+    <row r="54" spans="1:16" s="12" customFormat="1">
+      <c r="A54" s="12">
         <v>71</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="J54" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="13" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="14" customFormat="1">
-      <c r="A55" s="14">
+    <row r="55" spans="1:16" s="12" customFormat="1">
+      <c r="A55" s="12">
         <v>71</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="J55" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="L55" s="15" t="s">
+      <c r="L55" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="14" customFormat="1">
-      <c r="A56" s="14">
+    <row r="56" spans="1:16" s="12" customFormat="1">
+      <c r="A56" s="12">
         <v>71</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J56" s="15" t="s">
+      <c r="J56" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="L56" s="15" t="s">
+      <c r="L56" s="13" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="14" customFormat="1">
-      <c r="A57" s="14">
+    <row r="57" spans="1:16" s="12" customFormat="1">
+      <c r="A57" s="12">
         <v>71</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J57" s="15" t="s">
+      <c r="J57" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="13" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="14" customFormat="1">
-      <c r="A58" s="14">
+    <row r="58" spans="1:16" s="12" customFormat="1">
+      <c r="A58" s="12">
         <v>71</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="J58" s="15" t="s">
+      <c r="J58" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="13" t="s">
         <v>507</v>
       </c>
     </row>
@@ -3834,85 +3916,85 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="17" customFormat="1">
-      <c r="A63" s="17">
+    <row r="63" spans="1:16" s="15" customFormat="1">
+      <c r="A63" s="15">
         <v>79</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I63" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J63" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="K63" s="18" t="s">
+      <c r="K63" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="L63" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="P63" s="18" t="s">
+      <c r="P63" s="16" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="17" customFormat="1">
-      <c r="A64" s="17">
+    <row r="64" spans="1:16" s="15" customFormat="1">
+      <c r="A64" s="15">
         <v>79</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="I64" s="18" t="s">
+      <c r="I64" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="J64" s="18" t="s">
+      <c r="J64" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="K64" s="18" t="s">
+      <c r="K64" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="L64" s="18" t="s">
+      <c r="L64" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="P64" s="18" t="s">
+      <c r="P64" s="16" t="s">
         <v>515</v>
       </c>
     </row>
@@ -4252,7 +4334,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1">
+    <row r="81" spans="1:16" hidden="1">
       <c r="A81">
         <v>7</v>
       </c>
@@ -4269,7 +4351,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1">
+    <row r="82" spans="1:16" hidden="1">
       <c r="A82">
         <v>77</v>
       </c>
@@ -4286,7 +4368,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1">
+    <row r="83" spans="1:16" hidden="1">
       <c r="A83">
         <v>141</v>
       </c>
@@ -4306,7 +4388,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1">
+    <row r="84" spans="1:16" hidden="1">
       <c r="A84">
         <v>8</v>
       </c>
@@ -4326,7 +4408,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1">
+    <row r="85" spans="1:16" hidden="1">
       <c r="A85">
         <v>129</v>
       </c>
@@ -4349,7 +4431,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1">
+    <row r="86" spans="1:16" hidden="1">
       <c r="A86">
         <v>104</v>
       </c>
@@ -4369,7 +4451,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1">
+    <row r="87" spans="1:16" hidden="1">
       <c r="A87">
         <v>48</v>
       </c>
@@ -4389,7 +4471,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1">
+    <row r="88" spans="1:16" hidden="1">
       <c r="A88">
         <v>30</v>
       </c>
@@ -4406,7 +4488,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1">
+    <row r="89" spans="1:16" hidden="1">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4423,7 +4505,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1">
+    <row r="90" spans="1:16" hidden="1">
       <c r="A90">
         <v>59</v>
       </c>
@@ -4440,7 +4522,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91">
         <v>4</v>
       </c>
@@ -4457,7 +4539,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1">
+    <row r="92" spans="1:16" hidden="1">
       <c r="A92">
         <v>49</v>
       </c>
@@ -4474,467 +4556,806 @@
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="14" customFormat="1">
-      <c r="A93" s="14">
+    <row r="93" spans="1:16" s="12" customFormat="1">
+      <c r="A93" s="12">
         <v>174</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="H93" s="15" t="s">
+      <c r="H93" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I93" s="14" t="s">
+      <c r="I93" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="J93" s="14" t="s">
+      <c r="J93" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="K93" s="15" t="s">
+      <c r="K93" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="L93" s="14" t="s">
+      <c r="L93" s="12" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94">
+    <row r="94" spans="1:16" s="17" customFormat="1">
+      <c r="A94" s="17">
         <v>165</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C94" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95">
-        <v>60</v>
-      </c>
-      <c r="B95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="I94" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="L94" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="P94" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="17" customFormat="1">
+      <c r="A95" s="17">
+        <v>165</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96">
-        <v>151</v>
-      </c>
-      <c r="B96" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="I95" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="L95" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="P95" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="20" customFormat="1">
+      <c r="A96" s="20">
+        <v>72</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="G96" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="H96" s="21" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97">
-        <v>182</v>
-      </c>
-      <c r="B97" t="s">
-        <v>182</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="I96" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="J96" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="L96" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="N96" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="10" customFormat="1">
+      <c r="A97" s="10">
+        <v>140</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="G97" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H97" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98">
-        <v>72</v>
-      </c>
-      <c r="B98" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="I97" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="P97" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="10" customFormat="1">
+      <c r="A98" s="10">
+        <v>140</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="G98" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H98" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99">
+      <c r="I98" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="10" customFormat="1">
+      <c r="A99" s="10">
         <v>140</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C99" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="G99" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H99" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100">
-        <v>171</v>
-      </c>
-      <c r="B100" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="I99" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="P99" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="10" customFormat="1">
+      <c r="A100" s="10">
+        <v>140</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="G100" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H100" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101">
-        <v>186</v>
-      </c>
-      <c r="B101" t="s">
-        <v>186</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="I100" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="P100" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="10" customFormat="1">
+      <c r="A101" s="10">
+        <v>140</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="G101" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H101" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102">
+      <c r="I101" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="P101" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="10" customFormat="1">
+      <c r="A102" s="10">
+        <v>140</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="P102" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="10" customFormat="1">
+      <c r="A103" s="10">
+        <v>140</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="P103" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="10" customFormat="1">
+      <c r="A104" s="10">
+        <v>140</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="P104" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="12" customFormat="1">
+      <c r="A105" s="12">
         <v>152</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B105" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D102" t="s">
+      <c r="C105" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="12" customFormat="1">
+      <c r="A106" s="12">
+        <v>152</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E106" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F106" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G106" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H106" s="13" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1">
-      <c r="A103">
+      <c r="I106" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="12" customFormat="1">
+      <c r="A107" s="12">
+        <v>152</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1">
+      <c r="A108">
         <v>130</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B108" t="s">
         <v>130</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D108" t="s">
         <v>199</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E108" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104">
+    <row r="109" spans="1:16" s="7" customFormat="1" ht="14">
+      <c r="A109" s="7">
         <v>159</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B109" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D104" t="s">
+      <c r="C109" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E109" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F109" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H104" t="s">
+      <c r="G109" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="H109" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105">
+      <c r="I109" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="7" customFormat="1" ht="14">
+      <c r="A110" s="7">
+        <v>159</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="P110" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="7" customFormat="1" ht="14">
+      <c r="A111" s="7">
+        <v>159</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="P111" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112">
         <v>131</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B112" t="s">
         <v>131</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D112" t="s">
         <v>367</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E112" t="s">
         <v>368</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1">
-      <c r="A106">
-        <v>164</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E106" t="s">
-        <v>284</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1">
-      <c r="A107">
-        <v>43</v>
-      </c>
-      <c r="B107" t="s">
-        <v>43</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E107" t="s">
-        <v>395</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1">
-      <c r="A108">
-        <v>86</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D108" t="s">
-        <v>211</v>
-      </c>
-      <c r="E108" t="s">
-        <v>209</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1">
-      <c r="A109">
-        <v>61</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109" t="s">
-        <v>209</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1">
-      <c r="A110">
-        <v>18</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" t="s">
-        <v>211</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1">
-      <c r="A111">
-        <v>97</v>
-      </c>
-      <c r="B111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" t="s">
-        <v>211</v>
-      </c>
-      <c r="E111" t="s">
-        <v>209</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1">
-      <c r="A112">
-        <v>58</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D112" t="s">
-        <v>211</v>
-      </c>
-      <c r="E112" t="s">
-        <v>209</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1">
       <c r="A113">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1">
       <c r="A114">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" t="s">
-        <v>211</v>
+        <v>43</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1">
       <c r="A115">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s">
         <v>211</v>
@@ -4942,102 +5363,105 @@
       <c r="E115" t="s">
         <v>209</v>
       </c>
-      <c r="F115" t="s">
-        <v>291</v>
-      </c>
-      <c r="G115" t="s">
-        <v>351</v>
-      </c>
-      <c r="H115" t="s">
-        <v>352</v>
+      <c r="F115" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1">
       <c r="A116">
-        <v>68</v>
-      </c>
-      <c r="B116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E116" t="s">
         <v>209</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>290</v>
+        <v>402</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1">
       <c r="A117">
-        <v>92</v>
-      </c>
-      <c r="B117" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D117" t="s">
         <v>211</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F117" t="s">
-        <v>291</v>
-      </c>
-      <c r="G117" t="s">
-        <v>421</v>
-      </c>
-      <c r="H117" t="s">
-        <v>420</v>
+      <c r="F117" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1">
       <c r="A118">
-        <v>73</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>288</v>
+        <v>97</v>
+      </c>
+      <c r="B118" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" t="s">
+        <v>211</v>
+      </c>
+      <c r="E118" t="s">
+        <v>209</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1">
       <c r="A119">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="D119" t="s">
-        <v>283</v>
+        <v>211</v>
+      </c>
+      <c r="E119" t="s">
+        <v>209</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G119" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1">
       <c r="A120">
-        <v>128</v>
-      </c>
-      <c r="B120" t="s">
-        <v>128</v>
+        <v>39</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D120" t="s">
-        <v>283</v>
+        <v>211</v>
+      </c>
+      <c r="E120" t="s">
+        <v>209</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>291</v>
@@ -5048,13 +5472,16 @@
     </row>
     <row r="121" spans="1:8" hidden="1">
       <c r="A121">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>283</v>
+        <v>211</v>
+      </c>
+      <c r="E121" t="s">
+        <v>209</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>291</v>
@@ -5065,746 +5492,749 @@
     </row>
     <row r="122" spans="1:8" hidden="1">
       <c r="A122">
-        <v>115</v>
-      </c>
-      <c r="B122" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D122" t="s">
-        <v>283</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>290</v>
+        <v>211</v>
+      </c>
+      <c r="E122" t="s">
+        <v>209</v>
+      </c>
+      <c r="F122" t="s">
+        <v>291</v>
+      </c>
+      <c r="G122" t="s">
+        <v>351</v>
+      </c>
+      <c r="H122" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1">
       <c r="A123">
-        <v>82</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>378</v>
+        <v>68</v>
+      </c>
+      <c r="B123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>211</v>
+      </c>
+      <c r="E123" t="s">
+        <v>209</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G123" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="124" spans="1:8" hidden="1">
       <c r="A124">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>162</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>403</v>
+        <v>92</v>
+      </c>
+      <c r="D124" t="s">
+        <v>211</v>
+      </c>
+      <c r="E124" t="s">
+        <v>209</v>
+      </c>
+      <c r="F124" t="s">
+        <v>291</v>
+      </c>
+      <c r="G124" t="s">
+        <v>421</v>
       </c>
       <c r="H124" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:8" hidden="1">
       <c r="A125">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E125" t="s">
-        <v>319</v>
+        <v>289</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1">
       <c r="A126">
-        <v>158</v>
-      </c>
-      <c r="B126" t="s">
-        <v>158</v>
+        <v>136</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>227</v>
-      </c>
-      <c r="E126" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>290</v>
+        <v>402</v>
+      </c>
+      <c r="G126" t="s">
+        <v>330</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1">
       <c r="A127">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>228</v>
-      </c>
-      <c r="E127" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1">
       <c r="A128">
-        <v>119</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
+      </c>
+      <c r="B128" t="s">
+        <v>145</v>
       </c>
       <c r="D128" t="s">
-        <v>228</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1">
       <c r="A129">
-        <v>35</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>35</v>
+        <v>115</v>
+      </c>
+      <c r="B129" t="s">
+        <v>115</v>
       </c>
       <c r="D129" t="s">
-        <v>392</v>
-      </c>
-      <c r="E129" t="s">
-        <v>381</v>
-      </c>
-      <c r="G129" t="s">
-        <v>382</v>
-      </c>
-      <c r="H129" t="s">
-        <v>426</v>
+        <v>283</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:8" hidden="1">
       <c r="A130">
-        <v>112</v>
-      </c>
-      <c r="B130" t="s">
-        <v>112</v>
-      </c>
-      <c r="D130" t="s">
-        <v>269</v>
-      </c>
-      <c r="E130" t="s">
-        <v>263</v>
+        <v>82</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>365</v>
+        <v>290</v>
+      </c>
+      <c r="G130" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1">
       <c r="A131">
-        <v>149</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D131" t="s">
-        <v>232</v>
+        <v>162</v>
+      </c>
+      <c r="B131" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G131" t="s">
-        <v>301</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>304</v>
+        <v>403</v>
+      </c>
+      <c r="H131" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1">
       <c r="A132">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" t="s">
-        <v>232</v>
+        <v>143</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132" t="s">
+        <v>319</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1">
+      <c r="A133">
+        <v>158</v>
+      </c>
+      <c r="B133" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" t="s">
+        <v>226</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="G132" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133">
-        <v>52</v>
-      </c>
-      <c r="B133" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E133" t="s">
-        <v>454</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1">
       <c r="A134">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>280</v>
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>228</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1">
       <c r="A135">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D135" t="s">
-        <v>387</v>
-      </c>
-      <c r="E135" t="s">
-        <v>377</v>
+        <v>228</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136">
-        <v>100</v>
-      </c>
-      <c r="B136" t="s">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="E136" t="s">
-        <v>234</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>333</v>
+        <v>381</v>
+      </c>
+      <c r="G136" t="s">
+        <v>382</v>
+      </c>
+      <c r="H136" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1">
       <c r="A137">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B137" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="D137" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="E137" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H137" t="s">
-        <v>335</v>
+        <v>292</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:8" hidden="1">
       <c r="A138">
-        <v>95</v>
-      </c>
-      <c r="B138" t="s">
-        <v>95</v>
+        <v>149</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D138" t="s">
-        <v>233</v>
-      </c>
-      <c r="E138" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="G138" t="s">
+        <v>301</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="139" spans="1:8" hidden="1">
       <c r="A139">
-        <v>188</v>
-      </c>
-      <c r="B139" t="s">
-        <v>188</v>
+        <v>6</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
-      </c>
-      <c r="E139" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1">
+      <c r="G139" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
-        <v>66</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D140" t="s">
-        <v>233</v>
+        <v>52</v>
+      </c>
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="E140" t="s">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:8" hidden="1">
       <c r="A141">
-        <v>94</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D141" t="s">
-        <v>233</v>
+        <v>54</v>
+      </c>
+      <c r="B141" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="E141" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G141" t="s">
-        <v>299</v>
+        <v>402</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:8" hidden="1">
       <c r="A142">
-        <v>150</v>
-      </c>
-      <c r="B142" t="s">
-        <v>150</v>
+        <v>126</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D142" t="s">
+        <v>387</v>
+      </c>
+      <c r="E142" t="s">
+        <v>377</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>100</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="D143" t="s">
         <v>233</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E143" t="s">
         <v>234</v>
       </c>
-      <c r="F142" t="s">
-        <v>428</v>
-      </c>
-      <c r="H142" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1">
-      <c r="A143">
-        <v>138</v>
-      </c>
-      <c r="B143" t="s">
-        <v>138</v>
-      </c>
-      <c r="D143" t="s">
-        <v>230</v>
-      </c>
-      <c r="E143" t="s">
-        <v>214</v>
-      </c>
       <c r="F143" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:8" hidden="1">
       <c r="A144">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="D144" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E144" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>403</v>
+      </c>
+      <c r="H144" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D145" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E145" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
-        <v>185</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>326</v>
+        <v>188</v>
+      </c>
+      <c r="D146" t="s">
+        <v>233</v>
+      </c>
+      <c r="E146" t="s">
+        <v>234</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:8" hidden="1">
       <c r="A147">
-        <v>40</v>
-      </c>
-      <c r="B147" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D147" t="s">
-        <v>438</v>
+        <v>233</v>
       </c>
       <c r="E147" t="s">
-        <v>241</v>
-      </c>
-      <c r="F147" t="s">
-        <v>402</v>
-      </c>
-      <c r="G147" t="s">
-        <v>437</v>
-      </c>
-      <c r="H147" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148">
-        <v>179</v>
-      </c>
-      <c r="B148" t="s">
-        <v>179</v>
+        <v>94</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D148" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E148" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="G148" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="D149" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E149" t="s">
-        <v>203</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>293</v>
+        <v>234</v>
+      </c>
+      <c r="F149" t="s">
+        <v>428</v>
+      </c>
+      <c r="H149" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1">
       <c r="A150">
-        <v>24</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>388</v>
+        <v>138</v>
+      </c>
+      <c r="B150" t="s">
+        <v>138</v>
+      </c>
+      <c r="D150" t="s">
+        <v>230</v>
       </c>
       <c r="E150" t="s">
-        <v>372</v>
+        <v>214</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
     </row>
     <row r="151" spans="1:8" hidden="1">
       <c r="A151">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>63</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>337</v>
+        <v>125</v>
+      </c>
+      <c r="D151" t="s">
+        <v>230</v>
       </c>
       <c r="E151" t="s">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H151" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1">
+        <v>402</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
-        <v>20</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>336</v>
+        <v>166</v>
+      </c>
+      <c r="B152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152" t="s">
+        <v>240</v>
+      </c>
+      <c r="E152" t="s">
+        <v>241</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H152" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1">
+        <v>294</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>99</v>
-      </c>
-      <c r="D153" t="s">
-        <v>249</v>
-      </c>
-      <c r="E153" t="s">
-        <v>248</v>
+        <v>185</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:8" hidden="1">
       <c r="A154">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>218</v>
+        <v>438</v>
       </c>
       <c r="E154" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F154" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="G154" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H154" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="B155" t="s">
-        <v>69</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>281</v>
+        <v>179</v>
+      </c>
+      <c r="D155" t="s">
+        <v>252</v>
       </c>
       <c r="E155" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B156" t="s">
-        <v>93</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>415</v>
+        <v>55</v>
+      </c>
+      <c r="D156" t="s">
+        <v>223</v>
+      </c>
+      <c r="E156" t="s">
+        <v>203</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>414</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:8" hidden="1">
       <c r="A157">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D157" t="s">
-        <v>390</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>383</v>
+        <v>24</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E157" t="s">
+        <v>372</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="158" spans="1:8" hidden="1">
       <c r="A158">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" t="s">
-        <v>64</v>
-      </c>
-      <c r="D158" t="s">
-        <v>255</v>
+        <v>63</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="E158" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>290</v>
+        <v>403</v>
+      </c>
+      <c r="H158" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1">
       <c r="A159">
-        <v>37</v>
-      </c>
-      <c r="B159" t="s">
-        <v>37</v>
-      </c>
-      <c r="D159" t="s">
-        <v>255</v>
-      </c>
-      <c r="E159" t="s">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>290</v>
+        <v>403</v>
+      </c>
+      <c r="H159" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1">
       <c r="A160">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D160" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E160" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>290</v>
@@ -5812,423 +6242,474 @@
     </row>
     <row r="161" spans="1:8" hidden="1">
       <c r="A161">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>365</v>
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>218</v>
+      </c>
+      <c r="E161" t="s">
+        <v>219</v>
+      </c>
+      <c r="F161" t="s">
+        <v>434</v>
+      </c>
+      <c r="G161" t="s">
+        <v>433</v>
+      </c>
+      <c r="H161" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1">
       <c r="A162">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B162" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>400</v>
+        <v>281</v>
       </c>
       <c r="E162" t="s">
-        <v>401</v>
-      </c>
-      <c r="F162" t="s">
-        <v>345</v>
-      </c>
-      <c r="G162" t="s">
-        <v>344</v>
-      </c>
-      <c r="H162" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1">
+        <v>262</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
-        <v>44</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
+      </c>
+      <c r="B163" t="s">
+        <v>93</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E163" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>291</v>
+        <v>413</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1">
       <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>163</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>457</v>
+        <v>121</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D164" t="s">
+        <v>390</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>458</v>
+        <v>383</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>294</v>
+        <v>402</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>293</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1">
+      <c r="A165">
+        <v>64</v>
+      </c>
+      <c r="B165" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" t="s">
+        <v>255</v>
+      </c>
+      <c r="E165" t="s">
+        <v>256</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1">
       <c r="A166">
-        <v>108</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>108</v>
+        <v>37</v>
+      </c>
+      <c r="B166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D166" t="s">
+        <v>255</v>
+      </c>
+      <c r="E166" t="s">
+        <v>256</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1">
       <c r="A167">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>255</v>
+      </c>
+      <c r="E167" t="s">
+        <v>256</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1">
       <c r="A168">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="G168" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="H168" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1">
       <c r="A169">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>365</v>
+        <v>76</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E169" t="s">
+        <v>401</v>
+      </c>
+      <c r="F169" t="s">
+        <v>345</v>
+      </c>
+      <c r="G169" t="s">
+        <v>344</v>
+      </c>
+      <c r="H169" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:8" hidden="1">
       <c r="A170">
-        <v>132</v>
-      </c>
-      <c r="B170" t="s">
-        <v>132</v>
+        <v>44</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E170" t="s">
+        <v>312</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" hidden="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" hidden="1">
-      <c r="A172">
-        <v>50</v>
-      </c>
-      <c r="B172" t="s">
-        <v>50</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1">
       <c r="A173">
-        <v>184</v>
-      </c>
-      <c r="B173" t="s">
-        <v>184</v>
+        <v>108</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1">
       <c r="A174">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1">
       <c r="A175">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:8" hidden="1">
       <c r="A176">
-        <v>120</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
+      </c>
+      <c r="B176" t="s">
+        <v>135</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G176" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1">
       <c r="A177">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B177" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1">
       <c r="A178">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>291</v>
+        <v>402</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:8" hidden="1">
       <c r="A179">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="B179" t="s">
-        <v>103</v>
-      </c>
-      <c r="F179" t="s">
-        <v>291</v>
-      </c>
-      <c r="G179" t="s">
-        <v>351</v>
+        <v>50</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="1:8" hidden="1">
       <c r="A180">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>75</v>
-      </c>
-      <c r="F180" t="s">
-        <v>291</v>
-      </c>
-      <c r="G180" t="s">
-        <v>351</v>
+        <v>184</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:8" hidden="1">
       <c r="A181">
-        <v>155</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>155</v>
+        <v>106</v>
+      </c>
+      <c r="B181" t="s">
+        <v>106</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1">
       <c r="A182">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B182" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:8" hidden="1">
       <c r="A183">
-        <v>65</v>
-      </c>
-      <c r="B183" t="s">
-        <v>65</v>
+        <v>120</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="G183" t="s">
+        <v>351</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:8" hidden="1">
       <c r="A184">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B184" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:8" hidden="1">
       <c r="A185">
-        <v>25</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="B185" t="s">
+        <v>38</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G185" t="s">
-        <v>309</v>
+        <v>291</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:8" hidden="1">
       <c r="A186">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="B186" t="s">
-        <v>148</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>290</v>
+        <v>103</v>
+      </c>
+      <c r="F186" t="s">
+        <v>291</v>
+      </c>
+      <c r="G186" t="s">
+        <v>351</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:8" hidden="1">
       <c r="A187">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>290</v>
+        <v>75</v>
+      </c>
+      <c r="F187" t="s">
+        <v>291</v>
+      </c>
+      <c r="G187" t="s">
+        <v>351</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:8" hidden="1">
       <c r="A188">
-        <v>85</v>
-      </c>
-      <c r="B188" t="s">
-        <v>85</v>
+        <v>155</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>290</v>
+        <v>403</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1">
       <c r="A189">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="B189" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>290</v>
+        <v>403</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="190" spans="1:8" hidden="1">
       <c r="A190">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>290</v>
@@ -6236,10 +6717,10 @@
     </row>
     <row r="191" spans="1:8" hidden="1">
       <c r="A191">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B191" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>290</v>
@@ -6247,21 +6728,24 @@
     </row>
     <row r="192" spans="1:8" hidden="1">
       <c r="A192">
-        <v>124</v>
-      </c>
-      <c r="B192" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="G192" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="193" spans="1:8" hidden="1">
       <c r="A193">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B193" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>290</v>
@@ -6269,60 +6753,135 @@
     </row>
     <row r="194" spans="1:8" hidden="1">
       <c r="A194">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B194" t="s">
-        <v>91</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>416</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1">
       <c r="A195">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B195" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1">
       <c r="A196">
+        <v>83</v>
+      </c>
+      <c r="B196" t="s">
+        <v>83</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" hidden="1">
+      <c r="A197">
+        <v>42</v>
+      </c>
+      <c r="B197" t="s">
+        <v>42</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1">
+      <c r="A198">
+        <v>123</v>
+      </c>
+      <c r="B198" t="s">
+        <v>123</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1">
+      <c r="A199">
+        <v>124</v>
+      </c>
+      <c r="B199" t="s">
+        <v>124</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1">
+      <c r="A200">
+        <v>144</v>
+      </c>
+      <c r="B200" t="s">
+        <v>144</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1">
+      <c r="A201">
+        <v>91</v>
+      </c>
+      <c r="B201" t="s">
+        <v>91</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" hidden="1">
+      <c r="A202">
+        <v>107</v>
+      </c>
+      <c r="B202" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1">
+      <c r="A203">
         <v>31</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B203" t="s">
         <v>31</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E203" t="s">
         <v>209</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F203" t="s">
         <v>311</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H203" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="10" customFormat="1"/>
-    <row r="203" spans="1:8" s="10" customFormat="1">
-      <c r="C203" s="11"/>
-      <c r="F203" s="11"/>
-      <c r="H203" s="11"/>
-    </row>
-    <row r="204" spans="1:8" s="10" customFormat="1">
-      <c r="C204" s="11"/>
-      <c r="F204" s="11"/>
-      <c r="H204" s="11"/>
-    </row>
-    <row r="205" spans="1:8" s="10" customFormat="1"/>
+    <row r="210" spans="3:8">
+      <c r="C210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="3:8">
+      <c r="C211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="H211" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H196" xr:uid="{5D176624-137B-4F46-B6ED-3658B77C8CF8}">
+  <autoFilter ref="A1:H203" xr:uid="{5D176624-137B-4F46-B6ED-3658B77C8CF8}">
     <filterColumn colId="5">
       <filters>
         <filter val="Amnesic"/>
@@ -6331,8 +6890,8 @@
         <filter val="Amnesic, Vibrio"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H196">
-      <sortCondition ref="D1:D196"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H203">
+      <sortCondition ref="D1:D203"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6343,11 +6902,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A59317-DFCB-D444-85E0-2BD7B6E5BEF1}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6656,23 +7215,162 @@
       <c r="F17" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>510</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13" t="s">
         <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>186</v>
+      </c>
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B70DD2-46FE-8249-A717-4A4222AF162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A740B233-268E-A945-BFA0-BB0BA4971766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="500" windowWidth="30540" windowHeight="20180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12086" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12085" uniqueCount="946">
   <si>
     <t>Article Title</t>
   </si>
@@ -2650,9 +2650,6 @@
   </si>
   <si>
     <t>COOH YTX</t>
-  </si>
-  <si>
-    <t>81</t>
   </si>
   <si>
     <t>DTX-1</t>
@@ -4557,9 +4554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
   <dimension ref="A1:T460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I460" sqref="I460"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4866,7 +4863,7 @@
         <v>273</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>272</v>
@@ -4913,7 +4910,7 @@
         <v>273</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>272</v>
@@ -4960,7 +4957,7 @@
         <v>273</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>272</v>
@@ -5007,7 +5004,7 @@
         <v>273</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>272</v>
@@ -5110,7 +5107,7 @@
         <v>427</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>426</v>
@@ -5154,7 +5151,7 @@
         <v>428</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>426</v>
@@ -5198,7 +5195,7 @@
         <v>409</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M13" s="21" t="s">
         <v>426</v>
@@ -5242,7 +5239,7 @@
         <v>415</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M14" s="21" t="s">
         <v>426</v>
@@ -5286,7 +5283,7 @@
         <v>421</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M15" s="21" t="s">
         <v>426</v>
@@ -5330,7 +5327,7 @@
         <v>422</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M16" s="21" t="s">
         <v>426</v>
@@ -5374,7 +5371,7 @@
         <v>423</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>426</v>
@@ -5418,7 +5415,7 @@
         <v>424</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>426</v>
@@ -6080,7 +6077,7 @@
         <v>415</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -6326,7 +6323,7 @@
         <v>480</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -14506,7 +14503,7 @@
         <v>293</v>
       </c>
       <c r="I230" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J230" s="21" t="s">
         <v>416</v>
@@ -15102,8 +15099,8 @@
       </c>
     </row>
     <row r="242" spans="1:20">
-      <c r="A242" s="21" t="s">
-        <v>861</v>
+      <c r="A242" s="21">
+        <v>81</v>
       </c>
       <c r="B242" s="21" t="s">
         <v>81</v>
@@ -15183,7 +15180,7 @@
         <v>538</v>
       </c>
       <c r="K243" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L243" s="21" t="s">
         <v>415</v>
@@ -17300,7 +17297,7 @@
         <v>403</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E289" s="21" t="s">
         <v>257</v>
@@ -17350,7 +17347,7 @@
         <v>403</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E290" s="21" t="s">
         <v>257</v>
@@ -18383,7 +18380,7 @@
         <v>283</v>
       </c>
       <c r="I313" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J313" s="21" t="s">
         <v>406</v>
@@ -18427,7 +18424,7 @@
         <v>283</v>
       </c>
       <c r="I314" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J314" s="21" t="s">
         <v>406</v>
@@ -18471,7 +18468,7 @@
         <v>283</v>
       </c>
       <c r="I315" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J315" s="21" t="s">
         <v>406</v>
@@ -19179,7 +19176,7 @@
         <v>283</v>
       </c>
       <c r="I330" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J330" s="21" t="s">
         <v>416</v>
@@ -19232,7 +19229,7 @@
         <v>283</v>
       </c>
       <c r="I331" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J331" s="21" t="s">
         <v>416</v>
@@ -19341,7 +19338,7 @@
         <v>538</v>
       </c>
       <c r="K333" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L333" s="21" t="s">
         <v>415</v>
@@ -19391,7 +19388,7 @@
         <v>538</v>
       </c>
       <c r="K334" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L334" s="21" t="s">
         <v>415</v>
@@ -19441,7 +19438,7 @@
         <v>538</v>
       </c>
       <c r="K335" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L335" s="21" t="s">
         <v>415</v>
@@ -19541,7 +19538,7 @@
         <v>538</v>
       </c>
       <c r="K337" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L337" s="21" t="s">
         <v>415</v>
@@ -20450,7 +20447,7 @@
         <v>697</v>
       </c>
       <c r="K355" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L355" s="21" t="s">
         <v>487</v>
@@ -20500,7 +20497,7 @@
         <v>697</v>
       </c>
       <c r="K356" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L356" s="21" t="s">
         <v>487</v>
@@ -20550,7 +20547,7 @@
         <v>697</v>
       </c>
       <c r="K357" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L357" s="21" t="s">
         <v>487</v>
@@ -20600,7 +20597,7 @@
         <v>697</v>
       </c>
       <c r="K358" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L358" s="21" t="s">
         <v>487</v>
@@ -20650,7 +20647,7 @@
         <v>697</v>
       </c>
       <c r="K359" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L359" s="21" t="s">
         <v>487</v>
@@ -20700,7 +20697,7 @@
         <v>697</v>
       </c>
       <c r="K360" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L360" s="21" t="s">
         <v>487</v>
@@ -21908,7 +21905,7 @@
         <v>269</v>
       </c>
       <c r="G385" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H385" s="21" t="s">
         <v>283</v>
@@ -22340,7 +22337,7 @@
         <v>278</v>
       </c>
       <c r="H394" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I394" s="21" t="s">
         <v>405</v>
@@ -22390,7 +22387,7 @@
         <v>278</v>
       </c>
       <c r="H395" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I395" s="21" t="s">
         <v>405</v>
@@ -22531,7 +22528,7 @@
         <v>269</v>
       </c>
       <c r="G398" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H398" s="21" t="s">
         <v>283</v>
@@ -22578,7 +22575,7 @@
         <v>269</v>
       </c>
       <c r="G399" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H399" s="21" t="s">
         <v>283</v>
@@ -22625,7 +22622,7 @@
         <v>269</v>
       </c>
       <c r="G400" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H400" s="21" t="s">
         <v>283</v>
@@ -22672,7 +22669,7 @@
         <v>269</v>
       </c>
       <c r="G401" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H401" s="21" t="s">
         <v>283</v>
@@ -22719,7 +22716,7 @@
         <v>269</v>
       </c>
       <c r="G402" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H402" s="21" t="s">
         <v>283</v>
@@ -23704,7 +23701,7 @@
         <v>275</v>
       </c>
       <c r="H422" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I422" s="21" t="s">
         <v>405</v>
@@ -23731,7 +23728,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="T422" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="423" spans="1:20">
@@ -23757,7 +23754,7 @@
         <v>275</v>
       </c>
       <c r="H423" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I423" s="21" t="s">
         <v>405</v>
@@ -23784,7 +23781,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="T423" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -23810,7 +23807,7 @@
         <v>275</v>
       </c>
       <c r="H424" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I424" s="21" t="s">
         <v>405</v>
@@ -23837,7 +23834,7 @@
         <v>-3.1699999999999999E-2</v>
       </c>
       <c r="T424" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="425" spans="1:20">
@@ -23869,10 +23866,10 @@
         <v>450</v>
       </c>
       <c r="J425" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="K425" s="21" t="s">
         <v>880</v>
-      </c>
-      <c r="K425" s="21" t="s">
-        <v>881</v>
       </c>
       <c r="L425" s="21" t="s">
         <v>487</v>
@@ -23916,10 +23913,10 @@
         <v>450</v>
       </c>
       <c r="J426" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K426" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L426" s="21" t="s">
         <v>487</v>
@@ -23963,10 +23960,10 @@
         <v>450</v>
       </c>
       <c r="J427" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="K427" s="21" t="s">
         <v>880</v>
-      </c>
-      <c r="K427" s="21" t="s">
-        <v>881</v>
       </c>
       <c r="L427" s="21" t="s">
         <v>487</v>
@@ -24010,10 +24007,10 @@
         <v>450</v>
       </c>
       <c r="J428" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K428" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L428" s="21" t="s">
         <v>487</v>
@@ -24057,16 +24054,16 @@
         <v>450</v>
       </c>
       <c r="J429" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="K429" s="21" t="s">
         <v>880</v>
-      </c>
-      <c r="K429" s="21" t="s">
-        <v>881</v>
       </c>
       <c r="L429" s="21" t="s">
         <v>487</v>
       </c>
       <c r="M429" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="N429" s="21" t="s">
         <v>812</v>
@@ -24104,16 +24101,16 @@
         <v>450</v>
       </c>
       <c r="J430" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K430" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L430" s="21" t="s">
         <v>487</v>
       </c>
       <c r="M430" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="N430" s="21" t="s">
         <v>812</v>
@@ -24151,10 +24148,10 @@
         <v>405</v>
       </c>
       <c r="J431" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="K431" s="21" t="s">
         <v>884</v>
-      </c>
-      <c r="K431" s="21" t="s">
-        <v>885</v>
       </c>
       <c r="L431" s="21" t="s">
         <v>415</v>
@@ -24163,7 +24160,7 @@
         <v>426</v>
       </c>
       <c r="N431" s="21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O431" s="21" t="s">
         <v>694</v>
@@ -24201,10 +24198,10 @@
         <v>405</v>
       </c>
       <c r="J432" s="21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K432" s="21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L432" s="21" t="s">
         <v>415</v>
@@ -24213,7 +24210,7 @@
         <v>426</v>
       </c>
       <c r="N432" s="21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O432" s="21" t="s">
         <v>694</v>
@@ -24251,7 +24248,7 @@
         <v>405</v>
       </c>
       <c r="J433" s="21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K433" s="22" t="s">
         <v>760</v>
@@ -24269,7 +24266,7 @@
         <v>738</v>
       </c>
       <c r="T433" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="434" spans="1:20">
@@ -24301,10 +24298,10 @@
         <v>405</v>
       </c>
       <c r="J434" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="K434" s="22" t="s">
         <v>891</v>
-      </c>
-      <c r="K434" s="22" t="s">
-        <v>892</v>
       </c>
       <c r="L434" s="21" t="s">
         <v>415</v>
@@ -24319,7 +24316,7 @@
         <v>738</v>
       </c>
       <c r="T434" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="435" spans="1:20">
@@ -24351,10 +24348,10 @@
         <v>405</v>
       </c>
       <c r="J435" s="21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K435" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L435" s="21" t="s">
         <v>415</v>
@@ -24369,7 +24366,7 @@
         <v>738</v>
       </c>
       <c r="T435" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -24383,10 +24380,10 @@
         <v>403</v>
       </c>
       <c r="D436" s="21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E436" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F436" s="21" t="s">
         <v>269</v>
@@ -24413,13 +24410,13 @@
         <v>497</v>
       </c>
       <c r="N436" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O436" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T436" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="437" spans="1:20">
@@ -24433,10 +24430,10 @@
         <v>403</v>
       </c>
       <c r="D437" s="21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E437" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F437" s="21" t="s">
         <v>269</v>
@@ -24463,13 +24460,13 @@
         <v>497</v>
       </c>
       <c r="N437" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O437" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T437" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="438" spans="1:20">
@@ -24483,7 +24480,7 @@
         <v>403</v>
       </c>
       <c r="D438" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E438" s="21" t="s">
         <v>224</v>
@@ -24513,13 +24510,13 @@
         <v>497</v>
       </c>
       <c r="N438" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O438" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T438" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="439" spans="1:20">
@@ -24533,7 +24530,7 @@
         <v>403</v>
       </c>
       <c r="D439" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E439" s="21" t="s">
         <v>224</v>
@@ -24563,13 +24560,13 @@
         <v>497</v>
       </c>
       <c r="N439" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O439" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T439" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -24583,7 +24580,7 @@
         <v>403</v>
       </c>
       <c r="D440" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E440" s="21" t="s">
         <v>224</v>
@@ -24613,13 +24610,13 @@
         <v>497</v>
       </c>
       <c r="N440" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O440" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T440" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="441" spans="1:20">
@@ -24633,7 +24630,7 @@
         <v>403</v>
       </c>
       <c r="D441" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E441" s="21" t="s">
         <v>224</v>
@@ -24663,13 +24660,13 @@
         <v>497</v>
       </c>
       <c r="N441" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O441" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T441" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="442" spans="1:20">
@@ -24683,10 +24680,10 @@
         <v>403</v>
       </c>
       <c r="D442" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="E442" s="21" t="s">
         <v>901</v>
-      </c>
-      <c r="E442" s="21" t="s">
-        <v>902</v>
       </c>
       <c r="F442" s="21" t="s">
         <v>269</v>
@@ -24710,7 +24707,7 @@
         <v>686</v>
       </c>
       <c r="N442" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O442" s="21" t="s">
         <v>725</v>
@@ -24757,13 +24754,13 @@
         <v>497</v>
       </c>
       <c r="N443" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O443" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T443" s="21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="444" spans="1:20">
@@ -24807,13 +24804,13 @@
         <v>497</v>
       </c>
       <c r="N444" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O444" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T444" s="21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="445" spans="1:20">
@@ -24827,10 +24824,10 @@
         <v>403</v>
       </c>
       <c r="D445" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="E445" s="21" t="s">
         <v>904</v>
-      </c>
-      <c r="E445" s="21" t="s">
-        <v>905</v>
       </c>
       <c r="F445" s="21" t="s">
         <v>269</v>
@@ -24857,13 +24854,13 @@
         <v>497</v>
       </c>
       <c r="N445" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O445" s="21" t="s">
         <v>738</v>
       </c>
       <c r="T445" s="21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="446" spans="1:20">
@@ -24895,10 +24892,10 @@
         <v>405</v>
       </c>
       <c r="J446" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="K446" s="21" t="s">
         <v>908</v>
-      </c>
-      <c r="K446" s="21" t="s">
-        <v>909</v>
       </c>
       <c r="L446" s="21" t="s">
         <v>409</v>
@@ -24907,7 +24904,7 @@
         <v>411</v>
       </c>
       <c r="N446" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O446" s="21" t="s">
         <v>738</v>
@@ -24942,10 +24939,10 @@
         <v>405</v>
       </c>
       <c r="J447" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K447" s="21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L447" s="21" t="s">
         <v>409</v>
@@ -24954,7 +24951,7 @@
         <v>411</v>
       </c>
       <c r="N447" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O447" s="21" t="s">
         <v>738</v>
@@ -24989,10 +24986,10 @@
         <v>405</v>
       </c>
       <c r="J448" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="K448" s="21" t="s">
         <v>908</v>
-      </c>
-      <c r="K448" s="21" t="s">
-        <v>909</v>
       </c>
       <c r="L448" s="21" t="s">
         <v>409</v>
@@ -25001,7 +24998,7 @@
         <v>411</v>
       </c>
       <c r="N448" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O448" s="21" t="s">
         <v>738</v>
@@ -25036,10 +25033,10 @@
         <v>405</v>
       </c>
       <c r="J449" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K449" s="21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L449" s="21" t="s">
         <v>409</v>
@@ -25048,7 +25045,7 @@
         <v>411</v>
       </c>
       <c r="N449" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O449" s="21" t="s">
         <v>738</v>
@@ -25095,7 +25092,7 @@
         <v>686</v>
       </c>
       <c r="N450" s="21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O450" s="21" t="s">
         <v>738</v>
@@ -25142,7 +25139,7 @@
         <v>686</v>
       </c>
       <c r="N451" s="21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O451" s="21" t="s">
         <v>738</v>
@@ -25177,10 +25174,10 @@
         <v>405</v>
       </c>
       <c r="J452" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K452" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L452" s="21" t="s">
         <v>409</v>
@@ -25198,7 +25195,7 @@
         <v>-2.9499999999999998E-2</v>
       </c>
       <c r="T452" s="21" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="453" spans="1:20">
@@ -25230,10 +25227,10 @@
         <v>405</v>
       </c>
       <c r="J453" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K453" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L453" s="21" t="s">
         <v>409</v>
@@ -25251,7 +25248,7 @@
         <v>-7.5600000000000001E-2</v>
       </c>
       <c r="T453" s="21" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="454" spans="1:20">
@@ -25268,7 +25265,7 @@
         <v>209</v>
       </c>
       <c r="E454" s="21" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F454" s="21" t="s">
         <v>269</v>
@@ -25283,10 +25280,10 @@
         <v>405</v>
       </c>
       <c r="J454" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K454" s="21" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L454" s="21" t="s">
         <v>409</v>
@@ -25309,7 +25306,7 @@
         <v>209</v>
       </c>
       <c r="E455" s="21" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F455" s="21" t="s">
         <v>269</v>
@@ -25324,10 +25321,10 @@
         <v>405</v>
       </c>
       <c r="J455" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K455" s="21" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L455" s="21" t="s">
         <v>409</v>
@@ -25347,10 +25344,10 @@
         <v>403</v>
       </c>
       <c r="D456" s="21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E456" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F456" s="21" t="s">
         <v>269</v>
@@ -25368,7 +25365,7 @@
         <v>513</v>
       </c>
       <c r="K456" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L456" s="21" t="s">
         <v>487</v>
@@ -25386,7 +25383,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="T456" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="457" spans="1:20">
@@ -25400,10 +25397,10 @@
         <v>403</v>
       </c>
       <c r="D457" s="21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E457" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F457" s="21" t="s">
         <v>269</v>
@@ -25421,7 +25418,7 @@
         <v>513</v>
       </c>
       <c r="K457" s="21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L457" s="21" t="s">
         <v>487</v>
@@ -25439,7 +25436,7 @@
         <v>0.02</v>
       </c>
       <c r="T457" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="458" spans="1:20">
@@ -25453,10 +25450,10 @@
         <v>403</v>
       </c>
       <c r="D458" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E458" s="21" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F458" s="21" t="s">
         <v>269</v>
@@ -25474,7 +25471,7 @@
         <v>513</v>
       </c>
       <c r="K458" s="21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L458" s="21" t="s">
         <v>487</v>
@@ -25492,7 +25489,7 @@
         <v>0.02</v>
       </c>
       <c r="T458" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="459" spans="1:20">
@@ -25521,7 +25518,7 @@
         <v>842</v>
       </c>
       <c r="I459" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J459" s="21" t="s">
         <v>416</v>
@@ -25536,13 +25533,13 @@
         <v>411</v>
       </c>
       <c r="N459" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O459" s="21" t="s">
         <v>694</v>
       </c>
       <c r="T459" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="460" spans="1:20">
@@ -25571,7 +25568,7 @@
         <v>842</v>
       </c>
       <c r="I460" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J460" s="21" t="s">
         <v>416</v>
@@ -25586,13 +25583,13 @@
         <v>411</v>
       </c>
       <c r="N460" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O460" s="21" t="s">
         <v>694</v>
       </c>
       <c r="T460" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -27421,7 +27418,7 @@
         <v>207</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="76" spans="1:12" customFormat="1">
@@ -27432,7 +27429,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D76" t="s">
         <v>210</v>
@@ -27450,7 +27447,7 @@
         <v>405</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="77" spans="1:12" customFormat="1">
@@ -27461,7 +27458,7 @@
         <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D77" t="s">
         <v>266</v>
@@ -27478,7 +27475,7 @@
         <v>149</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D78" t="s">
         <v>222</v>
@@ -27501,7 +27498,7 @@
         <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>209</v>
@@ -27522,10 +27519,10 @@
         <v>450</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>487</v>
@@ -27539,10 +27536,10 @@
         <v>175</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>600</v>
@@ -27560,10 +27557,10 @@
         <v>450</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>487</v>
@@ -27591,7 +27588,7 @@
         <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>269</v>
@@ -27605,7 +27602,7 @@
         <v>123</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>269</v>
@@ -27619,7 +27616,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>622</v>
@@ -27648,10 +27645,10 @@
         <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E85" t="s">
         <v>197</v>
@@ -27686,13 +27683,13 @@
         <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>269</v>
@@ -27724,13 +27721,13 @@
         <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>269</v>
@@ -27744,10 +27741,10 @@
         <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E88" t="s">
         <v>197</v>
@@ -27769,10 +27766,10 @@
         <v>416</v>
       </c>
       <c r="L88" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="M88" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -27783,7 +27780,7 @@
         <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>223</v>
@@ -27808,10 +27805,10 @@
         <v>416</v>
       </c>
       <c r="L89" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -27822,7 +27819,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>209</v>
@@ -27847,10 +27844,10 @@
         <v>416</v>
       </c>
       <c r="L90" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="91" spans="1:13" customFormat="1">
@@ -27861,13 +27858,13 @@
         <v>148</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>857</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>269</v>
@@ -27887,13 +27884,13 @@
         <v>124</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>269</v>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B956AD68-B6F1-4B44-98DB-F0637355211D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07710D-24C7-074A-BFB9-BD88AC562D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="3360" windowWidth="35460" windowHeight="22080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
     <sheet name="Done" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Not qualified" sheetId="2" r:id="rId4"/>
-    <sheet name="Need access" sheetId="4" r:id="rId5"/>
-    <sheet name="Done-backup" sheetId="3" r:id="rId6"/>
+    <sheet name="Not qualified" sheetId="2" r:id="rId3"/>
+    <sheet name="Need access" sheetId="4" r:id="rId4"/>
+    <sheet name="Done-backup" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Done!$A$1:$U$462</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Done-backup'!$A$1:$T$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Done-backup'!$A$1:$T$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Working!$A$1:$Q$144</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12622" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="1013">
   <si>
     <t>Article Title</t>
   </si>
@@ -2784,15 +2783,6 @@
     <t>Maybe-no clear dep rat</t>
   </si>
   <si>
-    <t>Cheney's Passage</t>
-  </si>
-  <si>
-    <t>Site #1</t>
-  </si>
-  <si>
-    <t>source; initial density</t>
-  </si>
-  <si>
     <t>salmon, lobsyer. Horse mussle results not usable</t>
   </si>
   <si>
@@ -2931,18 +2921,6 @@
     <t>25°C, Low</t>
   </si>
   <si>
-    <t>16°C, T-iso</t>
-  </si>
-  <si>
-    <t>20°C, T-iso</t>
-  </si>
-  <si>
-    <t>16°C, PIT</t>
-  </si>
-  <si>
-    <t>20°C, PIT</t>
-  </si>
-  <si>
     <t>16°C, Starved</t>
   </si>
   <si>
@@ -2973,9 +2951,6 @@
     <t>sites (population)</t>
   </si>
   <si>
-    <t>nutrients</t>
-  </si>
-  <si>
     <t>Table 1; Figure 6</t>
   </si>
   <si>
@@ -3022,6 +2997,102 @@
   </si>
   <si>
     <t>temp_salinity_size_fed</t>
+  </si>
+  <si>
+    <t>30°C, Low</t>
+  </si>
+  <si>
+    <t>25°C, High</t>
+  </si>
+  <si>
+    <t>small (20-29 mm)</t>
+  </si>
+  <si>
+    <t>medium (33-49 mm)</t>
+  </si>
+  <si>
+    <t>large (52-78 mm)</t>
+  </si>
+  <si>
+    <t>medium (28-33 mm)</t>
+  </si>
+  <si>
+    <t>small (21-25 mm)</t>
+  </si>
+  <si>
+    <t>large (36-42 mm)</t>
+  </si>
+  <si>
+    <t>Adult - 0.1 ug/L microcystin-LR</t>
+  </si>
+  <si>
+    <t>Adult - 1 ug/L microcystin-LR</t>
+  </si>
+  <si>
+    <t>Adult - 10 ug/L microcystin-LR</t>
+  </si>
+  <si>
+    <t>Juvenile - 0.1 ug/L microcystin-LR</t>
+  </si>
+  <si>
+    <t>Juvenile - 1 ug/L microcystin-LR</t>
+  </si>
+  <si>
+    <t>Juvenile - 10 ug/L microcystin-LR</t>
+  </si>
+  <si>
+    <t>size_exposure</t>
+  </si>
+  <si>
+    <t>temp_exposure</t>
+  </si>
+  <si>
+    <t>temp_diet_type</t>
+  </si>
+  <si>
+    <t>16°C, T-iso diet</t>
+  </si>
+  <si>
+    <t>20°C, T-iso diet</t>
+  </si>
+  <si>
+    <t>16°C, PIT diet</t>
+  </si>
+  <si>
+    <t>20°C, PIT diet</t>
+  </si>
+  <si>
+    <t>temp_fed_starved</t>
+  </si>
+  <si>
+    <t>18°C, starved</t>
+  </si>
+  <si>
+    <t>24°C, starved</t>
+  </si>
+  <si>
+    <t>24°C, fed</t>
+  </si>
+  <si>
+    <t>18°C, fed</t>
+  </si>
+  <si>
+    <t>Cheney's Passage (high exposure)</t>
+  </si>
+  <si>
+    <t>Site #1 (low exposure)</t>
+  </si>
+  <si>
+    <t>body_condition</t>
+  </si>
+  <si>
+    <t>lab-fed; better condition; lower initial toxicity</t>
+  </si>
+  <si>
+    <t>wild-fed; worse condition (hungrier); higher initial toxicity</t>
+  </si>
+  <si>
+    <t>bloom_nutrient_cond</t>
   </si>
 </sst>
 </file>
@@ -3168,7 +3239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3194,6 +3265,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3220,7 +3292,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9593A353-D751-E14B-997B-96BDCD8840AF}" name="Table1" displayName="Table1" ref="A1:T81" totalsRowShown="0" headerRowDxfId="0">
-  <sortState ref="A2:T81">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T81">
     <sortCondition ref="F2:F81"/>
     <sortCondition ref="A2:A81"/>
   </sortState>
@@ -3251,9 +3323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3291,7 +3363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3397,7 +3469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3539,7 +3611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4672,9 +4744,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M213" sqref="M213"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M462" sqref="M462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4690,7 +4762,7 @@
     <col min="9" max="9" width="16.33203125" style="21" customWidth="1"/>
     <col min="10" max="10" width="16" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
@@ -4703,7 +4775,7 @@
     <col min="22" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" s="23" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>192</v>
       </c>
@@ -4729,7 +4801,7 @@
         <v>196</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>403</v>
@@ -4800,7 +4872,7 @@
         <v>404</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>749</v>
@@ -4853,7 +4925,7 @@
         <v>404</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>404</v>
@@ -4903,7 +4975,7 @@
         <v>404</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>749</v>
@@ -4912,7 +4984,7 @@
         <v>408</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>675</v>
@@ -4956,7 +5028,7 @@
         <v>404</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>749</v>
@@ -4965,7 +5037,7 @@
         <v>408</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>675</v>
@@ -5009,7 +5081,7 @@
         <v>404</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L6" s="21" t="s">
         <v>404</v>
@@ -5018,7 +5090,7 @@
         <v>414</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>751</v>
@@ -5300,7 +5372,7 @@
         <v>404</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>842</v>
@@ -5344,7 +5416,7 @@
         <v>404</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L13" s="21" t="s">
         <v>844</v>
@@ -5388,7 +5460,7 @@
         <v>404</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>845</v>
@@ -5609,7 +5681,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1">
+    <row r="19" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A19" s="21">
         <v>6</v>
       </c>
@@ -5641,10 +5713,10 @@
         <v>404</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M19" s="21" t="s">
         <v>414</v>
@@ -5658,11 +5730,15 @@
       <c r="P19" s="21" t="s">
         <v>737</v>
       </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
       <c r="U19" s="21" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1">
+    <row r="20" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A20" s="21">
         <v>6</v>
       </c>
@@ -5694,10 +5770,10 @@
         <v>404</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="M20" s="21" t="s">
         <v>414</v>
@@ -5711,11 +5787,15 @@
       <c r="P20" s="21" t="s">
         <v>737</v>
       </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
       <c r="U20" s="21" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1">
+    <row r="21" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A21" s="21">
         <v>6</v>
       </c>
@@ -5747,10 +5827,10 @@
         <v>404</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M21" s="21" t="s">
         <v>414</v>
@@ -5764,11 +5844,15 @@
       <c r="P21" s="21" t="s">
         <v>737</v>
       </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
       <c r="U21" s="21" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1">
+    <row r="22" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A22" s="21">
         <v>6</v>
       </c>
@@ -5800,10 +5884,10 @@
         <v>404</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="M22" s="21" t="s">
         <v>414</v>
@@ -5817,11 +5901,15 @@
       <c r="P22" s="21" t="s">
         <v>737</v>
       </c>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
       <c r="U22" s="21" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1">
+    <row r="23" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A23" s="21">
         <v>6</v>
       </c>
@@ -5853,10 +5941,10 @@
         <v>404</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M23" s="21" t="s">
         <v>414</v>
@@ -5870,11 +5958,15 @@
       <c r="P23" s="21" t="s">
         <v>737</v>
       </c>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
       <c r="U23" s="21" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1">
+    <row r="24" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A24" s="21">
         <v>6</v>
       </c>
@@ -5906,10 +5998,10 @@
         <v>404</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="M24" s="21" t="s">
         <v>414</v>
@@ -5923,6 +6015,10 @@
       <c r="P24" s="21" t="s">
         <v>737</v>
       </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
       <c r="U24" s="21" t="s">
         <v>894</v>
       </c>
@@ -6168,7 +6264,7 @@
         <v>404</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="L29" s="21" t="s">
         <v>682</v>
@@ -6212,7 +6308,7 @@
         <v>404</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="L30" s="21" t="s">
         <v>683</v>
@@ -6256,7 +6352,7 @@
         <v>404</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="L31" s="21" t="s">
         <v>684</v>
@@ -8180,7 +8276,7 @@
         <v>414</v>
       </c>
       <c r="N69" s="21" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="O69" s="21" t="s">
         <v>628</v>
@@ -8241,7 +8337,7 @@
         <v>402</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>346</v>
@@ -8262,7 +8358,7 @@
         <v>404</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="L71" s="21" t="s">
         <v>880</v>
@@ -8294,7 +8390,7 @@
         <v>402</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>346</v>
@@ -8315,7 +8411,7 @@
         <v>404</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="L72" s="21" t="s">
         <v>881</v>
@@ -8876,7 +8972,7 @@
         <v>209</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F84" s="21" t="s">
         <v>269</v>
@@ -8894,10 +8990,10 @@
         <v>404</v>
       </c>
       <c r="K84" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L84" s="21" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="M84" s="21" t="s">
         <v>408</v>
@@ -8920,7 +9016,7 @@
         <v>209</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>269</v>
@@ -8938,10 +9034,10 @@
         <v>404</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="M85" s="21" t="s">
         <v>408</v>
@@ -9062,7 +9158,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1">
+    <row r="88" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A88" s="21">
         <v>27</v>
       </c>
@@ -9081,6 +9177,7 @@
       <c r="F88" s="21" t="s">
         <v>270</v>
       </c>
+      <c r="G88" s="21"/>
       <c r="H88" s="21" t="s">
         <v>293</v>
       </c>
@@ -9091,10 +9188,10 @@
         <v>404</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>712</v>
+        <v>1002</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>720</v>
+        <v>1006</v>
       </c>
       <c r="M88" s="21" t="s">
         <v>414</v>
@@ -9108,11 +9205,15 @@
       <c r="P88" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
       <c r="S88" s="21">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" hidden="1">
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+    </row>
+    <row r="89" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A89" s="21">
         <v>27</v>
       </c>
@@ -9131,6 +9232,7 @@
       <c r="F89" s="21" t="s">
         <v>270</v>
       </c>
+      <c r="G89" s="21"/>
       <c r="H89" s="21" t="s">
         <v>293</v>
       </c>
@@ -9141,10 +9243,10 @@
         <v>404</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>712</v>
+        <v>1002</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>721</v>
+        <v>1003</v>
       </c>
       <c r="M89" s="21" t="s">
         <v>408</v>
@@ -9158,11 +9260,15 @@
       <c r="P89" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
       <c r="S89" s="21">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" hidden="1">
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+    </row>
+    <row r="90" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A90" s="21">
         <v>27</v>
       </c>
@@ -9181,6 +9287,7 @@
       <c r="F90" s="21" t="s">
         <v>270</v>
       </c>
+      <c r="G90" s="21"/>
       <c r="H90" s="21" t="s">
         <v>293</v>
       </c>
@@ -9191,10 +9298,10 @@
         <v>404</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>712</v>
+        <v>1002</v>
       </c>
       <c r="L90" s="21" t="s">
-        <v>722</v>
+        <v>1005</v>
       </c>
       <c r="M90" s="21" t="s">
         <v>414</v>
@@ -9208,11 +9315,15 @@
       <c r="P90" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
       <c r="S90" s="21">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" hidden="1">
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+    </row>
+    <row r="91" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A91" s="21">
         <v>27</v>
       </c>
@@ -9231,6 +9342,7 @@
       <c r="F91" s="21" t="s">
         <v>270</v>
       </c>
+      <c r="G91" s="21"/>
       <c r="H91" s="21" t="s">
         <v>293</v>
       </c>
@@ -9241,10 +9353,10 @@
         <v>404</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>712</v>
+        <v>1002</v>
       </c>
       <c r="L91" s="21" t="s">
-        <v>723</v>
+        <v>1004</v>
       </c>
       <c r="M91" s="21" t="s">
         <v>408</v>
@@ -9258,9 +9370,13 @@
       <c r="P91" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
       <c r="S91" s="21">
         <v>7.6999999999999999E-2</v>
       </c>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
     </row>
     <row r="92" spans="1:21" hidden="1">
       <c r="A92" s="21">
@@ -9633,7 +9749,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1">
+    <row r="99" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A99" s="21">
         <v>29</v>
       </c>
@@ -9665,10 +9781,10 @@
         <v>404</v>
       </c>
       <c r="K99" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L99" s="21" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="M99" s="21" t="s">
         <v>414</v>
@@ -9682,14 +9798,17 @@
       <c r="P99" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
       <c r="S99" s="21">
         <v>-1.7999999999999999E-2</v>
       </c>
+      <c r="T99" s="21"/>
       <c r="U99" s="21" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1">
+    <row r="100" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A100" s="21">
         <v>29</v>
       </c>
@@ -9721,10 +9840,10 @@
         <v>404</v>
       </c>
       <c r="K100" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L100" s="21" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="M100" s="21" t="s">
         <v>414</v>
@@ -9738,14 +9857,17 @@
       <c r="P100" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
       <c r="S100" s="21">
         <v>-1.2999999999999999E-2</v>
       </c>
+      <c r="T100" s="21"/>
       <c r="U100" s="21" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1">
+    <row r="101" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A101" s="21">
         <v>29</v>
       </c>
@@ -9777,10 +9899,10 @@
         <v>404</v>
       </c>
       <c r="K101" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L101" s="21" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="M101" s="21" t="s">
         <v>414</v>
@@ -9794,9 +9916,12 @@
       <c r="P101" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
       <c r="S101" s="21">
         <v>-3.1699999999999999E-2</v>
       </c>
+      <c r="T101" s="21"/>
       <c r="U101" s="21" t="s">
         <v>876</v>
       </c>
@@ -10808,7 +10933,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1">
+    <row r="121" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A121" s="21">
         <v>36</v>
       </c>
@@ -10840,10 +10965,10 @@
         <v>404</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="M121" s="21" t="s">
         <v>414</v>
@@ -10857,14 +10982,17 @@
       <c r="P121" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
       <c r="S121" s="21" t="s">
         <v>437</v>
       </c>
+      <c r="T121" s="21"/>
       <c r="U121" s="21" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1">
+    <row r="122" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A122" s="21">
         <v>36</v>
       </c>
@@ -10896,10 +11024,10 @@
         <v>404</v>
       </c>
       <c r="K122" s="21" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="M122" s="21" t="s">
         <v>414</v>
@@ -10913,14 +11041,17 @@
       <c r="P122" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="21"/>
       <c r="S122" s="21" t="s">
         <v>437</v>
       </c>
+      <c r="T122" s="21"/>
       <c r="U122" s="21" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1">
+    <row r="123" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A123" s="21">
         <v>36</v>
       </c>
@@ -10952,10 +11083,10 @@
         <v>404</v>
       </c>
       <c r="K123" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="L123" s="21" t="s">
         <v>949</v>
-      </c>
-      <c r="L123" s="21" t="s">
-        <v>952</v>
       </c>
       <c r="M123" s="21" t="s">
         <v>414</v>
@@ -10969,9 +11100,12 @@
       <c r="P123" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
       <c r="S123" s="21" t="s">
         <v>437</v>
       </c>
+      <c r="T123" s="21"/>
       <c r="U123" s="21" t="s">
         <v>848</v>
       </c>
@@ -11576,7 +11710,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1">
+    <row r="136" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A136" s="21">
         <v>44</v>
       </c>
@@ -11608,10 +11742,10 @@
         <v>404</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>712</v>
+        <v>997</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>958</v>
+        <v>998</v>
       </c>
       <c r="M136" s="21" t="s">
         <v>414</v>
@@ -11625,14 +11759,17 @@
       <c r="P136" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
       <c r="S136" s="21">
         <v>-9.5000000000000001E-2</v>
       </c>
+      <c r="T136" s="21"/>
       <c r="U136" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1">
+    <row r="137" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A137" s="21">
         <v>44</v>
       </c>
@@ -11664,10 +11801,10 @@
         <v>404</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>712</v>
+        <v>997</v>
       </c>
       <c r="L137" s="21" t="s">
-        <v>959</v>
+        <v>999</v>
       </c>
       <c r="M137" s="21" t="s">
         <v>414</v>
@@ -11681,14 +11818,17 @@
       <c r="P137" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q137" s="21"/>
+      <c r="R137" s="21"/>
       <c r="S137" s="21">
         <v>-0.16</v>
       </c>
+      <c r="T137" s="21"/>
       <c r="U137" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1">
+    <row r="138" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A138" s="21">
         <v>44</v>
       </c>
@@ -11720,10 +11860,10 @@
         <v>404</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>712</v>
+        <v>997</v>
       </c>
       <c r="L138" s="21" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="M138" s="21" t="s">
         <v>414</v>
@@ -11737,14 +11877,17 @@
       <c r="P138" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q138" s="21"/>
+      <c r="R138" s="21"/>
       <c r="S138" s="21">
         <v>-9.8000000000000004E-2</v>
       </c>
+      <c r="T138" s="21"/>
       <c r="U138" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1">
+    <row r="139" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A139" s="21">
         <v>44</v>
       </c>
@@ -11776,10 +11919,10 @@
         <v>404</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>712</v>
+        <v>997</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>961</v>
+        <v>1001</v>
       </c>
       <c r="M139" s="21" t="s">
         <v>414</v>
@@ -11793,14 +11936,17 @@
       <c r="P139" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
       <c r="S139" s="21">
         <v>-0.17</v>
       </c>
+      <c r="T139" s="21"/>
       <c r="U139" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1">
+    <row r="140" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A140" s="21">
         <v>44</v>
       </c>
@@ -11832,10 +11978,10 @@
         <v>404</v>
       </c>
       <c r="K140" s="21" t="s">
-        <v>712</v>
+        <v>997</v>
       </c>
       <c r="L140" s="21" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="M140" s="21" t="s">
         <v>408</v>
@@ -11849,14 +11995,17 @@
       <c r="P140" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q140" s="21"/>
+      <c r="R140" s="21"/>
       <c r="S140" s="21">
         <v>-8.4000000000000005E-2</v>
       </c>
+      <c r="T140" s="21"/>
       <c r="U140" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1">
+    <row r="141" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A141" s="21">
         <v>44</v>
       </c>
@@ -11888,10 +12037,10 @@
         <v>404</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>712</v>
+        <v>997</v>
       </c>
       <c r="L141" s="21" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="M141" s="21" t="s">
         <v>408</v>
@@ -11905,9 +12054,12 @@
       <c r="P141" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q141" s="21"/>
+      <c r="R141" s="21"/>
       <c r="S141" s="21">
         <v>-0.12</v>
       </c>
+      <c r="T141" s="21"/>
       <c r="U141" s="21" t="s">
         <v>719</v>
       </c>
@@ -12901,7 +13053,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1">
+    <row r="161" spans="1:21" hidden="1">
       <c r="A161" s="21">
         <v>47</v>
       </c>
@@ -12954,7 +13106,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1">
+    <row r="162" spans="1:21" hidden="1">
       <c r="A162" s="21">
         <v>48</v>
       </c>
@@ -13004,7 +13156,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1">
+    <row r="163" spans="1:21" hidden="1">
       <c r="A163" s="21">
         <v>49</v>
       </c>
@@ -13036,7 +13188,7 @@
         <v>404</v>
       </c>
       <c r="K163" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L163" s="21" t="s">
         <v>839</v>
@@ -13054,7 +13206,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1">
+    <row r="164" spans="1:21" hidden="1">
       <c r="A164" s="21">
         <v>49</v>
       </c>
@@ -13086,7 +13238,7 @@
         <v>404</v>
       </c>
       <c r="K164" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L164" s="21" t="s">
         <v>838</v>
@@ -13104,7 +13256,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1">
+    <row r="165" spans="1:21" hidden="1">
       <c r="A165" s="21">
         <v>49</v>
       </c>
@@ -13136,7 +13288,7 @@
         <v>404</v>
       </c>
       <c r="K165" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L165" s="21" t="s">
         <v>408</v>
@@ -13154,7 +13306,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1">
+    <row r="166" spans="1:21" hidden="1">
       <c r="A166" s="21">
         <v>49</v>
       </c>
@@ -13186,7 +13338,7 @@
         <v>404</v>
       </c>
       <c r="K166" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L166" s="21" t="s">
         <v>839</v>
@@ -13195,7 +13347,7 @@
         <v>414</v>
       </c>
       <c r="N166" s="21" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="O166" s="21" t="s">
         <v>811</v>
@@ -13204,7 +13356,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1">
+    <row r="167" spans="1:21" hidden="1">
       <c r="A167" s="21">
         <v>49</v>
       </c>
@@ -13236,7 +13388,7 @@
         <v>404</v>
       </c>
       <c r="K167" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L167" s="21" t="s">
         <v>838</v>
@@ -13245,7 +13397,7 @@
         <v>414</v>
       </c>
       <c r="N167" s="21" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="O167" s="21" t="s">
         <v>811</v>
@@ -13254,7 +13406,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1">
+    <row r="168" spans="1:21" hidden="1">
       <c r="A168" s="21">
         <v>49</v>
       </c>
@@ -13286,7 +13438,7 @@
         <v>404</v>
       </c>
       <c r="K168" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L168" s="21" t="s">
         <v>408</v>
@@ -13295,7 +13447,7 @@
         <v>408</v>
       </c>
       <c r="N168" s="21" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="O168" s="21" t="s">
         <v>811</v>
@@ -13304,7 +13456,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1">
+    <row r="169" spans="1:21" hidden="1">
       <c r="A169" s="21">
         <v>49</v>
       </c>
@@ -13336,7 +13488,7 @@
         <v>404</v>
       </c>
       <c r="K169" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L169" s="21" t="s">
         <v>839</v>
@@ -13354,7 +13506,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1">
+    <row r="170" spans="1:21" hidden="1">
       <c r="A170" s="21">
         <v>49</v>
       </c>
@@ -13386,7 +13538,7 @@
         <v>404</v>
       </c>
       <c r="K170" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L170" s="21" t="s">
         <v>838</v>
@@ -13404,7 +13556,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1">
+    <row r="171" spans="1:21" hidden="1">
       <c r="A171" s="21">
         <v>49</v>
       </c>
@@ -13436,7 +13588,7 @@
         <v>404</v>
       </c>
       <c r="K171" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L171" s="21" t="s">
         <v>408</v>
@@ -13454,7 +13606,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1">
+    <row r="172" spans="1:21" hidden="1">
       <c r="A172" s="21">
         <v>50</v>
       </c>
@@ -13495,7 +13647,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1">
+    <row r="173" spans="1:21" hidden="1">
       <c r="A173" s="21">
         <v>50</v>
       </c>
@@ -13536,7 +13688,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1">
+    <row r="174" spans="1:21" hidden="1">
       <c r="A174" s="21">
         <v>50</v>
       </c>
@@ -13577,7 +13729,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1">
+    <row r="175" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A175" s="21">
         <v>51</v>
       </c>
@@ -13609,10 +13761,10 @@
         <v>404</v>
       </c>
       <c r="K175" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L175" s="21" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="M175" s="21" t="s">
         <v>408</v>
@@ -13629,8 +13781,12 @@
       <c r="Q175" s="21">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" hidden="1">
+      <c r="R175" s="21"/>
+      <c r="S175" s="21"/>
+      <c r="T175" s="21"/>
+      <c r="U175" s="21"/>
+    </row>
+    <row r="176" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A176" s="21">
         <v>51</v>
       </c>
@@ -13662,10 +13818,10 @@
         <v>404</v>
       </c>
       <c r="K176" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L176" s="21" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="M176" s="21" t="s">
         <v>408</v>
@@ -13682,8 +13838,12 @@
       <c r="Q176" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" hidden="1">
+      <c r="R176" s="21"/>
+      <c r="S176" s="21"/>
+      <c r="T176" s="21"/>
+      <c r="U176" s="21"/>
+    </row>
+    <row r="177" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A177" s="21">
         <v>51</v>
       </c>
@@ -13715,10 +13875,10 @@
         <v>404</v>
       </c>
       <c r="K177" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L177" s="21" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="M177" s="21" t="s">
         <v>408</v>
@@ -13735,8 +13895,12 @@
       <c r="Q177" s="21">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" hidden="1">
+      <c r="R177" s="21"/>
+      <c r="S177" s="21"/>
+      <c r="T177" s="21"/>
+      <c r="U177" s="21"/>
+    </row>
+    <row r="178" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A178" s="21">
         <v>51</v>
       </c>
@@ -13768,10 +13932,10 @@
         <v>404</v>
       </c>
       <c r="K178" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L178" s="21" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="M178" s="21" t="s">
         <v>414</v>
@@ -13788,8 +13952,12 @@
       <c r="Q178" s="21">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" hidden="1">
+      <c r="R178" s="21"/>
+      <c r="S178" s="21"/>
+      <c r="T178" s="21"/>
+      <c r="U178" s="21"/>
+    </row>
+    <row r="179" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A179" s="21">
         <v>51</v>
       </c>
@@ -13821,10 +13989,10 @@
         <v>404</v>
       </c>
       <c r="K179" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L179" s="21" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="M179" s="21" t="s">
         <v>408</v>
@@ -13841,8 +14009,12 @@
       <c r="Q179" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" hidden="1">
+      <c r="R179" s="21"/>
+      <c r="S179" s="21"/>
+      <c r="T179" s="21"/>
+      <c r="U179" s="21"/>
+    </row>
+    <row r="180" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A180" s="21">
         <v>51</v>
       </c>
@@ -13874,10 +14046,10 @@
         <v>404</v>
       </c>
       <c r="K180" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L180" s="21" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="M180" s="21" t="s">
         <v>414</v>
@@ -13894,8 +14066,12 @@
       <c r="Q180" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" hidden="1">
+      <c r="R180" s="21"/>
+      <c r="S180" s="21"/>
+      <c r="T180" s="21"/>
+      <c r="U180" s="21"/>
+    </row>
+    <row r="181" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A181" s="21">
         <v>51</v>
       </c>
@@ -13927,10 +14103,10 @@
         <v>404</v>
       </c>
       <c r="K181" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L181" s="21" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="M181" s="21" t="s">
         <v>408</v>
@@ -13947,8 +14123,12 @@
       <c r="Q181" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" hidden="1">
+      <c r="R181" s="21"/>
+      <c r="S181" s="21"/>
+      <c r="T181" s="21"/>
+      <c r="U181" s="21"/>
+    </row>
+    <row r="182" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A182" s="21">
         <v>51</v>
       </c>
@@ -13980,10 +14160,10 @@
         <v>404</v>
       </c>
       <c r="K182" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L182" s="21" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="M182" s="21" t="s">
         <v>414</v>
@@ -14000,8 +14180,12 @@
       <c r="Q182" s="21">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" hidden="1">
+      <c r="R182" s="21"/>
+      <c r="S182" s="21"/>
+      <c r="T182" s="21"/>
+      <c r="U182" s="21"/>
+    </row>
+    <row r="183" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A183" s="21">
         <v>51</v>
       </c>
@@ -14033,10 +14217,10 @@
         <v>404</v>
       </c>
       <c r="K183" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L183" s="21" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="M183" s="21" t="s">
         <v>408</v>
@@ -14053,8 +14237,12 @@
       <c r="Q183" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" hidden="1">
+      <c r="R183" s="21"/>
+      <c r="S183" s="21"/>
+      <c r="T183" s="21"/>
+      <c r="U183" s="21"/>
+    </row>
+    <row r="184" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A184" s="21">
         <v>51</v>
       </c>
@@ -14086,10 +14274,10 @@
         <v>404</v>
       </c>
       <c r="K184" s="21" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="L184" s="21" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="M184" s="21" t="s">
         <v>414</v>
@@ -14106,8 +14294,12 @@
       <c r="Q184" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" hidden="1">
+      <c r="R184" s="21"/>
+      <c r="S184" s="21"/>
+      <c r="T184" s="21"/>
+      <c r="U184" s="21"/>
+    </row>
+    <row r="185" spans="1:21" hidden="1">
       <c r="A185" s="21">
         <v>52</v>
       </c>
@@ -14142,7 +14334,7 @@
         <v>424</v>
       </c>
       <c r="L185" s="21" t="s">
-        <v>487</v>
+        <v>983</v>
       </c>
       <c r="M185" s="21" t="s">
         <v>414</v>
@@ -14151,7 +14343,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1">
+    <row r="186" spans="1:21" hidden="1">
       <c r="A186" s="21">
         <v>52</v>
       </c>
@@ -14186,7 +14378,7 @@
         <v>424</v>
       </c>
       <c r="L186" s="21" t="s">
-        <v>488</v>
+        <v>984</v>
       </c>
       <c r="M186" s="21" t="s">
         <v>414</v>
@@ -14195,7 +14387,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1">
+    <row r="187" spans="1:21" hidden="1">
       <c r="A187" s="21">
         <v>52</v>
       </c>
@@ -14230,7 +14422,7 @@
         <v>424</v>
       </c>
       <c r="L187" s="21" t="s">
-        <v>489</v>
+        <v>985</v>
       </c>
       <c r="M187" s="21" t="s">
         <v>414</v>
@@ -14239,7 +14431,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1">
+    <row r="188" spans="1:21" hidden="1">
       <c r="A188" s="21">
         <v>52</v>
       </c>
@@ -14274,7 +14466,7 @@
         <v>424</v>
       </c>
       <c r="L188" s="21" t="s">
-        <v>487</v>
+        <v>983</v>
       </c>
       <c r="M188" s="21" t="s">
         <v>414</v>
@@ -14283,7 +14475,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1">
+    <row r="189" spans="1:21" hidden="1">
       <c r="A189" s="21">
         <v>52</v>
       </c>
@@ -14318,7 +14510,7 @@
         <v>424</v>
       </c>
       <c r="L189" s="21" t="s">
-        <v>488</v>
+        <v>984</v>
       </c>
       <c r="M189" s="21" t="s">
         <v>414</v>
@@ -14327,7 +14519,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1">
+    <row r="190" spans="1:21" hidden="1">
       <c r="A190" s="21">
         <v>52</v>
       </c>
@@ -14362,7 +14554,7 @@
         <v>424</v>
       </c>
       <c r="L190" s="21" t="s">
-        <v>489</v>
+        <v>985</v>
       </c>
       <c r="M190" s="21" t="s">
         <v>414</v>
@@ -14371,7 +14563,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1">
+    <row r="191" spans="1:21" hidden="1">
       <c r="A191" s="21">
         <v>52</v>
       </c>
@@ -14406,7 +14598,7 @@
         <v>424</v>
       </c>
       <c r="L191" s="21" t="s">
-        <v>487</v>
+        <v>987</v>
       </c>
       <c r="M191" s="21" t="s">
         <v>414</v>
@@ -14415,7 +14607,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1">
+    <row r="192" spans="1:21" hidden="1">
       <c r="A192" s="21">
         <v>52</v>
       </c>
@@ -14450,7 +14642,7 @@
         <v>424</v>
       </c>
       <c r="L192" s="21" t="s">
-        <v>488</v>
+        <v>986</v>
       </c>
       <c r="M192" s="21" t="s">
         <v>414</v>
@@ -14494,7 +14686,7 @@
         <v>424</v>
       </c>
       <c r="L193" s="21" t="s">
-        <v>489</v>
+        <v>988</v>
       </c>
       <c r="M193" s="21" t="s">
         <v>414</v>
@@ -14538,7 +14730,7 @@
         <v>424</v>
       </c>
       <c r="L194" s="21" t="s">
-        <v>487</v>
+        <v>987</v>
       </c>
       <c r="M194" s="21" t="s">
         <v>414</v>
@@ -14582,7 +14774,7 @@
         <v>424</v>
       </c>
       <c r="L195" s="21" t="s">
-        <v>488</v>
+        <v>986</v>
       </c>
       <c r="M195" s="21" t="s">
         <v>414</v>
@@ -14626,7 +14818,7 @@
         <v>424</v>
       </c>
       <c r="L196" s="21" t="s">
-        <v>489</v>
+        <v>988</v>
       </c>
       <c r="M196" s="21" t="s">
         <v>414</v>
@@ -14667,7 +14859,7 @@
         <v>404</v>
       </c>
       <c r="K197" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L197" s="21" t="s">
         <v>414</v>
@@ -14679,7 +14871,7 @@
         <v>425</v>
       </c>
       <c r="O197" s="21" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="P197" s="21" t="s">
         <v>693</v>
@@ -14720,7 +14912,7 @@
         <v>404</v>
       </c>
       <c r="K198" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L198" s="21" t="s">
         <v>414</v>
@@ -14732,7 +14924,7 @@
         <v>475</v>
       </c>
       <c r="O198" s="21" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="P198" s="21" t="s">
         <v>693</v>
@@ -14773,7 +14965,7 @@
         <v>404</v>
       </c>
       <c r="K199" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L199" s="21" t="s">
         <v>414</v>
@@ -14782,10 +14974,10 @@
         <v>414</v>
       </c>
       <c r="N199" s="21" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="O199" s="21" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="P199" s="21" t="s">
         <v>693</v>
@@ -14826,7 +15018,7 @@
         <v>404</v>
       </c>
       <c r="K200" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L200" s="21" t="s">
         <v>414</v>
@@ -14838,7 +15030,7 @@
         <v>477</v>
       </c>
       <c r="O200" s="21" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="P200" s="21" t="s">
         <v>693</v>
@@ -14879,7 +15071,7 @@
         <v>404</v>
       </c>
       <c r="K201" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L201" s="21" t="s">
         <v>414</v>
@@ -14891,7 +15083,7 @@
         <v>478</v>
       </c>
       <c r="O201" s="21" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="P201" s="21" t="s">
         <v>693</v>
@@ -14932,7 +15124,7 @@
         <v>404</v>
       </c>
       <c r="K202" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L202" s="21" t="s">
         <v>414</v>
@@ -14944,7 +15136,7 @@
         <v>410</v>
       </c>
       <c r="O202" s="21" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="P202" s="21" t="s">
         <v>693</v>
@@ -14985,7 +15177,7 @@
         <v>449</v>
       </c>
       <c r="K203" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L203" s="21" t="s">
         <v>479</v>
@@ -14997,7 +15189,7 @@
         <v>425</v>
       </c>
       <c r="O203" s="20" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="P203" s="20" t="s">
         <v>693</v>
@@ -15038,7 +15230,7 @@
         <v>449</v>
       </c>
       <c r="K204" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L204" s="21" t="s">
         <v>479</v>
@@ -15047,10 +15239,10 @@
         <v>486</v>
       </c>
       <c r="N204" s="21" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="O204" s="21" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="P204" s="21" t="s">
         <v>693</v>
@@ -15091,7 +15283,7 @@
         <v>449</v>
       </c>
       <c r="K205" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L205" s="21" t="s">
         <v>479</v>
@@ -15100,10 +15292,10 @@
         <v>486</v>
       </c>
       <c r="N205" s="21" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="O205" s="21" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="P205" s="21" t="s">
         <v>693</v>
@@ -15144,7 +15336,7 @@
         <v>449</v>
       </c>
       <c r="K206" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L206" s="21" t="s">
         <v>479</v>
@@ -15156,7 +15348,7 @@
         <v>477</v>
       </c>
       <c r="O206" s="21" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="P206" s="21" t="s">
         <v>693</v>
@@ -15197,7 +15389,7 @@
         <v>449</v>
       </c>
       <c r="K207" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L207" s="21" t="s">
         <v>479</v>
@@ -15209,7 +15401,7 @@
         <v>478</v>
       </c>
       <c r="O207" s="21" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="P207" s="21" t="s">
         <v>693</v>
@@ -15250,7 +15442,7 @@
         <v>449</v>
       </c>
       <c r="K208" s="21" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="L208" s="21" t="s">
         <v>479</v>
@@ -15262,7 +15454,7 @@
         <v>410</v>
       </c>
       <c r="O208" s="21" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="P208" s="21" t="s">
         <v>693</v>
@@ -15271,7 +15463,7 @@
         <v>3.8059999999999997E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" hidden="1">
       <c r="A209" s="21">
         <v>56</v>
       </c>
@@ -15318,7 +15510,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" hidden="1">
       <c r="A210" s="21">
         <v>56</v>
       </c>
@@ -15365,7 +15557,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" hidden="1">
       <c r="A211" s="21">
         <v>56</v>
       </c>
@@ -15412,7 +15604,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" hidden="1">
       <c r="A212" s="21">
         <v>56</v>
       </c>
@@ -15459,7 +15651,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" hidden="1">
       <c r="A213" s="21">
         <v>56</v>
       </c>
@@ -15506,7 +15698,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" hidden="1">
       <c r="A214" s="21">
         <v>56</v>
       </c>
@@ -17346,7 +17538,7 @@
         <v>414</v>
       </c>
       <c r="N251" s="21" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="O251" s="21" t="s">
         <v>672</v>
@@ -17537,7 +17729,7 @@
         <v>404</v>
       </c>
       <c r="K255" s="21" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="L255" s="21" t="s">
         <v>590</v>
@@ -17584,7 +17776,7 @@
         <v>404</v>
       </c>
       <c r="K256" s="21" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="L256" s="21" t="s">
         <v>591</v>
@@ -17631,7 +17823,7 @@
         <v>404</v>
       </c>
       <c r="K257" s="21" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="L257" s="21" t="s">
         <v>592</v>
@@ -18688,7 +18880,7 @@
         <v>404</v>
       </c>
       <c r="K280" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L280" s="22" t="s">
         <v>759</v>
@@ -18741,7 +18933,7 @@
         <v>404</v>
       </c>
       <c r="K281" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L281" s="22" t="s">
         <v>886</v>
@@ -18794,7 +18986,7 @@
         <v>404</v>
       </c>
       <c r="K282" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L282" s="21" t="s">
         <v>887</v>
@@ -18847,7 +19039,7 @@
         <v>404</v>
       </c>
       <c r="K283" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L283" s="21" t="s">
         <v>408</v>
@@ -18906,7 +19098,7 @@
         <v>404</v>
       </c>
       <c r="K284" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L284" s="21" t="s">
         <v>705</v>
@@ -18965,7 +19157,7 @@
         <v>404</v>
       </c>
       <c r="K285" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L285" s="21" t="s">
         <v>706</v>
@@ -19071,7 +19263,7 @@
         <v>404</v>
       </c>
       <c r="K287" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L287" s="21" t="s">
         <v>902</v>
@@ -19121,7 +19313,7 @@
         <v>404</v>
       </c>
       <c r="K288" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L288" s="21" t="s">
         <v>903</v>
@@ -19171,7 +19363,7 @@
         <v>404</v>
       </c>
       <c r="K289" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L289" s="21" t="s">
         <v>902</v>
@@ -19221,7 +19413,7 @@
         <v>404</v>
       </c>
       <c r="K290" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L290" s="21" t="s">
         <v>903</v>
@@ -19565,7 +19757,7 @@
         <v>449</v>
       </c>
       <c r="K297" s="21" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="L297" s="21" t="s">
         <v>815</v>
@@ -21423,10 +21615,10 @@
         <v>404</v>
       </c>
       <c r="K335" s="21" t="s">
-        <v>911</v>
+        <v>562</v>
       </c>
       <c r="L335" s="21" t="s">
-        <v>910</v>
+        <v>1008</v>
       </c>
       <c r="M335" s="21" t="s">
         <v>408</v>
@@ -21444,7 +21636,7 @@
         <v>-2.9499999999999998E-2</v>
       </c>
       <c r="U335" s="21" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="336" spans="1:21" hidden="1">
@@ -21479,10 +21671,10 @@
         <v>404</v>
       </c>
       <c r="K336" s="21" t="s">
-        <v>911</v>
+        <v>562</v>
       </c>
       <c r="L336" s="21" t="s">
-        <v>909</v>
+        <v>1007</v>
       </c>
       <c r="M336" s="21" t="s">
         <v>408</v>
@@ -21500,7 +21692,7 @@
         <v>-7.5600000000000001E-2</v>
       </c>
       <c r="U336" s="21" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="337" spans="1:21" hidden="1">
@@ -21644,7 +21836,7 @@
         <v>414</v>
       </c>
       <c r="N339" s="21" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="O339" s="21" t="s">
         <v>675</v>
@@ -21685,10 +21877,10 @@
         <v>404</v>
       </c>
       <c r="K340" s="21" t="s">
-        <v>669</v>
+        <v>1009</v>
       </c>
       <c r="L340" s="21" t="s">
-        <v>670</v>
+        <v>1010</v>
       </c>
       <c r="M340" s="21" t="s">
         <v>414</v>
@@ -21738,10 +21930,10 @@
         <v>404</v>
       </c>
       <c r="K341" s="21" t="s">
-        <v>669</v>
+        <v>1009</v>
       </c>
       <c r="L341" s="21" t="s">
-        <v>671</v>
+        <v>1011</v>
       </c>
       <c r="M341" s="21" t="s">
         <v>414</v>
@@ -21909,13 +22101,13 @@
         <v>410</v>
       </c>
       <c r="O344" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="P344" s="21" t="s">
         <v>693</v>
       </c>
       <c r="U344" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="345" spans="1:21" hidden="1">
@@ -21962,13 +22154,13 @@
         <v>410</v>
       </c>
       <c r="O345" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="P345" s="21" t="s">
         <v>693</v>
       </c>
       <c r="U345" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="346" spans="1:21" hidden="1">
@@ -23787,10 +23979,10 @@
         <v>404</v>
       </c>
       <c r="K386" s="21" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="L386" s="21" t="s">
-        <v>564</v>
+        <v>992</v>
       </c>
       <c r="M386" s="21" t="s">
         <v>414</v>
@@ -23828,10 +24020,10 @@
         <v>404</v>
       </c>
       <c r="K387" s="21" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="L387" s="21" t="s">
-        <v>565</v>
+        <v>993</v>
       </c>
       <c r="M387" s="21" t="s">
         <v>414</v>
@@ -23869,10 +24061,10 @@
         <v>404</v>
       </c>
       <c r="K388" s="21" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="L388" s="21" t="s">
-        <v>566</v>
+        <v>994</v>
       </c>
       <c r="M388" s="21" t="s">
         <v>414</v>
@@ -23910,10 +24102,10 @@
         <v>404</v>
       </c>
       <c r="K389" s="21" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="L389" s="21" t="s">
-        <v>567</v>
+        <v>989</v>
       </c>
       <c r="M389" s="21" t="s">
         <v>414</v>
@@ -23951,10 +24143,10 @@
         <v>404</v>
       </c>
       <c r="K390" s="21" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="L390" s="21" t="s">
-        <v>568</v>
+        <v>990</v>
       </c>
       <c r="M390" s="21" t="s">
         <v>414</v>
@@ -23992,10 +24184,10 @@
         <v>404</v>
       </c>
       <c r="K391" s="21" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="L391" s="21" t="s">
-        <v>569</v>
+        <v>991</v>
       </c>
       <c r="M391" s="21" t="s">
         <v>414</v>
@@ -24015,10 +24207,10 @@
         <v>402</v>
       </c>
       <c r="D392" s="21" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E392" s="21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F392" s="21" t="s">
         <v>269</v>
@@ -24039,7 +24231,7 @@
         <v>679</v>
       </c>
       <c r="L392" s="21" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="M392" s="21" t="s">
         <v>486</v>
@@ -24057,7 +24249,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="U392" s="21" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="393" spans="1:21" hidden="1">
@@ -24071,10 +24263,10 @@
         <v>402</v>
       </c>
       <c r="D393" s="21" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E393" s="21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F393" s="21" t="s">
         <v>269</v>
@@ -24095,7 +24287,7 @@
         <v>679</v>
       </c>
       <c r="L393" s="21" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="M393" s="21" t="s">
         <v>486</v>
@@ -24113,7 +24305,7 @@
         <v>0.02</v>
       </c>
       <c r="U393" s="21" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="394" spans="1:21" hidden="1">
@@ -24127,10 +24319,10 @@
         <v>402</v>
       </c>
       <c r="D394" s="21" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E394" s="21" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F394" s="21" t="s">
         <v>269</v>
@@ -24151,7 +24343,7 @@
         <v>679</v>
       </c>
       <c r="L394" s="21" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="M394" s="21" t="s">
         <v>486</v>
@@ -24169,7 +24361,7 @@
         <v>0.02</v>
       </c>
       <c r="U394" s="21" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="395" spans="1:21" hidden="1">
@@ -24298,7 +24490,7 @@
         <v>404</v>
       </c>
       <c r="K397" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L397" s="21" t="s">
         <v>505</v>
@@ -24342,7 +24534,7 @@
         <v>404</v>
       </c>
       <c r="K398" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L398" s="21" t="s">
         <v>506</v>
@@ -24386,7 +24578,7 @@
         <v>404</v>
       </c>
       <c r="K399" s="21" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="L399" s="21" t="s">
         <v>507</v>
@@ -25005,16 +25197,16 @@
         <v>404</v>
       </c>
       <c r="K413" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L413" s="21" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="M413" s="21" t="s">
         <v>414</v>
       </c>
       <c r="N413" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="U413" s="21" t="s">
         <v>473</v>
@@ -25052,16 +25244,16 @@
         <v>404</v>
       </c>
       <c r="K414" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L414" s="21" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="M414" s="21" t="s">
         <v>414</v>
       </c>
       <c r="N414" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="U414" s="21" t="s">
         <v>473</v>
@@ -25099,16 +25291,16 @@
         <v>404</v>
       </c>
       <c r="K415" s="21" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="L415" s="21" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="M415" s="21" t="s">
         <v>414</v>
       </c>
       <c r="N415" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="U415" s="21" t="s">
         <v>473</v>
@@ -25431,7 +25623,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1">
+    <row r="423" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A423" s="21">
         <v>164</v>
       </c>
@@ -25463,10 +25655,10 @@
         <v>404</v>
       </c>
       <c r="K423" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L423" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="M423" s="21" t="s">
         <v>414</v>
@@ -25480,11 +25672,15 @@
       <c r="P423" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q423" s="21"/>
+      <c r="R423" s="21"/>
       <c r="S423" s="21">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="424" spans="1:21" hidden="1">
+      <c r="T423" s="21"/>
+      <c r="U423" s="21"/>
+    </row>
+    <row r="424" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A424" s="21">
         <v>164</v>
       </c>
@@ -25516,10 +25712,10 @@
         <v>404</v>
       </c>
       <c r="K424" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L424" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="M424" s="21" t="s">
         <v>414</v>
@@ -25533,11 +25729,15 @@
       <c r="P424" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q424" s="21"/>
+      <c r="R424" s="21"/>
       <c r="S424" s="21">
         <v>0.35099999999999998</v>
       </c>
-    </row>
-    <row r="425" spans="1:21" hidden="1">
+      <c r="T424" s="21"/>
+      <c r="U424" s="21"/>
+    </row>
+    <row r="425" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A425" s="21">
         <v>164</v>
       </c>
@@ -25569,10 +25769,10 @@
         <v>404</v>
       </c>
       <c r="K425" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L425" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="M425" s="21" t="s">
         <v>414</v>
@@ -25586,11 +25786,15 @@
       <c r="P425" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q425" s="21"/>
+      <c r="R425" s="21"/>
       <c r="S425" s="21">
         <v>0.16300000000000001</v>
       </c>
-    </row>
-    <row r="426" spans="1:21" hidden="1">
+      <c r="T425" s="21"/>
+      <c r="U425" s="21"/>
+    </row>
+    <row r="426" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A426" s="21">
         <v>164</v>
       </c>
@@ -25622,10 +25826,10 @@
         <v>404</v>
       </c>
       <c r="K426" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L426" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="M426" s="21" t="s">
         <v>414</v>
@@ -25639,11 +25843,15 @@
       <c r="P426" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q426" s="21"/>
+      <c r="R426" s="21"/>
       <c r="S426" s="21">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="427" spans="1:21" hidden="1">
+      <c r="T426" s="21"/>
+      <c r="U426" s="21"/>
+    </row>
+    <row r="427" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A427" s="21">
         <v>164</v>
       </c>
@@ -25675,10 +25883,10 @@
         <v>404</v>
       </c>
       <c r="K427" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L427" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M427" s="21" t="s">
         <v>414</v>
@@ -25692,11 +25900,15 @@
       <c r="P427" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q427" s="21"/>
+      <c r="R427" s="21"/>
       <c r="S427" s="21">
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="428" spans="1:21" hidden="1">
+      <c r="T427" s="21"/>
+      <c r="U427" s="21"/>
+    </row>
+    <row r="428" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A428" s="21">
         <v>164</v>
       </c>
@@ -25728,10 +25940,10 @@
         <v>404</v>
       </c>
       <c r="K428" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L428" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M428" s="21" t="s">
         <v>414</v>
@@ -25745,11 +25957,15 @@
       <c r="P428" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q428" s="21"/>
+      <c r="R428" s="21"/>
       <c r="S428" s="21">
         <v>0.32200000000000001</v>
       </c>
-    </row>
-    <row r="429" spans="1:21" hidden="1">
+      <c r="T428" s="21"/>
+      <c r="U428" s="21"/>
+    </row>
+    <row r="429" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A429" s="21">
         <v>164</v>
       </c>
@@ -25781,10 +25997,10 @@
         <v>404</v>
       </c>
       <c r="K429" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L429" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M429" s="21" t="s">
         <v>414</v>
@@ -25798,11 +26014,15 @@
       <c r="P429" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q429" s="21"/>
+      <c r="R429" s="21"/>
       <c r="S429" s="21">
         <v>0.39300000000000002</v>
       </c>
-    </row>
-    <row r="430" spans="1:21" hidden="1">
+      <c r="T429" s="21"/>
+      <c r="U429" s="21"/>
+    </row>
+    <row r="430" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A430" s="21">
         <v>164</v>
       </c>
@@ -25834,10 +26054,10 @@
         <v>404</v>
       </c>
       <c r="K430" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L430" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M430" s="21" t="s">
         <v>414</v>
@@ -25851,11 +26071,15 @@
       <c r="P430" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q430" s="21"/>
+      <c r="R430" s="21"/>
       <c r="S430" s="21">
         <v>0.14099999999999999</v>
       </c>
-    </row>
-    <row r="431" spans="1:21" hidden="1">
+      <c r="T430" s="21"/>
+      <c r="U430" s="21"/>
+    </row>
+    <row r="431" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A431" s="21">
         <v>164</v>
       </c>
@@ -25887,10 +26111,10 @@
         <v>404</v>
       </c>
       <c r="K431" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L431" s="21" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="M431" s="21" t="s">
         <v>414</v>
@@ -25904,11 +26128,15 @@
       <c r="P431" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q431" s="21"/>
+      <c r="R431" s="21"/>
       <c r="S431" s="21">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="432" spans="1:21" hidden="1">
+      <c r="T431" s="21"/>
+      <c r="U431" s="21"/>
+    </row>
+    <row r="432" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A432" s="21">
         <v>164</v>
       </c>
@@ -25940,10 +26168,10 @@
         <v>404</v>
       </c>
       <c r="K432" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L432" s="21" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="M432" s="21" t="s">
         <v>414</v>
@@ -25957,11 +26185,15 @@
       <c r="P432" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q432" s="21"/>
+      <c r="R432" s="21"/>
       <c r="S432" s="21">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="433" spans="1:21" hidden="1">
+      <c r="T432" s="21"/>
+      <c r="U432" s="21"/>
+    </row>
+    <row r="433" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A433" s="21">
         <v>164</v>
       </c>
@@ -25993,10 +26225,10 @@
         <v>404</v>
       </c>
       <c r="K433" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L433" s="21" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="M433" s="21" t="s">
         <v>414</v>
@@ -26010,11 +26242,15 @@
       <c r="P433" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q433" s="21"/>
+      <c r="R433" s="21"/>
       <c r="S433" s="21">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:21" hidden="1">
+      <c r="T433" s="21"/>
+      <c r="U433" s="21"/>
+    </row>
+    <row r="434" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A434" s="21">
         <v>164</v>
       </c>
@@ -26046,10 +26282,10 @@
         <v>404</v>
       </c>
       <c r="K434" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L434" s="21" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="M434" s="21" t="s">
         <v>414</v>
@@ -26063,11 +26299,15 @@
       <c r="P434" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q434" s="21"/>
+      <c r="R434" s="21"/>
       <c r="S434" s="21">
         <v>0.11600000000000001</v>
       </c>
-    </row>
-    <row r="435" spans="1:21" hidden="1">
+      <c r="T434" s="21"/>
+      <c r="U434" s="21"/>
+    </row>
+    <row r="435" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A435" s="21">
         <v>164</v>
       </c>
@@ -26099,10 +26339,10 @@
         <v>404</v>
       </c>
       <c r="K435" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L435" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M435" s="21" t="s">
         <v>414</v>
@@ -26116,11 +26356,15 @@
       <c r="P435" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q435" s="21"/>
+      <c r="R435" s="21"/>
       <c r="S435" s="21">
         <v>0.52600000000000002</v>
       </c>
-    </row>
-    <row r="436" spans="1:21" hidden="1">
+      <c r="T435" s="21"/>
+      <c r="U435" s="21"/>
+    </row>
+    <row r="436" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A436" s="21">
         <v>164</v>
       </c>
@@ -26152,10 +26396,10 @@
         <v>404</v>
       </c>
       <c r="K436" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L436" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M436" s="21" t="s">
         <v>414</v>
@@ -26169,11 +26413,15 @@
       <c r="P436" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q436" s="21"/>
+      <c r="R436" s="21"/>
       <c r="S436" s="21">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="437" spans="1:21" hidden="1">
+      <c r="T436" s="21"/>
+      <c r="U436" s="21"/>
+    </row>
+    <row r="437" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A437" s="21">
         <v>164</v>
       </c>
@@ -26205,10 +26453,10 @@
         <v>404</v>
       </c>
       <c r="K437" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L437" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M437" s="21" t="s">
         <v>414</v>
@@ -26222,11 +26470,15 @@
       <c r="P437" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q437" s="21"/>
+      <c r="R437" s="21"/>
       <c r="S437" s="21">
         <v>0.432</v>
       </c>
-    </row>
-    <row r="438" spans="1:21" hidden="1">
+      <c r="T437" s="21"/>
+      <c r="U437" s="21"/>
+    </row>
+    <row r="438" spans="1:21" s="23" customFormat="1" hidden="1">
       <c r="A438" s="21">
         <v>164</v>
       </c>
@@ -26258,10 +26510,10 @@
         <v>404</v>
       </c>
       <c r="K438" s="21" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="L438" s="21" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="M438" s="21" t="s">
         <v>414</v>
@@ -26275,9 +26527,13 @@
       <c r="P438" s="21" t="s">
         <v>693</v>
       </c>
+      <c r="Q438" s="21"/>
+      <c r="R438" s="21"/>
       <c r="S438" s="21">
         <v>0.14199999999999999</v>
       </c>
+      <c r="T438" s="21"/>
+      <c r="U438" s="21"/>
     </row>
     <row r="439" spans="1:21" hidden="1">
       <c r="A439" s="21">
@@ -26801,7 +27057,7 @@
         <v>415</v>
       </c>
       <c r="M450" s="21" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="N450" s="21" t="s">
         <v>425</v>
@@ -27109,7 +27365,7 @@
         <v>486</v>
       </c>
       <c r="N457" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="O457" s="21" t="s">
         <v>641</v>
@@ -27191,13 +27447,13 @@
         <v>404</v>
       </c>
       <c r="K459" s="21" t="s">
-        <v>512</v>
+        <v>679</v>
       </c>
       <c r="L459" s="21" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="M459" s="21" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="N459" s="21" t="s">
         <v>481</v>
@@ -27256,7 +27512,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1">
+    <row r="461" spans="1:21">
       <c r="A461" s="21">
         <v>188</v>
       </c>
@@ -27285,13 +27541,13 @@
         <v>404</v>
       </c>
       <c r="K461" s="21" t="s">
-        <v>782</v>
+        <v>527</v>
       </c>
       <c r="L461" s="21">
         <v>2001</v>
       </c>
       <c r="M461" s="21" t="s">
-        <v>783</v>
+        <v>408</v>
       </c>
       <c r="N461" s="21" t="s">
         <v>496</v>
@@ -27303,7 +27559,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1">
+    <row r="462" spans="1:21">
       <c r="A462" s="21">
         <v>188</v>
       </c>
@@ -27332,13 +27588,13 @@
         <v>404</v>
       </c>
       <c r="K462" s="21" t="s">
-        <v>782</v>
+        <v>527</v>
       </c>
       <c r="L462" s="21">
         <v>2002</v>
       </c>
       <c r="M462" s="21" t="s">
-        <v>783</v>
+        <v>408</v>
       </c>
       <c r="N462" s="21" t="s">
         <v>496</v>
@@ -27352,41 +27608,24 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="0">
+    <filterColumn colId="12">
       <filters>
-        <filter val="56"/>
+        <filter val="unsure-Chinese"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3061B-7F6E-A042-B738-9928B79F6F86}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14">
-      <c r="A1" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A59317-DFCB-D444-85E0-2BD7B6E5BEF1}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -29370,7 +29609,7 @@
         <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>269</v>
@@ -29384,7 +29623,7 @@
         <v>123</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>269</v>
@@ -29398,7 +29637,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>621</v>
@@ -29427,10 +29666,10 @@
         <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E85" t="s">
         <v>197</v>
@@ -29465,13 +29704,13 @@
         <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E86" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>269</v>
@@ -29503,13 +29742,13 @@
         <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>269</v>
@@ -29523,10 +29762,10 @@
         <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="E88" t="s">
         <v>197</v>
@@ -29548,10 +29787,10 @@
         <v>415</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -29562,7 +29801,7 @@
         <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>223</v>
@@ -29587,10 +29826,10 @@
         <v>415</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -29601,7 +29840,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>209</v>
@@ -29626,10 +29865,10 @@
         <v>415</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="91" spans="1:13" customFormat="1">
@@ -29640,13 +29879,13 @@
         <v>148</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>856</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>269</v>
@@ -29666,13 +29905,13 @@
         <v>124</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>269</v>
@@ -29689,7 +29928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C8792-AE45-7D45-950E-1932CDCAA233}">
   <dimension ref="A2:F4"/>
   <sheetViews>
@@ -29767,7 +30006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A827C4E0-3821-DD4E-A063-1BBD3C0C9EB6}">
   <dimension ref="A1:T420"/>
   <sheetViews>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2376E488-9B71-4647-8C15-BC967515ADC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A089E3C8-55DD-9A4B-BC19-F0E167CCD5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37960" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12645" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12651" uniqueCount="1018">
   <si>
     <t>Article Title</t>
   </si>
@@ -3106,6 +3106,21 @@
   </si>
   <si>
     <t>bloom_nutrient_cond</t>
+  </si>
+  <si>
+    <t>Neomysis awatschensis</t>
+  </si>
+  <si>
+    <t>Age-dependent antioxidant responses to the bioconcentration of microcystin-LR in the mysid crustacean, Neomysis awatschensis</t>
+  </si>
+  <si>
+    <t>exposure_diet</t>
+  </si>
+  <si>
+    <t>Low food, 10-15x10^3 cell/mL (Food A)</t>
+  </si>
+  <si>
+    <t>High food, 20-30x10^3 cell/mL (Food B)</t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3275,6 +3290,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4756,103 +4774,103 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H255" sqref="H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="54.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="4.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="16" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="54.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="23" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1">
+    <row r="2" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A2" s="21">
         <v>114</v>
       </c>
@@ -4908,7 +4926,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1">
+    <row r="3" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A3" s="21">
         <v>114</v>
       </c>
@@ -4964,7 +4982,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1">
+    <row r="4" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A4" s="21">
         <v>51</v>
       </c>
@@ -5017,7 +5035,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1">
+    <row r="5" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A5" s="21">
         <v>51</v>
       </c>
@@ -5070,7 +5088,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1">
+    <row r="6" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A6" s="21">
         <v>51</v>
       </c>
@@ -5123,7 +5141,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1">
+    <row r="7" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A7" s="21">
         <v>51</v>
       </c>
@@ -5176,7 +5194,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1">
+    <row r="8" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A8" s="21">
         <v>51</v>
       </c>
@@ -5229,7 +5247,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1">
+    <row r="9" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A9" s="21">
         <v>51</v>
       </c>
@@ -5282,7 +5300,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1">
+    <row r="10" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A10" s="21">
         <v>51</v>
       </c>
@@ -5335,7 +5353,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1">
+    <row r="11" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A11" s="21">
         <v>51</v>
       </c>
@@ -5388,7 +5406,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1">
+    <row r="12" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A12" s="21">
         <v>51</v>
       </c>
@@ -5441,7 +5459,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1">
+    <row r="13" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A13" s="21">
         <v>51</v>
       </c>
@@ -5494,7 +5512,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1">
+    <row r="14" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A14" s="21">
         <v>81</v>
       </c>
@@ -5547,7 +5565,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1">
+    <row r="15" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A15" s="21">
         <v>21</v>
       </c>
@@ -5600,7 +5618,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1">
+    <row r="16" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A16" s="21">
         <v>81</v>
       </c>
@@ -5653,7 +5671,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1">
+    <row r="17" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A17" s="21">
         <v>21</v>
       </c>
@@ -5706,7 +5724,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1">
+    <row r="18" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A18" s="21">
         <v>81</v>
       </c>
@@ -5759,7 +5777,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1">
+    <row r="19" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A19" s="21">
         <v>33</v>
       </c>
@@ -5812,7 +5830,7 @@
         <v>4.9863999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1">
+    <row r="20" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A20" s="21">
         <v>81</v>
       </c>
@@ -5865,7 +5883,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1">
+    <row r="21" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A21" s="21">
         <v>5</v>
       </c>
@@ -5918,7 +5936,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1">
+    <row r="22" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A22" s="21">
         <v>5</v>
       </c>
@@ -5971,7 +5989,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1">
+    <row r="23" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A23" s="21">
         <v>5</v>
       </c>
@@ -6024,7 +6042,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1">
+    <row r="24" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A24" s="21">
         <v>33</v>
       </c>
@@ -6077,7 +6095,7 @@
         <v>0.93054999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A25" s="21">
         <v>112</v>
       </c>
@@ -6130,7 +6148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A26" s="21">
         <v>112</v>
       </c>
@@ -6183,7 +6201,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A27" s="21">
         <v>112</v>
       </c>
@@ -6236,7 +6254,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A28" s="21">
         <v>112</v>
       </c>
@@ -6289,7 +6307,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A29" s="21">
         <v>112</v>
       </c>
@@ -6342,7 +6360,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A30" s="21">
         <v>112</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A31" s="21">
         <v>112</v>
       </c>
@@ -6448,7 +6466,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A32" s="21">
         <v>112</v>
       </c>
@@ -6501,7 +6519,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A33" s="21">
         <v>112</v>
       </c>
@@ -6554,7 +6572,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A34" s="21">
         <v>112</v>
       </c>
@@ -6607,7 +6625,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A35" s="21">
         <v>112</v>
       </c>
@@ -6660,7 +6678,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A36" s="21">
         <v>112</v>
       </c>
@@ -6713,7 +6731,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A37" s="21">
         <v>112</v>
       </c>
@@ -6766,7 +6784,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A38" s="21">
         <v>112</v>
       </c>
@@ -6819,7 +6837,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A39" s="21">
         <v>112</v>
       </c>
@@ -6872,7 +6890,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A40" s="21">
         <v>112</v>
       </c>
@@ -6925,7 +6943,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A41" s="21">
         <v>112</v>
       </c>
@@ -6978,7 +6996,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A42" s="21">
         <v>112</v>
       </c>
@@ -7031,7 +7049,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A43" s="21">
         <v>112</v>
       </c>
@@ -7084,7 +7102,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A44" s="21">
         <v>112</v>
       </c>
@@ -7137,7 +7155,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A45" s="21">
         <v>112</v>
       </c>
@@ -7190,7 +7208,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A46" s="21">
         <v>112</v>
       </c>
@@ -7243,7 +7261,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A47" s="21">
         <v>112</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" s="21" customFormat="1" hidden="1">
       <c r="A48" s="21">
         <v>112</v>
       </c>
@@ -7349,7 +7367,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1">
+    <row r="49" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A49" s="21">
         <v>5</v>
       </c>
@@ -7399,7 +7417,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1">
+    <row r="50" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A50" s="21">
         <v>17</v>
       </c>
@@ -7452,7 +7470,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1">
+    <row r="51" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A51" s="21">
         <v>17</v>
       </c>
@@ -7505,7 +7523,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1">
+    <row r="52" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A52" s="21">
         <v>17</v>
       </c>
@@ -7558,7 +7576,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1">
+    <row r="53" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A53" s="21">
         <v>17</v>
       </c>
@@ -7611,7 +7629,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1">
+    <row r="54" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A54" s="21">
         <v>118</v>
       </c>
@@ -7664,7 +7682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1">
+    <row r="55" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A55" s="21">
         <v>118</v>
       </c>
@@ -7717,7 +7735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1">
+    <row r="56" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A56" s="21">
         <v>14</v>
       </c>
@@ -7770,7 +7788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1">
+    <row r="57" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A57" s="21">
         <v>13</v>
       </c>
@@ -7820,7 +7838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1">
+    <row r="58" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A58" s="21">
         <v>14</v>
       </c>
@@ -7873,7 +7891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1">
+    <row r="59" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A59" s="21">
         <v>117</v>
       </c>
@@ -7926,7 +7944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1">
+    <row r="60" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A60" s="21">
         <v>13</v>
       </c>
@@ -7976,7 +7994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1">
+    <row r="61" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A61" s="21">
         <v>14</v>
       </c>
@@ -8029,66 +8047,66 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1">
-      <c r="A62" s="21">
+    <row r="62" spans="1:21">
+      <c r="A62" s="24">
         <v>84</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D62" s="21" t="s">
+      <c r="C62" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="J62" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K62" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L62" s="21" t="s">
+      <c r="J62" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="L62" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="M62" s="21" t="s">
+      <c r="M62" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="N62" s="21" t="s">
+      <c r="N62" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="O62" s="21" t="s">
+      <c r="O62" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="P62" s="21" t="s">
+      <c r="P62" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="S62" s="21">
+      <c r="S62" s="24">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="T62" s="21">
+      <c r="T62" s="24">
         <v>14.7</v>
       </c>
-      <c r="U62" s="21" t="s">
+      <c r="U62" s="24" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1">
+    <row r="63" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A63" s="21">
         <v>14</v>
       </c>
@@ -8141,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1">
+    <row r="64" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A64" s="21">
         <v>117</v>
       </c>
@@ -8194,7 +8212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1">
+    <row r="65" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A65" s="21">
         <v>14</v>
       </c>
@@ -8247,7 +8265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1">
+    <row r="66" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A66" s="21">
         <v>14</v>
       </c>
@@ -8300,7 +8318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1">
+    <row r="67" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A67" s="21">
         <v>13</v>
       </c>
@@ -8350,7 +8368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1">
+    <row r="68" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A68" s="21">
         <v>14</v>
       </c>
@@ -8403,7 +8421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1">
+    <row r="69" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A69" s="21">
         <v>14</v>
       </c>
@@ -8456,66 +8474,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1">
-      <c r="A70" s="21">
+    <row r="70" spans="1:21">
+      <c r="A70" s="24">
         <v>84</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D70" s="21" t="s">
+      <c r="C70" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G70" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="21" t="s">
+      <c r="H70" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="J70" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K70" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L70" s="21" t="s">
-        <v>705</v>
-      </c>
-      <c r="M70" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N70" s="21" t="s">
+      <c r="J70" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="L70" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M70" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N70" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="O70" s="21" t="s">
+      <c r="O70" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="P70" s="21" t="s">
+      <c r="P70" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="S70" s="21">
+      <c r="S70" s="24">
         <v>-7.8E-2</v>
       </c>
-      <c r="T70" s="21">
+      <c r="T70" s="24">
         <v>9</v>
       </c>
-      <c r="U70" s="21" t="s">
+      <c r="U70" s="24" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1">
+    <row r="71" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A71" s="21">
         <v>13</v>
       </c>
@@ -8565,7 +8583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1">
+    <row r="72" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A72" s="21">
         <v>13</v>
       </c>
@@ -8615,7 +8633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1">
+    <row r="73" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A73" s="21">
         <v>15</v>
       </c>
@@ -8665,7 +8683,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1">
+    <row r="74" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A74" s="21">
         <v>15</v>
       </c>
@@ -8715,66 +8733,66 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1">
-      <c r="A75" s="21">
+    <row r="75" spans="1:21">
+      <c r="A75" s="24">
         <v>84</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D75" s="21" t="s">
+      <c r="C75" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E75" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H75" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I75" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="J75" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>706</v>
-      </c>
-      <c r="M75" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N75" s="21" t="s">
+      <c r="J75" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="L75" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M75" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N75" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="O75" s="21" t="s">
+      <c r="O75" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="P75" s="21" t="s">
+      <c r="P75" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="S75" s="21">
+      <c r="S75" s="24">
         <v>-0.107</v>
       </c>
-      <c r="T75" s="21">
+      <c r="T75" s="24">
         <v>6.5</v>
       </c>
-      <c r="U75" s="21" t="s">
+      <c r="U75" s="24" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1">
+    <row r="76" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A76" s="21">
         <v>15</v>
       </c>
@@ -8824,7 +8842,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1">
+    <row r="77" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A77" s="21">
         <v>15</v>
       </c>
@@ -8874,7 +8892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1">
+    <row r="78" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A78" s="21">
         <v>15</v>
       </c>
@@ -8924,7 +8942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1">
+    <row r="79" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A79" s="21">
         <v>62</v>
       </c>
@@ -8980,7 +8998,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1">
+    <row r="80" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A80" s="21">
         <v>62</v>
       </c>
@@ -9036,7 +9054,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1">
+    <row r="81" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A81" s="21">
         <v>62</v>
       </c>
@@ -9092,7 +9110,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1">
+    <row r="82" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A82" s="21">
         <v>26</v>
       </c>
@@ -9148,7 +9166,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1">
+    <row r="83" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A83" s="21">
         <v>26</v>
       </c>
@@ -9204,7 +9222,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1">
+    <row r="84" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A84" s="21">
         <v>110</v>
       </c>
@@ -9257,7 +9275,7 @@
         <v>-0.22739999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1">
+    <row r="85" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A85" s="21">
         <v>44</v>
       </c>
@@ -9313,7 +9331,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1">
+    <row r="86" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A86" s="21">
         <v>44</v>
       </c>
@@ -9369,7 +9387,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1">
+    <row r="87" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A87" s="21">
         <v>44</v>
       </c>
@@ -9425,7 +9443,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1">
+    <row r="88" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A88" s="21">
         <v>37</v>
       </c>
@@ -9478,7 +9496,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1">
+    <row r="89" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A89" s="21">
         <v>44</v>
       </c>
@@ -9534,7 +9552,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1">
+    <row r="90" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A90" s="21">
         <v>44</v>
       </c>
@@ -9590,7 +9608,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1">
+    <row r="91" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A91" s="21">
         <v>44</v>
       </c>
@@ -9646,7 +9664,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1">
+    <row r="92" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A92" s="21">
         <v>110</v>
       </c>
@@ -9699,7 +9717,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1">
+    <row r="93" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A93" s="21">
         <v>37</v>
       </c>
@@ -9752,7 +9770,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1">
+    <row r="94" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A94" s="21">
         <v>37</v>
       </c>
@@ -9805,7 +9823,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1">
+    <row r="95" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A95" s="21">
         <v>29</v>
       </c>
@@ -9861,7 +9879,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1">
+    <row r="96" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A96" s="21">
         <v>37</v>
       </c>
@@ -9914,7 +9932,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1">
+    <row r="97" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A97" s="21">
         <v>37</v>
       </c>
@@ -9967,7 +9985,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1">
+    <row r="98" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A98" s="21">
         <v>101</v>
       </c>
@@ -10020,7 +10038,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1">
+    <row r="99" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A99" s="21">
         <v>29</v>
       </c>
@@ -10076,7 +10094,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1">
+    <row r="100" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A100" s="21">
         <v>37</v>
       </c>
@@ -10129,7 +10147,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1">
+    <row r="101" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A101" s="21">
         <v>101</v>
       </c>
@@ -10182,7 +10200,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1">
+    <row r="102" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A102" s="21">
         <v>29</v>
       </c>
@@ -10238,7 +10256,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1">
+    <row r="103" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A103" s="21">
         <v>47</v>
       </c>
@@ -10291,7 +10309,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1">
+    <row r="104" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A104" s="21">
         <v>72</v>
       </c>
@@ -10341,7 +10359,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:21" hidden="1">
+    <row r="105" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A105" s="21">
         <v>47</v>
       </c>
@@ -10394,7 +10412,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1">
+    <row r="106" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A106" s="21">
         <v>47</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1">
+    <row r="107" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A107" s="21">
         <v>47</v>
       </c>
@@ -10500,7 +10518,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1">
+    <row r="108" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A108" s="21">
         <v>47</v>
       </c>
@@ -10553,7 +10571,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" hidden="1">
+    <row r="109" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A109" s="21">
         <v>47</v>
       </c>
@@ -10606,7 +10624,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:21" hidden="1">
+    <row r="110" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A110" s="21">
         <v>47</v>
       </c>
@@ -10659,7 +10677,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1">
+    <row r="111" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A111" s="21">
         <v>47</v>
       </c>
@@ -10712,7 +10730,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1">
+    <row r="112" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A112" s="21">
         <v>47</v>
       </c>
@@ -10765,7 +10783,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1">
+    <row r="113" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A113" s="21">
         <v>47</v>
       </c>
@@ -10818,7 +10836,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1">
+    <row r="114" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A114" s="21">
         <v>47</v>
       </c>
@@ -10871,7 +10889,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1">
+    <row r="115" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A115" s="21">
         <v>47</v>
       </c>
@@ -10924,7 +10942,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1">
+    <row r="116" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A116" s="21">
         <v>59</v>
       </c>
@@ -10980,7 +10998,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="117" spans="1:21" hidden="1">
+    <row r="117" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A117" s="21">
         <v>144</v>
       </c>
@@ -11036,7 +11054,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1">
+    <row r="118" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A118" s="21">
         <v>144</v>
       </c>
@@ -11092,7 +11110,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1">
+    <row r="119" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A119" s="21">
         <v>8</v>
       </c>
@@ -11145,7 +11163,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1">
+    <row r="120" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A120" s="21">
         <v>46</v>
       </c>
@@ -11198,7 +11216,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1">
+    <row r="121" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A121" s="21">
         <v>55</v>
       </c>
@@ -11251,7 +11269,7 @@
         <v>3.8059999999999997E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1">
+    <row r="122" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A122" s="21">
         <v>46</v>
       </c>
@@ -11304,7 +11322,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1">
+    <row r="123" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A123" s="21">
         <v>144</v>
       </c>
@@ -11360,7 +11378,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1">
+    <row r="124" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A124" s="21">
         <v>8</v>
       </c>
@@ -11413,7 +11431,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1">
+    <row r="125" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A125" s="21">
         <v>28</v>
       </c>
@@ -11466,7 +11484,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1">
+    <row r="126" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A126" s="21">
         <v>164</v>
       </c>
@@ -11519,7 +11537,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1">
+    <row r="127" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A127" s="21">
         <v>34</v>
       </c>
@@ -11572,7 +11590,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1">
+    <row r="128" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A128" s="21">
         <v>28</v>
       </c>
@@ -11625,7 +11643,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1">
+    <row r="129" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A129" s="21">
         <v>8</v>
       </c>
@@ -11678,7 +11696,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1">
+    <row r="130" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A130" s="21">
         <v>28</v>
       </c>
@@ -11731,7 +11749,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1">
+    <row r="131" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A131" s="21">
         <v>28</v>
       </c>
@@ -11784,7 +11802,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1">
+    <row r="132" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A132" s="21">
         <v>164</v>
       </c>
@@ -11837,7 +11855,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1">
+    <row r="133" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A133" s="21">
         <v>28</v>
       </c>
@@ -11890,7 +11908,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1">
+    <row r="134" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A134" s="21">
         <v>34</v>
       </c>
@@ -11943,7 +11961,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1">
+    <row r="135" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A135" s="21">
         <v>34</v>
       </c>
@@ -11996,7 +12014,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1">
+    <row r="136" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A136" s="21">
         <v>27</v>
       </c>
@@ -12046,7 +12064,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1">
+    <row r="137" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A137" s="21">
         <v>28</v>
       </c>
@@ -12099,7 +12117,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1">
+    <row r="138" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A138" s="21">
         <v>27</v>
       </c>
@@ -12149,7 +12167,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1">
+    <row r="139" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A139" s="21">
         <v>27</v>
       </c>
@@ -12199,7 +12217,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1">
+    <row r="140" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A140" s="21">
         <v>34</v>
       </c>
@@ -12252,7 +12270,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1">
+    <row r="141" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A141" s="21">
         <v>27</v>
       </c>
@@ -12302,7 +12320,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1">
+    <row r="142" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A142" s="21">
         <v>34</v>
       </c>
@@ -12355,7 +12373,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1">
+    <row r="143" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A143" s="21">
         <v>55</v>
       </c>
@@ -12408,7 +12426,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1">
+    <row r="144" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A144" s="21">
         <v>34</v>
       </c>
@@ -12461,7 +12479,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1">
+    <row r="145" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A145" s="21">
         <v>34</v>
       </c>
@@ -12514,7 +12532,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1">
+    <row r="146" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A146" s="21">
         <v>34</v>
       </c>
@@ -12567,7 +12585,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1">
+    <row r="147" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A147" s="21">
         <v>164</v>
       </c>
@@ -12620,7 +12638,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1">
+    <row r="148" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A148" s="21">
         <v>34</v>
       </c>
@@ -12673,7 +12691,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1">
+    <row r="149" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A149" s="21">
         <v>34</v>
       </c>
@@ -12726,7 +12744,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1">
+    <row r="150" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A150" s="21">
         <v>164</v>
       </c>
@@ -12779,7 +12797,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1">
+    <row r="151" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A151" s="21">
         <v>164</v>
       </c>
@@ -12832,7 +12850,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1">
+    <row r="152" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A152" s="21">
         <v>164</v>
       </c>
@@ -12885,7 +12903,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1">
+    <row r="153" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A153" s="21">
         <v>34</v>
       </c>
@@ -12938,7 +12956,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1">
+    <row r="154" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A154" s="21">
         <v>164</v>
       </c>
@@ -12991,7 +13009,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1">
+    <row r="155" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A155" s="21">
         <v>164</v>
       </c>
@@ -13044,7 +13062,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1">
+    <row r="156" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A156" s="21">
         <v>28</v>
       </c>
@@ -13097,7 +13115,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1">
+    <row r="157" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A157" s="21">
         <v>8</v>
       </c>
@@ -13150,7 +13168,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1">
+    <row r="158" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A158" s="21">
         <v>34</v>
       </c>
@@ -13203,7 +13221,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1">
+    <row r="159" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A159" s="21">
         <v>10</v>
       </c>
@@ -13256,7 +13274,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1">
+    <row r="160" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A160" s="21">
         <v>164</v>
       </c>
@@ -13309,7 +13327,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1">
+    <row r="161" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A161" s="21">
         <v>55</v>
       </c>
@@ -13362,7 +13380,7 @@
         <v>0.22914399999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1">
+    <row r="162" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A162" s="21">
         <v>164</v>
       </c>
@@ -13415,7 +13433,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1">
+    <row r="163" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A163" s="21">
         <v>10</v>
       </c>
@@ -13468,7 +13486,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1">
+    <row r="164" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A164" s="21">
         <v>34</v>
       </c>
@@ -13521,7 +13539,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1">
+    <row r="165" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A165" s="21">
         <v>10</v>
       </c>
@@ -13574,7 +13592,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1">
+    <row r="166" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A166" s="21">
         <v>55</v>
       </c>
@@ -13627,7 +13645,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1">
+    <row r="167" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A167" s="21">
         <v>164</v>
       </c>
@@ -13680,7 +13698,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1">
+    <row r="168" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A168" s="21">
         <v>55</v>
       </c>
@@ -13733,7 +13751,7 @@
         <v>0.33993000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1">
+    <row r="169" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A169" s="21">
         <v>164</v>
       </c>
@@ -13786,7 +13804,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1">
+    <row r="170" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A170" s="21">
         <v>164</v>
       </c>
@@ -13839,7 +13857,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1">
+    <row r="171" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A171" s="21">
         <v>164</v>
       </c>
@@ -13892,7 +13910,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1">
+    <row r="172" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A172" s="21">
         <v>55</v>
       </c>
@@ -13945,7 +13963,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1">
+    <row r="173" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A173" s="21">
         <v>35</v>
       </c>
@@ -13998,7 +14016,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1">
+    <row r="174" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A174" s="21">
         <v>164</v>
       </c>
@@ -14051,7 +14069,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1">
+    <row r="175" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A175" s="21">
         <v>55</v>
       </c>
@@ -14104,7 +14122,7 @@
         <v>0.52462200000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1">
+    <row r="176" spans="1:19" s="21" customFormat="1" hidden="1">
       <c r="A176" s="21">
         <v>164</v>
       </c>
@@ -14157,7 +14175,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1">
+    <row r="177" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A177" s="21">
         <v>35</v>
       </c>
@@ -14210,7 +14228,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1">
+    <row r="178" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A178" s="21">
         <v>35</v>
       </c>
@@ -14263,7 +14281,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1">
+    <row r="179" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A179" s="21">
         <v>55</v>
       </c>
@@ -14316,7 +14334,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="180" spans="1:21" hidden="1">
+    <row r="180" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A180" s="21">
         <v>35</v>
       </c>
@@ -14369,7 +14387,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1">
+    <row r="181" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A181" s="21">
         <v>55</v>
       </c>
@@ -14422,7 +14440,7 @@
         <v>1.424803</v>
       </c>
     </row>
-    <row r="182" spans="1:21" hidden="1">
+    <row r="182" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A182" s="21">
         <v>55</v>
       </c>
@@ -14475,7 +14493,7 @@
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:21" hidden="1">
+    <row r="183" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A183" s="21">
         <v>55</v>
       </c>
@@ -14528,7 +14546,7 @@
         <v>4.2009999999999996</v>
       </c>
     </row>
-    <row r="184" spans="1:21" hidden="1">
+    <row r="184" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A184" s="21">
         <v>55</v>
       </c>
@@ -14581,7 +14599,7 @@
         <v>4.202</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1">
+    <row r="185" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A185" s="21">
         <v>36</v>
       </c>
@@ -14637,7 +14655,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1">
+    <row r="186" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A186" s="21">
         <v>36</v>
       </c>
@@ -14693,7 +14711,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="187" spans="1:21" hidden="1">
+    <row r="187" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A187" s="21">
         <v>36</v>
       </c>
@@ -14749,7 +14767,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1">
+    <row r="188" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A188" s="21">
         <v>24</v>
       </c>
@@ -14799,7 +14817,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1">
+    <row r="189" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A189" s="21">
         <v>2</v>
       </c>
@@ -14852,7 +14870,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1">
+    <row r="190" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A190" s="21">
         <v>2</v>
       </c>
@@ -14902,7 +14920,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1">
+    <row r="191" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A191" s="21">
         <v>2</v>
       </c>
@@ -14955,7 +14973,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1">
+    <row r="192" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A192" s="21">
         <v>2</v>
       </c>
@@ -15008,7 +15026,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1">
+    <row r="193" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A193" s="21">
         <v>2</v>
       </c>
@@ -15058,7 +15076,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1">
+    <row r="194" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A194" s="21">
         <v>2</v>
       </c>
@@ -15108,7 +15126,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1">
+    <row r="195" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A195" s="21">
         <v>2</v>
       </c>
@@ -15158,7 +15176,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="196" spans="1:21" hidden="1">
+    <row r="196" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A196" s="21">
         <v>3</v>
       </c>
@@ -15205,7 +15223,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="197" spans="1:21" hidden="1">
+    <row r="197" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A197" s="21">
         <v>3</v>
       </c>
@@ -15252,7 +15270,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="198" spans="1:21" hidden="1">
+    <row r="198" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A198" s="21">
         <v>3</v>
       </c>
@@ -15299,139 +15317,139 @@
         <v>737</v>
       </c>
     </row>
-    <row r="199" spans="1:21" hidden="1">
-      <c r="A199" s="21">
+    <row r="199" spans="1:21">
+      <c r="A199" s="24">
         <v>4</v>
       </c>
-      <c r="B199" s="21" t="s">
+      <c r="B199" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D199" s="21" t="s">
+      <c r="C199" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D199" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E199" s="21" t="s">
+      <c r="E199" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F199" s="21" t="s">
+      <c r="F199" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G199" s="21" t="s">
+      <c r="G199" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H199" s="21" t="s">
+      <c r="H199" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I199" s="21" t="s">
+      <c r="I199" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J199" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K199" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L199" s="21" t="s">
+      <c r="J199" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K199" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="L199" s="24" t="s">
         <v>842</v>
       </c>
-      <c r="M199" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N199" s="21" t="s">
+      <c r="M199" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N199" s="24" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="200" spans="1:21" hidden="1">
-      <c r="A200" s="21">
+    <row r="200" spans="1:21">
+      <c r="A200" s="24">
         <v>4</v>
       </c>
-      <c r="B200" s="21" t="s">
+      <c r="B200" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D200" s="21" t="s">
+      <c r="C200" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D200" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E200" s="21" t="s">
+      <c r="E200" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F200" s="21" t="s">
+      <c r="F200" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G200" s="21" t="s">
+      <c r="G200" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H200" s="21" t="s">
+      <c r="H200" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I200" s="21" t="s">
+      <c r="I200" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J200" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K200" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L200" s="21" t="s">
+      <c r="J200" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K200" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="L200" s="24" t="s">
         <v>844</v>
       </c>
-      <c r="M200" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N200" s="21" t="s">
+      <c r="M200" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N200" s="24" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:21" hidden="1">
-      <c r="A201" s="21">
+    <row r="201" spans="1:21">
+      <c r="A201" s="24">
         <v>4</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D201" s="21" t="s">
+      <c r="C201" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D201" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E201" s="21" t="s">
+      <c r="E201" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F201" s="21" t="s">
+      <c r="F201" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G201" s="21" t="s">
+      <c r="G201" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H201" s="21" t="s">
+      <c r="H201" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I201" s="21" t="s">
+      <c r="I201" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J201" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K201" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L201" s="21" t="s">
+      <c r="J201" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K201" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="L201" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="M201" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N201" s="21" t="s">
+      <c r="M201" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N201" s="24" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="202" spans="1:21" hidden="1">
+    <row r="202" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A202" s="21">
         <v>6</v>
       </c>
@@ -15484,7 +15502,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="203" spans="1:21" hidden="1">
+    <row r="203" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A203" s="21">
         <v>6</v>
       </c>
@@ -15537,7 +15555,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1">
+    <row r="204" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A204" s="21">
         <v>6</v>
       </c>
@@ -15590,7 +15608,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="205" spans="1:21" hidden="1">
+    <row r="205" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A205" s="21">
         <v>6</v>
       </c>
@@ -15643,7 +15661,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1">
+    <row r="206" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A206" s="21">
         <v>6</v>
       </c>
@@ -15696,7 +15714,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="207" spans="1:21" hidden="1">
+    <row r="207" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A207" s="21">
         <v>6</v>
       </c>
@@ -15749,7 +15767,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="208" spans="1:21" hidden="1">
+    <row r="208" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A208" s="21">
         <v>9</v>
       </c>
@@ -15793,7 +15811,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1">
+    <row r="209" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A209" s="21">
         <v>9</v>
       </c>
@@ -15837,7 +15855,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1">
+    <row r="210" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A210" s="21">
         <v>9</v>
       </c>
@@ -15881,7 +15899,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1">
+    <row r="211" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A211" s="21">
         <v>18</v>
       </c>
@@ -15925,7 +15943,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1">
+    <row r="212" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A212" s="21">
         <v>19</v>
       </c>
@@ -15975,7 +15993,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1">
+    <row r="213" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A213" s="21">
         <v>19</v>
       </c>
@@ -16025,7 +16043,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1">
+    <row r="214" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A214" s="21">
         <v>19</v>
       </c>
@@ -16075,7 +16093,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1">
+    <row r="215" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A215" s="21">
         <v>19</v>
       </c>
@@ -16125,7 +16143,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1">
+    <row r="216" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A216" s="21">
         <v>19</v>
       </c>
@@ -16175,7 +16193,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1">
+    <row r="217" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A217" s="21">
         <v>19</v>
       </c>
@@ -16225,7 +16243,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1">
+    <row r="218" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A218" s="21">
         <v>19</v>
       </c>
@@ -16275,7 +16293,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1">
+    <row r="219" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A219" s="21">
         <v>19</v>
       </c>
@@ -16325,7 +16343,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1">
+    <row r="220" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A220" s="21">
         <v>20</v>
       </c>
@@ -16369,7 +16387,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1">
+    <row r="221" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A221" s="21">
         <v>20</v>
       </c>
@@ -16413,7 +16431,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1">
+    <row r="222" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A222" s="21">
         <v>20</v>
       </c>
@@ -16457,7 +16475,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1">
+    <row r="223" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A223" s="21">
         <v>20</v>
       </c>
@@ -16501,7 +16519,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1">
+    <row r="224" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A224" s="21">
         <v>20</v>
       </c>
@@ -16545,7 +16563,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="225" spans="1:21" hidden="1">
+    <row r="225" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A225" s="21">
         <v>22</v>
       </c>
@@ -16589,7 +16607,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="226" spans="1:21" hidden="1">
+    <row r="226" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A226" s="21">
         <v>23</v>
       </c>
@@ -16639,7 +16657,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="227" spans="1:21" hidden="1">
+    <row r="227" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A227" s="21">
         <v>23</v>
       </c>
@@ -16689,7 +16707,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="228" spans="1:21" hidden="1">
+    <row r="228" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A228" s="21">
         <v>23</v>
       </c>
@@ -16739,7 +16757,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1">
+    <row r="229" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A229" s="21">
         <v>23</v>
       </c>
@@ -16789,7 +16807,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1">
+    <row r="230" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A230" s="21">
         <v>23</v>
       </c>
@@ -16839,7 +16857,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="231" spans="1:21" hidden="1">
+    <row r="231" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A231" s="21">
         <v>23</v>
       </c>
@@ -16889,7 +16907,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="232" spans="1:21" hidden="1">
+    <row r="232" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A232" s="21">
         <v>24</v>
       </c>
@@ -16933,7 +16951,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="233" spans="1:21" hidden="1">
+    <row r="233" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A233" s="21">
         <v>24</v>
       </c>
@@ -16977,7 +16995,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="234" spans="1:21" hidden="1">
+    <row r="234" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A234" s="21">
         <v>24</v>
       </c>
@@ -17021,7 +17039,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="235" spans="1:21" hidden="1">
+    <row r="235" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A235" s="21">
         <v>25</v>
       </c>
@@ -17065,7 +17083,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="236" spans="1:21" hidden="1">
+    <row r="236" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A236" s="21">
         <v>25</v>
       </c>
@@ -17109,7 +17127,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="237" spans="1:21" hidden="1">
+    <row r="237" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A237" s="21">
         <v>39</v>
       </c>
@@ -17162,7 +17180,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="238" spans="1:21" hidden="1">
+    <row r="238" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A238" s="21">
         <v>40</v>
       </c>
@@ -17209,7 +17227,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="239" spans="1:21" hidden="1">
+    <row r="239" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A239" s="21">
         <v>40</v>
       </c>
@@ -17256,7 +17274,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="240" spans="1:21" hidden="1">
+    <row r="240" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A240" s="21">
         <v>40</v>
       </c>
@@ -17303,7 +17321,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1">
+    <row r="241" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A241" s="21">
         <v>40</v>
       </c>
@@ -17350,7 +17368,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1">
+    <row r="242" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A242" s="21">
         <v>43</v>
       </c>
@@ -17391,7 +17409,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1">
+    <row r="243" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A243" s="21">
         <v>45</v>
       </c>
@@ -17441,7 +17459,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1">
+    <row r="244" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A244" s="21">
         <v>45</v>
       </c>
@@ -17491,7 +17509,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1">
+    <row r="245" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A245" s="21">
         <v>45</v>
       </c>
@@ -17541,7 +17559,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1">
+    <row r="246" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A246" s="21">
         <v>45</v>
       </c>
@@ -17591,7 +17609,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1">
+    <row r="247" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A247" s="21">
         <v>45</v>
       </c>
@@ -17641,7 +17659,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1">
+    <row r="248" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A248" s="21">
         <v>45</v>
       </c>
@@ -17691,7 +17709,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1">
+    <row r="249" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A249" s="21">
         <v>48</v>
       </c>
@@ -17741,457 +17759,457 @@
         <v>737</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1">
-      <c r="A250" s="21">
+    <row r="250" spans="1:16">
+      <c r="A250" s="24">
         <v>49</v>
       </c>
-      <c r="B250" s="21" t="s">
+      <c r="B250" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C250" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D250" s="21" t="s">
+      <c r="C250" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D250" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E250" s="21" t="s">
+      <c r="E250" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F250" s="21" t="s">
+      <c r="F250" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G250" s="21" t="s">
+      <c r="G250" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H250" s="21" t="s">
+      <c r="H250" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I250" s="21" t="s">
+      <c r="I250" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J250" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K250" s="21" t="s">
+      <c r="J250" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K250" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L250" s="21" t="s">
+      <c r="L250" s="24" t="s">
         <v>839</v>
       </c>
-      <c r="M250" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N250" s="21" t="s">
+      <c r="M250" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N250" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O250" s="21" t="s">
+      <c r="O250" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="P250" s="21" t="s">
+      <c r="P250" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1">
-      <c r="A251" s="21">
+    <row r="251" spans="1:16">
+      <c r="A251" s="24">
         <v>49</v>
       </c>
-      <c r="B251" s="21" t="s">
+      <c r="B251" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C251" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D251" s="21" t="s">
+      <c r="C251" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D251" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E251" s="21" t="s">
+      <c r="E251" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F251" s="21" t="s">
+      <c r="F251" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G251" s="21" t="s">
+      <c r="G251" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H251" s="21" t="s">
+      <c r="H251" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I251" s="21" t="s">
+      <c r="I251" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J251" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K251" s="21" t="s">
+      <c r="J251" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K251" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L251" s="21" t="s">
+      <c r="L251" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="M251" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N251" s="21" t="s">
+      <c r="M251" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N251" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O251" s="21" t="s">
+      <c r="O251" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="P251" s="21" t="s">
+      <c r="P251" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1">
-      <c r="A252" s="21">
+    <row r="252" spans="1:16">
+      <c r="A252" s="24">
         <v>49</v>
       </c>
-      <c r="B252" s="21" t="s">
+      <c r="B252" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C252" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D252" s="21" t="s">
+      <c r="C252" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D252" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E252" s="21" t="s">
+      <c r="E252" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F252" s="21" t="s">
+      <c r="F252" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G252" s="21" t="s">
+      <c r="G252" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H252" s="21" t="s">
+      <c r="H252" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I252" s="21" t="s">
+      <c r="I252" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J252" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K252" s="21" t="s">
+      <c r="J252" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K252" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L252" s="21" t="s">
+      <c r="L252" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="M252" s="21" t="s">
+      <c r="M252" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="N252" s="21" t="s">
+      <c r="N252" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O252" s="21" t="s">
+      <c r="O252" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="P252" s="21" t="s">
+      <c r="P252" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1">
-      <c r="A253" s="21">
+    <row r="253" spans="1:16">
+      <c r="A253" s="24">
         <v>49</v>
       </c>
-      <c r="B253" s="21" t="s">
+      <c r="B253" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C253" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D253" s="21" t="s">
+      <c r="C253" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D253" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E253" s="21" t="s">
+      <c r="E253" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F253" s="21" t="s">
+      <c r="F253" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G253" s="21" t="s">
+      <c r="G253" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H253" s="21" t="s">
+      <c r="H253" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I253" s="21" t="s">
+      <c r="I253" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J253" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K253" s="21" t="s">
+      <c r="J253" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K253" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L253" s="21" t="s">
+      <c r="L253" s="24" t="s">
         <v>839</v>
       </c>
-      <c r="M253" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N253" s="21" t="s">
+      <c r="M253" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N253" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="O253" s="21" t="s">
+      <c r="O253" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="P253" s="21" t="s">
+      <c r="P253" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1">
-      <c r="A254" s="21">
+    <row r="254" spans="1:16">
+      <c r="A254" s="24">
         <v>49</v>
       </c>
-      <c r="B254" s="21" t="s">
+      <c r="B254" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C254" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D254" s="21" t="s">
+      <c r="C254" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D254" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E254" s="21" t="s">
+      <c r="E254" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F254" s="21" t="s">
+      <c r="F254" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G254" s="21" t="s">
+      <c r="G254" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H254" s="21" t="s">
+      <c r="H254" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I254" s="21" t="s">
+      <c r="I254" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J254" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K254" s="21" t="s">
+      <c r="J254" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K254" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L254" s="21" t="s">
+      <c r="L254" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="M254" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N254" s="21" t="s">
+      <c r="M254" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N254" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="O254" s="21" t="s">
+      <c r="O254" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="P254" s="21" t="s">
+      <c r="P254" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1">
-      <c r="A255" s="21">
+    <row r="255" spans="1:16">
+      <c r="A255" s="24">
         <v>49</v>
       </c>
-      <c r="B255" s="21" t="s">
+      <c r="B255" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C255" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D255" s="21" t="s">
+      <c r="C255" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D255" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E255" s="21" t="s">
+      <c r="E255" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F255" s="21" t="s">
+      <c r="F255" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G255" s="21" t="s">
+      <c r="G255" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H255" s="21" t="s">
+      <c r="H255" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I255" s="21" t="s">
+      <c r="I255" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J255" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K255" s="21" t="s">
+      <c r="J255" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K255" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L255" s="21" t="s">
+      <c r="L255" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="M255" s="21" t="s">
+      <c r="M255" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="N255" s="21" t="s">
+      <c r="N255" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="O255" s="21" t="s">
+      <c r="O255" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="P255" s="21" t="s">
+      <c r="P255" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1">
-      <c r="A256" s="21">
+    <row r="256" spans="1:16">
+      <c r="A256" s="24">
         <v>49</v>
       </c>
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C256" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D256" s="21" t="s">
+      <c r="C256" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D256" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E256" s="21" t="s">
+      <c r="E256" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F256" s="21" t="s">
+      <c r="F256" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G256" s="21" t="s">
+      <c r="G256" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H256" s="21" t="s">
+      <c r="H256" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I256" s="21" t="s">
+      <c r="I256" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J256" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K256" s="21" t="s">
+      <c r="J256" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K256" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L256" s="21" t="s">
+      <c r="L256" s="24" t="s">
         <v>839</v>
       </c>
-      <c r="M256" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N256" s="21" t="s">
+      <c r="M256" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N256" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="O256" s="21" t="s">
+      <c r="O256" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="P256" s="21" t="s">
+      <c r="P256" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1">
-      <c r="A257" s="21">
+    <row r="257" spans="1:16">
+      <c r="A257" s="24">
         <v>49</v>
       </c>
-      <c r="B257" s="21" t="s">
+      <c r="B257" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C257" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D257" s="21" t="s">
+      <c r="C257" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D257" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E257" s="21" t="s">
+      <c r="E257" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F257" s="21" t="s">
+      <c r="F257" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G257" s="21" t="s">
+      <c r="G257" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H257" s="21" t="s">
+      <c r="H257" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I257" s="21" t="s">
+      <c r="I257" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J257" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K257" s="21" t="s">
+      <c r="J257" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K257" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L257" s="21" t="s">
+      <c r="L257" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="M257" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N257" s="21" t="s">
+      <c r="M257" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N257" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="O257" s="21" t="s">
+      <c r="O257" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="P257" s="21" t="s">
+      <c r="P257" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1">
-      <c r="A258" s="21">
+    <row r="258" spans="1:16">
+      <c r="A258" s="24">
         <v>49</v>
       </c>
-      <c r="B258" s="21" t="s">
+      <c r="B258" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C258" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D258" s="21" t="s">
+      <c r="C258" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D258" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E258" s="21" t="s">
+      <c r="E258" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F258" s="21" t="s">
+      <c r="F258" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G258" s="21" t="s">
+      <c r="G258" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="H258" s="21" t="s">
+      <c r="H258" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I258" s="21" t="s">
+      <c r="I258" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J258" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K258" s="21" t="s">
+      <c r="J258" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K258" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="L258" s="21" t="s">
+      <c r="L258" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="M258" s="21" t="s">
+      <c r="M258" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="N258" s="21" t="s">
+      <c r="N258" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="O258" s="21" t="s">
+      <c r="O258" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="P258" s="21" t="s">
+      <c r="P258" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1">
+    <row r="259" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A259" s="21">
         <v>50</v>
       </c>
@@ -18232,7 +18250,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1">
+    <row r="260" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A260" s="21">
         <v>50</v>
       </c>
@@ -18273,7 +18291,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1">
+    <row r="261" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A261" s="21">
         <v>50</v>
       </c>
@@ -18314,7 +18332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1">
+    <row r="262" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A262" s="21">
         <v>52</v>
       </c>
@@ -18358,7 +18376,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1">
+    <row r="263" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A263" s="21">
         <v>52</v>
       </c>
@@ -18402,7 +18420,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1">
+    <row r="264" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A264" s="21">
         <v>52</v>
       </c>
@@ -18446,7 +18464,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1">
+    <row r="265" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A265" s="21">
         <v>52</v>
       </c>
@@ -18490,7 +18508,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1">
+    <row r="266" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A266" s="21">
         <v>52</v>
       </c>
@@ -18534,7 +18552,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1">
+    <row r="267" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A267" s="21">
         <v>52</v>
       </c>
@@ -18578,7 +18596,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1">
+    <row r="268" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A268" s="21">
         <v>52</v>
       </c>
@@ -18622,7 +18640,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1">
+    <row r="269" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A269" s="21">
         <v>52</v>
       </c>
@@ -18666,7 +18684,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1">
+    <row r="270" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A270" s="21">
         <v>52</v>
       </c>
@@ -18710,7 +18728,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1">
+    <row r="271" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A271" s="21">
         <v>52</v>
       </c>
@@ -18754,7 +18772,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1">
+    <row r="272" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A272" s="21">
         <v>52</v>
       </c>
@@ -18798,7 +18816,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1">
+    <row r="273" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A273" s="21">
         <v>52</v>
       </c>
@@ -18842,7 +18860,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1">
+    <row r="274" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A274" s="21">
         <v>56</v>
       </c>
@@ -18889,7 +18907,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1">
+    <row r="275" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A275" s="21">
         <v>56</v>
       </c>
@@ -18936,7 +18954,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1">
+    <row r="276" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A276" s="21">
         <v>56</v>
       </c>
@@ -18983,7 +19001,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1">
+    <row r="277" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A277" s="21">
         <v>56</v>
       </c>
@@ -19030,7 +19048,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1">
+    <row r="278" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A278" s="21">
         <v>56</v>
       </c>
@@ -19077,7 +19095,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1">
+    <row r="279" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A279" s="21">
         <v>56</v>
       </c>
@@ -19124,7 +19142,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1">
+    <row r="280" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A280" s="21">
         <v>57</v>
       </c>
@@ -19171,7 +19189,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1">
+    <row r="281" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A281" s="21">
         <v>57</v>
       </c>
@@ -19218,7 +19236,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1">
+    <row r="282" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A282" s="21">
         <v>57</v>
       </c>
@@ -19265,7 +19283,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1">
+    <row r="283" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A283" s="21">
         <v>57</v>
       </c>
@@ -19312,7 +19330,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1">
+    <row r="284" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A284" s="21">
         <v>57</v>
       </c>
@@ -19359,7 +19377,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1">
+    <row r="285" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A285" s="21">
         <v>57</v>
       </c>
@@ -19406,7 +19424,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1">
+    <row r="286" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A286" s="21">
         <v>57</v>
       </c>
@@ -19453,7 +19471,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1">
+    <row r="287" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A287" s="21">
         <v>57</v>
       </c>
@@ -19500,7 +19518,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1">
+    <row r="288" spans="1:15" s="21" customFormat="1" hidden="1">
       <c r="A288" s="21">
         <v>57</v>
       </c>
@@ -19547,7 +19565,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1">
+    <row r="289" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A289" s="21">
         <v>57</v>
       </c>
@@ -19594,7 +19612,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1">
+    <row r="290" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A290" s="21">
         <v>57</v>
       </c>
@@ -19641,7 +19659,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1">
+    <row r="291" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A291" s="21">
         <v>57</v>
       </c>
@@ -19688,7 +19706,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1">
+    <row r="292" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A292" s="21">
         <v>58</v>
       </c>
@@ -19738,7 +19756,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="293" spans="1:21" hidden="1">
+    <row r="293" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A293" s="21">
         <v>58</v>
       </c>
@@ -19788,7 +19806,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="294" spans="1:21" hidden="1">
+    <row r="294" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A294" s="21">
         <v>61</v>
       </c>
@@ -19835,7 +19853,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="295" spans="1:21" hidden="1">
+    <row r="295" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A295" s="21">
         <v>64</v>
       </c>
@@ -19885,7 +19903,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="296" spans="1:21" hidden="1">
+    <row r="296" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A296" s="21">
         <v>71</v>
       </c>
@@ -19929,7 +19947,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="297" spans="1:21" hidden="1">
+    <row r="297" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A297" s="21">
         <v>71</v>
       </c>
@@ -19973,7 +19991,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="298" spans="1:21" hidden="1">
+    <row r="298" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A298" s="21">
         <v>71</v>
       </c>
@@ -20017,7 +20035,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="299" spans="1:21" hidden="1">
+    <row r="299" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A299" s="21">
         <v>71</v>
       </c>
@@ -20061,7 +20079,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="300" spans="1:21" hidden="1">
+    <row r="300" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A300" s="21">
         <v>71</v>
       </c>
@@ -20105,7 +20123,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="301" spans="1:21" hidden="1">
+    <row r="301" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A301" s="21">
         <v>71</v>
       </c>
@@ -20149,7 +20167,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="302" spans="1:21" hidden="1">
+    <row r="302" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A302" s="21">
         <v>71</v>
       </c>
@@ -20193,7 +20211,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="303" spans="1:21" hidden="1">
+    <row r="303" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A303" s="21">
         <v>73</v>
       </c>
@@ -20246,7 +20264,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="304" spans="1:21" hidden="1">
+    <row r="304" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A304" s="21">
         <v>73</v>
       </c>
@@ -20299,7 +20317,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="305" spans="1:21" hidden="1">
+    <row r="305" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A305" s="21">
         <v>73</v>
       </c>
@@ -20352,7 +20370,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="306" spans="1:21" hidden="1">
+    <row r="306" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A306" s="21">
         <v>74</v>
       </c>
@@ -20402,7 +20420,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="307" spans="1:21" hidden="1">
+    <row r="307" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A307" s="21">
         <v>74</v>
       </c>
@@ -20452,7 +20470,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="308" spans="1:21" hidden="1">
+    <row r="308" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A308" s="21">
         <v>77</v>
       </c>
@@ -20502,7 +20520,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="309" spans="1:21" hidden="1">
+    <row r="309" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A309" s="21">
         <v>77</v>
       </c>
@@ -20552,7 +20570,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="310" spans="1:21" hidden="1">
+    <row r="310" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A310" s="21">
         <v>77</v>
       </c>
@@ -20602,7 +20620,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="311" spans="1:21" hidden="1">
+    <row r="311" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A311" s="21">
         <v>77</v>
       </c>
@@ -20652,7 +20670,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="312" spans="1:21" hidden="1">
+    <row r="312" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A312" s="21">
         <v>77</v>
       </c>
@@ -20702,7 +20720,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="313" spans="1:21" hidden="1">
+    <row r="313" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A313" s="21">
         <v>77</v>
       </c>
@@ -20752,7 +20770,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="314" spans="1:21" hidden="1">
+    <row r="314" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A314" s="21">
         <v>77</v>
       </c>
@@ -20802,7 +20820,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="315" spans="1:21" hidden="1">
+    <row r="315" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A315" s="21">
         <v>78</v>
       </c>
@@ -20849,7 +20867,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="316" spans="1:21" hidden="1">
+    <row r="316" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A316" s="21">
         <v>78</v>
       </c>
@@ -20896,7 +20914,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="317" spans="1:21" hidden="1">
+    <row r="317" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A317" s="21">
         <v>78</v>
       </c>
@@ -20943,7 +20961,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="318" spans="1:21" hidden="1">
+    <row r="318" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A318" s="21">
         <v>79</v>
       </c>
@@ -20990,7 +21008,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="319" spans="1:21" hidden="1">
+    <row r="319" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A319" s="21">
         <v>79</v>
       </c>
@@ -21037,7 +21055,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="320" spans="1:21" hidden="1">
+    <row r="320" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A320" s="21">
         <v>80</v>
       </c>
@@ -21081,7 +21099,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="321" spans="1:21" hidden="1">
+    <row r="321" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A321" s="21">
         <v>80</v>
       </c>
@@ -21125,7 +21143,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="322" spans="1:21" hidden="1">
+    <row r="322" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A322" s="21">
         <v>80</v>
       </c>
@@ -21169,7 +21187,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="323" spans="1:21" hidden="1">
+    <row r="323" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A323" s="21">
         <v>80</v>
       </c>
@@ -21213,7 +21231,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="324" spans="1:21" hidden="1">
+    <row r="324" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A324" s="21">
         <v>80</v>
       </c>
@@ -21257,7 +21275,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:21" hidden="1">
+    <row r="325" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A325" s="21">
         <v>80</v>
       </c>
@@ -21301,7 +21319,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="326" spans="1:21" hidden="1">
+    <row r="326" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A326" s="21">
         <v>80</v>
       </c>
@@ -21345,7 +21363,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1">
+    <row r="327" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A327" s="21">
         <v>80</v>
       </c>
@@ -21389,7 +21407,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1">
+    <row r="328" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A328" s="21">
         <v>80</v>
       </c>
@@ -21433,7 +21451,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:21" hidden="1">
+    <row r="329" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A329" s="21">
         <v>80</v>
       </c>
@@ -21477,7 +21495,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="330" spans="1:21" hidden="1">
+    <row r="330" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A330" s="21">
         <v>80</v>
       </c>
@@ -21521,7 +21539,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="331" spans="1:21" hidden="1">
+    <row r="331" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A331" s="21">
         <v>80</v>
       </c>
@@ -21565,7 +21583,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="332" spans="1:21" hidden="1">
+    <row r="332" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A332" s="21">
         <v>80</v>
       </c>
@@ -21609,7 +21627,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="333" spans="1:21" hidden="1">
+    <row r="333" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A333" s="21">
         <v>80</v>
       </c>
@@ -21653,7 +21671,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="334" spans="1:21" hidden="1">
+    <row r="334" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A334" s="21">
         <v>80</v>
       </c>
@@ -21697,7 +21715,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="335" spans="1:21" hidden="1">
+    <row r="335" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A335" s="21">
         <v>80</v>
       </c>
@@ -21741,166 +21759,166 @@
         <v>588</v>
       </c>
     </row>
-    <row r="336" spans="1:21" hidden="1">
-      <c r="A336" s="21">
+    <row r="336" spans="1:21">
+      <c r="A336" s="24">
         <v>82</v>
       </c>
-      <c r="B336" s="21" t="s">
+      <c r="B336" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C336" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D336" s="21" t="s">
+      <c r="C336" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D336" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E336" s="21" t="s">
+      <c r="E336" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="F336" s="21" t="s">
+      <c r="F336" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G336" s="21" t="s">
+      <c r="G336" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="H336" s="21" t="s">
+      <c r="H336" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I336" s="21" t="s">
+      <c r="I336" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J336" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K336" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L336" s="22" t="s">
+      <c r="J336" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K336" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L336" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="M336" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N336" s="21" t="s">
+      <c r="M336" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N336" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="O336" s="21" t="s">
+      <c r="O336" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="P336" s="21" t="s">
+      <c r="P336" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="U336" s="21" t="s">
+      <c r="U336" s="24" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="337" spans="1:21" hidden="1">
-      <c r="A337" s="21">
+    <row r="337" spans="1:21">
+      <c r="A337" s="24">
         <v>82</v>
       </c>
-      <c r="B337" s="21" t="s">
+      <c r="B337" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C337" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D337" s="21" t="s">
+      <c r="C337" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D337" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E337" s="21" t="s">
+      <c r="E337" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="F337" s="21" t="s">
+      <c r="F337" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G337" s="21" t="s">
+      <c r="G337" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="H337" s="21" t="s">
+      <c r="H337" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I337" s="21" t="s">
+      <c r="I337" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J337" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K337" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L337" s="22" t="s">
+      <c r="J337" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K337" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L337" s="25" t="s">
         <v>886</v>
       </c>
-      <c r="M337" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N337" s="21" t="s">
+      <c r="M337" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N337" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="O337" s="21" t="s">
+      <c r="O337" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="P337" s="21" t="s">
+      <c r="P337" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="U337" s="21" t="s">
+      <c r="U337" s="24" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="338" spans="1:21" hidden="1">
-      <c r="A338" s="21">
+    <row r="338" spans="1:21">
+      <c r="A338" s="24">
         <v>82</v>
       </c>
-      <c r="B338" s="21" t="s">
+      <c r="B338" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C338" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D338" s="21" t="s">
+      <c r="C338" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D338" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E338" s="21" t="s">
+      <c r="E338" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="F338" s="21" t="s">
+      <c r="F338" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G338" s="21" t="s">
+      <c r="G338" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="H338" s="21" t="s">
+      <c r="H338" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="I338" s="21" t="s">
+      <c r="I338" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="J338" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K338" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L338" s="21" t="s">
+      <c r="J338" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K338" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L338" s="24" t="s">
         <v>887</v>
       </c>
-      <c r="M338" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N338" s="21" t="s">
+      <c r="M338" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N338" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="O338" s="21" t="s">
+      <c r="O338" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="P338" s="21" t="s">
+      <c r="P338" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="U338" s="21" t="s">
+      <c r="U338" s="24" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="339" spans="1:21" hidden="1">
+    <row r="339" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A339" s="21">
         <v>86</v>
       </c>
@@ -21947,7 +21965,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="340" spans="1:21" hidden="1">
+    <row r="340" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A340" s="21">
         <v>88</v>
       </c>
@@ -21997,7 +22015,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="341" spans="1:21" hidden="1">
+    <row r="341" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A341" s="21">
         <v>88</v>
       </c>
@@ -22047,7 +22065,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="342" spans="1:21" hidden="1">
+    <row r="342" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A342" s="21">
         <v>88</v>
       </c>
@@ -22097,7 +22115,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="343" spans="1:21" hidden="1">
+    <row r="343" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A343" s="21">
         <v>88</v>
       </c>
@@ -22147,7 +22165,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="344" spans="1:21" hidden="1">
+    <row r="344" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A344" s="21">
         <v>91</v>
       </c>
@@ -22197,7 +22215,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="345" spans="1:21" hidden="1">
+    <row r="345" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A345" s="21">
         <v>94</v>
       </c>
@@ -22250,7 +22268,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="346" spans="1:21" hidden="1">
+    <row r="346" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A346" s="21">
         <v>94</v>
       </c>
@@ -22303,7 +22321,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="347" spans="1:21" hidden="1">
+    <row r="347" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A347" s="21">
         <v>98</v>
       </c>
@@ -22347,7 +22365,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="348" spans="1:21" hidden="1">
+    <row r="348" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A348" s="21">
         <v>98</v>
       </c>
@@ -22391,7 +22409,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="349" spans="1:21" hidden="1">
+    <row r="349" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A349" s="21">
         <v>99</v>
       </c>
@@ -22441,7 +22459,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="350" spans="1:21" hidden="1">
+    <row r="350" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A350" s="21">
         <v>99</v>
       </c>
@@ -22491,7 +22509,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="351" spans="1:21" hidden="1">
+    <row r="351" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A351" s="21">
         <v>102</v>
       </c>
@@ -22535,7 +22553,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="352" spans="1:21" hidden="1">
+    <row r="352" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A352" s="21">
         <v>102</v>
       </c>
@@ -22579,7 +22597,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="353" spans="1:21" hidden="1">
+    <row r="353" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A353" s="21">
         <v>103</v>
       </c>
@@ -22623,7 +22641,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="354" spans="1:21" hidden="1">
+    <row r="354" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A354" s="21">
         <v>103</v>
       </c>
@@ -22667,7 +22685,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="355" spans="1:21" hidden="1">
+    <row r="355" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A355" s="21">
         <v>103</v>
       </c>
@@ -22711,7 +22729,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="356" spans="1:21" hidden="1">
+    <row r="356" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A356" s="21">
         <v>108</v>
       </c>
@@ -22755,7 +22773,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="357" spans="1:21" hidden="1">
+    <row r="357" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A357" s="21">
         <v>108</v>
       </c>
@@ -22799,7 +22817,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="358" spans="1:21" hidden="1">
+    <row r="358" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A358" s="21">
         <v>108</v>
       </c>
@@ -22843,7 +22861,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="359" spans="1:21" hidden="1">
+    <row r="359" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A359" s="21">
         <v>108</v>
       </c>
@@ -22887,7 +22905,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="360" spans="1:21" hidden="1">
+    <row r="360" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A360" s="21">
         <v>116</v>
       </c>
@@ -22937,7 +22955,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="361" spans="1:21" hidden="1">
+    <row r="361" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A361" s="21">
         <v>116</v>
       </c>
@@ -22987,7 +23005,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="362" spans="1:21" hidden="1">
+    <row r="362" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A362" s="21">
         <v>116</v>
       </c>
@@ -23037,7 +23055,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1">
+    <row r="363" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A363" s="21">
         <v>119</v>
       </c>
@@ -23090,7 +23108,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1">
+    <row r="364" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A364" s="21">
         <v>119</v>
       </c>
@@ -23143,7 +23161,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="365" spans="1:21" hidden="1">
+    <row r="365" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A365" s="21">
         <v>120</v>
       </c>
@@ -23190,7 +23208,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="366" spans="1:21" hidden="1">
+    <row r="366" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A366" s="21">
         <v>120</v>
       </c>
@@ -23237,7 +23255,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="367" spans="1:21" hidden="1">
+    <row r="367" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A367" s="21">
         <v>120</v>
       </c>
@@ -23284,7 +23302,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="368" spans="1:21" hidden="1">
+    <row r="368" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A368" s="21">
         <v>125</v>
       </c>
@@ -23325,7 +23343,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1">
+    <row r="369" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A369" s="21">
         <v>125</v>
       </c>
@@ -23366,7 +23384,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1">
+    <row r="370" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A370" s="21">
         <v>125</v>
       </c>
@@ -23407,7 +23425,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1">
+    <row r="371" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A371" s="21">
         <v>125</v>
       </c>
@@ -23448,7 +23466,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1">
+    <row r="372" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A372" s="21">
         <v>125</v>
       </c>
@@ -23489,7 +23507,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1">
+    <row r="373" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A373" s="21">
         <v>125</v>
       </c>
@@ -23530,7 +23548,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1">
+    <row r="374" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A374" s="21">
         <v>125</v>
       </c>
@@ -23571,7 +23589,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1">
+    <row r="375" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A375" s="21">
         <v>125</v>
       </c>
@@ -23612,7 +23630,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1">
+    <row r="376" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A376" s="21">
         <v>126</v>
       </c>
@@ -23662,7 +23680,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1">
+    <row r="377" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A377" s="21">
         <v>126</v>
       </c>
@@ -23712,7 +23730,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1">
+    <row r="378" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A378" s="21">
         <v>126</v>
       </c>
@@ -23762,7 +23780,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1">
+    <row r="379" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A379" s="21">
         <v>126</v>
       </c>
@@ -23812,7 +23830,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1">
+    <row r="380" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A380" s="21">
         <v>126</v>
       </c>
@@ -23862,7 +23880,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1">
+    <row r="381" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A381" s="21">
         <v>129</v>
       </c>
@@ -23906,7 +23924,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1">
+    <row r="382" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A382" s="21">
         <v>133</v>
       </c>
@@ -23956,7 +23974,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1">
+    <row r="383" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A383" s="21">
         <v>136</v>
       </c>
@@ -24000,7 +24018,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1">
+    <row r="384" spans="1:16" s="21" customFormat="1" hidden="1">
       <c r="A384" s="21">
         <v>136</v>
       </c>
@@ -24044,7 +24062,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="385" spans="1:21" hidden="1">
+    <row r="385" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A385" s="21">
         <v>138</v>
       </c>
@@ -24085,7 +24103,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="386" spans="1:21" hidden="1">
+    <row r="386" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A386" s="21">
         <v>138</v>
       </c>
@@ -24126,7 +24144,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="387" spans="1:21" hidden="1">
+    <row r="387" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A387" s="21">
         <v>138</v>
       </c>
@@ -24167,7 +24185,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="388" spans="1:21" hidden="1">
+    <row r="388" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A388" s="21">
         <v>138</v>
       </c>
@@ -24208,7 +24226,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="389" spans="1:21" hidden="1">
+    <row r="389" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A389" s="21">
         <v>138</v>
       </c>
@@ -24249,7 +24267,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="390" spans="1:21" hidden="1">
+    <row r="390" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A390" s="21">
         <v>138</v>
       </c>
@@ -24290,7 +24308,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="391" spans="1:21" hidden="1">
+    <row r="391" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A391" s="21">
         <v>138</v>
       </c>
@@ -24331,7 +24349,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="392" spans="1:21" hidden="1">
+    <row r="392" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A392" s="21">
         <v>138</v>
       </c>
@@ -24372,7 +24390,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="393" spans="1:21" hidden="1">
+    <row r="393" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A393" s="21">
         <v>139</v>
       </c>
@@ -24416,7 +24434,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="394" spans="1:21" hidden="1">
+    <row r="394" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A394" s="21">
         <v>139</v>
       </c>
@@ -24460,7 +24478,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="395" spans="1:21" hidden="1">
+    <row r="395" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A395" s="21">
         <v>140</v>
       </c>
@@ -24507,7 +24525,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="396" spans="1:21" hidden="1">
+    <row r="396" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A396" s="21">
         <v>140</v>
       </c>
@@ -24554,7 +24572,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="397" spans="1:21" hidden="1">
+    <row r="397" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A397" s="21">
         <v>140</v>
       </c>
@@ -24601,7 +24619,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="398" spans="1:21" hidden="1">
+    <row r="398" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A398" s="21">
         <v>140</v>
       </c>
@@ -24648,7 +24666,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="399" spans="1:21" hidden="1">
+    <row r="399" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A399" s="21">
         <v>140</v>
       </c>
@@ -24695,7 +24713,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="400" spans="1:21" hidden="1">
+    <row r="400" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A400" s="21">
         <v>140</v>
       </c>
@@ -24742,7 +24760,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="401" spans="1:21" hidden="1">
+    <row r="401" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A401" s="21">
         <v>140</v>
       </c>
@@ -24789,7 +24807,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="402" spans="1:21" hidden="1">
+    <row r="402" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A402" s="21">
         <v>140</v>
       </c>
@@ -24836,7 +24854,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="403" spans="1:21" hidden="1">
+    <row r="403" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A403" s="21">
         <v>141</v>
       </c>
@@ -24883,7 +24901,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="404" spans="1:21" hidden="1">
+    <row r="404" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A404" s="21">
         <v>141</v>
       </c>
@@ -24930,12 +24948,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="405" spans="1:21" hidden="1">
+    <row r="405" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A405" s="21">
         <v>143</v>
       </c>
       <c r="B405" s="21" t="s">
-        <v>143</v>
+        <v>1014</v>
       </c>
       <c r="C405" s="21" t="s">
         <v>402</v>
@@ -24944,7 +24962,7 @@
         <v>297</v>
       </c>
       <c r="E405" s="21" t="s">
-        <v>296</v>
+        <v>1013</v>
       </c>
       <c r="F405" s="21" t="s">
         <v>366</v>
@@ -24971,12 +24989,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="406" spans="1:21" hidden="1">
+    <row r="406" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A406" s="21">
         <v>143</v>
       </c>
       <c r="B406" s="21" t="s">
-        <v>143</v>
+        <v>1014</v>
       </c>
       <c r="C406" s="21" t="s">
         <v>402</v>
@@ -24985,7 +25003,7 @@
         <v>297</v>
       </c>
       <c r="E406" s="21" t="s">
-        <v>296</v>
+        <v>1013</v>
       </c>
       <c r="F406" s="21" t="s">
         <v>366</v>
@@ -25012,12 +25030,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1">
+    <row r="407" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A407" s="21">
         <v>143</v>
       </c>
       <c r="B407" s="21" t="s">
-        <v>143</v>
+        <v>1014</v>
       </c>
       <c r="C407" s="21" t="s">
         <v>402</v>
@@ -25026,7 +25044,7 @@
         <v>297</v>
       </c>
       <c r="E407" s="21" t="s">
-        <v>296</v>
+        <v>1013</v>
       </c>
       <c r="F407" s="21" t="s">
         <v>366</v>
@@ -25053,12 +25071,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1">
+    <row r="408" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A408" s="21">
         <v>143</v>
       </c>
       <c r="B408" s="21" t="s">
-        <v>143</v>
+        <v>1014</v>
       </c>
       <c r="C408" s="21" t="s">
         <v>402</v>
@@ -25067,7 +25085,7 @@
         <v>297</v>
       </c>
       <c r="E408" s="21" t="s">
-        <v>296</v>
+        <v>1013</v>
       </c>
       <c r="F408" s="21" t="s">
         <v>366</v>
@@ -25094,12 +25112,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="409" spans="1:21" hidden="1">
+    <row r="409" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A409" s="21">
         <v>143</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>143</v>
+        <v>1014</v>
       </c>
       <c r="C409" s="21" t="s">
         <v>402</v>
@@ -25108,7 +25126,7 @@
         <v>297</v>
       </c>
       <c r="E409" s="21" t="s">
-        <v>296</v>
+        <v>1013</v>
       </c>
       <c r="F409" s="21" t="s">
         <v>366</v>
@@ -25135,12 +25153,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="410" spans="1:21" hidden="1">
+    <row r="410" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A410" s="21">
         <v>143</v>
       </c>
       <c r="B410" s="21" t="s">
-        <v>143</v>
+        <v>1014</v>
       </c>
       <c r="C410" s="21" t="s">
         <v>402</v>
@@ -25149,7 +25167,7 @@
         <v>297</v>
       </c>
       <c r="E410" s="21" t="s">
-        <v>296</v>
+        <v>1013</v>
       </c>
       <c r="F410" s="21" t="s">
         <v>366</v>
@@ -25176,7 +25194,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="411" spans="1:21" hidden="1">
+    <row r="411" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A411" s="21">
         <v>146</v>
       </c>
@@ -25223,7 +25241,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="412" spans="1:21" hidden="1">
+    <row r="412" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A412" s="21">
         <v>146</v>
       </c>
@@ -25270,139 +25288,175 @@
         <v>635</v>
       </c>
     </row>
-    <row r="413" spans="1:21" hidden="1">
-      <c r="A413" s="21">
+    <row r="413" spans="1:21">
+      <c r="A413" s="24">
         <v>147</v>
       </c>
-      <c r="B413" s="21" t="s">
+      <c r="B413" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C413" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D413" s="21" t="s">
+      <c r="C413" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D413" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E413" s="21" t="s">
+      <c r="E413" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F413" s="21" t="s">
+      <c r="F413" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="G413" s="21" t="s">
+      <c r="G413" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="H413" s="21" t="s">
+      <c r="H413" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="I413" s="21" t="s">
+      <c r="I413" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="J413" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K413" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L413" s="21" t="s">
+      <c r="J413" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K413" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L413" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="M413" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N413" s="21" t="s">
+      <c r="M413" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N413" s="24" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="414" spans="1:21" hidden="1">
-      <c r="A414" s="21">
+      <c r="O413" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="P413" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="S413" s="24">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T413" s="24">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21">
+      <c r="A414" s="24">
         <v>147</v>
       </c>
-      <c r="B414" s="21" t="s">
+      <c r="B414" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C414" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D414" s="21" t="s">
+      <c r="C414" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D414" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E414" s="21" t="s">
+      <c r="E414" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F414" s="21" t="s">
+      <c r="F414" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="G414" s="21" t="s">
+      <c r="G414" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="H414" s="21" t="s">
+      <c r="H414" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="I414" s="21" t="s">
+      <c r="I414" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="J414" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K414" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L414" s="21" t="s">
+      <c r="J414" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K414" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L414" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="M414" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N414" s="21" t="s">
+      <c r="M414" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N414" s="24" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="415" spans="1:21" hidden="1">
-      <c r="A415" s="21">
+      <c r="O414" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="P414" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="S414" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="T414" s="24">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21">
+      <c r="A415" s="24">
         <v>147</v>
       </c>
-      <c r="B415" s="21" t="s">
+      <c r="B415" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C415" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D415" s="21" t="s">
+      <c r="C415" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D415" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E415" s="21" t="s">
+      <c r="E415" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F415" s="21" t="s">
+      <c r="F415" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="G415" s="21" t="s">
+      <c r="G415" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="H415" s="21" t="s">
+      <c r="H415" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="I415" s="21" t="s">
+      <c r="I415" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="J415" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K415" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L415" s="21" t="s">
+      <c r="J415" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K415" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L415" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="M415" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N415" s="21" t="s">
+      <c r="M415" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N415" s="24" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="416" spans="1:21" hidden="1">
+      <c r="O415" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="P415" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="S415" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="T415" s="24">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A416" s="21">
         <v>152</v>
       </c>
@@ -25446,7 +25500,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="417" spans="1:21" hidden="1">
+    <row r="417" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A417" s="21">
         <v>152</v>
       </c>
@@ -25490,7 +25544,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="418" spans="1:21" hidden="1">
+    <row r="418" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A418" s="21">
         <v>152</v>
       </c>
@@ -25534,7 +25588,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="419" spans="1:21" hidden="1">
+    <row r="419" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A419" s="21">
         <v>157</v>
       </c>
@@ -25578,7 +25632,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="420" spans="1:21" hidden="1">
+    <row r="420" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A420" s="21">
         <v>157</v>
       </c>
@@ -25622,7 +25676,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="421" spans="1:21" hidden="1">
+    <row r="421" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A421" s="21">
         <v>157</v>
       </c>
@@ -25666,7 +25720,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="422" spans="1:21" hidden="1">
+    <row r="422" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A422" s="21">
         <v>157</v>
       </c>
@@ -25710,7 +25764,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1">
+    <row r="423" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A423" s="21">
         <v>157</v>
       </c>
@@ -25754,7 +25808,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="424" spans="1:21" hidden="1">
+    <row r="424" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A424" s="21">
         <v>157</v>
       </c>
@@ -25798,7 +25852,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="425" spans="1:21" hidden="1">
+    <row r="425" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A425" s="21">
         <v>157</v>
       </c>
@@ -25842,7 +25896,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="426" spans="1:21" hidden="1">
+    <row r="426" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A426" s="21">
         <v>157</v>
       </c>
@@ -25886,7 +25940,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="427" spans="1:21" hidden="1">
+    <row r="427" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A427" s="21">
         <v>157</v>
       </c>
@@ -25930,7 +25984,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="428" spans="1:21" hidden="1">
+    <row r="428" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A428" s="21">
         <v>158</v>
       </c>
@@ -25977,7 +26031,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="429" spans="1:21" hidden="1">
+    <row r="429" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A429" s="21">
         <v>159</v>
       </c>
@@ -26024,7 +26078,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="430" spans="1:21" hidden="1">
+    <row r="430" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A430" s="21">
         <v>159</v>
       </c>
@@ -26071,7 +26125,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="431" spans="1:21" hidden="1">
+    <row r="431" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A431" s="21">
         <v>159</v>
       </c>
@@ -26118,7 +26172,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="432" spans="1:21" hidden="1">
+    <row r="432" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A432" s="21">
         <v>160</v>
       </c>
@@ -26165,7 +26219,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="433" spans="1:21" hidden="1">
+    <row r="433" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A433" s="21">
         <v>160</v>
       </c>
@@ -26212,7 +26266,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="434" spans="1:21" hidden="1">
+    <row r="434" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A434" s="21">
         <v>160</v>
       </c>
@@ -26259,7 +26313,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="435" spans="1:21" hidden="1">
+    <row r="435" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A435" s="21">
         <v>163</v>
       </c>
@@ -26303,7 +26357,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="436" spans="1:21" hidden="1">
+    <row r="436" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A436" s="21">
         <v>163</v>
       </c>
@@ -26347,7 +26401,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="437" spans="1:21" hidden="1">
+    <row r="437" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A437" s="21">
         <v>163</v>
       </c>
@@ -26391,7 +26445,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="438" spans="1:21" hidden="1">
+    <row r="438" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A438" s="21">
         <v>163</v>
       </c>
@@ -26435,7 +26489,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="439" spans="1:21" hidden="1">
+    <row r="439" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A439" s="21">
         <v>165</v>
       </c>
@@ -26479,7 +26533,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="440" spans="1:21" hidden="1">
+    <row r="440" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A440" s="21">
         <v>165</v>
       </c>
@@ -26523,7 +26577,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="441" spans="1:21" hidden="1">
+    <row r="441" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A441" s="21">
         <v>166</v>
       </c>
@@ -26567,7 +26621,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="442" spans="1:21" hidden="1">
+    <row r="442" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A442" s="21">
         <v>166</v>
       </c>
@@ -26611,7 +26665,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="443" spans="1:21" hidden="1">
+    <row r="443" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A443" s="21">
         <v>166</v>
       </c>
@@ -26655,7 +26709,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="444" spans="1:21" hidden="1">
+    <row r="444" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A444" s="21">
         <v>166</v>
       </c>
@@ -26699,7 +26753,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="445" spans="1:21" hidden="1">
+    <row r="445" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A445" s="21">
         <v>166</v>
       </c>
@@ -26743,7 +26797,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="446" spans="1:21" hidden="1">
+    <row r="446" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A446" s="21">
         <v>166</v>
       </c>
@@ -26787,7 +26841,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="447" spans="1:21" hidden="1">
+    <row r="447" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A447" s="21">
         <v>166</v>
       </c>
@@ -26831,7 +26885,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:21" hidden="1">
+    <row r="448" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A448" s="21">
         <v>166</v>
       </c>
@@ -26875,7 +26929,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:21" hidden="1">
+    <row r="449" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A449" s="21">
         <v>168</v>
       </c>
@@ -26919,7 +26973,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="450" spans="1:21" hidden="1">
+    <row r="450" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A450" s="21">
         <v>170</v>
       </c>
@@ -26963,7 +27017,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="451" spans="1:21" hidden="1">
+    <row r="451" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A451" s="21">
         <v>174</v>
       </c>
@@ -27007,7 +27061,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="452" spans="1:21" hidden="1">
+    <row r="452" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A452" s="21">
         <v>176</v>
       </c>
@@ -27051,7 +27105,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="453" spans="1:21" hidden="1">
+    <row r="453" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A453" s="21">
         <v>176</v>
       </c>
@@ -27095,7 +27149,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="454" spans="1:21" hidden="1">
+    <row r="454" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A454" s="21">
         <v>176</v>
       </c>
@@ -27139,7 +27193,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="455" spans="1:21" hidden="1">
+    <row r="455" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A455" s="21">
         <v>176</v>
       </c>
@@ -27183,7 +27237,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="456" spans="1:21" hidden="1">
+    <row r="456" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A456" s="21">
         <v>176</v>
       </c>
@@ -27227,7 +27281,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="457" spans="1:21" hidden="1">
+    <row r="457" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A457" s="21">
         <v>176</v>
       </c>
@@ -27271,7 +27325,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="458" spans="1:21" hidden="1">
+    <row r="458" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A458" s="21">
         <v>176</v>
       </c>
@@ -27315,7 +27369,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="459" spans="1:21" hidden="1">
+    <row r="459" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A459" s="21">
         <v>179</v>
       </c>
@@ -27368,7 +27422,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="460" spans="1:21" hidden="1">
+    <row r="460" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A460" s="21">
         <v>181</v>
       </c>
@@ -27412,7 +27466,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1">
+    <row r="461" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A461" s="21">
         <v>188</v>
       </c>
@@ -27459,7 +27513,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1">
+    <row r="462" spans="1:21" s="21" customFormat="1" hidden="1">
       <c r="A462" s="21">
         <v>188</v>
       </c>
@@ -27508,14 +27562,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="1">
+    <filterColumn colId="10">
       <filters>
-        <filter val="Uptake and Depuration Kinetics of Pacific Ciguatoxins in Orange-Spotted Grouper (Epinephelus coioides)"/>
+        <filter val="food_type"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U462">
-      <sortCondition ref="Q1:Q462"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A089E3C8-55DD-9A4B-BC19-F0E167CCD5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6E59E9-4539-DD44-AE95-5DE508D9FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37960" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12651" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12657" uniqueCount="1020">
   <si>
     <t>Article Title</t>
   </si>
@@ -3121,6 +3121,12 @@
   </si>
   <si>
     <t>High food, 20-30x10^3 cell/mL (Food B)</t>
+  </si>
+  <si>
+    <t>INCREASE</t>
+  </si>
+  <si>
+    <t>Peruvian calico scallop</t>
   </si>
 </sst>
 </file>
@@ -4774,9 +4780,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H255" sqref="H255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -8047,7 +8053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" hidden="1">
       <c r="A62" s="24">
         <v>84</v>
       </c>
@@ -8474,7 +8480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" hidden="1">
       <c r="A70" s="24">
         <v>84</v>
       </c>
@@ -8733,7 +8739,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" hidden="1">
       <c r="A75" s="24">
         <v>84</v>
       </c>
@@ -9110,7 +9116,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="82" spans="1:21" s="21" customFormat="1">
       <c r="A82" s="21">
         <v>26</v>
       </c>
@@ -9166,7 +9172,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="83" spans="1:21" s="21" customFormat="1">
       <c r="A83" s="21">
         <v>26</v>
       </c>
@@ -11227,7 +11233,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>202</v>
@@ -12384,7 +12390,7 @@
         <v>402</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>202</v>
@@ -13338,7 +13344,7 @@
         <v>402</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E161" s="21" t="s">
         <v>202</v>
@@ -13603,7 +13609,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E166" s="21" t="s">
         <v>202</v>
@@ -13709,7 +13715,7 @@
         <v>402</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E168" s="21" t="s">
         <v>202</v>
@@ -13921,7 +13927,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E172" s="21" t="s">
         <v>202</v>
@@ -14080,7 +14086,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>202</v>
@@ -14292,7 +14298,7 @@
         <v>402</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E179" s="21" t="s">
         <v>202</v>
@@ -14398,7 +14404,7 @@
         <v>402</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E181" s="21" t="s">
         <v>202</v>
@@ -14451,7 +14457,7 @@
         <v>402</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E182" s="21" t="s">
         <v>202</v>
@@ -14481,7 +14487,7 @@
         <v>414</v>
       </c>
       <c r="N182" s="21" t="s">
-        <v>475</v>
+        <v>943</v>
       </c>
       <c r="O182" s="21" t="s">
         <v>966</v>
@@ -14504,7 +14510,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>202</v>
@@ -14557,7 +14563,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>219</v>
+        <v>1019</v>
       </c>
       <c r="E184" s="21" t="s">
         <v>202</v>
@@ -14813,6 +14819,9 @@
       <c r="R188" s="21">
         <v>97</v>
       </c>
+      <c r="S188" s="21">
+        <v>-7.1609999999999998E-3</v>
+      </c>
       <c r="U188" s="21" t="s">
         <v>549</v>
       </c>
@@ -15176,7 +15185,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="196" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="196" spans="1:21" s="21" customFormat="1">
       <c r="A196" s="21">
         <v>3</v>
       </c>
@@ -15223,7 +15232,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="197" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="197" spans="1:21" s="21" customFormat="1">
       <c r="A197" s="21">
         <v>3</v>
       </c>
@@ -15270,7 +15279,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="198" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="198" spans="1:21" s="21" customFormat="1">
       <c r="A198" s="21">
         <v>3</v>
       </c>
@@ -15317,7 +15326,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" hidden="1">
       <c r="A199" s="24">
         <v>4</v>
       </c>
@@ -15361,7 +15370,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" hidden="1">
       <c r="A200" s="24">
         <v>4</v>
       </c>
@@ -15405,7 +15414,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" hidden="1">
       <c r="A201" s="24">
         <v>4</v>
       </c>
@@ -16947,8 +16956,17 @@
       <c r="N232" s="21" t="s">
         <v>448</v>
       </c>
+      <c r="O232" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="P232" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="S232" s="21">
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="U232" s="21" t="s">
-        <v>551</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="233" spans="1:21" s="21" customFormat="1" hidden="1">
@@ -16991,8 +17009,17 @@
       <c r="N233" s="21" t="s">
         <v>444</v>
       </c>
+      <c r="O233" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="P233" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="S233" s="21">
+        <v>6.3E-2</v>
+      </c>
       <c r="U233" s="21" t="s">
-        <v>551</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="234" spans="1:21" s="21" customFormat="1" hidden="1">
@@ -17035,6 +17062,15 @@
       <c r="N234" s="21" t="s">
         <v>483</v>
       </c>
+      <c r="O234" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="P234" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="S234" s="21">
+        <v>-3.3099999999999997E-2</v>
+      </c>
       <c r="U234" s="21" t="s">
         <v>550</v>
       </c>
@@ -17127,7 +17163,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="237" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="237" spans="1:21" s="21" customFormat="1">
       <c r="A237" s="21">
         <v>39</v>
       </c>
@@ -17759,7 +17795,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" hidden="1">
       <c r="A250" s="24">
         <v>49</v>
       </c>
@@ -17809,7 +17845,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" hidden="1">
       <c r="A251" s="24">
         <v>49</v>
       </c>
@@ -17859,7 +17895,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" hidden="1">
       <c r="A252" s="24">
         <v>49</v>
       </c>
@@ -17909,7 +17945,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" hidden="1">
       <c r="A253" s="24">
         <v>49</v>
       </c>
@@ -17959,7 +17995,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" hidden="1">
       <c r="A254" s="24">
         <v>49</v>
       </c>
@@ -18009,7 +18045,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" hidden="1">
       <c r="A255" s="24">
         <v>49</v>
       </c>
@@ -18059,7 +18095,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" hidden="1">
       <c r="A256" s="24">
         <v>49</v>
       </c>
@@ -18109,7 +18145,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" hidden="1">
       <c r="A257" s="24">
         <v>49</v>
       </c>
@@ -18159,7 +18195,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" hidden="1">
       <c r="A258" s="24">
         <v>49</v>
       </c>
@@ -21759,7 +21795,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" hidden="1">
       <c r="A336" s="24">
         <v>82</v>
       </c>
@@ -21812,7 +21848,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" hidden="1">
       <c r="A337" s="24">
         <v>82</v>
       </c>
@@ -21865,7 +21901,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" hidden="1">
       <c r="A338" s="24">
         <v>82</v>
       </c>
@@ -23055,7 +23091,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="363" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="363" spans="1:21" s="21" customFormat="1">
       <c r="A363" s="21">
         <v>119</v>
       </c>
@@ -23108,7 +23144,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="364" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="364" spans="1:21" s="21" customFormat="1">
       <c r="A364" s="21">
         <v>119</v>
       </c>
@@ -25288,7 +25324,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:21" hidden="1">
       <c r="A413" s="24">
         <v>147</v>
       </c>
@@ -25344,7 +25380,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" hidden="1">
       <c r="A414" s="24">
         <v>147</v>
       </c>
@@ -25400,7 +25436,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" hidden="1">
       <c r="A415" s="24">
         <v>147</v>
       </c>
@@ -25849,7 +25885,7 @@
         <v>414</v>
       </c>
       <c r="N424" s="21" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="425" spans="1:21" s="21" customFormat="1" hidden="1">
@@ -27562,9 +27598,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="10">
+    <filterColumn colId="9">
       <filters>
-        <filter val="food_type"/>
+        <filter val="field (non-toxic site)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6E59E9-4539-DD44-AE95-5DE508D9FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8630AC-77CE-E34D-BB46-3A54F7F49AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12657" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12689" uniqueCount="1020">
   <si>
     <t>Article Title</t>
   </si>
@@ -3273,7 +3273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3299,9 +3299,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4780,103 +4777,103 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P372" sqref="P372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="16" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="54.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="4.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="16" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="54.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>762</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="2" spans="1:21">
       <c r="A2" s="21">
         <v>114</v>
       </c>
@@ -4932,7 +4929,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="3" spans="1:21">
       <c r="A3" s="21">
         <v>114</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="4" spans="1:21" hidden="1">
       <c r="A4" s="21">
         <v>51</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="5" spans="1:21" hidden="1">
       <c r="A5" s="21">
         <v>51</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="6" spans="1:21" hidden="1">
       <c r="A6" s="21">
         <v>51</v>
       </c>
@@ -5147,7 +5144,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="7" spans="1:21" hidden="1">
       <c r="A7" s="21">
         <v>51</v>
       </c>
@@ -5200,7 +5197,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="21">
         <v>51</v>
       </c>
@@ -5253,7 +5250,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="21">
         <v>51</v>
       </c>
@@ -5306,7 +5303,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" s="21">
         <v>51</v>
       </c>
@@ -5359,7 +5356,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="11" spans="1:21" hidden="1">
       <c r="A11" s="21">
         <v>51</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="12" spans="1:21" hidden="1">
       <c r="A12" s="21">
         <v>51</v>
       </c>
@@ -5465,7 +5462,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="13" spans="1:21" hidden="1">
       <c r="A13" s="21">
         <v>51</v>
       </c>
@@ -5518,7 +5515,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="14" spans="1:21" hidden="1">
       <c r="A14" s="21">
         <v>81</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="15" spans="1:21" hidden="1">
       <c r="A15" s="21">
         <v>21</v>
       </c>
@@ -5624,7 +5621,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="16" spans="1:21" hidden="1">
       <c r="A16" s="21">
         <v>81</v>
       </c>
@@ -5677,7 +5674,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="17" spans="1:21" hidden="1">
       <c r="A17" s="21">
         <v>21</v>
       </c>
@@ -5730,7 +5727,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="18" spans="1:21" hidden="1">
       <c r="A18" s="21">
         <v>81</v>
       </c>
@@ -5783,7 +5780,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="19" spans="1:21" hidden="1">
       <c r="A19" s="21">
         <v>33</v>
       </c>
@@ -5836,7 +5833,7 @@
         <v>4.9863999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="20" spans="1:21" hidden="1">
       <c r="A20" s="21">
         <v>81</v>
       </c>
@@ -5889,7 +5886,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="21" spans="1:21" hidden="1">
       <c r="A21" s="21">
         <v>5</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="22" spans="1:21" hidden="1">
       <c r="A22" s="21">
         <v>5</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="23" spans="1:21" hidden="1">
       <c r="A23" s="21">
         <v>5</v>
       </c>
@@ -6048,7 +6045,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="24" spans="1:21" hidden="1">
       <c r="A24" s="21">
         <v>33</v>
       </c>
@@ -6101,7 +6098,7 @@
         <v>0.93054999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="25" spans="1:21" hidden="1">
       <c r="A25" s="21">
         <v>112</v>
       </c>
@@ -6154,7 +6151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="26" spans="1:21" hidden="1">
       <c r="A26" s="21">
         <v>112</v>
       </c>
@@ -6207,7 +6204,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="27" spans="1:21" hidden="1">
       <c r="A27" s="21">
         <v>112</v>
       </c>
@@ -6260,7 +6257,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="28" spans="1:21" hidden="1">
       <c r="A28" s="21">
         <v>112</v>
       </c>
@@ -6313,7 +6310,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="29" spans="1:21" hidden="1">
       <c r="A29" s="21">
         <v>112</v>
       </c>
@@ -6366,7 +6363,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="30" spans="1:21" hidden="1">
       <c r="A30" s="21">
         <v>112</v>
       </c>
@@ -6419,7 +6416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="31" spans="1:21" hidden="1">
       <c r="A31" s="21">
         <v>112</v>
       </c>
@@ -6472,7 +6469,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="32" spans="1:21" hidden="1">
       <c r="A32" s="21">
         <v>112</v>
       </c>
@@ -6525,7 +6522,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" s="21">
         <v>112</v>
       </c>
@@ -6578,7 +6575,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" s="21">
         <v>112</v>
       </c>
@@ -6631,7 +6628,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="35" spans="1:18" hidden="1">
       <c r="A35" s="21">
         <v>112</v>
       </c>
@@ -6684,7 +6681,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" s="21">
         <v>112</v>
       </c>
@@ -6737,7 +6734,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="37" spans="1:18" hidden="1">
       <c r="A37" s="21">
         <v>112</v>
       </c>
@@ -6790,7 +6787,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" s="21">
         <v>112</v>
       </c>
@@ -6843,7 +6840,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="39" spans="1:18" hidden="1">
       <c r="A39" s="21">
         <v>112</v>
       </c>
@@ -6896,7 +6893,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="40" spans="1:18" hidden="1">
       <c r="A40" s="21">
         <v>112</v>
       </c>
@@ -6949,7 +6946,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41" s="21">
         <v>112</v>
       </c>
@@ -7002,7 +6999,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="42" spans="1:18" hidden="1">
       <c r="A42" s="21">
         <v>112</v>
       </c>
@@ -7055,7 +7052,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43" s="21">
         <v>112</v>
       </c>
@@ -7108,7 +7105,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="44" spans="1:18" hidden="1">
       <c r="A44" s="21">
         <v>112</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="45" spans="1:18" hidden="1">
       <c r="A45" s="21">
         <v>112</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="46" spans="1:18" hidden="1">
       <c r="A46" s="21">
         <v>112</v>
       </c>
@@ -7267,7 +7264,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="47" spans="1:18" hidden="1">
       <c r="A47" s="21">
         <v>112</v>
       </c>
@@ -7320,7 +7317,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="21" customFormat="1" hidden="1">
+    <row r="48" spans="1:18" hidden="1">
       <c r="A48" s="21">
         <v>112</v>
       </c>
@@ -7373,7 +7370,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="49" spans="1:21" hidden="1">
       <c r="A49" s="21">
         <v>5</v>
       </c>
@@ -7423,7 +7420,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="50" spans="1:21" hidden="1">
       <c r="A50" s="21">
         <v>17</v>
       </c>
@@ -7476,7 +7473,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="51" spans="1:21" hidden="1">
       <c r="A51" s="21">
         <v>17</v>
       </c>
@@ -7529,7 +7526,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="52" spans="1:21" hidden="1">
       <c r="A52" s="21">
         <v>17</v>
       </c>
@@ -7582,7 +7579,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="53" spans="1:21" hidden="1">
       <c r="A53" s="21">
         <v>17</v>
       </c>
@@ -7635,7 +7632,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="54" spans="1:21" hidden="1">
       <c r="A54" s="21">
         <v>118</v>
       </c>
@@ -7688,7 +7685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="55" spans="1:21" hidden="1">
       <c r="A55" s="21">
         <v>118</v>
       </c>
@@ -7741,7 +7738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="56" spans="1:21" hidden="1">
       <c r="A56" s="21">
         <v>14</v>
       </c>
@@ -7794,7 +7791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="57" spans="1:21" hidden="1">
       <c r="A57" s="21">
         <v>13</v>
       </c>
@@ -7844,7 +7841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="58" spans="1:21" hidden="1">
       <c r="A58" s="21">
         <v>14</v>
       </c>
@@ -7897,7 +7894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="59" spans="1:21" hidden="1">
       <c r="A59" s="21">
         <v>117</v>
       </c>
@@ -7950,7 +7947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="60" spans="1:21" hidden="1">
       <c r="A60" s="21">
         <v>13</v>
       </c>
@@ -8000,7 +7997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="61" spans="1:21" hidden="1">
       <c r="A61" s="21">
         <v>14</v>
       </c>
@@ -8054,65 +8051,65 @@
       </c>
     </row>
     <row r="62" spans="1:21" hidden="1">
-      <c r="A62" s="24">
+      <c r="A62" s="21">
         <v>84</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D62" s="24" t="s">
+      <c r="C62" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="J62" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K62" s="24" t="s">
+      <c r="J62" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="L62" s="24" t="s">
+      <c r="L62" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="M62" s="24" t="s">
+      <c r="M62" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="N62" s="24" t="s">
+      <c r="N62" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="O62" s="24" t="s">
+      <c r="O62" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="P62" s="24" t="s">
+      <c r="P62" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="S62" s="24">
+      <c r="S62" s="21">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="T62" s="24">
+      <c r="T62" s="21">
         <v>14.7</v>
       </c>
-      <c r="U62" s="24" t="s">
+      <c r="U62" s="21" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="63" spans="1:21" hidden="1">
       <c r="A63" s="21">
         <v>14</v>
       </c>
@@ -8165,7 +8162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="64" spans="1:21" hidden="1">
       <c r="A64" s="21">
         <v>117</v>
       </c>
@@ -8218,7 +8215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="65" spans="1:21" hidden="1">
       <c r="A65" s="21">
         <v>14</v>
       </c>
@@ -8271,7 +8268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="66" spans="1:21" hidden="1">
       <c r="A66" s="21">
         <v>14</v>
       </c>
@@ -8324,7 +8321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="67" spans="1:21" hidden="1">
       <c r="A67" s="21">
         <v>13</v>
       </c>
@@ -8374,7 +8371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="68" spans="1:21" hidden="1">
       <c r="A68" s="21">
         <v>14</v>
       </c>
@@ -8427,7 +8424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="69" spans="1:21" hidden="1">
       <c r="A69" s="21">
         <v>14</v>
       </c>
@@ -8481,65 +8478,65 @@
       </c>
     </row>
     <row r="70" spans="1:21" hidden="1">
-      <c r="A70" s="24">
+      <c r="A70" s="21">
         <v>84</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D70" s="24" t="s">
+      <c r="C70" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="24" t="s">
+      <c r="H70" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="I70" s="24" t="s">
+      <c r="I70" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="J70" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K70" s="24" t="s">
+      <c r="J70" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="L70" s="24" t="s">
+      <c r="L70" s="21" t="s">
         <v>1016</v>
       </c>
-      <c r="M70" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N70" s="24" t="s">
+      <c r="M70" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N70" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="O70" s="24" t="s">
+      <c r="O70" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="P70" s="24" t="s">
+      <c r="P70" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="S70" s="24">
+      <c r="S70" s="21">
         <v>-7.8E-2</v>
       </c>
-      <c r="T70" s="24">
+      <c r="T70" s="21">
         <v>9</v>
       </c>
-      <c r="U70" s="24" t="s">
+      <c r="U70" s="21" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="71" spans="1:21" hidden="1">
       <c r="A71" s="21">
         <v>13</v>
       </c>
@@ -8589,7 +8586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="72" spans="1:21" hidden="1">
       <c r="A72" s="21">
         <v>13</v>
       </c>
@@ -8639,7 +8636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="73" spans="1:21" hidden="1">
       <c r="A73" s="21">
         <v>15</v>
       </c>
@@ -8689,7 +8686,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="74" spans="1:21" hidden="1">
       <c r="A74" s="21">
         <v>15</v>
       </c>
@@ -8740,65 +8737,65 @@
       </c>
     </row>
     <row r="75" spans="1:21" hidden="1">
-      <c r="A75" s="24">
+      <c r="A75" s="21">
         <v>84</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D75" s="24" t="s">
+      <c r="C75" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F75" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="G75" s="24" t="s">
+      <c r="G75" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="H75" s="24" t="s">
+      <c r="H75" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="I75" s="24" t="s">
+      <c r="I75" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="J75" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K75" s="24" t="s">
+      <c r="J75" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="L75" s="24" t="s">
+      <c r="L75" s="21" t="s">
         <v>1017</v>
       </c>
-      <c r="M75" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N75" s="24" t="s">
+      <c r="M75" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N75" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="O75" s="24" t="s">
+      <c r="O75" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="P75" s="24" t="s">
+      <c r="P75" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="S75" s="24">
+      <c r="S75" s="21">
         <v>-0.107</v>
       </c>
-      <c r="T75" s="24">
+      <c r="T75" s="21">
         <v>6.5</v>
       </c>
-      <c r="U75" s="24" t="s">
+      <c r="U75" s="21" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="76" spans="1:21" hidden="1">
       <c r="A76" s="21">
         <v>15</v>
       </c>
@@ -8848,7 +8845,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="77" spans="1:21" hidden="1">
       <c r="A77" s="21">
         <v>15</v>
       </c>
@@ -8898,7 +8895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="78" spans="1:21" hidden="1">
       <c r="A78" s="21">
         <v>15</v>
       </c>
@@ -8948,7 +8945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="79" spans="1:21" hidden="1">
       <c r="A79" s="21">
         <v>62</v>
       </c>
@@ -9004,7 +9001,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="80" spans="1:21" hidden="1">
       <c r="A80" s="21">
         <v>62</v>
       </c>
@@ -9060,7 +9057,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="81" spans="1:21" hidden="1">
       <c r="A81" s="21">
         <v>62</v>
       </c>
@@ -9116,7 +9113,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="21" customFormat="1">
+    <row r="82" spans="1:21" hidden="1">
       <c r="A82" s="21">
         <v>26</v>
       </c>
@@ -9172,7 +9169,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="21" customFormat="1">
+    <row r="83" spans="1:21" hidden="1">
       <c r="A83" s="21">
         <v>26</v>
       </c>
@@ -9228,7 +9225,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="84" spans="1:21" hidden="1">
       <c r="A84" s="21">
         <v>110</v>
       </c>
@@ -9281,7 +9278,7 @@
         <v>-0.22739999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="85" spans="1:21" hidden="1">
       <c r="A85" s="21">
         <v>44</v>
       </c>
@@ -9337,7 +9334,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="86" spans="1:21" hidden="1">
       <c r="A86" s="21">
         <v>44</v>
       </c>
@@ -9393,7 +9390,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="87" spans="1:21" hidden="1">
       <c r="A87" s="21">
         <v>44</v>
       </c>
@@ -9449,7 +9446,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="88" spans="1:21" hidden="1">
       <c r="A88" s="21">
         <v>37</v>
       </c>
@@ -9502,7 +9499,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="89" spans="1:21" hidden="1">
       <c r="A89" s="21">
         <v>44</v>
       </c>
@@ -9558,7 +9555,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="90" spans="1:21" hidden="1">
       <c r="A90" s="21">
         <v>44</v>
       </c>
@@ -9614,7 +9611,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="91" spans="1:21" hidden="1">
       <c r="A91" s="21">
         <v>44</v>
       </c>
@@ -9670,7 +9667,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="92" spans="1:21" hidden="1">
       <c r="A92" s="21">
         <v>110</v>
       </c>
@@ -9723,7 +9720,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="93" spans="1:21" hidden="1">
       <c r="A93" s="21">
         <v>37</v>
       </c>
@@ -9776,7 +9773,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="94" spans="1:21" hidden="1">
       <c r="A94" s="21">
         <v>37</v>
       </c>
@@ -9829,7 +9826,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="95" spans="1:21" hidden="1">
       <c r="A95" s="21">
         <v>29</v>
       </c>
@@ -9885,7 +9882,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="96" spans="1:21" hidden="1">
       <c r="A96" s="21">
         <v>37</v>
       </c>
@@ -9938,7 +9935,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="97" spans="1:21" hidden="1">
       <c r="A97" s="21">
         <v>37</v>
       </c>
@@ -9991,7 +9988,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="98" spans="1:21" hidden="1">
       <c r="A98" s="21">
         <v>101</v>
       </c>
@@ -10044,7 +10041,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="99" spans="1:21" hidden="1">
       <c r="A99" s="21">
         <v>29</v>
       </c>
@@ -10100,7 +10097,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="100" spans="1:21" hidden="1">
       <c r="A100" s="21">
         <v>37</v>
       </c>
@@ -10153,7 +10150,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="101" spans="1:21" hidden="1">
       <c r="A101" s="21">
         <v>101</v>
       </c>
@@ -10206,7 +10203,7 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="102" spans="1:21" hidden="1">
       <c r="A102" s="21">
         <v>29</v>
       </c>
@@ -10262,7 +10259,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="103" spans="1:21" hidden="1">
       <c r="A103" s="21">
         <v>47</v>
       </c>
@@ -10315,7 +10312,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="104" spans="1:21" hidden="1">
       <c r="A104" s="21">
         <v>72</v>
       </c>
@@ -10365,7 +10362,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="105" spans="1:21" hidden="1">
       <c r="A105" s="21">
         <v>47</v>
       </c>
@@ -10418,7 +10415,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="106" spans="1:21" hidden="1">
       <c r="A106" s="21">
         <v>47</v>
       </c>
@@ -10471,7 +10468,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="107" spans="1:21" hidden="1">
       <c r="A107" s="21">
         <v>47</v>
       </c>
@@ -10524,7 +10521,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="108" spans="1:21" hidden="1">
       <c r="A108" s="21">
         <v>47</v>
       </c>
@@ -10577,7 +10574,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="109" spans="1:21" hidden="1">
       <c r="A109" s="21">
         <v>47</v>
       </c>
@@ -10630,7 +10627,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="110" spans="1:21" hidden="1">
       <c r="A110" s="21">
         <v>47</v>
       </c>
@@ -10683,7 +10680,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="111" spans="1:21" hidden="1">
       <c r="A111" s="21">
         <v>47</v>
       </c>
@@ -10736,7 +10733,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="112" spans="1:21" hidden="1">
       <c r="A112" s="21">
         <v>47</v>
       </c>
@@ -10789,7 +10786,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="113" spans="1:21" hidden="1">
       <c r="A113" s="21">
         <v>47</v>
       </c>
@@ -10842,7 +10839,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="114" spans="1:21" hidden="1">
       <c r="A114" s="21">
         <v>47</v>
       </c>
@@ -10895,7 +10892,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="115" spans="1:21" hidden="1">
       <c r="A115" s="21">
         <v>47</v>
       </c>
@@ -10948,7 +10945,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="116" spans="1:21" hidden="1">
       <c r="A116" s="21">
         <v>59</v>
       </c>
@@ -11004,7 +11001,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="117" spans="1:21" hidden="1">
       <c r="A117" s="21">
         <v>144</v>
       </c>
@@ -11060,7 +11057,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="118" spans="1:21" hidden="1">
       <c r="A118" s="21">
         <v>144</v>
       </c>
@@ -11116,7 +11113,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="119" spans="1:21" hidden="1">
       <c r="A119" s="21">
         <v>8</v>
       </c>
@@ -11169,7 +11166,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="120" spans="1:21" hidden="1">
       <c r="A120" s="21">
         <v>46</v>
       </c>
@@ -11222,7 +11219,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="121" spans="1:21" hidden="1">
       <c r="A121" s="21">
         <v>55</v>
       </c>
@@ -11275,7 +11272,7 @@
         <v>3.8059999999999997E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="122" spans="1:21" hidden="1">
       <c r="A122" s="21">
         <v>46</v>
       </c>
@@ -11328,7 +11325,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="123" spans="1:21" hidden="1">
       <c r="A123" s="21">
         <v>144</v>
       </c>
@@ -11384,7 +11381,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="124" spans="1:21" hidden="1">
       <c r="A124" s="21">
         <v>8</v>
       </c>
@@ -11437,7 +11434,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="125" spans="1:21" hidden="1">
       <c r="A125" s="21">
         <v>28</v>
       </c>
@@ -11490,7 +11487,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="126" spans="1:21" hidden="1">
       <c r="A126" s="21">
         <v>164</v>
       </c>
@@ -11543,7 +11540,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="127" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="127" spans="1:21" hidden="1">
       <c r="A127" s="21">
         <v>34</v>
       </c>
@@ -11596,7 +11593,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="128" spans="1:21" hidden="1">
       <c r="A128" s="21">
         <v>28</v>
       </c>
@@ -11649,7 +11646,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="129" spans="1:19" hidden="1">
       <c r="A129" s="21">
         <v>8</v>
       </c>
@@ -11702,7 +11699,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="130" spans="1:19" hidden="1">
       <c r="A130" s="21">
         <v>28</v>
       </c>
@@ -11755,7 +11752,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="131" spans="1:19" hidden="1">
       <c r="A131" s="21">
         <v>28</v>
       </c>
@@ -11808,7 +11805,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="132" spans="1:19" hidden="1">
       <c r="A132" s="21">
         <v>164</v>
       </c>
@@ -11861,7 +11858,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="133" spans="1:19" hidden="1">
       <c r="A133" s="21">
         <v>28</v>
       </c>
@@ -11914,7 +11911,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="134" spans="1:19" hidden="1">
       <c r="A134" s="21">
         <v>34</v>
       </c>
@@ -11967,7 +11964,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="135" spans="1:19" hidden="1">
       <c r="A135" s="21">
         <v>34</v>
       </c>
@@ -12020,7 +12017,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="136" spans="1:19" hidden="1">
       <c r="A136" s="21">
         <v>27</v>
       </c>
@@ -12070,7 +12067,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="137" spans="1:19" hidden="1">
       <c r="A137" s="21">
         <v>28</v>
       </c>
@@ -12123,7 +12120,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="138" spans="1:19" hidden="1">
       <c r="A138" s="21">
         <v>27</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="139" spans="1:19" hidden="1">
       <c r="A139" s="21">
         <v>27</v>
       </c>
@@ -12223,7 +12220,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="140" spans="1:19" hidden="1">
       <c r="A140" s="21">
         <v>34</v>
       </c>
@@ -12276,7 +12273,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="141" spans="1:19" hidden="1">
       <c r="A141" s="21">
         <v>27</v>
       </c>
@@ -12326,7 +12323,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="142" spans="1:19" hidden="1">
       <c r="A142" s="21">
         <v>34</v>
       </c>
@@ -12379,7 +12376,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="143" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="143" spans="1:19" hidden="1">
       <c r="A143" s="21">
         <v>55</v>
       </c>
@@ -12432,7 +12429,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="144" spans="1:19" hidden="1">
       <c r="A144" s="21">
         <v>34</v>
       </c>
@@ -12485,7 +12482,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="145" spans="1:19" hidden="1">
       <c r="A145" s="21">
         <v>34</v>
       </c>
@@ -12538,7 +12535,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="146" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="146" spans="1:19" hidden="1">
       <c r="A146" s="21">
         <v>34</v>
       </c>
@@ -12591,7 +12588,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="147" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="147" spans="1:19" hidden="1">
       <c r="A147" s="21">
         <v>164</v>
       </c>
@@ -12644,7 +12641,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="148" spans="1:19" hidden="1">
       <c r="A148" s="21">
         <v>34</v>
       </c>
@@ -12697,7 +12694,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="149" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="149" spans="1:19" hidden="1">
       <c r="A149" s="21">
         <v>34</v>
       </c>
@@ -12750,7 +12747,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="150" spans="1:19" hidden="1">
       <c r="A150" s="21">
         <v>164</v>
       </c>
@@ -12803,7 +12800,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="151" spans="1:19" hidden="1">
       <c r="A151" s="21">
         <v>164</v>
       </c>
@@ -12856,7 +12853,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="152" spans="1:19" hidden="1">
       <c r="A152" s="21">
         <v>164</v>
       </c>
@@ -12909,7 +12906,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="153" spans="1:19" hidden="1">
       <c r="A153" s="21">
         <v>34</v>
       </c>
@@ -12962,7 +12959,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="154" spans="1:19" hidden="1">
       <c r="A154" s="21">
         <v>164</v>
       </c>
@@ -13015,7 +13012,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="155" spans="1:19" hidden="1">
       <c r="A155" s="21">
         <v>164</v>
       </c>
@@ -13068,7 +13065,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="156" spans="1:19" hidden="1">
       <c r="A156" s="21">
         <v>28</v>
       </c>
@@ -13121,7 +13118,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="157" spans="1:19" hidden="1">
       <c r="A157" s="21">
         <v>8</v>
       </c>
@@ -13174,7 +13171,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="158" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="158" spans="1:19" hidden="1">
       <c r="A158" s="21">
         <v>34</v>
       </c>
@@ -13227,7 +13224,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="159" spans="1:19" hidden="1">
       <c r="A159" s="21">
         <v>10</v>
       </c>
@@ -13280,7 +13277,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="160" spans="1:19" hidden="1">
       <c r="A160" s="21">
         <v>164</v>
       </c>
@@ -13333,7 +13330,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="161" spans="1:19" hidden="1">
       <c r="A161" s="21">
         <v>55</v>
       </c>
@@ -13386,7 +13383,7 @@
         <v>0.22914399999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="162" spans="1:19" hidden="1">
       <c r="A162" s="21">
         <v>164</v>
       </c>
@@ -13439,7 +13436,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="163" spans="1:19" hidden="1">
       <c r="A163" s="21">
         <v>10</v>
       </c>
@@ -13492,7 +13489,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="164" spans="1:19" hidden="1">
       <c r="A164" s="21">
         <v>34</v>
       </c>
@@ -13545,7 +13542,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="165" spans="1:19" hidden="1">
       <c r="A165" s="21">
         <v>10</v>
       </c>
@@ -13598,7 +13595,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="166" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="166" spans="1:19" hidden="1">
       <c r="A166" s="21">
         <v>55</v>
       </c>
@@ -13651,7 +13648,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="167" spans="1:19" hidden="1">
       <c r="A167" s="21">
         <v>164</v>
       </c>
@@ -13704,7 +13701,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="168" spans="1:19" hidden="1">
       <c r="A168" s="21">
         <v>55</v>
       </c>
@@ -13757,7 +13754,7 @@
         <v>0.33993000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="169" spans="1:19" hidden="1">
       <c r="A169" s="21">
         <v>164</v>
       </c>
@@ -13810,7 +13807,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="170" spans="1:19" hidden="1">
       <c r="A170" s="21">
         <v>164</v>
       </c>
@@ -13863,7 +13860,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="171" spans="1:19" hidden="1">
       <c r="A171" s="21">
         <v>164</v>
       </c>
@@ -13916,7 +13913,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="172" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="172" spans="1:19" hidden="1">
       <c r="A172" s="21">
         <v>55</v>
       </c>
@@ -13969,7 +13966,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="173" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="173" spans="1:19" hidden="1">
       <c r="A173" s="21">
         <v>35</v>
       </c>
@@ -14022,7 +14019,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="174" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="174" spans="1:19" hidden="1">
       <c r="A174" s="21">
         <v>164</v>
       </c>
@@ -14075,7 +14072,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="175" spans="1:19" hidden="1">
       <c r="A175" s="21">
         <v>55</v>
       </c>
@@ -14128,7 +14125,7 @@
         <v>0.52462200000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:19" s="21" customFormat="1" hidden="1">
+    <row r="176" spans="1:19" hidden="1">
       <c r="A176" s="21">
         <v>164</v>
       </c>
@@ -14181,7 +14178,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="177" spans="1:21" hidden="1">
       <c r="A177" s="21">
         <v>35</v>
       </c>
@@ -14234,7 +14231,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="178" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="178" spans="1:21" hidden="1">
       <c r="A178" s="21">
         <v>35</v>
       </c>
@@ -14287,7 +14284,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="179" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="179" spans="1:21" hidden="1">
       <c r="A179" s="21">
         <v>55</v>
       </c>
@@ -14340,7 +14337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="180" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="180" spans="1:21" hidden="1">
       <c r="A180" s="21">
         <v>35</v>
       </c>
@@ -14393,7 +14390,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="181" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="181" spans="1:21" hidden="1">
       <c r="A181" s="21">
         <v>55</v>
       </c>
@@ -14446,7 +14443,7 @@
         <v>1.424803</v>
       </c>
     </row>
-    <row r="182" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="182" spans="1:21" hidden="1">
       <c r="A182" s="21">
         <v>55</v>
       </c>
@@ -14499,7 +14496,7 @@
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="183" spans="1:21" hidden="1">
       <c r="A183" s="21">
         <v>55</v>
       </c>
@@ -14552,7 +14549,7 @@
         <v>4.2009999999999996</v>
       </c>
     </row>
-    <row r="184" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="184" spans="1:21" hidden="1">
       <c r="A184" s="21">
         <v>55</v>
       </c>
@@ -14605,7 +14602,7 @@
         <v>4.202</v>
       </c>
     </row>
-    <row r="185" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="185" spans="1:21" hidden="1">
       <c r="A185" s="21">
         <v>36</v>
       </c>
@@ -14661,7 +14658,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="186" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="186" spans="1:21" hidden="1">
       <c r="A186" s="21">
         <v>36</v>
       </c>
@@ -14717,7 +14714,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="187" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="187" spans="1:21" hidden="1">
       <c r="A187" s="21">
         <v>36</v>
       </c>
@@ -14773,7 +14770,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="188" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="188" spans="1:21" hidden="1">
       <c r="A188" s="21">
         <v>24</v>
       </c>
@@ -14826,7 +14823,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="189" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="189" spans="1:21" hidden="1">
       <c r="A189" s="21">
         <v>2</v>
       </c>
@@ -14879,7 +14876,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="190" spans="1:21" hidden="1">
       <c r="A190" s="21">
         <v>2</v>
       </c>
@@ -14929,7 +14926,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="191" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="191" spans="1:21" hidden="1">
       <c r="A191" s="21">
         <v>2</v>
       </c>
@@ -14982,7 +14979,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="192" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="192" spans="1:21" hidden="1">
       <c r="A192" s="21">
         <v>2</v>
       </c>
@@ -15035,7 +15032,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="193" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="193" spans="1:21" hidden="1">
       <c r="A193" s="21">
         <v>2</v>
       </c>
@@ -15085,7 +15082,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="194" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="194" spans="1:21" hidden="1">
       <c r="A194" s="21">
         <v>2</v>
       </c>
@@ -15135,7 +15132,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="195" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="195" spans="1:21" hidden="1">
       <c r="A195" s="21">
         <v>2</v>
       </c>
@@ -15185,7 +15182,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="196" spans="1:21" s="21" customFormat="1">
+    <row r="196" spans="1:21" hidden="1">
       <c r="A196" s="21">
         <v>3</v>
       </c>
@@ -15232,7 +15229,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="197" spans="1:21" s="21" customFormat="1">
+    <row r="197" spans="1:21" hidden="1">
       <c r="A197" s="21">
         <v>3</v>
       </c>
@@ -15279,7 +15276,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="198" spans="1:21" s="21" customFormat="1">
+    <row r="198" spans="1:21" hidden="1">
       <c r="A198" s="21">
         <v>3</v>
       </c>
@@ -15327,138 +15324,138 @@
       </c>
     </row>
     <row r="199" spans="1:21" hidden="1">
-      <c r="A199" s="24">
+      <c r="A199" s="21">
         <v>4</v>
       </c>
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D199" s="24" t="s">
+      <c r="C199" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D199" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E199" s="24" t="s">
+      <c r="E199" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F199" s="24" t="s">
+      <c r="F199" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G199" s="24" t="s">
+      <c r="G199" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H199" s="24" t="s">
+      <c r="H199" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I199" s="24" t="s">
+      <c r="I199" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J199" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K199" s="24" t="s">
+      <c r="J199" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K199" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="L199" s="24" t="s">
+      <c r="L199" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="M199" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N199" s="24" t="s">
+      <c r="M199" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N199" s="21" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="200" spans="1:21" hidden="1">
-      <c r="A200" s="24">
+      <c r="A200" s="21">
         <v>4</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D200" s="24" t="s">
+      <c r="C200" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D200" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E200" s="24" t="s">
+      <c r="E200" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F200" s="24" t="s">
+      <c r="F200" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G200" s="24" t="s">
+      <c r="G200" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H200" s="24" t="s">
+      <c r="H200" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I200" s="24" t="s">
+      <c r="I200" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J200" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K200" s="24" t="s">
+      <c r="J200" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K200" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="L200" s="24" t="s">
+      <c r="L200" s="21" t="s">
         <v>844</v>
       </c>
-      <c r="M200" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N200" s="24" t="s">
+      <c r="M200" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N200" s="21" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:21" hidden="1">
-      <c r="A201" s="24">
+      <c r="A201" s="21">
         <v>4</v>
       </c>
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D201" s="24" t="s">
+      <c r="C201" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D201" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E201" s="24" t="s">
+      <c r="E201" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F201" s="24" t="s">
+      <c r="F201" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G201" s="24" t="s">
+      <c r="G201" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H201" s="24" t="s">
+      <c r="H201" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I201" s="24" t="s">
+      <c r="I201" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J201" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K201" s="24" t="s">
+      <c r="J201" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K201" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="L201" s="24" t="s">
+      <c r="L201" s="21" t="s">
         <v>845</v>
       </c>
-      <c r="M201" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N201" s="24" t="s">
+      <c r="M201" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N201" s="21" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="202" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="202" spans="1:21" hidden="1">
       <c r="A202" s="21">
         <v>6</v>
       </c>
@@ -15511,7 +15508,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="203" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="203" spans="1:21" hidden="1">
       <c r="A203" s="21">
         <v>6</v>
       </c>
@@ -15564,7 +15561,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="204" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="204" spans="1:21" hidden="1">
       <c r="A204" s="21">
         <v>6</v>
       </c>
@@ -15617,7 +15614,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="205" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="205" spans="1:21" hidden="1">
       <c r="A205" s="21">
         <v>6</v>
       </c>
@@ -15670,7 +15667,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="206" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="206" spans="1:21" hidden="1">
       <c r="A206" s="21">
         <v>6</v>
       </c>
@@ -15723,7 +15720,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="207" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="207" spans="1:21" hidden="1">
       <c r="A207" s="21">
         <v>6</v>
       </c>
@@ -15776,7 +15773,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="208" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="208" spans="1:21" hidden="1">
       <c r="A208" s="21">
         <v>9</v>
       </c>
@@ -15820,7 +15817,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="209" spans="1:16" hidden="1">
       <c r="A209" s="21">
         <v>9</v>
       </c>
@@ -15864,7 +15861,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="210" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="210" spans="1:16" hidden="1">
       <c r="A210" s="21">
         <v>9</v>
       </c>
@@ -15908,7 +15905,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="211" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="211" spans="1:16" hidden="1">
       <c r="A211" s="21">
         <v>18</v>
       </c>
@@ -15952,7 +15949,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="212" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="212" spans="1:16" hidden="1">
       <c r="A212" s="21">
         <v>19</v>
       </c>
@@ -16002,7 +15999,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="213" spans="1:16" hidden="1">
       <c r="A213" s="21">
         <v>19</v>
       </c>
@@ -16052,7 +16049,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="214" spans="1:16" hidden="1">
       <c r="A214" s="21">
         <v>19</v>
       </c>
@@ -16102,7 +16099,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="215" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="215" spans="1:16" hidden="1">
       <c r="A215" s="21">
         <v>19</v>
       </c>
@@ -16152,7 +16149,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="216" spans="1:16" hidden="1">
       <c r="A216" s="21">
         <v>19</v>
       </c>
@@ -16202,7 +16199,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="217" spans="1:16" hidden="1">
       <c r="A217" s="21">
         <v>19</v>
       </c>
@@ -16252,7 +16249,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="218" spans="1:16" hidden="1">
       <c r="A218" s="21">
         <v>19</v>
       </c>
@@ -16302,7 +16299,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="219" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="219" spans="1:16" hidden="1">
       <c r="A219" s="21">
         <v>19</v>
       </c>
@@ -16352,7 +16349,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="220" spans="1:16" hidden="1">
       <c r="A220" s="21">
         <v>20</v>
       </c>
@@ -16396,7 +16393,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="221" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="221" spans="1:16" hidden="1">
       <c r="A221" s="21">
         <v>20</v>
       </c>
@@ -16440,7 +16437,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="222" spans="1:16" hidden="1">
       <c r="A222" s="21">
         <v>20</v>
       </c>
@@ -16484,7 +16481,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="223" spans="1:16" hidden="1">
       <c r="A223" s="21">
         <v>20</v>
       </c>
@@ -16528,7 +16525,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="224" spans="1:16" hidden="1">
       <c r="A224" s="21">
         <v>20</v>
       </c>
@@ -16572,7 +16569,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="225" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="225" spans="1:21" hidden="1">
       <c r="A225" s="21">
         <v>22</v>
       </c>
@@ -16616,7 +16613,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="226" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="226" spans="1:21" hidden="1">
       <c r="A226" s="21">
         <v>23</v>
       </c>
@@ -16666,7 +16663,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="227" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="227" spans="1:21" hidden="1">
       <c r="A227" s="21">
         <v>23</v>
       </c>
@@ -16716,7 +16713,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="228" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="228" spans="1:21" hidden="1">
       <c r="A228" s="21">
         <v>23</v>
       </c>
@@ -16766,7 +16763,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="229" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="229" spans="1:21" hidden="1">
       <c r="A229" s="21">
         <v>23</v>
       </c>
@@ -16816,7 +16813,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="230" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="230" spans="1:21" hidden="1">
       <c r="A230" s="21">
         <v>23</v>
       </c>
@@ -16866,7 +16863,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="231" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="231" spans="1:21" hidden="1">
       <c r="A231" s="21">
         <v>23</v>
       </c>
@@ -16916,7 +16913,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="232" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="232" spans="1:21" hidden="1">
       <c r="A232" s="21">
         <v>24</v>
       </c>
@@ -16969,7 +16966,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="233" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="233" spans="1:21" hidden="1">
       <c r="A233" s="21">
         <v>24</v>
       </c>
@@ -17022,7 +17019,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="234" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="234" spans="1:21" hidden="1">
       <c r="A234" s="21">
         <v>24</v>
       </c>
@@ -17075,7 +17072,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="235" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="235" spans="1:21" hidden="1">
       <c r="A235" s="21">
         <v>25</v>
       </c>
@@ -17119,7 +17116,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="236" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="236" spans="1:21" hidden="1">
       <c r="A236" s="21">
         <v>25</v>
       </c>
@@ -17163,7 +17160,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="237" spans="1:21" s="21" customFormat="1">
+    <row r="237" spans="1:21" hidden="1">
       <c r="A237" s="21">
         <v>39</v>
       </c>
@@ -17216,7 +17213,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="238" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="238" spans="1:21">
       <c r="A238" s="21">
         <v>40</v>
       </c>
@@ -17263,7 +17260,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="239" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="239" spans="1:21">
       <c r="A239" s="21">
         <v>40</v>
       </c>
@@ -17310,7 +17307,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="240" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="240" spans="1:21">
       <c r="A240" s="21">
         <v>40</v>
       </c>
@@ -17357,7 +17354,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="241" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="241" spans="1:16" hidden="1">
       <c r="A241" s="21">
         <v>40</v>
       </c>
@@ -17404,7 +17401,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="242" spans="1:16" hidden="1">
       <c r="A242" s="21">
         <v>43</v>
       </c>
@@ -17445,7 +17442,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="243" spans="1:16" hidden="1">
       <c r="A243" s="21">
         <v>45</v>
       </c>
@@ -17495,7 +17492,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="244" spans="1:16" hidden="1">
       <c r="A244" s="21">
         <v>45</v>
       </c>
@@ -17545,7 +17542,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="245" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="245" spans="1:16" hidden="1">
       <c r="A245" s="21">
         <v>45</v>
       </c>
@@ -17595,7 +17592,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="246" spans="1:16" hidden="1">
       <c r="A246" s="21">
         <v>45</v>
       </c>
@@ -17645,7 +17642,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="247" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="247" spans="1:16" hidden="1">
       <c r="A247" s="21">
         <v>45</v>
       </c>
@@ -17695,7 +17692,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="248" spans="1:16" hidden="1">
       <c r="A248" s="21">
         <v>45</v>
       </c>
@@ -17745,7 +17742,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="249" spans="1:16" hidden="1">
       <c r="A249" s="21">
         <v>48</v>
       </c>
@@ -17796,456 +17793,456 @@
       </c>
     </row>
     <row r="250" spans="1:16" hidden="1">
-      <c r="A250" s="24">
+      <c r="A250" s="21">
         <v>49</v>
       </c>
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C250" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D250" s="24" t="s">
+      <c r="C250" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D250" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E250" s="24" t="s">
+      <c r="E250" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F250" s="24" t="s">
+      <c r="F250" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G250" s="24" t="s">
+      <c r="G250" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H250" s="24" t="s">
+      <c r="H250" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I250" s="24" t="s">
+      <c r="I250" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J250" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K250" s="24" t="s">
+      <c r="J250" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K250" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L250" s="24" t="s">
+      <c r="L250" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="M250" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N250" s="24" t="s">
+      <c r="M250" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N250" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O250" s="24" t="s">
+      <c r="O250" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="P250" s="24" t="s">
+      <c r="P250" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="251" spans="1:16" hidden="1">
-      <c r="A251" s="24">
+      <c r="A251" s="21">
         <v>49</v>
       </c>
-      <c r="B251" s="24" t="s">
+      <c r="B251" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C251" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D251" s="24" t="s">
+      <c r="C251" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D251" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E251" s="24" t="s">
+      <c r="E251" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F251" s="24" t="s">
+      <c r="F251" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G251" s="24" t="s">
+      <c r="G251" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H251" s="24" t="s">
+      <c r="H251" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I251" s="24" t="s">
+      <c r="I251" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J251" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K251" s="24" t="s">
+      <c r="J251" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K251" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L251" s="24" t="s">
+      <c r="L251" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="M251" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N251" s="24" t="s">
+      <c r="M251" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N251" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O251" s="24" t="s">
+      <c r="O251" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="P251" s="24" t="s">
+      <c r="P251" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="252" spans="1:16" hidden="1">
-      <c r="A252" s="24">
+      <c r="A252" s="21">
         <v>49</v>
       </c>
-      <c r="B252" s="24" t="s">
+      <c r="B252" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C252" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D252" s="24" t="s">
+      <c r="C252" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D252" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E252" s="24" t="s">
+      <c r="E252" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F252" s="24" t="s">
+      <c r="F252" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G252" s="24" t="s">
+      <c r="G252" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H252" s="24" t="s">
+      <c r="H252" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I252" s="24" t="s">
+      <c r="I252" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J252" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K252" s="24" t="s">
+      <c r="J252" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K252" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L252" s="24" t="s">
+      <c r="L252" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="M252" s="24" t="s">
+      <c r="M252" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="N252" s="24" t="s">
+      <c r="N252" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O252" s="24" t="s">
+      <c r="O252" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="P252" s="24" t="s">
+      <c r="P252" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:16" hidden="1">
-      <c r="A253" s="24">
+      <c r="A253" s="21">
         <v>49</v>
       </c>
-      <c r="B253" s="24" t="s">
+      <c r="B253" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C253" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D253" s="24" t="s">
+      <c r="C253" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D253" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E253" s="24" t="s">
+      <c r="E253" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F253" s="24" t="s">
+      <c r="F253" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G253" s="24" t="s">
+      <c r="G253" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H253" s="24" t="s">
+      <c r="H253" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I253" s="24" t="s">
+      <c r="I253" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J253" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K253" s="24" t="s">
+      <c r="J253" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K253" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L253" s="24" t="s">
+      <c r="L253" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="M253" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N253" s="24" t="s">
+      <c r="M253" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N253" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="O253" s="24" t="s">
+      <c r="O253" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="P253" s="24" t="s">
+      <c r="P253" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="254" spans="1:16" hidden="1">
-      <c r="A254" s="24">
+      <c r="A254" s="21">
         <v>49</v>
       </c>
-      <c r="B254" s="24" t="s">
+      <c r="B254" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C254" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D254" s="24" t="s">
+      <c r="C254" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D254" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E254" s="24" t="s">
+      <c r="E254" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F254" s="24" t="s">
+      <c r="F254" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G254" s="24" t="s">
+      <c r="G254" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H254" s="24" t="s">
+      <c r="H254" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I254" s="24" t="s">
+      <c r="I254" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J254" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K254" s="24" t="s">
+      <c r="J254" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K254" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L254" s="24" t="s">
+      <c r="L254" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="M254" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N254" s="24" t="s">
+      <c r="M254" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N254" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="O254" s="24" t="s">
+      <c r="O254" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="P254" s="24" t="s">
+      <c r="P254" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="255" spans="1:16" hidden="1">
-      <c r="A255" s="24">
+      <c r="A255" s="21">
         <v>49</v>
       </c>
-      <c r="B255" s="24" t="s">
+      <c r="B255" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C255" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D255" s="24" t="s">
+      <c r="C255" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D255" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E255" s="24" t="s">
+      <c r="E255" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F255" s="24" t="s">
+      <c r="F255" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G255" s="24" t="s">
+      <c r="G255" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H255" s="24" t="s">
+      <c r="H255" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I255" s="24" t="s">
+      <c r="I255" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J255" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K255" s="24" t="s">
+      <c r="J255" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K255" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L255" s="24" t="s">
+      <c r="L255" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="M255" s="24" t="s">
+      <c r="M255" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="N255" s="24" t="s">
+      <c r="N255" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="O255" s="24" t="s">
+      <c r="O255" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="P255" s="24" t="s">
+      <c r="P255" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="256" spans="1:16" hidden="1">
-      <c r="A256" s="24">
+      <c r="A256" s="21">
         <v>49</v>
       </c>
-      <c r="B256" s="24" t="s">
+      <c r="B256" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C256" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D256" s="24" t="s">
+      <c r="C256" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D256" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E256" s="24" t="s">
+      <c r="E256" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F256" s="24" t="s">
+      <c r="F256" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G256" s="24" t="s">
+      <c r="G256" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H256" s="24" t="s">
+      <c r="H256" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I256" s="24" t="s">
+      <c r="I256" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J256" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K256" s="24" t="s">
+      <c r="J256" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K256" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L256" s="24" t="s">
+      <c r="L256" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="M256" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N256" s="24" t="s">
+      <c r="M256" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N256" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="O256" s="24" t="s">
+      <c r="O256" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="P256" s="24" t="s">
+      <c r="P256" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="257" spans="1:16" hidden="1">
-      <c r="A257" s="24">
+      <c r="A257" s="21">
         <v>49</v>
       </c>
-      <c r="B257" s="24" t="s">
+      <c r="B257" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C257" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D257" s="24" t="s">
+      <c r="C257" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D257" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E257" s="24" t="s">
+      <c r="E257" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F257" s="24" t="s">
+      <c r="F257" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G257" s="24" t="s">
+      <c r="G257" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H257" s="24" t="s">
+      <c r="H257" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I257" s="24" t="s">
+      <c r="I257" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J257" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K257" s="24" t="s">
+      <c r="J257" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K257" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L257" s="24" t="s">
+      <c r="L257" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="M257" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N257" s="24" t="s">
+      <c r="M257" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N257" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="O257" s="24" t="s">
+      <c r="O257" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="P257" s="24" t="s">
+      <c r="P257" s="21" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="258" spans="1:16" hidden="1">
-      <c r="A258" s="24">
+      <c r="A258" s="21">
         <v>49</v>
       </c>
-      <c r="B258" s="24" t="s">
+      <c r="B258" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C258" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D258" s="24" t="s">
+      <c r="C258" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D258" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E258" s="24" t="s">
+      <c r="E258" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F258" s="24" t="s">
+      <c r="F258" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G258" s="24" t="s">
+      <c r="G258" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H258" s="24" t="s">
+      <c r="H258" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I258" s="24" t="s">
+      <c r="I258" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J258" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K258" s="24" t="s">
+      <c r="J258" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K258" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="L258" s="24" t="s">
+      <c r="L258" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="M258" s="24" t="s">
+      <c r="M258" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="N258" s="24" t="s">
+      <c r="N258" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="O258" s="24" t="s">
+      <c r="O258" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="P258" s="24" t="s">
+      <c r="P258" s="21" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="259" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="259" spans="1:16" hidden="1">
       <c r="A259" s="21">
         <v>50</v>
       </c>
@@ -18286,7 +18283,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="260" spans="1:16" hidden="1">
       <c r="A260" s="21">
         <v>50</v>
       </c>
@@ -18327,7 +18324,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="261" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="261" spans="1:16" hidden="1">
       <c r="A261" s="21">
         <v>50</v>
       </c>
@@ -18368,7 +18365,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="262" spans="1:16" hidden="1">
       <c r="A262" s="21">
         <v>52</v>
       </c>
@@ -18412,7 +18409,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="263" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="263" spans="1:16" hidden="1">
       <c r="A263" s="21">
         <v>52</v>
       </c>
@@ -18456,7 +18453,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="264" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="264" spans="1:16" hidden="1">
       <c r="A264" s="21">
         <v>52</v>
       </c>
@@ -18500,7 +18497,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="265" spans="1:16" hidden="1">
       <c r="A265" s="21">
         <v>52</v>
       </c>
@@ -18544,7 +18541,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="266" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="266" spans="1:16" hidden="1">
       <c r="A266" s="21">
         <v>52</v>
       </c>
@@ -18588,7 +18585,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="267" spans="1:16" hidden="1">
       <c r="A267" s="21">
         <v>52</v>
       </c>
@@ -18632,7 +18629,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="268" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="268" spans="1:16" hidden="1">
       <c r="A268" s="21">
         <v>52</v>
       </c>
@@ -18676,7 +18673,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="269" spans="1:16" hidden="1">
       <c r="A269" s="21">
         <v>52</v>
       </c>
@@ -18720,7 +18717,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="270" spans="1:16" hidden="1">
       <c r="A270" s="21">
         <v>52</v>
       </c>
@@ -18764,7 +18761,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="271" spans="1:16" hidden="1">
       <c r="A271" s="21">
         <v>52</v>
       </c>
@@ -18808,7 +18805,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="272" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="272" spans="1:16" hidden="1">
       <c r="A272" s="21">
         <v>52</v>
       </c>
@@ -18852,7 +18849,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="273" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="273" spans="1:15" hidden="1">
       <c r="A273" s="21">
         <v>52</v>
       </c>
@@ -18896,7 +18893,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="274" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="274" spans="1:15" hidden="1">
       <c r="A274" s="21">
         <v>56</v>
       </c>
@@ -18943,7 +18940,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="275" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="275" spans="1:15" hidden="1">
       <c r="A275" s="21">
         <v>56</v>
       </c>
@@ -18990,7 +18987,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="276" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="276" spans="1:15" hidden="1">
       <c r="A276" s="21">
         <v>56</v>
       </c>
@@ -19037,7 +19034,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="277" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="277" spans="1:15" hidden="1">
       <c r="A277" s="21">
         <v>56</v>
       </c>
@@ -19084,7 +19081,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="278" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="278" spans="1:15" hidden="1">
       <c r="A278" s="21">
         <v>56</v>
       </c>
@@ -19131,7 +19128,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="279" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="279" spans="1:15" hidden="1">
       <c r="A279" s="21">
         <v>56</v>
       </c>
@@ -19178,7 +19175,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="280" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="280" spans="1:15" hidden="1">
       <c r="A280" s="21">
         <v>57</v>
       </c>
@@ -19225,7 +19222,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="281" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="281" spans="1:15" hidden="1">
       <c r="A281" s="21">
         <v>57</v>
       </c>
@@ -19272,7 +19269,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="282" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="282" spans="1:15" hidden="1">
       <c r="A282" s="21">
         <v>57</v>
       </c>
@@ -19319,7 +19316,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="283" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="283" spans="1:15" hidden="1">
       <c r="A283" s="21">
         <v>57</v>
       </c>
@@ -19366,7 +19363,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="284" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="284" spans="1:15" hidden="1">
       <c r="A284" s="21">
         <v>57</v>
       </c>
@@ -19413,7 +19410,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="285" spans="1:15" hidden="1">
       <c r="A285" s="21">
         <v>57</v>
       </c>
@@ -19460,7 +19457,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="286" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="286" spans="1:15" hidden="1">
       <c r="A286" s="21">
         <v>57</v>
       </c>
@@ -19507,7 +19504,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="287" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="287" spans="1:15" hidden="1">
       <c r="A287" s="21">
         <v>57</v>
       </c>
@@ -19554,7 +19551,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="288" spans="1:15" s="21" customFormat="1" hidden="1">
+    <row r="288" spans="1:15" hidden="1">
       <c r="A288" s="21">
         <v>57</v>
       </c>
@@ -19601,7 +19598,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="289" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="289" spans="1:21" hidden="1">
       <c r="A289" s="21">
         <v>57</v>
       </c>
@@ -19648,7 +19645,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="290" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="290" spans="1:21" hidden="1">
       <c r="A290" s="21">
         <v>57</v>
       </c>
@@ -19695,7 +19692,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="291" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="291" spans="1:21" hidden="1">
       <c r="A291" s="21">
         <v>57</v>
       </c>
@@ -19742,7 +19739,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="292" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="292" spans="1:21" hidden="1">
       <c r="A292" s="21">
         <v>58</v>
       </c>
@@ -19792,7 +19789,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="293" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="293" spans="1:21" hidden="1">
       <c r="A293" s="21">
         <v>58</v>
       </c>
@@ -19842,7 +19839,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="294" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="294" spans="1:21" hidden="1">
       <c r="A294" s="21">
         <v>61</v>
       </c>
@@ -19889,7 +19886,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="295" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="295" spans="1:21" hidden="1">
       <c r="A295" s="21">
         <v>64</v>
       </c>
@@ -19939,7 +19936,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="296" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="296" spans="1:21" hidden="1">
       <c r="A296" s="21">
         <v>71</v>
       </c>
@@ -19983,7 +19980,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="297" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="297" spans="1:21" hidden="1">
       <c r="A297" s="21">
         <v>71</v>
       </c>
@@ -20027,7 +20024,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="298" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="298" spans="1:21" hidden="1">
       <c r="A298" s="21">
         <v>71</v>
       </c>
@@ -20071,7 +20068,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="299" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="299" spans="1:21" hidden="1">
       <c r="A299" s="21">
         <v>71</v>
       </c>
@@ -20115,7 +20112,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="300" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="300" spans="1:21" hidden="1">
       <c r="A300" s="21">
         <v>71</v>
       </c>
@@ -20159,7 +20156,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="301" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="301" spans="1:21" hidden="1">
       <c r="A301" s="21">
         <v>71</v>
       </c>
@@ -20203,7 +20200,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="302" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="302" spans="1:21" hidden="1">
       <c r="A302" s="21">
         <v>71</v>
       </c>
@@ -20247,7 +20244,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="303" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="303" spans="1:21" hidden="1">
       <c r="A303" s="21">
         <v>73</v>
       </c>
@@ -20300,7 +20297,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="304" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="304" spans="1:21" hidden="1">
       <c r="A304" s="21">
         <v>73</v>
       </c>
@@ -20353,7 +20350,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="305" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="305" spans="1:21" hidden="1">
       <c r="A305" s="21">
         <v>73</v>
       </c>
@@ -20406,7 +20403,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="306" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="306" spans="1:21" hidden="1">
       <c r="A306" s="21">
         <v>74</v>
       </c>
@@ -20456,7 +20453,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="307" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="307" spans="1:21" hidden="1">
       <c r="A307" s="21">
         <v>74</v>
       </c>
@@ -20506,7 +20503,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="308" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="308" spans="1:21" hidden="1">
       <c r="A308" s="21">
         <v>77</v>
       </c>
@@ -20556,7 +20553,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="309" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="309" spans="1:21" hidden="1">
       <c r="A309" s="21">
         <v>77</v>
       </c>
@@ -20606,7 +20603,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="310" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="310" spans="1:21" hidden="1">
       <c r="A310" s="21">
         <v>77</v>
       </c>
@@ -20656,7 +20653,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="311" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="311" spans="1:21" hidden="1">
       <c r="A311" s="21">
         <v>77</v>
       </c>
@@ -20706,7 +20703,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="312" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="312" spans="1:21" hidden="1">
       <c r="A312" s="21">
         <v>77</v>
       </c>
@@ -20756,7 +20753,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="313" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="313" spans="1:21" hidden="1">
       <c r="A313" s="21">
         <v>77</v>
       </c>
@@ -20806,7 +20803,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="314" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="314" spans="1:21" hidden="1">
       <c r="A314" s="21">
         <v>77</v>
       </c>
@@ -20856,7 +20853,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="315" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="315" spans="1:21" hidden="1">
       <c r="A315" s="21">
         <v>78</v>
       </c>
@@ -20903,7 +20900,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="316" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="316" spans="1:21" hidden="1">
       <c r="A316" s="21">
         <v>78</v>
       </c>
@@ -20950,7 +20947,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="317" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="317" spans="1:21" hidden="1">
       <c r="A317" s="21">
         <v>78</v>
       </c>
@@ -20997,7 +20994,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="318" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="318" spans="1:21" hidden="1">
       <c r="A318" s="21">
         <v>79</v>
       </c>
@@ -21044,7 +21041,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="319" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="319" spans="1:21" hidden="1">
       <c r="A319" s="21">
         <v>79</v>
       </c>
@@ -21091,7 +21088,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="320" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="320" spans="1:21" hidden="1">
       <c r="A320" s="21">
         <v>80</v>
       </c>
@@ -21135,7 +21132,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="321" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="321" spans="1:21" hidden="1">
       <c r="A321" s="21">
         <v>80</v>
       </c>
@@ -21179,7 +21176,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="322" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="322" spans="1:21" hidden="1">
       <c r="A322" s="21">
         <v>80</v>
       </c>
@@ -21223,7 +21220,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="323" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="323" spans="1:21" hidden="1">
       <c r="A323" s="21">
         <v>80</v>
       </c>
@@ -21267,7 +21264,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="324" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="324" spans="1:21" hidden="1">
       <c r="A324" s="21">
         <v>80</v>
       </c>
@@ -21311,7 +21308,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="325" spans="1:21" hidden="1">
       <c r="A325" s="21">
         <v>80</v>
       </c>
@@ -21355,7 +21352,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="326" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="326" spans="1:21" hidden="1">
       <c r="A326" s="21">
         <v>80</v>
       </c>
@@ -21399,7 +21396,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="327" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="327" spans="1:21" hidden="1">
       <c r="A327" s="21">
         <v>80</v>
       </c>
@@ -21443,7 +21440,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="328" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="328" spans="1:21" hidden="1">
       <c r="A328" s="21">
         <v>80</v>
       </c>
@@ -21487,7 +21484,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="329" spans="1:21" hidden="1">
       <c r="A329" s="21">
         <v>80</v>
       </c>
@@ -21531,7 +21528,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="330" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="330" spans="1:21" hidden="1">
       <c r="A330" s="21">
         <v>80</v>
       </c>
@@ -21575,7 +21572,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="331" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="331" spans="1:21" hidden="1">
       <c r="A331" s="21">
         <v>80</v>
       </c>
@@ -21619,7 +21616,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="332" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="332" spans="1:21" hidden="1">
       <c r="A332" s="21">
         <v>80</v>
       </c>
@@ -21663,7 +21660,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="333" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="333" spans="1:21" hidden="1">
       <c r="A333" s="21">
         <v>80</v>
       </c>
@@ -21707,7 +21704,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="334" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="334" spans="1:21" hidden="1">
       <c r="A334" s="21">
         <v>80</v>
       </c>
@@ -21751,7 +21748,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="335" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="335" spans="1:21" hidden="1">
       <c r="A335" s="21">
         <v>80</v>
       </c>
@@ -21796,165 +21793,165 @@
       </c>
     </row>
     <row r="336" spans="1:21" hidden="1">
-      <c r="A336" s="24">
+      <c r="A336" s="21">
         <v>82</v>
       </c>
-      <c r="B336" s="24" t="s">
+      <c r="B336" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C336" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D336" s="24" t="s">
+      <c r="C336" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D336" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="E336" s="24" t="s">
+      <c r="E336" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="F336" s="24" t="s">
+      <c r="F336" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G336" s="24" t="s">
+      <c r="G336" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="H336" s="24" t="s">
+      <c r="H336" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I336" s="24" t="s">
+      <c r="I336" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J336" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K336" s="24" t="s">
+      <c r="J336" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K336" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="L336" s="25" t="s">
+      <c r="L336" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="M336" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N336" s="24" t="s">
+      <c r="M336" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N336" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="O336" s="24" t="s">
+      <c r="O336" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="P336" s="24" t="s">
+      <c r="P336" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="U336" s="24" t="s">
+      <c r="U336" s="21" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="337" spans="1:21" hidden="1">
-      <c r="A337" s="24">
+      <c r="A337" s="21">
         <v>82</v>
       </c>
-      <c r="B337" s="24" t="s">
+      <c r="B337" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C337" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D337" s="24" t="s">
+      <c r="C337" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D337" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="E337" s="24" t="s">
+      <c r="E337" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="F337" s="24" t="s">
+      <c r="F337" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G337" s="24" t="s">
+      <c r="G337" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="H337" s="24" t="s">
+      <c r="H337" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I337" s="24" t="s">
+      <c r="I337" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J337" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K337" s="24" t="s">
+      <c r="J337" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K337" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="L337" s="25" t="s">
+      <c r="L337" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="M337" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N337" s="24" t="s">
+      <c r="M337" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N337" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="O337" s="24" t="s">
+      <c r="O337" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="P337" s="24" t="s">
+      <c r="P337" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="U337" s="24" t="s">
+      <c r="U337" s="21" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="338" spans="1:21" hidden="1">
-      <c r="A338" s="24">
+      <c r="A338" s="21">
         <v>82</v>
       </c>
-      <c r="B338" s="24" t="s">
+      <c r="B338" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C338" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D338" s="24" t="s">
+      <c r="C338" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D338" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="E338" s="24" t="s">
+      <c r="E338" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="F338" s="24" t="s">
+      <c r="F338" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G338" s="24" t="s">
+      <c r="G338" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="H338" s="24" t="s">
+      <c r="H338" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="I338" s="24" t="s">
+      <c r="I338" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="J338" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K338" s="24" t="s">
+      <c r="J338" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K338" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="L338" s="24" t="s">
+      <c r="L338" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="M338" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N338" s="24" t="s">
+      <c r="M338" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N338" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="O338" s="24" t="s">
+      <c r="O338" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="P338" s="24" t="s">
+      <c r="P338" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="U338" s="24" t="s">
+      <c r="U338" s="21" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="339" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="339" spans="1:21" hidden="1">
       <c r="A339" s="21">
         <v>86</v>
       </c>
@@ -22001,7 +21998,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="340" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="340" spans="1:21" hidden="1">
       <c r="A340" s="21">
         <v>88</v>
       </c>
@@ -22051,7 +22048,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="341" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="341" spans="1:21" hidden="1">
       <c r="A341" s="21">
         <v>88</v>
       </c>
@@ -22101,7 +22098,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="342" spans="1:21" hidden="1">
       <c r="A342" s="21">
         <v>88</v>
       </c>
@@ -22151,7 +22148,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="343" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="343" spans="1:21" hidden="1">
       <c r="A343" s="21">
         <v>88</v>
       </c>
@@ -22201,7 +22198,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="344" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="344" spans="1:21" hidden="1">
       <c r="A344" s="21">
         <v>91</v>
       </c>
@@ -22251,7 +22248,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="345" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="345" spans="1:21" hidden="1">
       <c r="A345" s="21">
         <v>94</v>
       </c>
@@ -22304,7 +22301,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="346" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="346" spans="1:21" hidden="1">
       <c r="A346" s="21">
         <v>94</v>
       </c>
@@ -22357,7 +22354,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="347" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="347" spans="1:21" hidden="1">
       <c r="A347" s="21">
         <v>98</v>
       </c>
@@ -22401,7 +22398,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="348" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="348" spans="1:21" hidden="1">
       <c r="A348" s="21">
         <v>98</v>
       </c>
@@ -22445,7 +22442,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="349" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="349" spans="1:21" hidden="1">
       <c r="A349" s="21">
         <v>99</v>
       </c>
@@ -22495,7 +22492,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="350" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="350" spans="1:21" hidden="1">
       <c r="A350" s="21">
         <v>99</v>
       </c>
@@ -22545,7 +22542,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="351" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="351" spans="1:21" hidden="1">
       <c r="A351" s="21">
         <v>102</v>
       </c>
@@ -22589,7 +22586,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="352" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="352" spans="1:21" hidden="1">
       <c r="A352" s="21">
         <v>102</v>
       </c>
@@ -22633,7 +22630,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="353" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="353" spans="1:21" hidden="1">
       <c r="A353" s="21">
         <v>103</v>
       </c>
@@ -22677,7 +22674,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="354" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="354" spans="1:21" hidden="1">
       <c r="A354" s="21">
         <v>103</v>
       </c>
@@ -22721,7 +22718,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="355" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="355" spans="1:21" hidden="1">
       <c r="A355" s="21">
         <v>103</v>
       </c>
@@ -22765,7 +22762,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="356" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="356" spans="1:21" hidden="1">
       <c r="A356" s="21">
         <v>108</v>
       </c>
@@ -22809,7 +22806,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="357" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="357" spans="1:21" hidden="1">
       <c r="A357" s="21">
         <v>108</v>
       </c>
@@ -22853,7 +22850,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="358" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="358" spans="1:21" hidden="1">
       <c r="A358" s="21">
         <v>108</v>
       </c>
@@ -22897,7 +22894,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="359" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="359" spans="1:21" hidden="1">
       <c r="A359" s="21">
         <v>108</v>
       </c>
@@ -22941,7 +22938,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="360" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="360" spans="1:21" hidden="1">
       <c r="A360" s="21">
         <v>116</v>
       </c>
@@ -22991,7 +22988,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="361" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="361" spans="1:21" hidden="1">
       <c r="A361" s="21">
         <v>116</v>
       </c>
@@ -23041,7 +23038,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="362" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="362" spans="1:21" hidden="1">
       <c r="A362" s="21">
         <v>116</v>
       </c>
@@ -23091,7 +23088,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="363" spans="1:21" s="21" customFormat="1">
+    <row r="363" spans="1:21" hidden="1">
       <c r="A363" s="21">
         <v>119</v>
       </c>
@@ -23144,7 +23141,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="364" spans="1:21" s="21" customFormat="1">
+    <row r="364" spans="1:21" hidden="1">
       <c r="A364" s="21">
         <v>119</v>
       </c>
@@ -23197,7 +23194,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="365" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="365" spans="1:21" hidden="1">
       <c r="A365" s="21">
         <v>120</v>
       </c>
@@ -23244,7 +23241,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="366" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="366" spans="1:21" hidden="1">
       <c r="A366" s="21">
         <v>120</v>
       </c>
@@ -23291,7 +23288,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="367" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="367" spans="1:21" hidden="1">
       <c r="A367" s="21">
         <v>120</v>
       </c>
@@ -23338,7 +23335,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="368" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="368" spans="1:21">
       <c r="A368" s="21">
         <v>125</v>
       </c>
@@ -23378,8 +23375,14 @@
       <c r="N368" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="369" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O368" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P368" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16">
       <c r="A369" s="21">
         <v>125</v>
       </c>
@@ -23419,8 +23422,14 @@
       <c r="N369" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="370" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O369" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P369" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16">
       <c r="A370" s="21">
         <v>125</v>
       </c>
@@ -23460,8 +23469,14 @@
       <c r="N370" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="371" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O370" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P370" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16">
       <c r="A371" s="21">
         <v>125</v>
       </c>
@@ -23501,8 +23516,14 @@
       <c r="N371" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="372" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O371" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P371" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16">
       <c r="A372" s="21">
         <v>125</v>
       </c>
@@ -23542,8 +23563,14 @@
       <c r="N372" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="373" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O372" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P372" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16">
       <c r="A373" s="21">
         <v>125</v>
       </c>
@@ -23583,8 +23610,14 @@
       <c r="N373" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="374" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O373" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P373" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16">
       <c r="A374" s="21">
         <v>125</v>
       </c>
@@ -23624,8 +23657,14 @@
       <c r="N374" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="375" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O374" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P374" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16">
       <c r="A375" s="21">
         <v>125</v>
       </c>
@@ -23665,8 +23704,14 @@
       <c r="N375" s="21" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="376" spans="1:16" s="21" customFormat="1" hidden="1">
+      <c r="O375" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P375" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" hidden="1">
       <c r="A376" s="21">
         <v>126</v>
       </c>
@@ -23716,7 +23761,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="377" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="377" spans="1:16" hidden="1">
       <c r="A377" s="21">
         <v>126</v>
       </c>
@@ -23766,7 +23811,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="378" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="378" spans="1:16" hidden="1">
       <c r="A378" s="21">
         <v>126</v>
       </c>
@@ -23816,7 +23861,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="379" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="379" spans="1:16" hidden="1">
       <c r="A379" s="21">
         <v>126</v>
       </c>
@@ -23866,7 +23911,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="380" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="380" spans="1:16" hidden="1">
       <c r="A380" s="21">
         <v>126</v>
       </c>
@@ -23916,7 +23961,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="381" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="381" spans="1:16" hidden="1">
       <c r="A381" s="21">
         <v>129</v>
       </c>
@@ -23960,7 +24005,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="382" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="382" spans="1:16" hidden="1">
       <c r="A382" s="21">
         <v>133</v>
       </c>
@@ -24010,7 +24055,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="383" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="383" spans="1:16" hidden="1">
       <c r="A383" s="21">
         <v>136</v>
       </c>
@@ -24054,7 +24099,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="384" spans="1:16" s="21" customFormat="1" hidden="1">
+    <row r="384" spans="1:16" hidden="1">
       <c r="A384" s="21">
         <v>136</v>
       </c>
@@ -24098,7 +24143,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="385" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="385" spans="1:21">
       <c r="A385" s="21">
         <v>138</v>
       </c>
@@ -24138,8 +24183,14 @@
       <c r="N385" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="386" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O385" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P385" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21">
       <c r="A386" s="21">
         <v>138</v>
       </c>
@@ -24179,8 +24230,14 @@
       <c r="N386" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="387" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O386" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P386" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21">
       <c r="A387" s="21">
         <v>138</v>
       </c>
@@ -24220,8 +24277,14 @@
       <c r="N387" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="388" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O387" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P387" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21">
       <c r="A388" s="21">
         <v>138</v>
       </c>
@@ -24261,8 +24324,14 @@
       <c r="N388" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="389" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O388" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P388" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21">
       <c r="A389" s="21">
         <v>138</v>
       </c>
@@ -24302,8 +24371,14 @@
       <c r="N389" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="390" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O389" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P389" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21">
       <c r="A390" s="21">
         <v>138</v>
       </c>
@@ -24343,8 +24418,14 @@
       <c r="N390" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="391" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O390" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P390" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21">
       <c r="A391" s="21">
         <v>138</v>
       </c>
@@ -24384,8 +24465,14 @@
       <c r="N391" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="392" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O391" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P391" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21">
       <c r="A392" s="21">
         <v>138</v>
       </c>
@@ -24425,8 +24512,14 @@
       <c r="N392" s="21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="393" spans="1:21" s="21" customFormat="1" hidden="1">
+      <c r="O392" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="P392" s="21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" hidden="1">
       <c r="A393" s="21">
         <v>139</v>
       </c>
@@ -24470,7 +24563,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="394" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="394" spans="1:21" hidden="1">
       <c r="A394" s="21">
         <v>139</v>
       </c>
@@ -24514,7 +24607,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="395" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="395" spans="1:21" hidden="1">
       <c r="A395" s="21">
         <v>140</v>
       </c>
@@ -24561,7 +24654,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="396" spans="1:21" hidden="1">
       <c r="A396" s="21">
         <v>140</v>
       </c>
@@ -24608,7 +24701,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="397" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="397" spans="1:21" hidden="1">
       <c r="A397" s="21">
         <v>140</v>
       </c>
@@ -24655,7 +24748,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="398" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="398" spans="1:21" hidden="1">
       <c r="A398" s="21">
         <v>140</v>
       </c>
@@ -24702,7 +24795,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="399" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="399" spans="1:21" hidden="1">
       <c r="A399" s="21">
         <v>140</v>
       </c>
@@ -24749,7 +24842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="400" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="400" spans="1:21" hidden="1">
       <c r="A400" s="21">
         <v>140</v>
       </c>
@@ -24796,7 +24889,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="401" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="401" spans="1:21" hidden="1">
       <c r="A401" s="21">
         <v>140</v>
       </c>
@@ -24843,7 +24936,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="402" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="402" spans="1:21" hidden="1">
       <c r="A402" s="21">
         <v>140</v>
       </c>
@@ -24890,7 +24983,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="403" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="403" spans="1:21" hidden="1">
       <c r="A403" s="21">
         <v>141</v>
       </c>
@@ -24937,7 +25030,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="404" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="404" spans="1:21" hidden="1">
       <c r="A404" s="21">
         <v>141</v>
       </c>
@@ -24984,7 +25077,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="405" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="405" spans="1:21" hidden="1">
       <c r="A405" s="21">
         <v>143</v>
       </c>
@@ -25025,7 +25118,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="406" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="406" spans="1:21" hidden="1">
       <c r="A406" s="21">
         <v>143</v>
       </c>
@@ -25066,7 +25159,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="407" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="407" spans="1:21" hidden="1">
       <c r="A407" s="21">
         <v>143</v>
       </c>
@@ -25107,7 +25200,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="408" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="408" spans="1:21" hidden="1">
       <c r="A408" s="21">
         <v>143</v>
       </c>
@@ -25148,7 +25241,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="409" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="409" spans="1:21" hidden="1">
       <c r="A409" s="21">
         <v>143</v>
       </c>
@@ -25189,7 +25282,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="410" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="410" spans="1:21" hidden="1">
       <c r="A410" s="21">
         <v>143</v>
       </c>
@@ -25230,7 +25323,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="411" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="411" spans="1:21" hidden="1">
       <c r="A411" s="21">
         <v>146</v>
       </c>
@@ -25277,7 +25370,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="412" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="412" spans="1:21" hidden="1">
       <c r="A412" s="21">
         <v>146</v>
       </c>
@@ -25325,174 +25418,174 @@
       </c>
     </row>
     <row r="413" spans="1:21" hidden="1">
-      <c r="A413" s="24">
+      <c r="A413" s="21">
         <v>147</v>
       </c>
-      <c r="B413" s="24" t="s">
+      <c r="B413" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C413" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D413" s="24" t="s">
+      <c r="C413" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D413" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E413" s="24" t="s">
+      <c r="E413" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F413" s="24" t="s">
+      <c r="F413" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G413" s="24" t="s">
+      <c r="G413" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="H413" s="24" t="s">
+      <c r="H413" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I413" s="24" t="s">
+      <c r="I413" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="J413" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K413" s="24" t="s">
+      <c r="J413" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K413" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="L413" s="24" t="s">
+      <c r="L413" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="M413" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N413" s="24" t="s">
+      <c r="M413" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N413" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="O413" s="24" t="s">
+      <c r="O413" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="P413" s="24" t="s">
+      <c r="P413" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="S413" s="24">
+      <c r="S413" s="21">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="T413" s="24">
+      <c r="T413" s="21">
         <v>9.9</v>
       </c>
     </row>
     <row r="414" spans="1:21" hidden="1">
-      <c r="A414" s="24">
+      <c r="A414" s="21">
         <v>147</v>
       </c>
-      <c r="B414" s="24" t="s">
+      <c r="B414" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C414" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D414" s="24" t="s">
+      <c r="C414" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D414" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E414" s="24" t="s">
+      <c r="E414" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F414" s="24" t="s">
+      <c r="F414" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G414" s="24" t="s">
+      <c r="G414" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="H414" s="24" t="s">
+      <c r="H414" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I414" s="24" t="s">
+      <c r="I414" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="J414" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K414" s="24" t="s">
+      <c r="J414" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K414" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="L414" s="24" t="s">
+      <c r="L414" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="M414" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N414" s="24" t="s">
+      <c r="M414" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N414" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="O414" s="24" t="s">
+      <c r="O414" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="P414" s="24" t="s">
+      <c r="P414" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="S414" s="24">
+      <c r="S414" s="21">
         <v>-0.06</v>
       </c>
-      <c r="T414" s="24">
+      <c r="T414" s="21">
         <v>11.6</v>
       </c>
     </row>
     <row r="415" spans="1:21" hidden="1">
-      <c r="A415" s="24">
+      <c r="A415" s="21">
         <v>147</v>
       </c>
-      <c r="B415" s="24" t="s">
+      <c r="B415" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C415" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D415" s="24" t="s">
+      <c r="C415" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D415" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E415" s="24" t="s">
+      <c r="E415" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F415" s="24" t="s">
+      <c r="F415" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G415" s="24" t="s">
+      <c r="G415" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="H415" s="24" t="s">
+      <c r="H415" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I415" s="24" t="s">
+      <c r="I415" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="J415" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K415" s="24" t="s">
+      <c r="J415" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K415" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="L415" s="24" t="s">
+      <c r="L415" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="M415" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="N415" s="24" t="s">
+      <c r="M415" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="N415" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="O415" s="24" t="s">
+      <c r="O415" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="P415" s="24" t="s">
+      <c r="P415" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="S415" s="24">
+      <c r="S415" s="21">
         <v>-0.05</v>
       </c>
-      <c r="T415" s="24">
+      <c r="T415" s="21">
         <v>13.9</v>
       </c>
     </row>
-    <row r="416" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="416" spans="1:21" hidden="1">
       <c r="A416" s="21">
         <v>152</v>
       </c>
@@ -25536,7 +25629,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="417" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="417" spans="1:21" hidden="1">
       <c r="A417" s="21">
         <v>152</v>
       </c>
@@ -25580,7 +25673,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="418" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="418" spans="1:21" hidden="1">
       <c r="A418" s="21">
         <v>152</v>
       </c>
@@ -25624,7 +25717,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="419" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="419" spans="1:21" hidden="1">
       <c r="A419" s="21">
         <v>157</v>
       </c>
@@ -25668,7 +25761,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="420" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="420" spans="1:21" hidden="1">
       <c r="A420" s="21">
         <v>157</v>
       </c>
@@ -25712,7 +25805,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="421" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="421" spans="1:21" hidden="1">
       <c r="A421" s="21">
         <v>157</v>
       </c>
@@ -25756,7 +25849,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="422" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="422" spans="1:21" hidden="1">
       <c r="A422" s="21">
         <v>157</v>
       </c>
@@ -25800,7 +25893,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="423" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="423" spans="1:21" hidden="1">
       <c r="A423" s="21">
         <v>157</v>
       </c>
@@ -25844,7 +25937,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="424" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="424" spans="1:21" hidden="1">
       <c r="A424" s="21">
         <v>157</v>
       </c>
@@ -25888,7 +25981,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="425" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="425" spans="1:21" hidden="1">
       <c r="A425" s="21">
         <v>157</v>
       </c>
@@ -25932,7 +26025,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="426" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="426" spans="1:21" hidden="1">
       <c r="A426" s="21">
         <v>157</v>
       </c>
@@ -25976,7 +26069,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="427" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="427" spans="1:21" hidden="1">
       <c r="A427" s="21">
         <v>157</v>
       </c>
@@ -26020,7 +26113,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="428" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="428" spans="1:21" hidden="1">
       <c r="A428" s="21">
         <v>158</v>
       </c>
@@ -26067,7 +26160,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="429" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="429" spans="1:21" hidden="1">
       <c r="A429" s="21">
         <v>159</v>
       </c>
@@ -26114,7 +26207,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="430" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="430" spans="1:21" hidden="1">
       <c r="A430" s="21">
         <v>159</v>
       </c>
@@ -26161,7 +26254,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="431" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="431" spans="1:21" hidden="1">
       <c r="A431" s="21">
         <v>159</v>
       </c>
@@ -26208,7 +26301,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="432" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="432" spans="1:21" hidden="1">
       <c r="A432" s="21">
         <v>160</v>
       </c>
@@ -26255,7 +26348,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="433" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="433" spans="1:21" hidden="1">
       <c r="A433" s="21">
         <v>160</v>
       </c>
@@ -26302,7 +26395,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="434" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="434" spans="1:21" hidden="1">
       <c r="A434" s="21">
         <v>160</v>
       </c>
@@ -26349,7 +26442,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="435" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="435" spans="1:21" hidden="1">
       <c r="A435" s="21">
         <v>163</v>
       </c>
@@ -26393,7 +26486,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="436" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="436" spans="1:21" hidden="1">
       <c r="A436" s="21">
         <v>163</v>
       </c>
@@ -26437,7 +26530,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="437" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="437" spans="1:21" hidden="1">
       <c r="A437" s="21">
         <v>163</v>
       </c>
@@ -26481,7 +26574,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="438" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="438" spans="1:21" hidden="1">
       <c r="A438" s="21">
         <v>163</v>
       </c>
@@ -26525,7 +26618,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="439" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="439" spans="1:21" hidden="1">
       <c r="A439" s="21">
         <v>165</v>
       </c>
@@ -26569,7 +26662,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="440" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="440" spans="1:21" hidden="1">
       <c r="A440" s="21">
         <v>165</v>
       </c>
@@ -26613,7 +26706,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="441" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="441" spans="1:21" hidden="1">
       <c r="A441" s="21">
         <v>166</v>
       </c>
@@ -26657,7 +26750,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="442" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="442" spans="1:21" hidden="1">
       <c r="A442" s="21">
         <v>166</v>
       </c>
@@ -26701,7 +26794,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="443" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="443" spans="1:21" hidden="1">
       <c r="A443" s="21">
         <v>166</v>
       </c>
@@ -26745,7 +26838,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="444" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="444" spans="1:21" hidden="1">
       <c r="A444" s="21">
         <v>166</v>
       </c>
@@ -26789,7 +26882,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="445" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="445" spans="1:21" hidden="1">
       <c r="A445" s="21">
         <v>166</v>
       </c>
@@ -26833,7 +26926,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="446" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="446" spans="1:21" hidden="1">
       <c r="A446" s="21">
         <v>166</v>
       </c>
@@ -26877,7 +26970,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="447" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="447" spans="1:21" hidden="1">
       <c r="A447" s="21">
         <v>166</v>
       </c>
@@ -26921,7 +27014,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="448" spans="1:21" hidden="1">
       <c r="A448" s="21">
         <v>166</v>
       </c>
@@ -26965,7 +27058,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="449" spans="1:21" hidden="1">
       <c r="A449" s="21">
         <v>168</v>
       </c>
@@ -27009,7 +27102,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="450" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="450" spans="1:21" hidden="1">
       <c r="A450" s="21">
         <v>170</v>
       </c>
@@ -27053,7 +27146,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="451" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="451" spans="1:21" hidden="1">
       <c r="A451" s="21">
         <v>174</v>
       </c>
@@ -27097,7 +27190,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="452" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="452" spans="1:21" hidden="1">
       <c r="A452" s="21">
         <v>176</v>
       </c>
@@ -27141,7 +27234,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="453" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="453" spans="1:21" hidden="1">
       <c r="A453" s="21">
         <v>176</v>
       </c>
@@ -27185,7 +27278,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="454" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="454" spans="1:21" hidden="1">
       <c r="A454" s="21">
         <v>176</v>
       </c>
@@ -27229,7 +27322,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="455" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="455" spans="1:21" hidden="1">
       <c r="A455" s="21">
         <v>176</v>
       </c>
@@ -27273,7 +27366,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="456" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="456" spans="1:21" hidden="1">
       <c r="A456" s="21">
         <v>176</v>
       </c>
@@ -27317,7 +27410,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="457" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="457" spans="1:21" hidden="1">
       <c r="A457" s="21">
         <v>176</v>
       </c>
@@ -27361,7 +27454,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="458" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="458" spans="1:21" hidden="1">
       <c r="A458" s="21">
         <v>176</v>
       </c>
@@ -27405,7 +27498,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="459" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="459" spans="1:21" hidden="1">
       <c r="A459" s="21">
         <v>179</v>
       </c>
@@ -27458,7 +27551,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="460" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="460" spans="1:21" hidden="1">
       <c r="A460" s="21">
         <v>181</v>
       </c>
@@ -27502,7 +27595,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="461" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="461" spans="1:21" hidden="1">
       <c r="A461" s="21">
         <v>188</v>
       </c>
@@ -27549,7 +27642,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="462" spans="1:21" s="21" customFormat="1" hidden="1">
+    <row r="462" spans="1:21" hidden="1">
       <c r="A462" s="21">
         <v>188</v>
       </c>
@@ -27598,9 +27691,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="9">
+    <filterColumn colId="10">
       <filters>
-        <filter val="field (non-toxic site)"/>
+        <filter val="exposure"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8630AC-77CE-E34D-BB46-3A54F7F49AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AEE324-C638-BC46-AAAA-13F6EF25094A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-400" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12689" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12716" uniqueCount="1020">
   <si>
     <t>Article Title</t>
   </si>
@@ -2784,9 +2784,6 @@
     <t>Figures; confusing</t>
   </si>
   <si>
-    <t>Figure 4; supp data</t>
-  </si>
-  <si>
     <t>Softshell clam</t>
   </si>
   <si>
@@ -3127,6 +3124,9 @@
   </si>
   <si>
     <t>Peruvian calico scallop</t>
+  </si>
+  <si>
+    <t>NEED TO ADD EXPOSURE TREATMENTS</t>
   </si>
 </sst>
 </file>
@@ -3247,7 +3247,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3257,6 +3257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,7 +3279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3299,6 +3305,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4777,9 +4786,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P372" sqref="P372"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P223" sqref="P223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4834,7 +4843,7 @@
         <v>196</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>403</v>
@@ -4873,7 +4882,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" hidden="1">
       <c r="A2" s="21">
         <v>114</v>
       </c>
@@ -4908,7 +4917,7 @@
         <v>562</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>408</v>
@@ -4926,10 +4935,10 @@
         <v>-7.5600000000000001E-2</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" hidden="1">
       <c r="A3" s="21">
         <v>114</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>562</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>408</v>
@@ -4982,7 +4991,7 @@
         <v>-2.9499999999999998E-2</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:21" hidden="1">
@@ -5017,10 +5026,10 @@
         <v>404</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>408</v>
@@ -5070,10 +5079,10 @@
         <v>404</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>408</v>
@@ -5123,10 +5132,10 @@
         <v>404</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>414</v>
@@ -5176,10 +5185,10 @@
         <v>404</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>408</v>
@@ -5229,10 +5238,10 @@
         <v>404</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>408</v>
@@ -5282,10 +5291,10 @@
         <v>404</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>414</v>
@@ -5335,10 +5344,10 @@
         <v>404</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>414</v>
@@ -5388,10 +5397,10 @@
         <v>404</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>414</v>
@@ -5441,10 +5450,10 @@
         <v>404</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>408</v>
@@ -5494,10 +5503,10 @@
         <v>404</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="M13" s="21" t="s">
         <v>408</v>
@@ -5579,7 +5588,7 @@
         <v>402</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>346</v>
@@ -5600,7 +5609,7 @@
         <v>404</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L15" s="21" t="s">
         <v>880</v>
@@ -5685,7 +5694,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>346</v>
@@ -5706,7 +5715,7 @@
         <v>404</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>881</v>
@@ -7926,10 +7935,10 @@
         <v>404</v>
       </c>
       <c r="K59" s="21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L59" s="21" t="s">
         <v>1009</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>1010</v>
       </c>
       <c r="M59" s="21" t="s">
         <v>414</v>
@@ -8082,7 +8091,7 @@
         <v>404</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L62" s="21" t="s">
         <v>408</v>
@@ -8194,10 +8203,10 @@
         <v>404</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M64" s="21" t="s">
         <v>414</v>
@@ -8509,10 +8518,10 @@
         <v>404</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M70" s="21" t="s">
         <v>414</v>
@@ -8768,10 +8777,10 @@
         <v>404</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M75" s="21" t="s">
         <v>414</v>
@@ -9310,10 +9319,10 @@
         <v>404</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M85" s="21" t="s">
         <v>414</v>
@@ -9366,10 +9375,10 @@
         <v>404</v>
       </c>
       <c r="K86" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L86" s="21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M86" s="21" t="s">
         <v>414</v>
@@ -9422,10 +9431,10 @@
         <v>404</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M87" s="21" t="s">
         <v>408</v>
@@ -9531,10 +9540,10 @@
         <v>404</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M89" s="21" t="s">
         <v>414</v>
@@ -9587,10 +9596,10 @@
         <v>404</v>
       </c>
       <c r="K90" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="L90" s="21" t="s">
         <v>997</v>
-      </c>
-      <c r="L90" s="21" t="s">
-        <v>998</v>
       </c>
       <c r="M90" s="21" t="s">
         <v>414</v>
@@ -9643,10 +9652,10 @@
         <v>404</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L91" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M91" s="21" t="s">
         <v>408</v>
@@ -9858,10 +9867,10 @@
         <v>404</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L95" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M95" s="21" t="s">
         <v>414</v>
@@ -10073,10 +10082,10 @@
         <v>404</v>
       </c>
       <c r="K99" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L99" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M99" s="21" t="s">
         <v>414</v>
@@ -10235,10 +10244,10 @@
         <v>404</v>
       </c>
       <c r="K102" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L102" s="21" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M102" s="21" t="s">
         <v>414</v>
@@ -11012,10 +11021,10 @@
         <v>402</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>269</v>
@@ -11036,7 +11045,7 @@
         <v>679</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M117" s="21" t="s">
         <v>486</v>
@@ -11054,7 +11063,7 @@
         <v>0.02</v>
       </c>
       <c r="U117" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="118" spans="1:21" hidden="1">
@@ -11068,10 +11077,10 @@
         <v>402</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F118" s="21" t="s">
         <v>269</v>
@@ -11092,7 +11101,7 @@
         <v>679</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M118" s="21" t="s">
         <v>486</v>
@@ -11110,7 +11119,7 @@
         <v>0.02</v>
       </c>
       <c r="U118" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="119" spans="1:21" hidden="1">
@@ -11230,7 +11239,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>202</v>
@@ -11251,7 +11260,7 @@
         <v>449</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L121" s="21" t="s">
         <v>479</v>
@@ -11263,7 +11272,7 @@
         <v>410</v>
       </c>
       <c r="O121" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P121" s="21" t="s">
         <v>693</v>
@@ -11336,10 +11345,10 @@
         <v>402</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F123" s="21" t="s">
         <v>269</v>
@@ -11360,7 +11369,7 @@
         <v>679</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M123" s="21" t="s">
         <v>486</v>
@@ -11378,7 +11387,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="U123" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="124" spans="1:21" hidden="1">
@@ -11519,10 +11528,10 @@
         <v>404</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M126" s="21" t="s">
         <v>414</v>
@@ -11837,10 +11846,10 @@
         <v>404</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M132" s="21" t="s">
         <v>414</v>
@@ -12046,10 +12055,10 @@
         <v>404</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M136" s="21" t="s">
         <v>408</v>
@@ -12149,10 +12158,10 @@
         <v>404</v>
       </c>
       <c r="K138" s="21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L138" s="21" t="s">
         <v>1002</v>
-      </c>
-      <c r="L138" s="21" t="s">
-        <v>1003</v>
       </c>
       <c r="M138" s="21" t="s">
         <v>408</v>
@@ -12199,10 +12208,10 @@
         <v>404</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M139" s="21" t="s">
         <v>414</v>
@@ -12302,10 +12311,10 @@
         <v>404</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L141" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M141" s="21" t="s">
         <v>414</v>
@@ -12387,7 +12396,7 @@
         <v>402</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>202</v>
@@ -12408,7 +12417,7 @@
         <v>404</v>
       </c>
       <c r="K143" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L143" s="21" t="s">
         <v>414</v>
@@ -12420,7 +12429,7 @@
         <v>410</v>
       </c>
       <c r="O143" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P143" s="21" t="s">
         <v>693</v>
@@ -12620,10 +12629,10 @@
         <v>404</v>
       </c>
       <c r="K147" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L147" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M147" s="21" t="s">
         <v>414</v>
@@ -12779,10 +12788,10 @@
         <v>404</v>
       </c>
       <c r="K150" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L150" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M150" s="21" t="s">
         <v>414</v>
@@ -12832,10 +12841,10 @@
         <v>404</v>
       </c>
       <c r="K151" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L151" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M151" s="21" t="s">
         <v>414</v>
@@ -12885,10 +12894,10 @@
         <v>404</v>
       </c>
       <c r="K152" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L152" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M152" s="21" t="s">
         <v>414</v>
@@ -12991,10 +13000,10 @@
         <v>404</v>
       </c>
       <c r="K154" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L154" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M154" s="21" t="s">
         <v>414</v>
@@ -13044,10 +13053,10 @@
         <v>404</v>
       </c>
       <c r="K155" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L155" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M155" s="21" t="s">
         <v>414</v>
@@ -13309,10 +13318,10 @@
         <v>404</v>
       </c>
       <c r="K160" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L160" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M160" s="21" t="s">
         <v>414</v>
@@ -13341,7 +13350,7 @@
         <v>402</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E161" s="21" t="s">
         <v>202</v>
@@ -13362,7 +13371,7 @@
         <v>449</v>
       </c>
       <c r="K161" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L161" s="21" t="s">
         <v>479</v>
@@ -13371,10 +13380,10 @@
         <v>486</v>
       </c>
       <c r="N161" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O161" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P161" s="21" t="s">
         <v>693</v>
@@ -13415,10 +13424,10 @@
         <v>404</v>
       </c>
       <c r="K162" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L162" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M162" s="21" t="s">
         <v>414</v>
@@ -13606,7 +13615,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E166" s="21" t="s">
         <v>202</v>
@@ -13627,7 +13636,7 @@
         <v>449</v>
       </c>
       <c r="K166" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L166" s="21" t="s">
         <v>479</v>
@@ -13639,7 +13648,7 @@
         <v>425</v>
       </c>
       <c r="O166" s="20" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P166" s="20" t="s">
         <v>693</v>
@@ -13680,10 +13689,10 @@
         <v>404</v>
       </c>
       <c r="K167" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L167" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M167" s="21" t="s">
         <v>414</v>
@@ -13712,7 +13721,7 @@
         <v>402</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E168" s="21" t="s">
         <v>202</v>
@@ -13733,7 +13742,7 @@
         <v>449</v>
       </c>
       <c r="K168" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L168" s="21" t="s">
         <v>479</v>
@@ -13742,10 +13751,10 @@
         <v>486</v>
       </c>
       <c r="N168" s="21" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O168" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P168" s="21" t="s">
         <v>693</v>
@@ -13786,10 +13795,10 @@
         <v>404</v>
       </c>
       <c r="K169" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L169" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M169" s="21" t="s">
         <v>414</v>
@@ -13839,10 +13848,10 @@
         <v>404</v>
       </c>
       <c r="K170" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L170" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M170" s="21" t="s">
         <v>414</v>
@@ -13892,10 +13901,10 @@
         <v>404</v>
       </c>
       <c r="K171" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L171" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M171" s="21" t="s">
         <v>414</v>
@@ -13924,7 +13933,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E172" s="21" t="s">
         <v>202</v>
@@ -13945,7 +13954,7 @@
         <v>404</v>
       </c>
       <c r="K172" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L172" s="21" t="s">
         <v>414</v>
@@ -13957,7 +13966,7 @@
         <v>477</v>
       </c>
       <c r="O172" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P172" s="21" t="s">
         <v>693</v>
@@ -14051,10 +14060,10 @@
         <v>404</v>
       </c>
       <c r="K174" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L174" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M174" s="21" t="s">
         <v>414</v>
@@ -14083,7 +14092,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>202</v>
@@ -14104,7 +14113,7 @@
         <v>449</v>
       </c>
       <c r="K175" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L175" s="21" t="s">
         <v>479</v>
@@ -14116,7 +14125,7 @@
         <v>477</v>
       </c>
       <c r="O175" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P175" s="21" t="s">
         <v>693</v>
@@ -14157,10 +14166,10 @@
         <v>404</v>
       </c>
       <c r="K176" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L176" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M176" s="21" t="s">
         <v>414</v>
@@ -14295,7 +14304,7 @@
         <v>402</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E179" s="21" t="s">
         <v>202</v>
@@ -14316,7 +14325,7 @@
         <v>404</v>
       </c>
       <c r="K179" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L179" s="21" t="s">
         <v>414</v>
@@ -14328,7 +14337,7 @@
         <v>425</v>
       </c>
       <c r="O179" s="21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P179" s="21" t="s">
         <v>693</v>
@@ -14401,7 +14410,7 @@
         <v>402</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E181" s="21" t="s">
         <v>202</v>
@@ -14422,7 +14431,7 @@
         <v>449</v>
       </c>
       <c r="K181" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L181" s="21" t="s">
         <v>479</v>
@@ -14434,7 +14443,7 @@
         <v>478</v>
       </c>
       <c r="O181" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P181" s="21" t="s">
         <v>693</v>
@@ -14454,7 +14463,7 @@
         <v>402</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E182" s="21" t="s">
         <v>202</v>
@@ -14475,7 +14484,7 @@
         <v>404</v>
       </c>
       <c r="K182" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L182" s="21" t="s">
         <v>414</v>
@@ -14484,10 +14493,10 @@
         <v>414</v>
       </c>
       <c r="N182" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O182" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P182" s="21" t="s">
         <v>693</v>
@@ -14507,7 +14516,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>202</v>
@@ -14528,7 +14537,7 @@
         <v>404</v>
       </c>
       <c r="K183" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L183" s="21" t="s">
         <v>414</v>
@@ -14537,10 +14546,10 @@
         <v>414</v>
       </c>
       <c r="N183" s="21" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O183" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P183" s="21" t="s">
         <v>693</v>
@@ -14560,7 +14569,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E184" s="21" t="s">
         <v>202</v>
@@ -14581,7 +14590,7 @@
         <v>404</v>
       </c>
       <c r="K184" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L184" s="21" t="s">
         <v>414</v>
@@ -14593,7 +14602,7 @@
         <v>478</v>
       </c>
       <c r="O184" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P184" s="21" t="s">
         <v>693</v>
@@ -14634,10 +14643,10 @@
         <v>404</v>
       </c>
       <c r="K185" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="L185" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="L185" s="21" t="s">
-        <v>947</v>
       </c>
       <c r="M185" s="21" t="s">
         <v>414</v>
@@ -14690,10 +14699,10 @@
         <v>404</v>
       </c>
       <c r="K186" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L186" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M186" s="21" t="s">
         <v>414</v>
@@ -14746,10 +14755,10 @@
         <v>404</v>
       </c>
       <c r="K187" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L187" s="21" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M187" s="21" t="s">
         <v>414</v>
@@ -14823,262 +14832,262 @@
         <v>549</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1">
-      <c r="A189" s="21">
+    <row r="189" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A189" s="23">
         <v>2</v>
       </c>
-      <c r="B189" s="21" t="s">
+      <c r="B189" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D189" s="21" t="s">
+      <c r="C189" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D189" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E189" s="21" t="s">
+      <c r="E189" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F189" s="21" t="s">
+      <c r="F189" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G189" s="21" t="s">
+      <c r="G189" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H189" s="21" t="s">
+      <c r="H189" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I189" s="21" t="s">
+      <c r="I189" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J189" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K189" s="21" t="s">
-        <v>944</v>
-      </c>
-      <c r="L189" s="21" t="s">
+      <c r="J189" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K189" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="L189" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="M189" s="21" t="s">
+      <c r="M189" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N189" s="21" t="s">
+      <c r="N189" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O189" s="21" t="s">
+      <c r="O189" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="P189" s="21" t="s">
+      <c r="P189" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="U189" s="21" t="s">
+      <c r="U189" s="23" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1">
-      <c r="A190" s="21">
+    <row r="190" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A190" s="23">
         <v>2</v>
       </c>
-      <c r="B190" s="21" t="s">
+      <c r="B190" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C190" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D190" s="21" t="s">
+      <c r="C190" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D190" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E190" s="21" t="s">
+      <c r="E190" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F190" s="21" t="s">
+      <c r="F190" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G190" s="21" t="s">
+      <c r="G190" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H190" s="21" t="s">
+      <c r="H190" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I190" s="21" t="s">
+      <c r="I190" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J190" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K190" s="21" t="s">
-        <v>944</v>
-      </c>
-      <c r="L190" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="M190" s="21" t="s">
+      <c r="J190" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K190" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="L190" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="M190" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N190" s="21" t="s">
+      <c r="N190" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O190" s="21" t="s">
+      <c r="O190" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="P190" s="21" t="s">
+      <c r="P190" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1">
-      <c r="A191" s="21">
+    <row r="191" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A191" s="23">
         <v>2</v>
       </c>
-      <c r="B191" s="21" t="s">
+      <c r="B191" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C191" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D191" s="21" t="s">
+      <c r="C191" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D191" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E191" s="21" t="s">
+      <c r="E191" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F191" s="21" t="s">
+      <c r="F191" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G191" s="21" t="s">
+      <c r="G191" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H191" s="21" t="s">
+      <c r="H191" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I191" s="21" t="s">
+      <c r="I191" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J191" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K191" s="21" t="s">
-        <v>944</v>
-      </c>
-      <c r="L191" s="21" t="s">
+      <c r="J191" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K191" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="L191" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="M191" s="21" t="s">
+      <c r="M191" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N191" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="O191" s="21" t="s">
+      <c r="N191" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="O191" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="P191" s="21" t="s">
+      <c r="P191" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="U191" s="21" t="s">
+      <c r="U191" s="23" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1">
-      <c r="A192" s="21">
+    <row r="192" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A192" s="23">
         <v>2</v>
       </c>
-      <c r="B192" s="21" t="s">
+      <c r="B192" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C192" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D192" s="21" t="s">
+      <c r="C192" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D192" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E192" s="21" t="s">
+      <c r="E192" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F192" s="21" t="s">
+      <c r="F192" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G192" s="21" t="s">
+      <c r="G192" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H192" s="21" t="s">
+      <c r="H192" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I192" s="21" t="s">
+      <c r="I192" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J192" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K192" s="21" t="s">
-        <v>944</v>
-      </c>
-      <c r="L192" s="21" t="s">
+      <c r="J192" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K192" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="L192" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="M192" s="21" t="s">
+      <c r="M192" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N192" s="21" t="s">
-        <v>941</v>
-      </c>
-      <c r="O192" s="21" t="s">
+      <c r="N192" s="23" t="s">
+        <v>940</v>
+      </c>
+      <c r="O192" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="P192" s="21" t="s">
+      <c r="P192" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="U192" s="21" t="s">
+      <c r="U192" s="23" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1">
-      <c r="A193" s="21">
+    <row r="193" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A193" s="23">
         <v>2</v>
       </c>
-      <c r="B193" s="21" t="s">
+      <c r="B193" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D193" s="21" t="s">
+      <c r="C193" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D193" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E193" s="21" t="s">
+      <c r="E193" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F193" s="21" t="s">
+      <c r="F193" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G193" s="21" t="s">
+      <c r="G193" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H193" s="21" t="s">
+      <c r="H193" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I193" s="21" t="s">
+      <c r="I193" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J193" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K193" s="21" t="s">
-        <v>944</v>
-      </c>
-      <c r="L193" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="M193" s="21" t="s">
+      <c r="J193" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K193" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="L193" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="M193" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N193" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="O193" s="21" t="s">
+      <c r="N193" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="O193" s="23" t="s">
         <v>751</v>
       </c>
-      <c r="P193" s="21" t="s">
+      <c r="P193" s="23" t="s">
         <v>737</v>
       </c>
     </row>
@@ -15355,7 +15364,7 @@
         <v>404</v>
       </c>
       <c r="K199" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L199" s="21" t="s">
         <v>842</v>
@@ -15399,7 +15408,7 @@
         <v>404</v>
       </c>
       <c r="K200" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L200" s="21" t="s">
         <v>844</v>
@@ -15443,7 +15452,7 @@
         <v>404</v>
       </c>
       <c r="K201" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L201" s="21" t="s">
         <v>845</v>
@@ -15455,454 +15464,463 @@
         <v>481</v>
       </c>
     </row>
-    <row r="202" spans="1:21" hidden="1">
-      <c r="A202" s="21">
+    <row r="202" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A202" s="25">
         <v>6</v>
       </c>
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C202" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D202" s="21" t="s">
+      <c r="C202" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D202" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="E202" s="21" t="s">
+      <c r="E202" s="25" t="s">
         <v>891</v>
       </c>
-      <c r="F202" s="21" t="s">
+      <c r="F202" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G202" s="21" t="s">
+      <c r="G202" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="H202" s="21" t="s">
+      <c r="H202" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I202" s="21" t="s">
+      <c r="I202" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J202" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K202" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="L202" s="21" t="s">
+      <c r="J202" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K202" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="L202" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="M202" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N202" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="O202" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="P202" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="U202" s="25" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A203" s="25">
+        <v>6</v>
+      </c>
+      <c r="B203" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D203" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="E203" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="F203" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G203" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H203" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="I203" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="J203" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K203" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="L203" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="M202" s="21" t="s">
+      <c r="M203" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N202" s="21" t="s">
+      <c r="N203" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="O202" s="21" t="s">
+      <c r="O203" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="P202" s="21" t="s">
+      <c r="P203" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="U202" s="21" t="s">
+      <c r="U203" s="25" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="203" spans="1:21" hidden="1">
-      <c r="A203" s="21">
+    <row r="204" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A204" s="25">
         <v>6</v>
       </c>
-      <c r="B203" s="21" t="s">
+      <c r="B204" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C203" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D203" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="E203" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="F203" s="21" t="s">
+      <c r="C204" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D204" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="E204" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F204" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G203" s="21" t="s">
+      <c r="G204" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="H203" s="21" t="s">
+      <c r="H204" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I203" s="21" t="s">
+      <c r="I204" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J203" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K203" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="L203" s="21" t="s">
-        <v>953</v>
-      </c>
-      <c r="M203" s="21" t="s">
+      <c r="J204" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K204" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="L204" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="M204" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N203" s="21" t="s">
+      <c r="N204" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="O203" s="21" t="s">
+      <c r="O204" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="P203" s="21" t="s">
+      <c r="P204" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="U203" s="21" t="s">
+      <c r="U204" s="25" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1">
-      <c r="A204" s="21">
+    <row r="205" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A205" s="25">
         <v>6</v>
       </c>
-      <c r="B204" s="21" t="s">
+      <c r="B205" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C204" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D204" s="21" t="s">
+      <c r="C205" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D205" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E205" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F204" s="21" t="s">
+      <c r="F205" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G204" s="21" t="s">
+      <c r="G205" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="H204" s="21" t="s">
+      <c r="H205" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I204" s="21" t="s">
+      <c r="I205" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J204" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K204" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="L204" s="21" t="s">
+      <c r="J205" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K205" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="L205" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="M204" s="21" t="s">
+      <c r="M205" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N204" s="21" t="s">
+      <c r="N205" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="O204" s="21" t="s">
+      <c r="O205" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="P204" s="21" t="s">
+      <c r="P205" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="U204" s="21" t="s">
+      <c r="U205" s="25" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="205" spans="1:21" hidden="1">
-      <c r="A205" s="21">
+    <row r="206" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A206" s="25">
         <v>6</v>
       </c>
-      <c r="B205" s="21" t="s">
+      <c r="B206" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C205" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D205" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="E205" s="21" t="s">
+      <c r="C206" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="E206" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F205" s="21" t="s">
+      <c r="F206" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G205" s="21" t="s">
+      <c r="G206" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="H205" s="21" t="s">
+      <c r="H206" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I205" s="21" t="s">
+      <c r="I206" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J205" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K205" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="L205" s="21" t="s">
-        <v>953</v>
-      </c>
-      <c r="M205" s="21" t="s">
+      <c r="J206" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K206" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="L206" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="M206" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N205" s="21" t="s">
+      <c r="N206" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="O205" s="21" t="s">
+      <c r="O206" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="P205" s="21" t="s">
+      <c r="P206" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="U205" s="21" t="s">
+      <c r="U206" s="25" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1">
-      <c r="A206" s="21">
+    <row r="207" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A207" s="25">
         <v>6</v>
       </c>
-      <c r="B206" s="21" t="s">
+      <c r="B207" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C206" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D206" s="21" t="s">
+      <c r="C207" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D207" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="E206" s="21" t="s">
+      <c r="E207" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F206" s="21" t="s">
+      <c r="F207" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G206" s="21" t="s">
+      <c r="G207" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="H206" s="21" t="s">
+      <c r="H207" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I206" s="21" t="s">
+      <c r="I207" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J206" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K206" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="L206" s="21" t="s">
+      <c r="J207" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K207" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="L207" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="M206" s="21" t="s">
+      <c r="M207" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N206" s="21" t="s">
+      <c r="N207" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="O206" s="21" t="s">
+      <c r="O207" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="P206" s="21" t="s">
+      <c r="P207" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="U206" s="21" t="s">
+      <c r="U207" s="25" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="207" spans="1:21" hidden="1">
-      <c r="A207" s="21">
-        <v>6</v>
-      </c>
-      <c r="B207" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D207" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="E207" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F207" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="G207" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="H207" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="I207" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="J207" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K207" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="L207" s="21" t="s">
-        <v>953</v>
-      </c>
-      <c r="M207" s="21" t="s">
+    <row r="208" spans="1:21" s="25" customFormat="1">
+      <c r="A208" s="25">
+        <v>9</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D208" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E208" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H208" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="I208" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="J208" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K208" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="L208" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="M208" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="N208" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="O208" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="P208" s="25" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" s="25" customFormat="1">
+      <c r="A209" s="25">
+        <v>9</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D209" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E209" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H209" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="I209" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="J209" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K209" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="L209" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="M209" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N207" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="O207" s="21" t="s">
-        <v>893</v>
-      </c>
-      <c r="P207" s="21" t="s">
+      <c r="N209" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="O209" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="P209" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="U207" s="21" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" hidden="1">
-      <c r="A208" s="21">
+    </row>
+    <row r="210" spans="1:16" s="25" customFormat="1">
+      <c r="A210" s="25">
         <v>9</v>
       </c>
-      <c r="B208" s="21" t="s">
+      <c r="B210" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D208" s="21" t="s">
+      <c r="C210" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D210" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E208" s="21" t="s">
+      <c r="E210" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F208" s="21" t="s">
+      <c r="F210" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="H208" s="21" t="s">
+      <c r="H210" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="I208" s="21" t="s">
+      <c r="I210" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="J208" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K208" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="L208" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="M208" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="N208" s="21" t="s">
+      <c r="J210" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K210" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="L210" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="M210" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N210" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="O208" s="21" t="s">
+      <c r="O210" s="25" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" hidden="1">
-      <c r="A209" s="21">
-        <v>9</v>
-      </c>
-      <c r="B209" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="E209" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F209" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H209" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="I209" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="J209" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K209" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="L209" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="M209" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N209" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="O209" s="21" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" hidden="1">
-      <c r="A210" s="21">
-        <v>9</v>
-      </c>
-      <c r="B210" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D210" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="E210" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F210" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H210" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="I210" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="J210" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K210" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="L210" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="M210" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N210" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="O210" s="21" t="s">
-        <v>672</v>
+      <c r="P210" s="25" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="211" spans="1:16" hidden="1">
@@ -16349,7 +16367,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1">
+    <row r="220" spans="1:16">
       <c r="A220" s="21">
         <v>20</v>
       </c>
@@ -16393,7 +16411,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1">
+    <row r="221" spans="1:16">
       <c r="A221" s="21">
         <v>20</v>
       </c>
@@ -16437,7 +16455,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1">
+    <row r="222" spans="1:16">
       <c r="A222" s="21">
         <v>20</v>
       </c>
@@ -16481,7 +16499,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1">
+    <row r="223" spans="1:16">
       <c r="A223" s="21">
         <v>20</v>
       </c>
@@ -16519,13 +16537,13 @@
         <v>414</v>
       </c>
       <c r="N223" s="21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O223" s="21" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1">
+    <row r="224" spans="1:16">
       <c r="A224" s="21">
         <v>20</v>
       </c>
@@ -16963,7 +16981,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="U232" s="21" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="233" spans="1:21" hidden="1">
@@ -17016,7 +17034,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="U233" s="21" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="234" spans="1:21" hidden="1">
@@ -17086,7 +17104,7 @@
         <v>209</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F235" s="21" t="s">
         <v>269</v>
@@ -17104,10 +17122,10 @@
         <v>404</v>
       </c>
       <c r="K235" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L235" s="21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M235" s="21" t="s">
         <v>408</v>
@@ -17130,7 +17148,7 @@
         <v>209</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F236" s="21" t="s">
         <v>269</v>
@@ -17148,10 +17166,10 @@
         <v>404</v>
       </c>
       <c r="K236" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L236" s="21" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M236" s="21" t="s">
         <v>408</v>
@@ -17354,7 +17372,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1">
+    <row r="241" spans="1:16">
       <c r="A241" s="21">
         <v>40</v>
       </c>
@@ -17742,503 +17760,503 @@
         <v>737</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1">
-      <c r="A249" s="21">
+    <row r="249" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A249" s="23">
         <v>48</v>
       </c>
-      <c r="B249" s="21" t="s">
+      <c r="B249" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C249" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D249" s="21" t="s">
+      <c r="C249" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D249" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="E249" s="21" t="s">
+      <c r="E249" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F249" s="21" t="s">
+      <c r="F249" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G249" s="21" t="s">
+      <c r="G249" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="H249" s="21" t="s">
+      <c r="H249" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I249" s="21" t="s">
+      <c r="I249" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J249" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K249" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L249" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M249" s="21" t="s">
+      <c r="J249" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K249" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L249" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M249" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N249" s="21" t="s">
+      <c r="N249" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="O249" s="21" t="s">
+      <c r="O249" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P249" s="21" t="s">
+      <c r="P249" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1">
-      <c r="A250" s="21">
+    <row r="250" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A250" s="23">
         <v>49</v>
       </c>
-      <c r="B250" s="21" t="s">
+      <c r="B250" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C250" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D250" s="21" t="s">
+      <c r="C250" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D250" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E250" s="21" t="s">
+      <c r="E250" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F250" s="21" t="s">
+      <c r="F250" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G250" s="21" t="s">
+      <c r="G250" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H250" s="21" t="s">
+      <c r="H250" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I250" s="21" t="s">
+      <c r="I250" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J250" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K250" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L250" s="21" t="s">
+      <c r="J250" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K250" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L250" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="M250" s="21" t="s">
+      <c r="M250" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N250" s="21" t="s">
+      <c r="N250" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="O250" s="21" t="s">
+      <c r="O250" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P250" s="21" t="s">
+      <c r="P250" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1">
-      <c r="A251" s="21">
+    <row r="251" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A251" s="23">
         <v>49</v>
       </c>
-      <c r="B251" s="21" t="s">
+      <c r="B251" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C251" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D251" s="21" t="s">
+      <c r="C251" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D251" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E251" s="21" t="s">
+      <c r="E251" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F251" s="21" t="s">
+      <c r="F251" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G251" s="21" t="s">
+      <c r="G251" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H251" s="21" t="s">
+      <c r="H251" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I251" s="21" t="s">
+      <c r="I251" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J251" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K251" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L251" s="21" t="s">
+      <c r="J251" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K251" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L251" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="M251" s="21" t="s">
+      <c r="M251" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N251" s="21" t="s">
+      <c r="N251" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="O251" s="21" t="s">
+      <c r="O251" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P251" s="21" t="s">
+      <c r="P251" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1">
-      <c r="A252" s="21">
+    <row r="252" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A252" s="23">
         <v>49</v>
       </c>
-      <c r="B252" s="21" t="s">
+      <c r="B252" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C252" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D252" s="21" t="s">
+      <c r="C252" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D252" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E252" s="21" t="s">
+      <c r="E252" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F252" s="21" t="s">
+      <c r="F252" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G252" s="21" t="s">
+      <c r="G252" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H252" s="21" t="s">
+      <c r="H252" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I252" s="21" t="s">
+      <c r="I252" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J252" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K252" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L252" s="21" t="s">
+      <c r="J252" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K252" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L252" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M252" s="21" t="s">
+      <c r="M252" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N252" s="21" t="s">
+      <c r="N252" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="O252" s="21" t="s">
+      <c r="O252" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P252" s="21" t="s">
+      <c r="P252" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1">
-      <c r="A253" s="21">
+    <row r="253" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A253" s="23">
         <v>49</v>
       </c>
-      <c r="B253" s="21" t="s">
+      <c r="B253" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C253" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D253" s="21" t="s">
+      <c r="C253" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D253" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E253" s="21" t="s">
+      <c r="E253" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F253" s="21" t="s">
+      <c r="F253" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G253" s="21" t="s">
+      <c r="G253" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H253" s="21" t="s">
+      <c r="H253" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I253" s="21" t="s">
+      <c r="I253" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J253" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K253" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L253" s="21" t="s">
+      <c r="J253" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K253" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L253" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="M253" s="21" t="s">
+      <c r="M253" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N253" s="21" t="s">
-        <v>942</v>
-      </c>
-      <c r="O253" s="21" t="s">
+      <c r="N253" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="O253" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="P253" s="21" t="s">
+      <c r="P253" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1">
-      <c r="A254" s="21">
+    <row r="254" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A254" s="23">
         <v>49</v>
       </c>
-      <c r="B254" s="21" t="s">
+      <c r="B254" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C254" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D254" s="21" t="s">
+      <c r="C254" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D254" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E254" s="21" t="s">
+      <c r="E254" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F254" s="21" t="s">
+      <c r="F254" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G254" s="21" t="s">
+      <c r="G254" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H254" s="21" t="s">
+      <c r="H254" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I254" s="21" t="s">
+      <c r="I254" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J254" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K254" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L254" s="21" t="s">
+      <c r="J254" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K254" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L254" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="M254" s="21" t="s">
+      <c r="M254" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N254" s="21" t="s">
-        <v>942</v>
-      </c>
-      <c r="O254" s="21" t="s">
+      <c r="N254" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="O254" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="P254" s="21" t="s">
+      <c r="P254" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1">
-      <c r="A255" s="21">
+    <row r="255" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A255" s="23">
         <v>49</v>
       </c>
-      <c r="B255" s="21" t="s">
+      <c r="B255" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C255" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D255" s="21" t="s">
+      <c r="C255" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D255" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E255" s="21" t="s">
+      <c r="E255" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F255" s="21" t="s">
+      <c r="F255" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G255" s="21" t="s">
+      <c r="G255" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H255" s="21" t="s">
+      <c r="H255" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I255" s="21" t="s">
+      <c r="I255" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J255" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K255" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L255" s="21" t="s">
+      <c r="J255" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K255" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L255" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M255" s="21" t="s">
+      <c r="M255" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N255" s="21" t="s">
-        <v>942</v>
-      </c>
-      <c r="O255" s="21" t="s">
+      <c r="N255" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="O255" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="P255" s="21" t="s">
+      <c r="P255" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1">
-      <c r="A256" s="21">
+    <row r="256" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A256" s="23">
         <v>49</v>
       </c>
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C256" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D256" s="21" t="s">
+      <c r="C256" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D256" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E256" s="21" t="s">
+      <c r="E256" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F256" s="21" t="s">
+      <c r="F256" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G256" s="21" t="s">
+      <c r="G256" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H256" s="21" t="s">
+      <c r="H256" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I256" s="21" t="s">
+      <c r="I256" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J256" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K256" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L256" s="21" t="s">
+      <c r="J256" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K256" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L256" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="M256" s="21" t="s">
+      <c r="M256" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N256" s="21" t="s">
+      <c r="N256" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="O256" s="21" t="s">
+      <c r="O256" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="P256" s="21" t="s">
+      <c r="P256" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1">
-      <c r="A257" s="21">
+    <row r="257" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A257" s="23">
         <v>49</v>
       </c>
-      <c r="B257" s="21" t="s">
+      <c r="B257" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C257" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D257" s="21" t="s">
+      <c r="C257" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D257" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E257" s="21" t="s">
+      <c r="E257" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F257" s="21" t="s">
+      <c r="F257" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G257" s="21" t="s">
+      <c r="G257" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H257" s="21" t="s">
+      <c r="H257" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I257" s="21" t="s">
+      <c r="I257" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J257" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K257" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L257" s="21" t="s">
+      <c r="J257" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K257" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L257" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="M257" s="21" t="s">
+      <c r="M257" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N257" s="21" t="s">
+      <c r="N257" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="O257" s="21" t="s">
+      <c r="O257" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="P257" s="21" t="s">
+      <c r="P257" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1">
-      <c r="A258" s="21">
+    <row r="258" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A258" s="23">
         <v>49</v>
       </c>
-      <c r="B258" s="21" t="s">
+      <c r="B258" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C258" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D258" s="21" t="s">
+      <c r="C258" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D258" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E258" s="21" t="s">
+      <c r="E258" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F258" s="21" t="s">
+      <c r="F258" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G258" s="21" t="s">
+      <c r="G258" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H258" s="21" t="s">
+      <c r="H258" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I258" s="21" t="s">
+      <c r="I258" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J258" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K258" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="L258" s="21" t="s">
+      <c r="J258" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K258" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="L258" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="M258" s="21" t="s">
+      <c r="M258" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N258" s="21" t="s">
+      <c r="N258" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="O258" s="21" t="s">
+      <c r="O258" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="P258" s="21" t="s">
+      <c r="P258" s="23" t="s">
         <v>737</v>
       </c>
     </row>
@@ -18400,7 +18418,7 @@
         <v>424</v>
       </c>
       <c r="L262" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M262" s="21" t="s">
         <v>414</v>
@@ -18444,7 +18462,7 @@
         <v>424</v>
       </c>
       <c r="L263" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M263" s="21" t="s">
         <v>414</v>
@@ -18488,7 +18506,7 @@
         <v>424</v>
       </c>
       <c r="L264" s="21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M264" s="21" t="s">
         <v>414</v>
@@ -18532,7 +18550,7 @@
         <v>424</v>
       </c>
       <c r="L265" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M265" s="21" t="s">
         <v>414</v>
@@ -18576,7 +18594,7 @@
         <v>424</v>
       </c>
       <c r="L266" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M266" s="21" t="s">
         <v>414</v>
@@ -18620,7 +18638,7 @@
         <v>424</v>
       </c>
       <c r="L267" s="21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M267" s="21" t="s">
         <v>414</v>
@@ -18664,7 +18682,7 @@
         <v>424</v>
       </c>
       <c r="L268" s="21" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M268" s="21" t="s">
         <v>414</v>
@@ -18708,7 +18726,7 @@
         <v>424</v>
       </c>
       <c r="L269" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M269" s="21" t="s">
         <v>414</v>
@@ -18752,7 +18770,7 @@
         <v>424</v>
       </c>
       <c r="L270" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M270" s="21" t="s">
         <v>414</v>
@@ -18796,7 +18814,7 @@
         <v>424</v>
       </c>
       <c r="L271" s="21" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M271" s="21" t="s">
         <v>414</v>
@@ -18840,7 +18858,7 @@
         <v>424</v>
       </c>
       <c r="L272" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M272" s="21" t="s">
         <v>414</v>
@@ -18849,7 +18867,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1">
+    <row r="273" spans="1:21" hidden="1">
       <c r="A273" s="21">
         <v>52</v>
       </c>
@@ -18884,7 +18902,7 @@
         <v>424</v>
       </c>
       <c r="L273" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M273" s="21" t="s">
         <v>414</v>
@@ -18893,949 +18911,985 @@
         <v>484</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1">
-      <c r="A274" s="21">
+    <row r="274" spans="1:21" s="23" customFormat="1">
+      <c r="A274" s="23">
         <v>56</v>
       </c>
-      <c r="B274" s="21" t="s">
+      <c r="B274" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C274" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D274" s="21" t="s">
+      <c r="C274" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D274" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E274" s="21" t="s">
+      <c r="E274" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="F274" s="21" t="s">
+      <c r="F274" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G274" s="21" t="s">
+      <c r="G274" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H274" s="21" t="s">
+      <c r="H274" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I274" s="21" t="s">
+      <c r="I274" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J274" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K274" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L274" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M274" s="21" t="s">
+      <c r="J274" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K274" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L274" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M274" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N274" s="21" t="s">
+      <c r="N274" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="O274" s="21" t="s">
+      <c r="O274" s="23" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" hidden="1">
-      <c r="A275" s="21">
+      <c r="P274" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="U274" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" s="23" customFormat="1">
+      <c r="A275" s="23">
         <v>56</v>
       </c>
-      <c r="B275" s="21" t="s">
+      <c r="B275" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C275" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D275" s="21" t="s">
+      <c r="C275" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D275" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E275" s="21" t="s">
+      <c r="E275" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="F275" s="21" t="s">
+      <c r="F275" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G275" s="21" t="s">
+      <c r="G275" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H275" s="21" t="s">
+      <c r="H275" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I275" s="21" t="s">
+      <c r="I275" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J275" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K275" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L275" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M275" s="21" t="s">
+      <c r="J275" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K275" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L275" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M275" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N275" s="21" t="s">
+      <c r="N275" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="O275" s="21" t="s">
+      <c r="O275" s="23" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" hidden="1">
-      <c r="A276" s="21">
+      <c r="P275" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="U275" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" s="23" customFormat="1">
+      <c r="A276" s="23">
         <v>56</v>
       </c>
-      <c r="B276" s="21" t="s">
+      <c r="B276" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D276" s="21" t="s">
+      <c r="C276" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D276" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E276" s="21" t="s">
+      <c r="E276" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="F276" s="21" t="s">
+      <c r="F276" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G276" s="21" t="s">
+      <c r="G276" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H276" s="21" t="s">
+      <c r="H276" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I276" s="21" t="s">
+      <c r="I276" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J276" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K276" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L276" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M276" s="21" t="s">
+      <c r="J276" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K276" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L276" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M276" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N276" s="21" t="s">
+      <c r="N276" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="O276" s="21" t="s">
+      <c r="O276" s="23" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" hidden="1">
-      <c r="A277" s="21">
+      <c r="P276" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="U276" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" s="23" customFormat="1">
+      <c r="A277" s="23">
         <v>56</v>
       </c>
-      <c r="B277" s="21" t="s">
+      <c r="B277" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C277" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D277" s="21" t="s">
+      <c r="C277" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D277" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E277" s="21" t="s">
+      <c r="E277" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="F277" s="21" t="s">
+      <c r="F277" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G277" s="21" t="s">
+      <c r="G277" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H277" s="21" t="s">
+      <c r="H277" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I277" s="21" t="s">
+      <c r="I277" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J277" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K277" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L277" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M277" s="21" t="s">
+      <c r="J277" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K277" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L277" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M277" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N277" s="21" t="s">
+      <c r="N277" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="O277" s="21" t="s">
+      <c r="O277" s="23" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" hidden="1">
-      <c r="A278" s="21">
+      <c r="P277" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="U277" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" s="23" customFormat="1">
+      <c r="A278" s="23">
         <v>56</v>
       </c>
-      <c r="B278" s="21" t="s">
+      <c r="B278" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C278" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D278" s="21" t="s">
+      <c r="C278" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D278" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E278" s="21" t="s">
+      <c r="E278" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="F278" s="21" t="s">
+      <c r="F278" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G278" s="21" t="s">
+      <c r="G278" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H278" s="21" t="s">
+      <c r="H278" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I278" s="21" t="s">
+      <c r="I278" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J278" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K278" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L278" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M278" s="21" t="s">
+      <c r="J278" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K278" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L278" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M278" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N278" s="21" t="s">
+      <c r="N278" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="O278" s="21" t="s">
+      <c r="O278" s="23" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" hidden="1">
-      <c r="A279" s="21">
+      <c r="P278" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="U278" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" s="23" customFormat="1">
+      <c r="A279" s="23">
         <v>56</v>
       </c>
-      <c r="B279" s="21" t="s">
+      <c r="B279" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C279" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D279" s="21" t="s">
+      <c r="C279" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D279" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E279" s="21" t="s">
+      <c r="E279" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="F279" s="21" t="s">
+      <c r="F279" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="G279" s="21" t="s">
+      <c r="G279" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H279" s="21" t="s">
+      <c r="H279" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I279" s="21" t="s">
+      <c r="I279" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J279" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K279" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L279" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M279" s="21" t="s">
+      <c r="J279" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K279" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L279" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M279" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N279" s="21" t="s">
+      <c r="N279" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="O279" s="21" t="s">
+      <c r="O279" s="23" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" hidden="1">
-      <c r="A280" s="21">
+      <c r="P279" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="U279" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" s="25" customFormat="1">
+      <c r="A280" s="25">
         <v>57</v>
       </c>
-      <c r="B280" s="21" t="s">
+      <c r="B280" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C280" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D280" s="21" t="s">
+      <c r="C280" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D280" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E280" s="21" t="s">
+      <c r="E280" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F280" s="21" t="s">
+      <c r="F280" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G280" s="21" t="s">
+      <c r="G280" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H280" s="21" t="s">
+      <c r="H280" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I280" s="21" t="s">
+      <c r="I280" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="J280" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K280" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L280" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M280" s="21" t="s">
+      <c r="J280" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K280" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L280" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M280" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N280" s="21" t="s">
+      <c r="N280" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O280" s="21" t="s">
+      <c r="O280" s="25" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1">
-      <c r="A281" s="21">
+    <row r="281" spans="1:21" s="25" customFormat="1">
+      <c r="A281" s="25">
         <v>57</v>
       </c>
-      <c r="B281" s="21" t="s">
+      <c r="B281" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C281" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D281" s="21" t="s">
+      <c r="C281" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D281" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E281" s="21" t="s">
+      <c r="E281" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F281" s="21" t="s">
+      <c r="F281" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G281" s="21" t="s">
+      <c r="G281" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H281" s="21" t="s">
+      <c r="H281" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I281" s="21" t="s">
+      <c r="I281" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="J281" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K281" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L281" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M281" s="21" t="s">
+      <c r="J281" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K281" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L281" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M281" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N281" s="21" t="s">
+      <c r="N281" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O281" s="21" t="s">
+      <c r="O281" s="25" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1">
-      <c r="A282" s="21">
+    <row r="282" spans="1:21" s="25" customFormat="1">
+      <c r="A282" s="25">
         <v>57</v>
       </c>
-      <c r="B282" s="21" t="s">
+      <c r="B282" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C282" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D282" s="21" t="s">
+      <c r="C282" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D282" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E282" s="21" t="s">
+      <c r="E282" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F282" s="21" t="s">
+      <c r="F282" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G282" s="21" t="s">
+      <c r="G282" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H282" s="21" t="s">
+      <c r="H282" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I282" s="21" t="s">
+      <c r="I282" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="J282" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K282" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L282" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M282" s="21" t="s">
+      <c r="J282" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K282" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L282" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M282" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N282" s="21" t="s">
+      <c r="N282" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O282" s="21" t="s">
+      <c r="O282" s="25" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1">
-      <c r="A283" s="21">
+    <row r="283" spans="1:21" s="25" customFormat="1">
+      <c r="A283" s="25">
         <v>57</v>
       </c>
-      <c r="B283" s="21" t="s">
+      <c r="B283" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C283" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D283" s="21" t="s">
+      <c r="C283" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D283" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E283" s="21" t="s">
+      <c r="E283" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F283" s="21" t="s">
+      <c r="F283" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G283" s="21" t="s">
+      <c r="G283" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H283" s="21" t="s">
+      <c r="H283" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I283" s="21" t="s">
+      <c r="I283" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="J283" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K283" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L283" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M283" s="21" t="s">
+      <c r="J283" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K283" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L283" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M283" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N283" s="21" t="s">
+      <c r="N283" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O283" s="21" t="s">
+      <c r="O283" s="25" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1">
-      <c r="A284" s="21">
+    <row r="284" spans="1:21" s="25" customFormat="1">
+      <c r="A284" s="25">
         <v>57</v>
       </c>
-      <c r="B284" s="21" t="s">
+      <c r="B284" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C284" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D284" s="21" t="s">
+      <c r="C284" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D284" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E284" s="21" t="s">
+      <c r="E284" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F284" s="21" t="s">
+      <c r="F284" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G284" s="21" t="s">
+      <c r="G284" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H284" s="21" t="s">
+      <c r="H284" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I284" s="21" t="s">
+      <c r="I284" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="J284" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K284" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L284" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M284" s="21" t="s">
+      <c r="J284" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K284" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L284" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M284" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N284" s="21" t="s">
+      <c r="N284" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O284" s="21" t="s">
+      <c r="O284" s="25" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1">
-      <c r="A285" s="21">
+    <row r="285" spans="1:21" s="25" customFormat="1">
+      <c r="A285" s="25">
         <v>57</v>
       </c>
-      <c r="B285" s="21" t="s">
+      <c r="B285" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C285" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D285" s="21" t="s">
+      <c r="C285" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D285" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E285" s="21" t="s">
+      <c r="E285" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F285" s="21" t="s">
+      <c r="F285" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G285" s="21" t="s">
+      <c r="G285" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H285" s="21" t="s">
+      <c r="H285" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I285" s="21" t="s">
+      <c r="I285" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="J285" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K285" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L285" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M285" s="21" t="s">
+      <c r="J285" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K285" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L285" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M285" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N285" s="21" t="s">
+      <c r="N285" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O285" s="21" t="s">
+      <c r="O285" s="25" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1">
-      <c r="A286" s="21">
+    <row r="286" spans="1:21" s="25" customFormat="1">
+      <c r="A286" s="25">
         <v>57</v>
       </c>
-      <c r="B286" s="21" t="s">
+      <c r="B286" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C286" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D286" s="21" t="s">
+      <c r="C286" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D286" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E286" s="21" t="s">
+      <c r="E286" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F286" s="21" t="s">
+      <c r="F286" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G286" s="21" t="s">
+      <c r="G286" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H286" s="21" t="s">
+      <c r="H286" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I286" s="21" t="s">
+      <c r="I286" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="J286" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K286" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L286" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M286" s="21" t="s">
+      <c r="J286" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K286" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L286" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M286" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N286" s="21" t="s">
+      <c r="N286" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O286" s="21" t="s">
+      <c r="O286" s="25" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1">
-      <c r="A287" s="21">
+    <row r="287" spans="1:21" s="25" customFormat="1">
+      <c r="A287" s="25">
         <v>57</v>
       </c>
-      <c r="B287" s="21" t="s">
+      <c r="B287" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C287" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D287" s="21" t="s">
+      <c r="C287" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E287" s="21" t="s">
+      <c r="E287" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F287" s="21" t="s">
+      <c r="F287" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G287" s="21" t="s">
+      <c r="G287" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H287" s="21" t="s">
+      <c r="H287" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I287" s="21" t="s">
+      <c r="I287" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="J287" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K287" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L287" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M287" s="21" t="s">
+      <c r="J287" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K287" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L287" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M287" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N287" s="21" t="s">
+      <c r="N287" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O287" s="21" t="s">
+      <c r="O287" s="25" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1">
-      <c r="A288" s="21">
+    <row r="288" spans="1:21" s="25" customFormat="1">
+      <c r="A288" s="25">
         <v>57</v>
       </c>
-      <c r="B288" s="21" t="s">
+      <c r="B288" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C288" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D288" s="21" t="s">
+      <c r="C288" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D288" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E288" s="21" t="s">
+      <c r="E288" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F288" s="21" t="s">
+      <c r="F288" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G288" s="21" t="s">
+      <c r="G288" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H288" s="21" t="s">
+      <c r="H288" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I288" s="21" t="s">
+      <c r="I288" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="J288" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K288" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L288" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M288" s="21" t="s">
+      <c r="J288" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K288" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L288" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M288" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N288" s="21" t="s">
+      <c r="N288" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O288" s="21" t="s">
+      <c r="O288" s="25" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1">
-      <c r="A289" s="21">
+    <row r="289" spans="1:21" s="25" customFormat="1">
+      <c r="A289" s="25">
         <v>57</v>
       </c>
-      <c r="B289" s="21" t="s">
+      <c r="B289" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C289" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D289" s="21" t="s">
+      <c r="C289" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D289" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E289" s="21" t="s">
+      <c r="E289" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F289" s="21" t="s">
+      <c r="F289" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G289" s="21" t="s">
+      <c r="G289" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H289" s="21" t="s">
+      <c r="H289" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I289" s="21" t="s">
+      <c r="I289" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="J289" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K289" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L289" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M289" s="21" t="s">
+      <c r="J289" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K289" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L289" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M289" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N289" s="21" t="s">
+      <c r="N289" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O289" s="21" t="s">
+      <c r="O289" s="25" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1">
-      <c r="A290" s="21">
+    <row r="290" spans="1:21" s="25" customFormat="1">
+      <c r="A290" s="25">
         <v>57</v>
       </c>
-      <c r="B290" s="21" t="s">
+      <c r="B290" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C290" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D290" s="21" t="s">
+      <c r="C290" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D290" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E290" s="21" t="s">
+      <c r="E290" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F290" s="21" t="s">
+      <c r="F290" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G290" s="21" t="s">
+      <c r="G290" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H290" s="21" t="s">
+      <c r="H290" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I290" s="21" t="s">
+      <c r="I290" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="J290" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K290" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L290" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M290" s="21" t="s">
+      <c r="J290" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K290" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L290" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M290" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N290" s="21" t="s">
+      <c r="N290" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O290" s="21" t="s">
+      <c r="O290" s="25" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1">
-      <c r="A291" s="21">
+    <row r="291" spans="1:21" s="25" customFormat="1">
+      <c r="A291" s="25">
         <v>57</v>
       </c>
-      <c r="B291" s="21" t="s">
+      <c r="B291" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C291" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D291" s="21" t="s">
+      <c r="C291" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E291" s="21" t="s">
+      <c r="E291" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F291" s="21" t="s">
+      <c r="F291" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="G291" s="21" t="s">
+      <c r="G291" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H291" s="21" t="s">
+      <c r="H291" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I291" s="21" t="s">
+      <c r="I291" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="J291" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K291" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L291" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M291" s="21" t="s">
+      <c r="J291" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K291" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L291" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="M291" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="N291" s="21" t="s">
+      <c r="N291" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="O291" s="21" t="s">
+      <c r="O291" s="25" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1">
-      <c r="A292" s="21">
+    <row r="292" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A292" s="23">
         <v>58</v>
       </c>
-      <c r="B292" s="21" t="s">
+      <c r="B292" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D292" s="21" t="s">
+      <c r="C292" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D292" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E292" s="21" t="s">
+      <c r="E292" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F292" s="21" t="s">
+      <c r="F292" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="G292" s="21" t="s">
+      <c r="G292" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="H292" s="21" t="s">
+      <c r="H292" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="I292" s="21" t="s">
+      <c r="I292" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="J292" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K292" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L292" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M292" s="21" t="s">
+      <c r="J292" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K292" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L292" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M292" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N292" s="21" t="s">
+      <c r="N292" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O292" s="21" t="s">
+      <c r="O292" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P292" s="21" t="s">
+      <c r="P292" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="293" spans="1:21" hidden="1">
-      <c r="A293" s="21">
+    <row r="293" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A293" s="23">
         <v>58</v>
       </c>
-      <c r="B293" s="21" t="s">
+      <c r="B293" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C293" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D293" s="21" t="s">
+      <c r="C293" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D293" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E293" s="21" t="s">
+      <c r="E293" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F293" s="21" t="s">
+      <c r="F293" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="G293" s="21" t="s">
+      <c r="G293" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="H293" s="21" t="s">
+      <c r="H293" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="I293" s="21" t="s">
+      <c r="I293" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="J293" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K293" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L293" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M293" s="21" t="s">
+      <c r="J293" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K293" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L293" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M293" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N293" s="21" t="s">
+      <c r="N293" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O293" s="21" t="s">
+      <c r="O293" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P293" s="21" t="s">
+      <c r="P293" s="23" t="s">
         <v>737</v>
       </c>
     </row>
@@ -20403,457 +20457,457 @@
         <v>900</v>
       </c>
     </row>
-    <row r="306" spans="1:21" hidden="1">
-      <c r="A306" s="21">
+    <row r="306" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A306" s="23">
         <v>74</v>
       </c>
-      <c r="B306" s="21" t="s">
+      <c r="B306" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C306" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D306" s="21" t="s">
+      <c r="C306" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D306" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="E306" s="21" t="s">
+      <c r="E306" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="F306" s="21" t="s">
+      <c r="F306" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G306" s="21" t="s">
+      <c r="G306" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="H306" s="21" t="s">
+      <c r="H306" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I306" s="21" t="s">
+      <c r="I306" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J306" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K306" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L306" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M306" s="21" t="s">
+      <c r="J306" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K306" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L306" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M306" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N306" s="21" t="s">
+      <c r="N306" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="O306" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="P306" s="21" t="s">
+      <c r="O306" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="P306" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="307" spans="1:21" hidden="1">
-      <c r="A307" s="21">
+    <row r="307" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A307" s="23">
         <v>74</v>
       </c>
-      <c r="B307" s="21" t="s">
+      <c r="B307" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C307" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D307" s="21" t="s">
+      <c r="C307" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D307" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E307" s="21" t="s">
+      <c r="E307" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F307" s="21" t="s">
+      <c r="F307" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G307" s="21" t="s">
+      <c r="G307" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="H307" s="21" t="s">
+      <c r="H307" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I307" s="21" t="s">
+      <c r="I307" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J307" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K307" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L307" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M307" s="21" t="s">
+      <c r="J307" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K307" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L307" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M307" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N307" s="21" t="s">
+      <c r="N307" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="O307" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="P307" s="21" t="s">
+      <c r="O307" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="P307" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="308" spans="1:21" hidden="1">
-      <c r="A308" s="21">
+    <row r="308" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A308" s="23">
         <v>77</v>
       </c>
-      <c r="B308" s="21" t="s">
+      <c r="B308" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C308" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D308" s="21" t="s">
+      <c r="C308" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D308" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E308" s="21" t="s">
+      <c r="E308" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F308" s="21" t="s">
+      <c r="F308" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G308" s="21" t="s">
+      <c r="G308" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H308" s="21" t="s">
+      <c r="H308" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I308" s="21" t="s">
+      <c r="I308" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J308" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K308" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L308" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M308" s="21" t="s">
+      <c r="J308" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K308" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L308" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M308" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N308" s="21" t="s">
+      <c r="N308" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="O308" s="21" t="s">
+      <c r="O308" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P308" s="21" t="s">
+      <c r="P308" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="309" spans="1:21" hidden="1">
-      <c r="A309" s="21">
+    <row r="309" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A309" s="23">
         <v>77</v>
       </c>
-      <c r="B309" s="21" t="s">
+      <c r="B309" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C309" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D309" s="21" t="s">
+      <c r="C309" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D309" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E309" s="21" t="s">
+      <c r="E309" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F309" s="21" t="s">
+      <c r="F309" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G309" s="21" t="s">
+      <c r="G309" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H309" s="21" t="s">
+      <c r="H309" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I309" s="21" t="s">
+      <c r="I309" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J309" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K309" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L309" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M309" s="21" t="s">
+      <c r="J309" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K309" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L309" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M309" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N309" s="21" t="s">
+      <c r="N309" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O309" s="21" t="s">
+      <c r="O309" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P309" s="21" t="s">
+      <c r="P309" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="310" spans="1:21" hidden="1">
-      <c r="A310" s="21">
+    <row r="310" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A310" s="23">
         <v>77</v>
       </c>
-      <c r="B310" s="21" t="s">
+      <c r="B310" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C310" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D310" s="21" t="s">
+      <c r="C310" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D310" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E310" s="21" t="s">
+      <c r="E310" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F310" s="21" t="s">
+      <c r="F310" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G310" s="21" t="s">
+      <c r="G310" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H310" s="21" t="s">
+      <c r="H310" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I310" s="21" t="s">
+      <c r="I310" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J310" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K310" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L310" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M310" s="21" t="s">
+      <c r="J310" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K310" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L310" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M310" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N310" s="21" t="s">
+      <c r="N310" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="O310" s="21" t="s">
+      <c r="O310" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P310" s="21" t="s">
+      <c r="P310" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="311" spans="1:21" hidden="1">
-      <c r="A311" s="21">
+    <row r="311" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A311" s="23">
         <v>77</v>
       </c>
-      <c r="B311" s="21" t="s">
+      <c r="B311" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C311" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D311" s="21" t="s">
+      <c r="C311" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D311" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E311" s="21" t="s">
+      <c r="E311" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F311" s="21" t="s">
+      <c r="F311" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G311" s="21" t="s">
+      <c r="G311" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H311" s="21" t="s">
+      <c r="H311" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I311" s="21" t="s">
+      <c r="I311" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J311" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K311" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L311" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M311" s="21" t="s">
+      <c r="J311" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K311" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L311" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M311" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N311" s="21" t="s">
-        <v>936</v>
-      </c>
-      <c r="O311" s="21" t="s">
+      <c r="N311" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="O311" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P311" s="21" t="s">
+      <c r="P311" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="312" spans="1:21" hidden="1">
-      <c r="A312" s="21">
+    <row r="312" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A312" s="23">
         <v>77</v>
       </c>
-      <c r="B312" s="21" t="s">
+      <c r="B312" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C312" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D312" s="21" t="s">
+      <c r="C312" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D312" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E312" s="21" t="s">
+      <c r="E312" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="F312" s="21" t="s">
+      <c r="F312" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G312" s="21" t="s">
+      <c r="G312" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H312" s="21" t="s">
+      <c r="H312" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I312" s="21" t="s">
+      <c r="I312" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J312" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K312" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L312" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M312" s="21" t="s">
+      <c r="J312" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K312" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L312" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M312" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N312" s="21" t="s">
+      <c r="N312" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O312" s="21" t="s">
+      <c r="O312" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P312" s="21" t="s">
+      <c r="P312" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="313" spans="1:21" hidden="1">
-      <c r="A313" s="21">
+    <row r="313" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A313" s="23">
         <v>77</v>
       </c>
-      <c r="B313" s="21" t="s">
+      <c r="B313" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C313" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D313" s="21" t="s">
+      <c r="C313" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D313" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E313" s="21" t="s">
+      <c r="E313" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="F313" s="21" t="s">
+      <c r="F313" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G313" s="21" t="s">
+      <c r="G313" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H313" s="21" t="s">
+      <c r="H313" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I313" s="21" t="s">
+      <c r="I313" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J313" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K313" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L313" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M313" s="21" t="s">
+      <c r="J313" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K313" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L313" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M313" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N313" s="21" t="s">
+      <c r="N313" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="O313" s="21" t="s">
+      <c r="O313" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P313" s="21" t="s">
+      <c r="P313" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="314" spans="1:21" hidden="1">
-      <c r="A314" s="21">
+    <row r="314" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A314" s="23">
         <v>77</v>
       </c>
-      <c r="B314" s="21" t="s">
+      <c r="B314" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C314" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D314" s="21" t="s">
+      <c r="C314" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D314" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E314" s="21" t="s">
+      <c r="E314" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="F314" s="21" t="s">
+      <c r="F314" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G314" s="21" t="s">
+      <c r="G314" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H314" s="21" t="s">
+      <c r="H314" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I314" s="21" t="s">
+      <c r="I314" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J314" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K314" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L314" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M314" s="21" t="s">
+      <c r="J314" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K314" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L314" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M314" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N314" s="21" t="s">
+      <c r="N314" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="O314" s="21" t="s">
+      <c r="O314" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P314" s="21" t="s">
+      <c r="P314" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="315" spans="1:21" hidden="1">
+    <row r="315" spans="1:21">
       <c r="A315" s="21">
         <v>78</v>
       </c>
@@ -20885,7 +20939,7 @@
         <v>404</v>
       </c>
       <c r="K315" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L315" s="21" t="s">
         <v>590</v>
@@ -20900,7 +20954,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="316" spans="1:21" hidden="1">
+    <row r="316" spans="1:21">
       <c r="A316" s="21">
         <v>78</v>
       </c>
@@ -20932,7 +20986,7 @@
         <v>404</v>
       </c>
       <c r="K316" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L316" s="21" t="s">
         <v>591</v>
@@ -20947,7 +21001,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="317" spans="1:21" hidden="1">
+    <row r="317" spans="1:21">
       <c r="A317" s="21">
         <v>78</v>
       </c>
@@ -20979,7 +21033,7 @@
         <v>404</v>
       </c>
       <c r="K317" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L317" s="21" t="s">
         <v>592</v>
@@ -21792,162 +21846,162 @@
         <v>588</v>
       </c>
     </row>
-    <row r="336" spans="1:21" hidden="1">
-      <c r="A336" s="21">
+    <row r="336" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A336" s="23">
         <v>82</v>
       </c>
-      <c r="B336" s="21" t="s">
+      <c r="B336" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C336" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D336" s="21" t="s">
+      <c r="C336" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D336" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="E336" s="21" t="s">
+      <c r="E336" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="F336" s="21" t="s">
+      <c r="F336" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G336" s="21" t="s">
+      <c r="G336" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="H336" s="21" t="s">
+      <c r="H336" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I336" s="21" t="s">
+      <c r="I336" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J336" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K336" s="21" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L336" s="22" t="s">
+      <c r="J336" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K336" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L336" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="M336" s="21" t="s">
+      <c r="M336" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N336" s="21" t="s">
+      <c r="N336" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="O336" s="21" t="s">
+      <c r="O336" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="P336" s="21" t="s">
+      <c r="P336" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="U336" s="21" t="s">
+      <c r="U336" s="23" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="337" spans="1:21" hidden="1">
-      <c r="A337" s="21">
+    <row r="337" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A337" s="23">
         <v>82</v>
       </c>
-      <c r="B337" s="21" t="s">
+      <c r="B337" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C337" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D337" s="21" t="s">
+      <c r="C337" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D337" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="E337" s="21" t="s">
+      <c r="E337" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="F337" s="21" t="s">
+      <c r="F337" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G337" s="21" t="s">
+      <c r="G337" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="H337" s="21" t="s">
+      <c r="H337" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I337" s="21" t="s">
+      <c r="I337" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J337" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K337" s="21" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L337" s="22" t="s">
+      <c r="J337" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K337" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L337" s="24" t="s">
         <v>886</v>
       </c>
-      <c r="M337" s="21" t="s">
+      <c r="M337" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N337" s="21" t="s">
+      <c r="N337" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="O337" s="21" t="s">
+      <c r="O337" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="P337" s="21" t="s">
+      <c r="P337" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="U337" s="21" t="s">
+      <c r="U337" s="23" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="338" spans="1:21" hidden="1">
-      <c r="A338" s="21">
+    <row r="338" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A338" s="23">
         <v>82</v>
       </c>
-      <c r="B338" s="21" t="s">
+      <c r="B338" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C338" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D338" s="21" t="s">
+      <c r="C338" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D338" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="E338" s="21" t="s">
+      <c r="E338" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="F338" s="21" t="s">
+      <c r="F338" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G338" s="21" t="s">
+      <c r="G338" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="H338" s="21" t="s">
+      <c r="H338" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I338" s="21" t="s">
+      <c r="I338" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="J338" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K338" s="21" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L338" s="21" t="s">
+      <c r="J338" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K338" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L338" s="23" t="s">
         <v>887</v>
       </c>
-      <c r="M338" s="21" t="s">
+      <c r="M338" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N338" s="21" t="s">
+      <c r="N338" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="O338" s="21" t="s">
+      <c r="O338" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="P338" s="21" t="s">
+      <c r="P338" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="U338" s="21" t="s">
+      <c r="U338" s="23" t="s">
         <v>888</v>
       </c>
     </row>
@@ -21998,203 +22052,203 @@
         <v>579</v>
       </c>
     </row>
-    <row r="340" spans="1:21" hidden="1">
-      <c r="A340" s="21">
+    <row r="340" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A340" s="25">
         <v>88</v>
       </c>
-      <c r="B340" s="21" t="s">
+      <c r="B340" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C340" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D340" s="21" t="s">
+      <c r="C340" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D340" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="E340" s="21" t="s">
+      <c r="E340" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="F340" s="21" t="s">
+      <c r="F340" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G340" s="21" t="s">
+      <c r="G340" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="H340" s="21" t="s">
+      <c r="H340" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I340" s="21" t="s">
+      <c r="I340" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J340" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K340" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="L340" s="21" t="s">
+      <c r="J340" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K340" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="L340" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="M340" s="21" t="s">
+      <c r="M340" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="N340" s="21" t="s">
+      <c r="N340" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="O340" s="21" t="s">
+      <c r="O340" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="P340" s="21" t="s">
+      <c r="P340" s="25" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="341" spans="1:21" hidden="1">
-      <c r="A341" s="21">
+    <row r="341" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A341" s="25">
         <v>88</v>
       </c>
-      <c r="B341" s="21" t="s">
+      <c r="B341" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C341" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D341" s="21" t="s">
+      <c r="C341" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D341" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="E341" s="21" t="s">
+      <c r="E341" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="F341" s="21" t="s">
+      <c r="F341" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G341" s="21" t="s">
+      <c r="G341" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="H341" s="21" t="s">
+      <c r="H341" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I341" s="21" t="s">
+      <c r="I341" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J341" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K341" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="L341" s="21" t="s">
+      <c r="J341" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K341" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="L341" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="M341" s="21" t="s">
+      <c r="M341" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="N341" s="21" t="s">
+      <c r="N341" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="O341" s="21" t="s">
+      <c r="O341" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="P341" s="21" t="s">
+      <c r="P341" s="25" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="342" spans="1:21" hidden="1">
-      <c r="A342" s="21">
+    <row r="342" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A342" s="25">
         <v>88</v>
       </c>
-      <c r="B342" s="21" t="s">
+      <c r="B342" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C342" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D342" s="21" t="s">
+      <c r="C342" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D342" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E342" s="21" t="s">
+      <c r="E342" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F342" s="21" t="s">
+      <c r="F342" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G342" s="21" t="s">
+      <c r="G342" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="H342" s="21" t="s">
+      <c r="H342" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I342" s="21" t="s">
+      <c r="I342" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J342" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K342" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="L342" s="21" t="s">
+      <c r="J342" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K342" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="L342" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="M342" s="21" t="s">
+      <c r="M342" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="N342" s="21" t="s">
+      <c r="N342" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="O342" s="21" t="s">
+      <c r="O342" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="P342" s="21" t="s">
+      <c r="P342" s="25" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="343" spans="1:21" hidden="1">
-      <c r="A343" s="21">
+    <row r="343" spans="1:21" s="25" customFormat="1" hidden="1">
+      <c r="A343" s="25">
         <v>88</v>
       </c>
-      <c r="B343" s="21" t="s">
+      <c r="B343" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C343" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D343" s="21" t="s">
+      <c r="C343" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D343" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E343" s="21" t="s">
+      <c r="E343" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F343" s="21" t="s">
+      <c r="F343" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G343" s="21" t="s">
+      <c r="G343" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="H343" s="21" t="s">
+      <c r="H343" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="I343" s="21" t="s">
+      <c r="I343" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="J343" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K343" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="L343" s="21" t="s">
+      <c r="J343" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K343" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="L343" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="M343" s="21" t="s">
+      <c r="M343" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="N343" s="21" t="s">
+      <c r="N343" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="O343" s="21" t="s">
+      <c r="O343" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="P343" s="21" t="s">
+      <c r="P343" s="25" t="s">
         <v>737</v>
       </c>
     </row>
@@ -22442,53 +22496,53 @@
         <v>410</v>
       </c>
     </row>
-    <row r="349" spans="1:21" hidden="1">
-      <c r="A349" s="21">
+    <row r="349" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A349" s="23">
         <v>99</v>
       </c>
-      <c r="B349" s="21" t="s">
+      <c r="B349" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C349" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D349" s="21" t="s">
+      <c r="C349" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D349" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E349" s="21" t="s">
+      <c r="E349" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F349" s="21" t="s">
+      <c r="F349" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G349" s="21" t="s">
+      <c r="G349" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H349" s="21" t="s">
+      <c r="H349" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I349" s="21" t="s">
+      <c r="I349" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J349" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K349" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L349" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M349" s="21" t="s">
+      <c r="J349" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K349" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L349" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M349" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N349" s="21" t="s">
+      <c r="N349" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O349" s="21" t="s">
+      <c r="O349" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P349" s="21" t="s">
+      <c r="P349" s="23" t="s">
         <v>737</v>
       </c>
     </row>
@@ -22524,7 +22578,7 @@
         <v>449</v>
       </c>
       <c r="K350" s="21" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L350" s="21" t="s">
         <v>815</v>
@@ -23079,7 +23133,7 @@
         <v>414</v>
       </c>
       <c r="N362" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O362" s="21" t="s">
         <v>675</v>
@@ -23132,13 +23186,13 @@
         <v>410</v>
       </c>
       <c r="O363" s="21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="P363" s="21" t="s">
         <v>693</v>
       </c>
       <c r="U363" s="21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="364" spans="1:21" hidden="1">
@@ -23185,16 +23239,16 @@
         <v>410</v>
       </c>
       <c r="O364" s="21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="P364" s="21" t="s">
         <v>693</v>
       </c>
       <c r="U364" s="21" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="365" spans="1:21" hidden="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21">
       <c r="A365" s="21">
         <v>120</v>
       </c>
@@ -23241,7 +23295,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="366" spans="1:21" hidden="1">
+    <row r="366" spans="1:21">
       <c r="A366" s="21">
         <v>120</v>
       </c>
@@ -23288,7 +23342,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="367" spans="1:21" hidden="1">
+    <row r="367" spans="1:21">
       <c r="A367" s="21">
         <v>120</v>
       </c>
@@ -23335,379 +23389,379 @@
         <v>664</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
-      <c r="A368" s="21">
+    <row r="368" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A368" s="23">
         <v>125</v>
       </c>
-      <c r="B368" s="21" t="s">
+      <c r="B368" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C368" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D368" s="21" t="s">
+      <c r="C368" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D368" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E368" s="21" t="s">
+      <c r="E368" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F368" s="21" t="s">
+      <c r="F368" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H368" s="21" t="s">
+      <c r="H368" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I368" s="21" t="s">
+      <c r="I368" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J368" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K368" s="21" t="s">
+      <c r="J368" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K368" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L368" s="21" t="s">
+      <c r="L368" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="M368" s="21" t="s">
+      <c r="M368" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N368" s="21" t="s">
+      <c r="N368" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O368" s="21" t="s">
+      <c r="O368" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P368" s="21" t="s">
+      <c r="P368" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
-      <c r="A369" s="21">
+    <row r="369" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A369" s="23">
         <v>125</v>
       </c>
-      <c r="B369" s="21" t="s">
+      <c r="B369" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C369" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D369" s="21" t="s">
+      <c r="C369" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D369" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E369" s="21" t="s">
+      <c r="E369" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F369" s="21" t="s">
+      <c r="F369" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H369" s="21" t="s">
+      <c r="H369" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I369" s="21" t="s">
+      <c r="I369" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J369" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K369" s="21" t="s">
+      <c r="J369" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K369" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L369" s="21" t="s">
+      <c r="L369" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="M369" s="21" t="s">
+      <c r="M369" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N369" s="21" t="s">
+      <c r="N369" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O369" s="21" t="s">
+      <c r="O369" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P369" s="21" t="s">
+      <c r="P369" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
-      <c r="A370" s="21">
+    <row r="370" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A370" s="23">
         <v>125</v>
       </c>
-      <c r="B370" s="21" t="s">
+      <c r="B370" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C370" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D370" s="21" t="s">
+      <c r="C370" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D370" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E370" s="21" t="s">
+      <c r="E370" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F370" s="21" t="s">
+      <c r="F370" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H370" s="21" t="s">
+      <c r="H370" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I370" s="21" t="s">
+      <c r="I370" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J370" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K370" s="21" t="s">
+      <c r="J370" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K370" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L370" s="21" t="s">
+      <c r="L370" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="M370" s="21" t="s">
+      <c r="M370" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N370" s="21" t="s">
+      <c r="N370" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O370" s="21" t="s">
+      <c r="O370" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P370" s="21" t="s">
+      <c r="P370" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
-      <c r="A371" s="21">
+    <row r="371" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A371" s="23">
         <v>125</v>
       </c>
-      <c r="B371" s="21" t="s">
+      <c r="B371" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C371" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D371" s="21" t="s">
+      <c r="C371" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D371" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E371" s="21" t="s">
+      <c r="E371" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F371" s="21" t="s">
+      <c r="F371" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H371" s="21" t="s">
+      <c r="H371" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I371" s="21" t="s">
+      <c r="I371" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J371" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K371" s="21" t="s">
+      <c r="J371" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K371" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L371" s="21" t="s">
+      <c r="L371" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="M371" s="21" t="s">
+      <c r="M371" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N371" s="21" t="s">
+      <c r="N371" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O371" s="21" t="s">
+      <c r="O371" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P371" s="21" t="s">
+      <c r="P371" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
-      <c r="A372" s="21">
+    <row r="372" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A372" s="23">
         <v>125</v>
       </c>
-      <c r="B372" s="21" t="s">
+      <c r="B372" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C372" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D372" s="21" t="s">
+      <c r="C372" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D372" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E372" s="21" t="s">
+      <c r="E372" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F372" s="21" t="s">
+      <c r="F372" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H372" s="21" t="s">
+      <c r="H372" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I372" s="21" t="s">
+      <c r="I372" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J372" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K372" s="21" t="s">
+      <c r="J372" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K372" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L372" s="21" t="s">
+      <c r="L372" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="M372" s="21" t="s">
+      <c r="M372" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N372" s="21" t="s">
+      <c r="N372" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O372" s="21" t="s">
+      <c r="O372" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P372" s="21" t="s">
+      <c r="P372" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
-      <c r="A373" s="21">
+    <row r="373" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A373" s="23">
         <v>125</v>
       </c>
-      <c r="B373" s="21" t="s">
+      <c r="B373" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C373" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D373" s="21" t="s">
+      <c r="C373" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D373" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E373" s="21" t="s">
+      <c r="E373" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F373" s="21" t="s">
+      <c r="F373" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H373" s="21" t="s">
+      <c r="H373" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I373" s="21" t="s">
+      <c r="I373" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J373" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K373" s="21" t="s">
+      <c r="J373" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K373" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L373" s="21" t="s">
+      <c r="L373" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="M373" s="21" t="s">
+      <c r="M373" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N373" s="21" t="s">
+      <c r="N373" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O373" s="21" t="s">
+      <c r="O373" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P373" s="21" t="s">
+      <c r="P373" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
-      <c r="A374" s="21">
+    <row r="374" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A374" s="23">
         <v>125</v>
       </c>
-      <c r="B374" s="21" t="s">
+      <c r="B374" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C374" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D374" s="21" t="s">
+      <c r="C374" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D374" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E374" s="21" t="s">
+      <c r="E374" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F374" s="21" t="s">
+      <c r="F374" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H374" s="21" t="s">
+      <c r="H374" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I374" s="21" t="s">
+      <c r="I374" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J374" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K374" s="21" t="s">
+      <c r="J374" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K374" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L374" s="21" t="s">
+      <c r="L374" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="M374" s="21" t="s">
+      <c r="M374" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N374" s="21" t="s">
+      <c r="N374" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O374" s="21" t="s">
+      <c r="O374" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P374" s="21" t="s">
+      <c r="P374" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
-      <c r="A375" s="21">
+    <row r="375" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A375" s="23">
         <v>125</v>
       </c>
-      <c r="B375" s="21" t="s">
+      <c r="B375" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C375" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D375" s="21" t="s">
+      <c r="C375" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D375" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E375" s="21" t="s">
+      <c r="E375" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F375" s="21" t="s">
+      <c r="F375" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H375" s="21" t="s">
+      <c r="H375" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I375" s="21" t="s">
+      <c r="I375" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J375" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K375" s="21" t="s">
+      <c r="J375" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K375" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L375" s="21" t="s">
+      <c r="L375" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="M375" s="21" t="s">
+      <c r="M375" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N375" s="21" t="s">
+      <c r="N375" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O375" s="21" t="s">
+      <c r="O375" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P375" s="21" t="s">
+      <c r="P375" s="23" t="s">
         <v>737</v>
       </c>
     </row>
@@ -24005,53 +24059,53 @@
         <v>425</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1">
-      <c r="A382" s="21">
+    <row r="382" spans="1:16" s="23" customFormat="1" hidden="1">
+      <c r="A382" s="23">
         <v>133</v>
       </c>
-      <c r="B382" s="21" t="s">
+      <c r="B382" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C382" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D382" s="21" t="s">
+      <c r="C382" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D382" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E382" s="21" t="s">
+      <c r="E382" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F382" s="21" t="s">
+      <c r="F382" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G382" s="21" t="s">
+      <c r="G382" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H382" s="21" t="s">
+      <c r="H382" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I382" s="21" t="s">
+      <c r="I382" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J382" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K382" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L382" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="M382" s="21" t="s">
+      <c r="J382" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K382" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L382" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M382" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N382" s="21" t="s">
+      <c r="N382" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="O382" s="21" t="s">
+      <c r="O382" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P382" s="21" t="s">
+      <c r="P382" s="23" t="s">
         <v>737</v>
       </c>
     </row>
@@ -24143,379 +24197,379 @@
         <v>425</v>
       </c>
     </row>
-    <row r="385" spans="1:21">
-      <c r="A385" s="21">
+    <row r="385" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A385" s="23">
         <v>138</v>
       </c>
-      <c r="B385" s="21" t="s">
+      <c r="B385" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C385" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D385" s="21" t="s">
+      <c r="C385" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D385" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E385" s="21" t="s">
+      <c r="E385" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F385" s="21" t="s">
+      <c r="F385" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H385" s="21" t="s">
+      <c r="H385" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I385" s="21" t="s">
+      <c r="I385" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J385" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K385" s="21" t="s">
+      <c r="J385" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K385" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L385" s="21" t="s">
+      <c r="L385" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="M385" s="21" t="s">
+      <c r="M385" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N385" s="21" t="s">
+      <c r="N385" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O385" s="21" t="s">
+      <c r="O385" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P385" s="21" t="s">
+      <c r="P385" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="386" spans="1:21">
-      <c r="A386" s="21">
+    <row r="386" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A386" s="23">
         <v>138</v>
       </c>
-      <c r="B386" s="21" t="s">
+      <c r="B386" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C386" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D386" s="21" t="s">
+      <c r="C386" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D386" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E386" s="21" t="s">
+      <c r="E386" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F386" s="21" t="s">
+      <c r="F386" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H386" s="21" t="s">
+      <c r="H386" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I386" s="21" t="s">
+      <c r="I386" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J386" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K386" s="21" t="s">
+      <c r="J386" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K386" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L386" s="21" t="s">
+      <c r="L386" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="M386" s="21" t="s">
+      <c r="M386" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N386" s="21" t="s">
+      <c r="N386" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O386" s="21" t="s">
+      <c r="O386" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P386" s="21" t="s">
+      <c r="P386" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="387" spans="1:21">
-      <c r="A387" s="21">
+    <row r="387" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A387" s="23">
         <v>138</v>
       </c>
-      <c r="B387" s="21" t="s">
+      <c r="B387" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C387" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D387" s="21" t="s">
+      <c r="C387" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D387" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E387" s="21" t="s">
+      <c r="E387" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F387" s="21" t="s">
+      <c r="F387" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H387" s="21" t="s">
+      <c r="H387" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I387" s="21" t="s">
+      <c r="I387" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J387" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K387" s="21" t="s">
+      <c r="J387" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K387" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L387" s="21" t="s">
+      <c r="L387" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="M387" s="21" t="s">
+      <c r="M387" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N387" s="21" t="s">
+      <c r="N387" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O387" s="21" t="s">
+      <c r="O387" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P387" s="21" t="s">
+      <c r="P387" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="388" spans="1:21">
-      <c r="A388" s="21">
+    <row r="388" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A388" s="23">
         <v>138</v>
       </c>
-      <c r="B388" s="21" t="s">
+      <c r="B388" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C388" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D388" s="21" t="s">
+      <c r="C388" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D388" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E388" s="21" t="s">
+      <c r="E388" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F388" s="21" t="s">
+      <c r="F388" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H388" s="21" t="s">
+      <c r="H388" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I388" s="21" t="s">
+      <c r="I388" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J388" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K388" s="21" t="s">
+      <c r="J388" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K388" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L388" s="21" t="s">
+      <c r="L388" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="M388" s="21" t="s">
+      <c r="M388" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N388" s="21" t="s">
+      <c r="N388" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O388" s="21" t="s">
+      <c r="O388" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P388" s="21" t="s">
+      <c r="P388" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="389" spans="1:21">
-      <c r="A389" s="21">
+    <row r="389" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A389" s="23">
         <v>138</v>
       </c>
-      <c r="B389" s="21" t="s">
+      <c r="B389" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C389" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D389" s="21" t="s">
+      <c r="C389" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D389" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E389" s="21" t="s">
+      <c r="E389" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F389" s="21" t="s">
+      <c r="F389" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H389" s="21" t="s">
+      <c r="H389" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I389" s="21" t="s">
+      <c r="I389" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J389" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K389" s="21" t="s">
+      <c r="J389" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K389" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L389" s="21" t="s">
+      <c r="L389" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="M389" s="21" t="s">
+      <c r="M389" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N389" s="21" t="s">
+      <c r="N389" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O389" s="21" t="s">
+      <c r="O389" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P389" s="21" t="s">
+      <c r="P389" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="390" spans="1:21">
-      <c r="A390" s="21">
+    <row r="390" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A390" s="23">
         <v>138</v>
       </c>
-      <c r="B390" s="21" t="s">
+      <c r="B390" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C390" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D390" s="21" t="s">
+      <c r="C390" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D390" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E390" s="21" t="s">
+      <c r="E390" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F390" s="21" t="s">
+      <c r="F390" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H390" s="21" t="s">
+      <c r="H390" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I390" s="21" t="s">
+      <c r="I390" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J390" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K390" s="21" t="s">
+      <c r="J390" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K390" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L390" s="21" t="s">
+      <c r="L390" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="M390" s="21" t="s">
+      <c r="M390" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N390" s="21" t="s">
+      <c r="N390" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O390" s="21" t="s">
+      <c r="O390" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P390" s="21" t="s">
+      <c r="P390" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="391" spans="1:21">
-      <c r="A391" s="21">
+    <row r="391" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A391" s="23">
         <v>138</v>
       </c>
-      <c r="B391" s="21" t="s">
+      <c r="B391" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C391" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D391" s="21" t="s">
+      <c r="C391" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D391" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E391" s="21" t="s">
+      <c r="E391" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F391" s="21" t="s">
+      <c r="F391" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H391" s="21" t="s">
+      <c r="H391" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I391" s="21" t="s">
+      <c r="I391" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J391" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K391" s="21" t="s">
+      <c r="J391" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K391" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L391" s="21" t="s">
+      <c r="L391" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="M391" s="21" t="s">
+      <c r="M391" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N391" s="21" t="s">
+      <c r="N391" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O391" s="21" t="s">
+      <c r="O391" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P391" s="21" t="s">
+      <c r="P391" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="392" spans="1:21">
-      <c r="A392" s="21">
+    <row r="392" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A392" s="23">
         <v>138</v>
       </c>
-      <c r="B392" s="21" t="s">
+      <c r="B392" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C392" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D392" s="21" t="s">
+      <c r="C392" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D392" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E392" s="21" t="s">
+      <c r="E392" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F392" s="21" t="s">
+      <c r="F392" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H392" s="21" t="s">
+      <c r="H392" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I392" s="21" t="s">
+      <c r="I392" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J392" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K392" s="21" t="s">
+      <c r="J392" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K392" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="L392" s="21" t="s">
+      <c r="L392" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="M392" s="21" t="s">
+      <c r="M392" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N392" s="21" t="s">
+      <c r="N392" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="O392" s="21" t="s">
+      <c r="O392" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P392" s="21" t="s">
+      <c r="P392" s="23" t="s">
         <v>737</v>
       </c>
     </row>
@@ -24983,7 +25037,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="403" spans="1:21" hidden="1">
+    <row r="403" spans="1:21">
       <c r="A403" s="21">
         <v>141</v>
       </c>
@@ -25030,7 +25084,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="404" spans="1:21" hidden="1">
+    <row r="404" spans="1:21">
       <c r="A404" s="21">
         <v>141</v>
       </c>
@@ -25077,253 +25131,289 @@
         <v>655</v>
       </c>
     </row>
-    <row r="405" spans="1:21" hidden="1">
-      <c r="A405" s="21">
+    <row r="405" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A405" s="23">
         <v>143</v>
       </c>
-      <c r="B405" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C405" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D405" s="21" t="s">
+      <c r="B405" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C405" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D405" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E405" s="21" t="s">
+      <c r="E405" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F405" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H405" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I405" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="J405" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K405" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="L405" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="M405" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="N405" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="O405" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="P405" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A406" s="23">
+        <v>143</v>
+      </c>
+      <c r="B406" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="F405" s="21" t="s">
+      <c r="C406" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D406" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E406" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F406" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H405" s="21" t="s">
+      <c r="H406" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I405" s="21" t="s">
+      <c r="I406" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J405" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K405" s="21" t="s">
-        <v>995</v>
-      </c>
-      <c r="L405" s="21" t="s">
+      <c r="J406" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K406" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="L406" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="M405" s="21" t="s">
+      <c r="M406" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N405" s="21" t="s">
+      <c r="N406" s="23" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="406" spans="1:21" hidden="1">
-      <c r="A406" s="21">
+      <c r="O406" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="P406" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A407" s="23">
         <v>143</v>
       </c>
-      <c r="B406" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C406" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D406" s="21" t="s">
+      <c r="B407" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C407" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D407" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E406" s="21" t="s">
+      <c r="E407" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F407" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H407" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I407" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="J407" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K407" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="L407" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="M407" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="N407" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="O407" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="P407" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A408" s="23">
+        <v>143</v>
+      </c>
+      <c r="B408" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="F406" s="21" t="s">
+      <c r="C408" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D408" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E408" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F408" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H406" s="21" t="s">
+      <c r="H408" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I406" s="21" t="s">
+      <c r="I408" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J406" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K406" s="21" t="s">
-        <v>995</v>
-      </c>
-      <c r="L406" s="21" t="s">
-        <v>993</v>
-      </c>
-      <c r="M406" s="21" t="s">
+      <c r="J408" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K408" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="L408" s="23" t="s">
+        <v>988</v>
+      </c>
+      <c r="M408" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N406" s="21" t="s">
+      <c r="N408" s="23" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="407" spans="1:21" hidden="1">
-      <c r="A407" s="21">
+      <c r="O408" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="P408" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A409" s="23">
         <v>143</v>
       </c>
-      <c r="B407" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C407" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D407" s="21" t="s">
+      <c r="B409" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C409" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D409" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E407" s="21" t="s">
+      <c r="E409" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F409" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H409" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I409" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="J409" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K409" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="L409" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="M409" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="N409" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="O409" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="P409" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A410" s="23">
+        <v>143</v>
+      </c>
+      <c r="B410" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="F407" s="21" t="s">
+      <c r="C410" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D410" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E410" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F410" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H407" s="21" t="s">
+      <c r="H410" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I407" s="21" t="s">
+      <c r="I410" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="J407" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K407" s="21" t="s">
-        <v>995</v>
-      </c>
-      <c r="L407" s="21" t="s">
+      <c r="J410" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K410" s="23" t="s">
         <v>994</v>
       </c>
-      <c r="M407" s="21" t="s">
+      <c r="L410" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="M410" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N407" s="21" t="s">
+      <c r="N410" s="23" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="408" spans="1:21" hidden="1">
-      <c r="A408" s="21">
-        <v>143</v>
-      </c>
-      <c r="B408" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C408" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D408" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="E408" s="21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F408" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="H408" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="I408" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="J408" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K408" s="21" t="s">
-        <v>995</v>
-      </c>
-      <c r="L408" s="21" t="s">
-        <v>989</v>
-      </c>
-      <c r="M408" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N408" s="21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="409" spans="1:21" hidden="1">
-      <c r="A409" s="21">
-        <v>143</v>
-      </c>
-      <c r="B409" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C409" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D409" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="E409" s="21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F409" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="H409" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="I409" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="J409" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K409" s="21" t="s">
-        <v>995</v>
-      </c>
-      <c r="L409" s="21" t="s">
-        <v>990</v>
-      </c>
-      <c r="M409" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N409" s="21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="410" spans="1:21" hidden="1">
-      <c r="A410" s="21">
-        <v>143</v>
-      </c>
-      <c r="B410" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C410" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D410" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="E410" s="21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F410" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="H410" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="I410" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="J410" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K410" s="21" t="s">
-        <v>995</v>
-      </c>
-      <c r="L410" s="21" t="s">
-        <v>991</v>
-      </c>
-      <c r="M410" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="N410" s="21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="411" spans="1:21" hidden="1">
+      <c r="O410" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="P410" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21">
       <c r="A411" s="21">
         <v>146</v>
       </c>
@@ -25370,7 +25460,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="412" spans="1:21" hidden="1">
+    <row r="412" spans="1:21">
       <c r="A412" s="21">
         <v>146</v>
       </c>
@@ -25449,7 +25539,7 @@
         <v>404</v>
       </c>
       <c r="K413" s="21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L413" s="21" t="s">
         <v>505</v>
@@ -25505,7 +25595,7 @@
         <v>404</v>
       </c>
       <c r="K414" s="21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L414" s="21" t="s">
         <v>506</v>
@@ -25561,7 +25651,7 @@
         <v>404</v>
       </c>
       <c r="K415" s="21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L415" s="21" t="s">
         <v>507</v>
@@ -26192,16 +26282,16 @@
         <v>404</v>
       </c>
       <c r="K429" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L429" s="21" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M429" s="21" t="s">
         <v>414</v>
       </c>
       <c r="N429" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="U429" s="21" t="s">
         <v>473</v>
@@ -26239,16 +26329,16 @@
         <v>404</v>
       </c>
       <c r="K430" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L430" s="21" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M430" s="21" t="s">
         <v>414</v>
       </c>
       <c r="N430" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="U430" s="21" t="s">
         <v>473</v>
@@ -26286,16 +26376,16 @@
         <v>404</v>
       </c>
       <c r="K431" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L431" s="21" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M431" s="21" t="s">
         <v>414</v>
       </c>
       <c r="N431" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="U431" s="21" t="s">
         <v>473</v>
@@ -27140,7 +27230,7 @@
         <v>415</v>
       </c>
       <c r="M450" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N450" s="21" t="s">
         <v>425</v>
@@ -27448,7 +27538,7 @@
         <v>486</v>
       </c>
       <c r="N457" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O457" s="21" t="s">
         <v>641</v>
@@ -27533,10 +27623,10 @@
         <v>679</v>
       </c>
       <c r="L459" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="M459" s="21" t="s">
         <v>969</v>
-      </c>
-      <c r="M459" s="21" t="s">
-        <v>970</v>
       </c>
       <c r="N459" s="21" t="s">
         <v>481</v>
@@ -27595,106 +27685,114 @@
         <v>425</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1">
-      <c r="A461" s="21">
+    <row r="461" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A461" s="23">
         <v>188</v>
       </c>
-      <c r="B461" s="21" t="s">
+      <c r="B461" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C461" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D461" s="21" t="s">
+      <c r="C461" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D461" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E461" s="21" t="s">
+      <c r="E461" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F461" s="21" t="s">
+      <c r="F461" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="H461" s="21" t="s">
+      <c r="H461" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I461" s="21" t="s">
+      <c r="I461" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J461" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K461" s="21" t="s">
+      <c r="J461" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K461" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="L461" s="21">
+      <c r="L461" s="23">
         <v>2001</v>
       </c>
-      <c r="M461" s="21" t="s">
+      <c r="M461" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N461" s="21" t="s">
+      <c r="N461" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="O461" s="21" t="s">
+      <c r="O461" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P461" s="21" t="s">
+      <c r="P461" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1">
-      <c r="A462" s="21">
+    <row r="462" spans="1:21" s="23" customFormat="1" hidden="1">
+      <c r="A462" s="23">
         <v>188</v>
       </c>
-      <c r="B462" s="21" t="s">
+      <c r="B462" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C462" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="D462" s="21" t="s">
+      <c r="C462" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D462" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E462" s="21" t="s">
+      <c r="E462" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F462" s="21" t="s">
+      <c r="F462" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="H462" s="21" t="s">
+      <c r="H462" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="I462" s="21" t="s">
+      <c r="I462" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="J462" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K462" s="21" t="s">
+      <c r="J462" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K462" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="L462" s="21">
+      <c r="L462" s="23">
         <v>2002</v>
       </c>
-      <c r="M462" s="21" t="s">
+      <c r="M462" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="N462" s="21" t="s">
+      <c r="N462" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="O462" s="21" t="s">
+      <c r="O462" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="P462" s="21" t="s">
+      <c r="P462" s="23" t="s">
         <v>737</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="10">
+    <filterColumn colId="9">
       <filters>
-        <filter val="exposure"/>
+        <filter val="lab"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29602,7 +29700,7 @@
         <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>209</v>
@@ -29623,10 +29721,10 @@
         <v>449</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>486</v>
@@ -29640,10 +29738,10 @@
         <v>175</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>599</v>
@@ -29661,10 +29759,10 @@
         <v>449</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>486</v>
@@ -29692,7 +29790,7 @@
         <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>269</v>
@@ -29706,7 +29804,7 @@
         <v>123</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>269</v>
@@ -29720,7 +29818,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>621</v>
@@ -29749,10 +29847,10 @@
         <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E85" t="s">
         <v>197</v>
@@ -29787,13 +29885,13 @@
         <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E86" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>269</v>
@@ -29825,13 +29923,13 @@
         <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>269</v>
@@ -29845,10 +29943,10 @@
         <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E88" t="s">
         <v>197</v>
@@ -29870,10 +29968,10 @@
         <v>415</v>
       </c>
       <c r="L88" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="M88" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -29884,7 +29982,7 @@
         <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>223</v>
@@ -29909,10 +30007,10 @@
         <v>415</v>
       </c>
       <c r="L89" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -29923,7 +30021,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>209</v>
@@ -29948,10 +30046,10 @@
         <v>415</v>
       </c>
       <c r="L90" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="91" spans="1:13" customFormat="1">
@@ -29962,13 +30060,13 @@
         <v>148</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>856</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>269</v>
@@ -29988,13 +30086,13 @@
         <v>124</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>269</v>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008F2DF-947B-1E46-BFE5-7A013E90AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA25579F-66B1-9246-91F3-4BAECD0DD7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40620" yWindow="500" windowWidth="31240" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40120" yWindow="500" windowWidth="31240" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13540" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13581" uniqueCount="1047">
   <si>
     <t>Article Title</t>
   </si>
@@ -3135,18 +3135,6 @@
     <t>Figure 4d</t>
   </si>
   <si>
-    <t>Figure 4b</t>
-  </si>
-  <si>
-    <t>Figure 4c</t>
-  </si>
-  <si>
-    <t>Figure 4e</t>
-  </si>
-  <si>
-    <t>Figure 4f</t>
-  </si>
-  <si>
     <t>Abstract; Results 3.1; Fig. 2</t>
   </si>
   <si>
@@ -3190,6 +3178,36 @@
   </si>
   <si>
     <t>authors note biphasic</t>
+  </si>
+  <si>
+    <t>Figure 4b; Figure 3</t>
+  </si>
+  <si>
+    <t>Figure 4c; Figure 3</t>
+  </si>
+  <si>
+    <t>Figure 4e; Figure 3</t>
+  </si>
+  <si>
+    <t>Figure 4f; Figure 3</t>
+  </si>
+  <si>
+    <t>1-comp adequate; 2-comp similar fit but more uncertainty</t>
+  </si>
+  <si>
+    <t>1-comp found better than 2-comp</t>
+  </si>
+  <si>
+    <t>2-comp better but 1-comp adequate</t>
+  </si>
+  <si>
+    <t>2-comp generally better</t>
+  </si>
+  <si>
+    <t>1-comp good; 2-comp not notably better</t>
+  </si>
+  <si>
+    <t>2-comp looks better</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3362,6 +3380,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4837,51 +4857,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G404" sqref="G404"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="21" customWidth="1"/>
-    <col min="7" max="7" width="41" style="21" customWidth="1"/>
-    <col min="8" max="9" width="16.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="16" style="21" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="54.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="4.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="21" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="21" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="21" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>761</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>193</v>
       </c>
       <c r="E1" s="20" t="s">
@@ -4905,41 +4924,41 @@
       <c r="K1" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="R1" s="20" t="s">
+      <c r="Q1" s="23" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="23" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1">
+    <row r="2" spans="1:22" s="21" customFormat="1">
       <c r="A2" s="21">
         <v>5</v>
       </c>
@@ -4989,7 +5008,7 @@
         <v>692</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R2" s="21">
         <v>7.5999999999999998E-2</v>
@@ -4998,7 +5017,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1">
+    <row r="3" spans="1:22" s="21" customFormat="1">
       <c r="A3" s="21">
         <v>5</v>
       </c>
@@ -5048,7 +5067,7 @@
         <v>692</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R3" s="21">
         <v>8.6999999999999994E-2</v>
@@ -5057,7 +5076,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1">
+    <row r="4" spans="1:22" s="21" customFormat="1">
       <c r="A4" s="21">
         <v>5</v>
       </c>
@@ -5107,7 +5126,7 @@
         <v>692</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R4" s="21">
         <v>0.22</v>
@@ -5116,7 +5135,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1">
+    <row r="5" spans="1:22" s="21" customFormat="1">
       <c r="A5" s="21">
         <v>5</v>
       </c>
@@ -5166,7 +5185,7 @@
         <v>692</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>436</v>
@@ -5175,7 +5194,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1">
+    <row r="6" spans="1:22" s="21" customFormat="1">
       <c r="A6" s="21">
         <v>8</v>
       </c>
@@ -5225,13 +5244,13 @@
         <v>692</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T6" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1">
+    <row r="7" spans="1:22" s="21" customFormat="1">
       <c r="A7" s="21">
         <v>8</v>
       </c>
@@ -5281,13 +5300,13 @@
         <v>692</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T7" s="21">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1">
+    <row r="8" spans="1:22" s="21" customFormat="1">
       <c r="A8" s="21">
         <v>8</v>
       </c>
@@ -5337,13 +5356,13 @@
         <v>692</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T8" s="21">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1">
+    <row r="9" spans="1:22" s="21" customFormat="1">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -5393,23 +5412,23 @@
         <v>692</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T9" s="21">
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1">
-      <c r="A10" s="21">
+    <row r="10" spans="1:22">
+      <c r="A10" s="24">
         <v>10</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>251</v>
       </c>
       <c r="E10" s="21" t="s">
@@ -5433,39 +5452,42 @@
       <c r="K10" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q10" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T10" s="21">
+      <c r="Q10" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T10" s="24">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" hidden="1">
-      <c r="A11" s="21">
+      <c r="V10" s="24" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>251</v>
       </c>
       <c r="E11" s="21" t="s">
@@ -5489,39 +5511,42 @@
       <c r="K11" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q11" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T11" s="21">
+      <c r="Q11" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T11" s="24">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" hidden="1">
-      <c r="A12" s="21">
+      <c r="V11" s="24" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="24">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>251</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -5545,29 +5570,32 @@
       <c r="K12" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M12" s="21" t="s">
+      <c r="L12" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q12" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T12" s="21">
+      <c r="Q12" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T12" s="24">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" hidden="1">
+      <c r="V12" s="24" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="21" customFormat="1">
       <c r="A13" s="21">
         <v>13</v>
       </c>
@@ -5617,13 +5645,13 @@
         <v>692</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U13" s="21">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1">
+    <row r="14" spans="1:22" s="21" customFormat="1">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -5673,13 +5701,13 @@
         <v>692</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U14" s="21">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1">
+    <row r="15" spans="1:22" s="21" customFormat="1">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -5729,13 +5757,13 @@
         <v>692</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U15" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1">
+    <row r="16" spans="1:22" s="21" customFormat="1">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -5785,13 +5813,13 @@
         <v>692</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U16" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1">
+    <row r="17" spans="1:21" s="21" customFormat="1">
       <c r="A17" s="21">
         <v>13</v>
       </c>
@@ -5841,13 +5869,13 @@
         <v>692</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U17" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1">
+    <row r="18" spans="1:21" s="21" customFormat="1">
       <c r="A18" s="21">
         <v>14</v>
       </c>
@@ -5897,13 +5925,13 @@
         <v>692</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U18" s="21">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1">
+    <row r="19" spans="1:21" s="21" customFormat="1">
       <c r="A19" s="21">
         <v>14</v>
       </c>
@@ -5953,13 +5981,13 @@
         <v>692</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U19" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1">
+    <row r="20" spans="1:21" s="21" customFormat="1">
       <c r="A20" s="21">
         <v>14</v>
       </c>
@@ -6009,13 +6037,13 @@
         <v>692</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U20" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1">
+    <row r="21" spans="1:21" s="21" customFormat="1">
       <c r="A21" s="21">
         <v>14</v>
       </c>
@@ -6065,13 +6093,13 @@
         <v>692</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U21" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1">
+    <row r="22" spans="1:21" s="21" customFormat="1">
       <c r="A22" s="21">
         <v>14</v>
       </c>
@@ -6121,13 +6149,13 @@
         <v>692</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U22" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1">
+    <row r="23" spans="1:21" s="21" customFormat="1">
       <c r="A23" s="21">
         <v>14</v>
       </c>
@@ -6177,13 +6205,13 @@
         <v>692</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U23" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1">
+    <row r="24" spans="1:21" s="21" customFormat="1">
       <c r="A24" s="21">
         <v>14</v>
       </c>
@@ -6233,13 +6261,13 @@
         <v>692</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U24" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1">
+    <row r="25" spans="1:21" s="21" customFormat="1">
       <c r="A25" s="21">
         <v>14</v>
       </c>
@@ -6289,13 +6317,13 @@
         <v>692</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U25" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1">
+    <row r="26" spans="1:21" s="21" customFormat="1">
       <c r="A26" s="21">
         <v>15</v>
       </c>
@@ -6345,13 +6373,13 @@
         <v>692</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U26" s="21">
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1">
+    <row r="27" spans="1:21" s="21" customFormat="1">
       <c r="A27" s="21">
         <v>15</v>
       </c>
@@ -6401,13 +6429,13 @@
         <v>692</v>
       </c>
       <c r="Q27" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U27" s="21">
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1">
+    <row r="28" spans="1:21" s="21" customFormat="1">
       <c r="A28" s="21">
         <v>15</v>
       </c>
@@ -6457,13 +6485,13 @@
         <v>692</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U28" s="21">
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1">
+    <row r="29" spans="1:21" s="21" customFormat="1">
       <c r="A29" s="21">
         <v>15</v>
       </c>
@@ -6513,13 +6541,13 @@
         <v>692</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U29" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1">
+    <row r="30" spans="1:21" s="21" customFormat="1">
       <c r="A30" s="21">
         <v>15</v>
       </c>
@@ -6569,13 +6597,13 @@
         <v>692</v>
       </c>
       <c r="Q30" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U30" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1">
+    <row r="31" spans="1:21" s="21" customFormat="1">
       <c r="A31" s="21">
         <v>17</v>
       </c>
@@ -6619,19 +6647,19 @@
         <v>495</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="P31" s="21" t="s">
         <v>692</v>
       </c>
       <c r="Q31" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U31" s="21">
         <v>52.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1">
+    <row r="32" spans="1:21" s="21" customFormat="1">
       <c r="A32" s="21">
         <v>17</v>
       </c>
@@ -6675,19 +6703,19 @@
         <v>495</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="P32" s="21" t="s">
         <v>692</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U32" s="21">
         <v>49.7</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1">
+    <row r="33" spans="1:22" s="21" customFormat="1">
       <c r="A33" s="21">
         <v>17</v>
       </c>
@@ -6731,19 +6759,19 @@
         <v>409</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>692</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U33" s="21">
         <v>44.4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1">
+    <row r="34" spans="1:22" s="21" customFormat="1">
       <c r="A34" s="21">
         <v>17</v>
       </c>
@@ -6787,19 +6815,19 @@
         <v>409</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>692</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U34" s="21">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1">
+    <row r="35" spans="1:22" s="21" customFormat="1">
       <c r="A35" s="21">
         <v>21</v>
       </c>
@@ -6849,13 +6877,13 @@
         <v>692</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R35" s="21">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1">
+    <row r="36" spans="1:22" s="21" customFormat="1">
       <c r="A36" s="21">
         <v>21</v>
       </c>
@@ -6905,13 +6933,13 @@
         <v>692</v>
       </c>
       <c r="Q36" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R36" s="21">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1">
+    <row r="37" spans="1:22" s="21" customFormat="1">
       <c r="A37" s="21">
         <v>24</v>
       </c>
@@ -6955,13 +6983,13 @@
         <v>540</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>692</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="S37" s="21">
         <v>97</v>
@@ -6973,7 +7001,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1">
+    <row r="38" spans="1:22" s="21" customFormat="1">
       <c r="A38" s="21">
         <v>24</v>
       </c>
@@ -7023,7 +7051,7 @@
         <v>692</v>
       </c>
       <c r="Q38" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T38" s="21">
         <v>5.0000000000000001E-4</v>
@@ -7032,7 +7060,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1">
+    <row r="39" spans="1:22" s="21" customFormat="1">
       <c r="A39" s="21">
         <v>24</v>
       </c>
@@ -7082,7 +7110,7 @@
         <v>692</v>
       </c>
       <c r="Q39" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T39" s="21">
         <v>6.3E-2</v>
@@ -7091,7 +7119,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1">
+    <row r="40" spans="1:22" s="21" customFormat="1">
       <c r="A40" s="21">
         <v>24</v>
       </c>
@@ -7141,7 +7169,7 @@
         <v>692</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T40" s="21">
         <v>-3.3099999999999997E-2</v>
@@ -7150,7 +7178,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1">
+    <row r="41" spans="1:22" s="21" customFormat="1">
       <c r="A41" s="21">
         <v>26</v>
       </c>
@@ -7200,7 +7228,7 @@
         <v>692</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="T41" s="21">
         <v>-1.1599999999999999</v>
@@ -7209,7 +7237,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1">
+    <row r="42" spans="1:22" s="21" customFormat="1">
       <c r="A42" s="21">
         <v>26</v>
       </c>
@@ -7259,7 +7287,7 @@
         <v>692</v>
       </c>
       <c r="Q42" s="21" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="T42" s="21">
         <v>-0.87</v>
@@ -7268,7 +7296,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1">
+    <row r="43" spans="1:22" s="21" customFormat="1">
       <c r="A43" s="21">
         <v>27</v>
       </c>
@@ -7318,13 +7346,13 @@
         <v>692</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T43" s="21">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1">
+    <row r="44" spans="1:22" s="21" customFormat="1">
       <c r="A44" s="21">
         <v>27</v>
       </c>
@@ -7374,13 +7402,13 @@
         <v>692</v>
       </c>
       <c r="Q44" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T44" s="21">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1">
+    <row r="45" spans="1:22" s="21" customFormat="1">
       <c r="A45" s="21">
         <v>27</v>
       </c>
@@ -7430,13 +7458,13 @@
         <v>692</v>
       </c>
       <c r="Q45" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T45" s="21">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1">
+    <row r="46" spans="1:22" s="21" customFormat="1">
       <c r="A46" s="21">
         <v>27</v>
       </c>
@@ -7486,13 +7514,13 @@
         <v>692</v>
       </c>
       <c r="Q46" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T46" s="21">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1">
+    <row r="47" spans="1:22" s="21" customFormat="1">
       <c r="A47" s="21">
         <v>28</v>
       </c>
@@ -7542,13 +7570,13 @@
         <v>692</v>
       </c>
       <c r="Q47" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T47" s="21">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1">
+    <row r="48" spans="1:22" s="21" customFormat="1">
       <c r="A48" s="21">
         <v>28</v>
       </c>
@@ -7598,13 +7626,13 @@
         <v>692</v>
       </c>
       <c r="Q48" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T48" s="21">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1">
+    <row r="49" spans="1:22" s="21" customFormat="1">
       <c r="A49" s="21">
         <v>28</v>
       </c>
@@ -7654,13 +7682,13 @@
         <v>692</v>
       </c>
       <c r="Q49" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T49" s="21">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1">
+    <row r="50" spans="1:22" s="21" customFormat="1">
       <c r="A50" s="21">
         <v>28</v>
       </c>
@@ -7710,13 +7738,13 @@
         <v>692</v>
       </c>
       <c r="Q50" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T50" s="21">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1">
+    <row r="51" spans="1:22" s="21" customFormat="1">
       <c r="A51" s="21">
         <v>28</v>
       </c>
@@ -7766,13 +7794,13 @@
         <v>692</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T51" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1">
+    <row r="52" spans="1:22" s="21" customFormat="1">
       <c r="A52" s="21">
         <v>28</v>
       </c>
@@ -7822,13 +7850,13 @@
         <v>692</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T52" s="21">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1">
+    <row r="53" spans="1:22" s="21" customFormat="1">
       <c r="A53" s="21">
         <v>28</v>
       </c>
@@ -7878,13 +7906,13 @@
         <v>692</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T53" s="21">
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1">
+    <row r="54" spans="1:22" s="21" customFormat="1">
       <c r="A54" s="21">
         <v>29</v>
       </c>
@@ -7934,7 +7962,7 @@
         <v>692</v>
       </c>
       <c r="Q54" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T54" s="21">
         <v>-3.1699999999999999E-2</v>
@@ -7943,7 +7971,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1">
+    <row r="55" spans="1:22" s="21" customFormat="1">
       <c r="A55" s="21">
         <v>29</v>
       </c>
@@ -7993,7 +8021,7 @@
         <v>692</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T55" s="21">
         <v>-1.7999999999999999E-2</v>
@@ -8002,7 +8030,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1">
+    <row r="56" spans="1:22" s="21" customFormat="1">
       <c r="A56" s="21">
         <v>29</v>
       </c>
@@ -8052,7 +8080,7 @@
         <v>692</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T56" s="21">
         <v>-1.2999999999999999E-2</v>
@@ -8061,7 +8089,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1">
+    <row r="57" spans="1:22" s="21" customFormat="1">
       <c r="A57" s="21">
         <v>33</v>
       </c>
@@ -8111,13 +8139,13 @@
         <v>692</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R57" s="21">
         <v>4.9863999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1">
+    <row r="58" spans="1:22" s="21" customFormat="1">
       <c r="A58" s="21">
         <v>33</v>
       </c>
@@ -8167,13 +8195,13 @@
         <v>692</v>
       </c>
       <c r="Q58" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R58" s="21">
         <v>0.93054999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1">
+    <row r="59" spans="1:22" s="21" customFormat="1">
       <c r="A59" s="21">
         <v>34</v>
       </c>
@@ -8223,13 +8251,13 @@
         <v>692</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T59" s="21">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1">
+    <row r="60" spans="1:22" s="21" customFormat="1">
       <c r="A60" s="21">
         <v>34</v>
       </c>
@@ -8279,13 +8307,13 @@
         <v>692</v>
       </c>
       <c r="Q60" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T60" s="21">
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1">
+    <row r="61" spans="1:22" s="21" customFormat="1">
       <c r="A61" s="21">
         <v>34</v>
       </c>
@@ -8335,13 +8363,13 @@
         <v>692</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T61" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1">
+    <row r="62" spans="1:22" s="21" customFormat="1">
       <c r="A62" s="21">
         <v>34</v>
       </c>
@@ -8391,13 +8419,13 @@
         <v>692</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T62" s="21">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1">
+    <row r="63" spans="1:22" s="21" customFormat="1">
       <c r="A63" s="21">
         <v>34</v>
       </c>
@@ -8447,13 +8475,13 @@
         <v>692</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T63" s="21">
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1">
+    <row r="64" spans="1:22" s="21" customFormat="1">
       <c r="A64" s="21">
         <v>34</v>
       </c>
@@ -8503,13 +8531,13 @@
         <v>692</v>
       </c>
       <c r="Q64" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T64" s="21">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1">
+    <row r="65" spans="1:22" s="21" customFormat="1">
       <c r="A65" s="21">
         <v>34</v>
       </c>
@@ -8559,13 +8587,13 @@
         <v>692</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T65" s="21">
         <v>0.107</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1">
+    <row r="66" spans="1:22" s="21" customFormat="1">
       <c r="A66" s="21">
         <v>34</v>
       </c>
@@ -8615,13 +8643,13 @@
         <v>692</v>
       </c>
       <c r="Q66" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T66" s="21">
         <v>0.115</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1">
+    <row r="67" spans="1:22" s="21" customFormat="1">
       <c r="A67" s="21">
         <v>34</v>
       </c>
@@ -8671,13 +8699,13 @@
         <v>692</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T67" s="21">
         <v>0.124</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1">
+    <row r="68" spans="1:22" s="21" customFormat="1">
       <c r="A68" s="21">
         <v>34</v>
       </c>
@@ -8727,13 +8755,13 @@
         <v>692</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T68" s="21">
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1">
+    <row r="69" spans="1:22" s="21" customFormat="1">
       <c r="A69" s="21">
         <v>34</v>
       </c>
@@ -8783,13 +8811,13 @@
         <v>692</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T69" s="21">
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1">
+    <row r="70" spans="1:22" s="21" customFormat="1">
       <c r="A70" s="21">
         <v>34</v>
       </c>
@@ -8839,13 +8867,13 @@
         <v>692</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T70" s="21">
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1">
+    <row r="71" spans="1:22" s="21" customFormat="1">
       <c r="A71" s="21">
         <v>34</v>
       </c>
@@ -8895,13 +8923,13 @@
         <v>692</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T71" s="21">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1">
+    <row r="72" spans="1:22" s="21" customFormat="1">
       <c r="A72" s="21">
         <v>35</v>
       </c>
@@ -8951,13 +8979,13 @@
         <v>692</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T72" s="21">
         <v>0.51</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1">
+    <row r="73" spans="1:22" s="21" customFormat="1">
       <c r="A73" s="21">
         <v>35</v>
       </c>
@@ -9007,13 +9035,13 @@
         <v>692</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T73" s="21">
         <v>0.59</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1">
+    <row r="74" spans="1:22" s="21" customFormat="1">
       <c r="A74" s="21">
         <v>35</v>
       </c>
@@ -9063,13 +9091,13 @@
         <v>692</v>
       </c>
       <c r="Q74" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T74" s="21">
         <v>0.66</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1">
+    <row r="75" spans="1:22" s="21" customFormat="1">
       <c r="A75" s="21">
         <v>35</v>
       </c>
@@ -9119,13 +9147,13 @@
         <v>692</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T75" s="21">
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1">
+    <row r="76" spans="1:22" s="21" customFormat="1">
       <c r="A76" s="21">
         <v>36</v>
       </c>
@@ -9175,7 +9203,7 @@
         <v>723</v>
       </c>
       <c r="Q76" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="T76" s="21" t="s">
         <v>436</v>
@@ -9184,7 +9212,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1">
+    <row r="77" spans="1:22" s="21" customFormat="1">
       <c r="A77" s="21">
         <v>36</v>
       </c>
@@ -9234,7 +9262,7 @@
         <v>723</v>
       </c>
       <c r="Q77" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="T77" s="21" t="s">
         <v>436</v>
@@ -9243,7 +9271,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1">
+    <row r="78" spans="1:22" s="21" customFormat="1">
       <c r="A78" s="21">
         <v>36</v>
       </c>
@@ -9293,7 +9321,7 @@
         <v>723</v>
       </c>
       <c r="Q78" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="T78" s="21" t="s">
         <v>436</v>
@@ -9302,7 +9330,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1">
+    <row r="79" spans="1:22" s="21" customFormat="1">
       <c r="A79" s="21">
         <v>37</v>
       </c>
@@ -9352,13 +9380,13 @@
         <v>692</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T79" s="21">
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1">
+    <row r="80" spans="1:22" s="21" customFormat="1">
       <c r="A80" s="21">
         <v>37</v>
       </c>
@@ -9408,13 +9436,13 @@
         <v>692</v>
       </c>
       <c r="Q80" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T80" s="21">
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1">
+    <row r="81" spans="1:22" s="21" customFormat="1">
       <c r="A81" s="21">
         <v>37</v>
       </c>
@@ -9464,13 +9492,13 @@
         <v>692</v>
       </c>
       <c r="Q81" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T81" s="21">
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1">
+    <row r="82" spans="1:22" s="21" customFormat="1">
       <c r="A82" s="21">
         <v>37</v>
       </c>
@@ -9520,13 +9548,13 @@
         <v>692</v>
       </c>
       <c r="Q82" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T82" s="21">
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1">
+    <row r="83" spans="1:22" s="21" customFormat="1">
       <c r="A83" s="21">
         <v>37</v>
       </c>
@@ -9576,13 +9604,13 @@
         <v>692</v>
       </c>
       <c r="Q83" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T83" s="21">
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1">
+    <row r="84" spans="1:22" s="21" customFormat="1">
       <c r="A84" s="21">
         <v>37</v>
       </c>
@@ -9632,13 +9660,13 @@
         <v>692</v>
       </c>
       <c r="Q84" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T84" s="21">
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1">
+    <row r="85" spans="1:22" s="21" customFormat="1">
       <c r="A85" s="21">
         <v>44</v>
       </c>
@@ -9688,7 +9716,7 @@
         <v>692</v>
       </c>
       <c r="Q85" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T85" s="21">
         <v>-0.17</v>
@@ -9697,7 +9725,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1">
+    <row r="86" spans="1:22" s="21" customFormat="1">
       <c r="A86" s="21">
         <v>44</v>
       </c>
@@ -9747,7 +9775,7 @@
         <v>692</v>
       </c>
       <c r="Q86" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T86" s="21">
         <v>-0.16</v>
@@ -9756,7 +9784,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1">
+    <row r="87" spans="1:22" s="21" customFormat="1">
       <c r="A87" s="21">
         <v>44</v>
       </c>
@@ -9806,7 +9834,7 @@
         <v>692</v>
       </c>
       <c r="Q87" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T87" s="21">
         <v>-0.12</v>
@@ -9815,7 +9843,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1">
+    <row r="88" spans="1:22" s="21" customFormat="1">
       <c r="A88" s="21">
         <v>44</v>
       </c>
@@ -9865,7 +9893,7 @@
         <v>692</v>
       </c>
       <c r="Q88" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T88" s="21">
         <v>-9.8000000000000004E-2</v>
@@ -9874,7 +9902,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1">
+    <row r="89" spans="1:22" s="21" customFormat="1">
       <c r="A89" s="21">
         <v>44</v>
       </c>
@@ -9924,7 +9952,7 @@
         <v>692</v>
       </c>
       <c r="Q89" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T89" s="21">
         <v>-9.5000000000000001E-2</v>
@@ -9933,7 +9961,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1">
+    <row r="90" spans="1:22" s="21" customFormat="1">
       <c r="A90" s="21">
         <v>44</v>
       </c>
@@ -9983,7 +10011,7 @@
         <v>692</v>
       </c>
       <c r="Q90" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T90" s="21">
         <v>-8.4000000000000005E-2</v>
@@ -9992,7 +10020,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1">
+    <row r="91" spans="1:22" s="21" customFormat="1">
       <c r="A91" s="21">
         <v>46</v>
       </c>
@@ -10042,13 +10070,13 @@
         <v>692</v>
       </c>
       <c r="Q91" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T91" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1">
+    <row r="92" spans="1:22" s="21" customFormat="1">
       <c r="A92" s="21">
         <v>46</v>
       </c>
@@ -10098,13 +10126,13 @@
         <v>692</v>
       </c>
       <c r="Q92" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T92" s="21">
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1">
+    <row r="93" spans="1:22" s="21" customFormat="1">
       <c r="A93" s="21">
         <v>47</v>
       </c>
@@ -10154,13 +10182,13 @@
         <v>692</v>
       </c>
       <c r="Q93" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T93" s="21">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1">
+    <row r="94" spans="1:22" s="21" customFormat="1">
       <c r="A94" s="21">
         <v>47</v>
       </c>
@@ -10210,13 +10238,13 @@
         <v>692</v>
       </c>
       <c r="Q94" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T94" s="21">
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1">
+    <row r="95" spans="1:22" s="21" customFormat="1">
       <c r="A95" s="21">
         <v>47</v>
       </c>
@@ -10266,13 +10294,13 @@
         <v>692</v>
       </c>
       <c r="Q95" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T95" s="21">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1">
+    <row r="96" spans="1:22" s="21" customFormat="1">
       <c r="A96" s="21">
         <v>47</v>
       </c>
@@ -10322,13 +10350,13 @@
         <v>692</v>
       </c>
       <c r="Q96" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T96" s="21">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1">
+    <row r="97" spans="1:20" s="21" customFormat="1">
       <c r="A97" s="21">
         <v>47</v>
       </c>
@@ -10378,13 +10406,13 @@
         <v>692</v>
       </c>
       <c r="Q97" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T97" s="21">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1">
+    <row r="98" spans="1:20" s="21" customFormat="1">
       <c r="A98" s="21">
         <v>47</v>
       </c>
@@ -10434,13 +10462,13 @@
         <v>692</v>
       </c>
       <c r="Q98" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T98" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1">
+    <row r="99" spans="1:20" s="21" customFormat="1">
       <c r="A99" s="21">
         <v>47</v>
       </c>
@@ -10490,13 +10518,13 @@
         <v>692</v>
       </c>
       <c r="Q99" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T99" s="21">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1">
+    <row r="100" spans="1:20" s="21" customFormat="1">
       <c r="A100" s="21">
         <v>47</v>
       </c>
@@ -10546,13 +10574,13 @@
         <v>692</v>
       </c>
       <c r="Q100" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T100" s="21">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1">
+    <row r="101" spans="1:20" s="21" customFormat="1">
       <c r="A101" s="21">
         <v>47</v>
       </c>
@@ -10602,13 +10630,13 @@
         <v>692</v>
       </c>
       <c r="Q101" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T101" s="21">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1">
+    <row r="102" spans="1:20" s="21" customFormat="1">
       <c r="A102" s="21">
         <v>47</v>
       </c>
@@ -10658,13 +10686,13 @@
         <v>692</v>
       </c>
       <c r="Q102" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T102" s="21">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1">
+    <row r="103" spans="1:20" s="21" customFormat="1">
       <c r="A103" s="21">
         <v>47</v>
       </c>
@@ -10714,13 +10742,13 @@
         <v>692</v>
       </c>
       <c r="Q103" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T103" s="21">
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1">
+    <row r="104" spans="1:20" s="21" customFormat="1">
       <c r="A104" s="21">
         <v>47</v>
       </c>
@@ -10770,13 +10798,13 @@
         <v>692</v>
       </c>
       <c r="Q104" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T104" s="21">
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1">
+    <row r="105" spans="1:20" s="21" customFormat="1">
       <c r="A105" s="21">
         <v>51</v>
       </c>
@@ -10826,13 +10854,13 @@
         <v>692</v>
       </c>
       <c r="Q105" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R105" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1">
+    <row r="106" spans="1:20" s="21" customFormat="1">
       <c r="A106" s="21">
         <v>51</v>
       </c>
@@ -10882,13 +10910,13 @@
         <v>692</v>
       </c>
       <c r="Q106" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R106" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1">
+    <row r="107" spans="1:20" s="21" customFormat="1">
       <c r="A107" s="21">
         <v>51</v>
       </c>
@@ -10938,13 +10966,13 @@
         <v>692</v>
       </c>
       <c r="Q107" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R107" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1">
+    <row r="108" spans="1:20" s="21" customFormat="1">
       <c r="A108" s="21">
         <v>51</v>
       </c>
@@ -10994,13 +11022,13 @@
         <v>692</v>
       </c>
       <c r="Q108" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R108" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1">
+    <row r="109" spans="1:20" s="21" customFormat="1">
       <c r="A109" s="21">
         <v>51</v>
       </c>
@@ -11050,13 +11078,13 @@
         <v>692</v>
       </c>
       <c r="Q109" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R109" s="21">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1">
+    <row r="110" spans="1:20" s="21" customFormat="1">
       <c r="A110" s="21">
         <v>51</v>
       </c>
@@ -11106,13 +11134,13 @@
         <v>692</v>
       </c>
       <c r="Q110" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R110" s="21">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1">
+    <row r="111" spans="1:20" s="21" customFormat="1">
       <c r="A111" s="21">
         <v>51</v>
       </c>
@@ -11162,13 +11190,13 @@
         <v>692</v>
       </c>
       <c r="Q111" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R111" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1">
+    <row r="112" spans="1:20" s="21" customFormat="1">
       <c r="A112" s="21">
         <v>51</v>
       </c>
@@ -11218,13 +11246,13 @@
         <v>692</v>
       </c>
       <c r="Q112" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R112" s="21">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1">
+    <row r="113" spans="1:22" s="21" customFormat="1">
       <c r="A113" s="21">
         <v>51</v>
       </c>
@@ -11274,13 +11302,13 @@
         <v>692</v>
       </c>
       <c r="Q113" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R113" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1">
+    <row r="114" spans="1:22" s="21" customFormat="1">
       <c r="A114" s="21">
         <v>51</v>
       </c>
@@ -11330,23 +11358,23 @@
         <v>692</v>
       </c>
       <c r="Q114" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R114" s="21">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1">
-      <c r="A115" s="21">
+    <row r="115" spans="1:22">
+      <c r="A115" s="24">
         <v>52</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D115" s="21" t="s">
+      <c r="C115" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D115" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E115" s="21" t="s">
@@ -11370,39 +11398,42 @@
       <c r="K115" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L115" s="21" t="s">
+      <c r="L115" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="M115" s="21" t="s">
+      <c r="M115" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N115" s="21" t="s">
+      <c r="N115" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O115" s="21" t="s">
+      <c r="O115" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="P115" s="21" t="s">
+      <c r="P115" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q115" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U115" s="21">
+      <c r="Q115" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U115" s="24">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" hidden="1">
-      <c r="A116" s="21">
+      <c r="V115" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" s="24">
         <v>52</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C116" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D116" s="21" t="s">
+      <c r="C116" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D116" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E116" s="21" t="s">
@@ -11426,39 +11457,42 @@
       <c r="K116" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L116" s="21" t="s">
+      <c r="L116" s="24" t="s">
         <v>982</v>
       </c>
-      <c r="M116" s="21" t="s">
+      <c r="M116" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N116" s="21" t="s">
+      <c r="N116" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O116" s="21" t="s">
+      <c r="O116" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="P116" s="21" t="s">
+      <c r="P116" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q116" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U116" s="21">
+      <c r="Q116" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U116" s="24">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" hidden="1">
-      <c r="A117" s="21">
+      <c r="V116" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" s="24">
         <v>52</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D117" s="21" t="s">
+      <c r="C117" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D117" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E117" s="21" t="s">
@@ -11482,39 +11516,42 @@
       <c r="K117" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L117" s="21" t="s">
+      <c r="L117" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="M117" s="21" t="s">
+      <c r="M117" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N117" s="21" t="s">
+      <c r="N117" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O117" s="21" t="s">
+      <c r="O117" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="P117" s="21" t="s">
+      <c r="P117" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q117" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U117" s="21">
+      <c r="Q117" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U117" s="24">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" hidden="1">
-      <c r="A118" s="21">
+      <c r="V117" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" s="24">
         <v>52</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D118" s="21" t="s">
+      <c r="C118" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E118" s="21" t="s">
@@ -11538,39 +11575,42 @@
       <c r="K118" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L118" s="21" t="s">
+      <c r="L118" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="M118" s="21" t="s">
+      <c r="M118" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N118" s="21" t="s">
+      <c r="N118" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O118" s="21" t="s">
+      <c r="O118" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="P118" s="21" t="s">
+      <c r="P118" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q118" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U118" s="21">
+      <c r="Q118" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U118" s="24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" hidden="1">
-      <c r="A119" s="21">
+      <c r="V118" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" s="24">
         <v>52</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C119" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D119" s="21" t="s">
+      <c r="C119" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D119" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E119" s="21" t="s">
@@ -11594,39 +11634,42 @@
       <c r="K119" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L119" s="21" t="s">
+      <c r="L119" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="M119" s="21" t="s">
+      <c r="M119" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N119" s="21" t="s">
+      <c r="N119" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O119" s="21" t="s">
+      <c r="O119" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="P119" s="21" t="s">
+      <c r="P119" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q119" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U119" s="21">
+      <c r="Q119" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U119" s="24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" hidden="1">
-      <c r="A120" s="21">
+      <c r="V119" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" s="24">
         <v>52</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D120" s="21" t="s">
+      <c r="C120" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D120" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E120" s="21" t="s">
@@ -11650,39 +11693,42 @@
       <c r="K120" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L120" s="21" t="s">
+      <c r="L120" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="M120" s="21" t="s">
+      <c r="M120" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N120" s="21" t="s">
+      <c r="N120" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O120" s="21" t="s">
+      <c r="O120" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="P120" s="21" t="s">
+      <c r="P120" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q120" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U120" s="21">
+      <c r="Q120" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U120" s="24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" hidden="1">
-      <c r="A121" s="21">
+      <c r="V120" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" s="24">
         <v>55</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C121" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D121" s="21" t="s">
+      <c r="C121" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E121" s="21" t="s">
@@ -11706,39 +11752,42 @@
       <c r="K121" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L121" s="21" t="s">
+      <c r="L121" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="M121" s="21" t="s">
+      <c r="M121" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N121" s="21" t="s">
+      <c r="N121" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="O121" s="21" t="s">
+      <c r="O121" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="P121" s="21" t="s">
+      <c r="P121" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q121" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T121" s="21">
+      <c r="Q121" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T121" s="24">
         <v>3.8059999999999997E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" hidden="1">
-      <c r="A122" s="21">
+      <c r="V121" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="24">
         <v>55</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D122" s="21" t="s">
+      <c r="C122" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D122" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E122" s="21" t="s">
@@ -11762,39 +11811,42 @@
       <c r="K122" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L122" s="21" t="s">
+      <c r="L122" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="M122" s="21" t="s">
+      <c r="M122" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N122" s="21" t="s">
+      <c r="N122" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="O122" s="21" t="s">
+      <c r="O122" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="P122" s="21" t="s">
+      <c r="P122" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q122" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T122" s="21">
+      <c r="Q122" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T122" s="24">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" hidden="1">
-      <c r="A123" s="21">
+      <c r="V122" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" s="24">
         <v>55</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D123" s="21" t="s">
+      <c r="C123" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D123" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E123" s="21" t="s">
@@ -11818,39 +11870,42 @@
       <c r="K123" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L123" s="21" t="s">
+      <c r="L123" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="M123" s="21" t="s">
+      <c r="M123" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N123" s="21" t="s">
+      <c r="N123" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="O123" s="21" t="s">
+      <c r="O123" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="P123" s="21" t="s">
+      <c r="P123" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q123" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T123" s="21">
+      <c r="Q123" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T123" s="24">
         <v>0.22914399999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" hidden="1">
-      <c r="A124" s="21">
+      <c r="V123" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" s="24">
         <v>55</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C124" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D124" s="21" t="s">
+      <c r="C124" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D124" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E124" s="21" t="s">
@@ -11874,39 +11929,42 @@
       <c r="K124" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L124" s="21" t="s">
+      <c r="L124" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="M124" s="21" t="s">
+      <c r="M124" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N124" s="21" t="s">
+      <c r="N124" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O124" s="21" t="s">
+      <c r="O124" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="P124" s="21" t="s">
+      <c r="P124" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q124" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T124" s="21">
+      <c r="Q124" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T124" s="24">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" hidden="1">
-      <c r="A125" s="21">
+      <c r="V124" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" s="24">
         <v>55</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D125" s="21" t="s">
+      <c r="C125" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E125" s="21" t="s">
@@ -11930,39 +11988,42 @@
       <c r="K125" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L125" s="21" t="s">
+      <c r="L125" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="M125" s="21" t="s">
+      <c r="M125" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N125" s="21" t="s">
+      <c r="N125" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="O125" s="21" t="s">
+      <c r="O125" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="P125" s="21" t="s">
+      <c r="P125" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q125" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T125" s="21">
+      <c r="Q125" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T125" s="24">
         <v>0.33993000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" hidden="1">
-      <c r="A126" s="21">
+      <c r="V125" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="24">
         <v>55</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D126" s="21" t="s">
+      <c r="C126" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E126" s="21" t="s">
@@ -11986,39 +12047,42 @@
       <c r="K126" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L126" s="21" t="s">
+      <c r="L126" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="M126" s="21" t="s">
+      <c r="M126" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N126" s="21" t="s">
+      <c r="N126" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="O126" s="21" t="s">
+      <c r="O126" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="P126" s="21" t="s">
+      <c r="P126" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q126" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T126" s="21">
+      <c r="Q126" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T126" s="24">
         <v>0.504</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" hidden="1">
-      <c r="A127" s="21">
+      <c r="V126" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" s="24">
         <v>55</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D127" s="21" t="s">
+      <c r="C127" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E127" s="21" t="s">
@@ -12042,39 +12106,42 @@
       <c r="K127" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L127" s="21" t="s">
+      <c r="L127" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="M127" s="21" t="s">
+      <c r="M127" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N127" s="21" t="s">
+      <c r="N127" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="O127" s="21" t="s">
+      <c r="O127" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="P127" s="21" t="s">
+      <c r="P127" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q127" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T127" s="21">
+      <c r="Q127" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T127" s="24">
         <v>0.52462200000000003</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" hidden="1">
-      <c r="A128" s="21">
+      <c r="V127" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" s="24">
         <v>55</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C128" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D128" s="21" t="s">
+      <c r="C128" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D128" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E128" s="21" t="s">
@@ -12098,39 +12165,42 @@
       <c r="K128" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L128" s="21" t="s">
+      <c r="L128" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="M128" s="21" t="s">
+      <c r="M128" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N128" s="21" t="s">
+      <c r="N128" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O128" s="21" t="s">
+      <c r="O128" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="P128" s="21" t="s">
+      <c r="P128" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q128" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T128" s="21">
+      <c r="Q128" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T128" s="24">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" hidden="1">
-      <c r="A129" s="21">
+      <c r="V128" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129" s="24">
         <v>55</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C129" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D129" s="21" t="s">
+      <c r="C129" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D129" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E129" s="21" t="s">
@@ -12154,39 +12224,42 @@
       <c r="K129" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L129" s="21" t="s">
+      <c r="L129" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="M129" s="21" t="s">
+      <c r="M129" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N129" s="21" t="s">
+      <c r="N129" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="O129" s="21" t="s">
+      <c r="O129" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="P129" s="21" t="s">
+      <c r="P129" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q129" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T129" s="21">
+      <c r="Q129" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T129" s="24">
         <v>1.424803</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" hidden="1">
-      <c r="A130" s="21">
+      <c r="V129" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130" s="24">
         <v>55</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D130" s="21" t="s">
+      <c r="C130" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D130" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E130" s="21" t="s">
@@ -12210,39 +12283,42 @@
       <c r="K130" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L130" s="21" t="s">
+      <c r="L130" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="M130" s="21" t="s">
+      <c r="M130" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N130" s="21" t="s">
+      <c r="N130" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="O130" s="21" t="s">
+      <c r="O130" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="P130" s="21" t="s">
+      <c r="P130" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q130" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T130" s="21">
+      <c r="Q130" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T130" s="24">
         <v>3.2719999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" hidden="1">
-      <c r="A131" s="21">
+      <c r="V130" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131" s="24">
         <v>55</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C131" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D131" s="21" t="s">
+      <c r="C131" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D131" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E131" s="21" t="s">
@@ -12266,39 +12342,42 @@
       <c r="K131" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L131" s="21" t="s">
+      <c r="L131" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="M131" s="21" t="s">
+      <c r="M131" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N131" s="21" t="s">
+      <c r="N131" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="O131" s="21" t="s">
+      <c r="O131" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="P131" s="21" t="s">
+      <c r="P131" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q131" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T131" s="21">
+      <c r="Q131" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T131" s="24">
         <v>4.2009999999999996</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" hidden="1">
-      <c r="A132" s="21">
+      <c r="V131" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="A132" s="24">
         <v>55</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C132" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D132" s="21" t="s">
+      <c r="C132" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D132" s="24" t="s">
         <v>1017</v>
       </c>
       <c r="E132" s="21" t="s">
@@ -12322,29 +12401,32 @@
       <c r="K132" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L132" s="21" t="s">
+      <c r="L132" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="M132" s="21" t="s">
+      <c r="M132" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N132" s="21" t="s">
+      <c r="N132" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="O132" s="21" t="s">
+      <c r="O132" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="P132" s="21" t="s">
+      <c r="P132" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q132" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T132" s="21">
+      <c r="Q132" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T132" s="24">
         <v>4.202</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" hidden="1">
+      <c r="V132" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" s="21" customFormat="1">
       <c r="A133" s="21">
         <v>56</v>
       </c>
@@ -12394,13 +12476,13 @@
         <v>692</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V133" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:22" hidden="1">
+    <row r="134" spans="1:22" s="21" customFormat="1">
       <c r="A134" s="21">
         <v>56</v>
       </c>
@@ -12450,13 +12532,13 @@
         <v>692</v>
       </c>
       <c r="Q134" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V134" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="135" spans="1:22" hidden="1">
+    <row r="135" spans="1:22" s="21" customFormat="1">
       <c r="A135" s="21">
         <v>56</v>
       </c>
@@ -12506,13 +12588,13 @@
         <v>692</v>
       </c>
       <c r="Q135" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V135" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="136" spans="1:22" hidden="1">
+    <row r="136" spans="1:22" s="21" customFormat="1">
       <c r="A136" s="21">
         <v>56</v>
       </c>
@@ -12562,13 +12644,13 @@
         <v>692</v>
       </c>
       <c r="Q136" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V136" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="137" spans="1:22" hidden="1">
+    <row r="137" spans="1:22" s="21" customFormat="1">
       <c r="A137" s="21">
         <v>56</v>
       </c>
@@ -12618,13 +12700,13 @@
         <v>692</v>
       </c>
       <c r="Q137" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V137" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="138" spans="1:22" hidden="1">
+    <row r="138" spans="1:22" s="21" customFormat="1">
       <c r="A138" s="21">
         <v>56</v>
       </c>
@@ -12674,13 +12756,13 @@
         <v>692</v>
       </c>
       <c r="Q138" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V138" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="139" spans="1:22" hidden="1">
+    <row r="139" spans="1:22" s="21" customFormat="1">
       <c r="A139" s="21">
         <v>59</v>
       </c>
@@ -12730,26 +12812,26 @@
         <v>692</v>
       </c>
       <c r="Q139" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T139" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="V139" s="21" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" hidden="1">
-      <c r="A140" s="21">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="A140" s="24">
         <v>62</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C140" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D140" s="21" t="s">
+      <c r="C140" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D140" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E140" s="21" t="s">
@@ -12773,42 +12855,45 @@
       <c r="K140" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L140" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M140" s="21" t="s">
+      <c r="L140" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M140" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="N140" s="21" t="s">
+      <c r="N140" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="O140" s="21" t="s">
+      <c r="O140" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="P140" s="21" t="s">
+      <c r="P140" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q140" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T140" s="21">
+      <c r="Q140" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T140" s="24">
         <v>-0.12</v>
       </c>
-      <c r="U140" s="21">
+      <c r="U140" s="24">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" hidden="1">
-      <c r="A141" s="21">
+      <c r="V140" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="A141" s="24">
         <v>62</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D141" s="21" t="s">
+      <c r="C141" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D141" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E141" s="21" t="s">
@@ -12832,42 +12917,45 @@
       <c r="K141" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L141" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M141" s="21" t="s">
+      <c r="L141" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M141" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="N141" s="21" t="s">
+      <c r="N141" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="O141" s="21" t="s">
+      <c r="O141" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="P141" s="21" t="s">
+      <c r="P141" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q141" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T141" s="21">
+      <c r="Q141" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T141" s="24">
         <v>-0.13</v>
       </c>
-      <c r="U141" s="21">
+      <c r="U141" s="24">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" hidden="1">
-      <c r="A142" s="21">
+      <c r="V141" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="A142" s="24">
         <v>62</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C142" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D142" s="21" t="s">
+      <c r="C142" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D142" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E142" s="21" t="s">
@@ -12891,32 +12979,35 @@
       <c r="K142" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L142" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M142" s="21" t="s">
+      <c r="L142" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M142" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="N142" s="21" t="s">
+      <c r="N142" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="O142" s="21" t="s">
+      <c r="O142" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="P142" s="21" t="s">
+      <c r="P142" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q142" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T142" s="21">
+      <c r="Q142" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T142" s="24">
         <v>-0.24</v>
       </c>
-      <c r="U142" s="21">
+      <c r="U142" s="24">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" hidden="1">
+      <c r="V142" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" s="21" customFormat="1">
       <c r="A143" s="21">
         <v>72</v>
       </c>
@@ -12960,19 +13051,19 @@
         <v>409</v>
       </c>
       <c r="O143" s="21" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="P143" s="21" t="s">
         <v>692</v>
       </c>
       <c r="Q143" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T143" s="21">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:22" hidden="1">
+    <row r="144" spans="1:22" s="21" customFormat="1">
       <c r="A144" s="21">
         <v>81</v>
       </c>
@@ -13022,13 +13113,13 @@
         <v>692</v>
       </c>
       <c r="Q144" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R144" s="21">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:22" hidden="1">
+    <row r="145" spans="1:22" s="21" customFormat="1">
       <c r="A145" s="21">
         <v>81</v>
       </c>
@@ -13078,13 +13169,13 @@
         <v>692</v>
       </c>
       <c r="Q145" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R145" s="21">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:22" hidden="1">
+    <row r="146" spans="1:22" s="21" customFormat="1">
       <c r="A146" s="21">
         <v>81</v>
       </c>
@@ -13134,13 +13225,13 @@
         <v>692</v>
       </c>
       <c r="Q146" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R146" s="21">
         <v>0.04</v>
       </c>
     </row>
-    <row r="147" spans="1:22" hidden="1">
+    <row r="147" spans="1:22" s="21" customFormat="1">
       <c r="A147" s="21">
         <v>81</v>
       </c>
@@ -13190,13 +13281,13 @@
         <v>692</v>
       </c>
       <c r="Q147" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R147" s="21">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:22" hidden="1">
+    <row r="148" spans="1:22" s="21" customFormat="1">
       <c r="A148" s="21">
         <v>84</v>
       </c>
@@ -13246,7 +13337,7 @@
         <v>692</v>
       </c>
       <c r="Q148" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T148" s="21">
         <v>-4.8000000000000001E-2</v>
@@ -13258,7 +13349,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="149" spans="1:22" hidden="1">
+    <row r="149" spans="1:22" s="21" customFormat="1">
       <c r="A149" s="21">
         <v>84</v>
       </c>
@@ -13308,7 +13399,7 @@
         <v>692</v>
       </c>
       <c r="Q149" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T149" s="21">
         <v>-7.8E-2</v>
@@ -13320,7 +13411,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="150" spans="1:22" hidden="1">
+    <row r="150" spans="1:22" s="21" customFormat="1">
       <c r="A150" s="21">
         <v>84</v>
       </c>
@@ -13370,7 +13461,7 @@
         <v>692</v>
       </c>
       <c r="Q150" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T150" s="21">
         <v>-0.107</v>
@@ -13382,7 +13473,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="151" spans="1:22" hidden="1">
+    <row r="151" spans="1:22" s="21" customFormat="1">
       <c r="A151" s="21">
         <v>91</v>
       </c>
@@ -13432,13 +13523,13 @@
         <v>692</v>
       </c>
       <c r="Q151" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V151" s="21" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="152" spans="1:22" hidden="1">
+    <row r="152" spans="1:22" s="21" customFormat="1">
       <c r="A152" s="21">
         <v>101</v>
       </c>
@@ -13488,13 +13579,13 @@
         <v>692</v>
       </c>
       <c r="Q152" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T152" s="21">
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:22" hidden="1">
+    <row r="153" spans="1:22" s="21" customFormat="1">
       <c r="A153" s="21">
         <v>101</v>
       </c>
@@ -13544,23 +13635,23 @@
         <v>692</v>
       </c>
       <c r="Q153" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T153" s="21">
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:22" hidden="1">
-      <c r="A154" s="21">
+    <row r="154" spans="1:22">
+      <c r="A154" s="24">
         <v>110</v>
       </c>
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C154" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D154" s="21" t="s">
+      <c r="C154" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D154" s="24" t="s">
         <v>210</v>
       </c>
       <c r="E154" s="21" t="s">
@@ -13584,39 +13675,42 @@
       <c r="K154" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L154" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M154" s="21" t="s">
+      <c r="L154" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M154" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N154" s="21" t="s">
+      <c r="N154" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="O154" s="21" t="s">
+      <c r="O154" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="P154" s="21" t="s">
+      <c r="P154" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q154" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T154" s="21">
+      <c r="Q154" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T154" s="24">
         <v>-0.22739999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" hidden="1">
-      <c r="A155" s="21">
+      <c r="V154" s="24" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
+      <c r="A155" s="24">
         <v>110</v>
       </c>
-      <c r="B155" s="21" t="s">
+      <c r="B155" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C155" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D155" s="21" t="s">
+      <c r="C155" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D155" s="24" t="s">
         <v>210</v>
       </c>
       <c r="E155" s="21" t="s">
@@ -13640,29 +13734,32 @@
       <c r="K155" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L155" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="M155" s="21" t="s">
+      <c r="L155" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="M155" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="N155" s="21" t="s">
+      <c r="N155" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="O155" s="21" t="s">
+      <c r="O155" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="P155" s="21" t="s">
+      <c r="P155" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q155" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T155" s="21">
+      <c r="Q155" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T155" s="24">
         <v>-7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" hidden="1">
+      <c r="V155" s="24" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" s="21" customFormat="1">
       <c r="A156" s="21">
         <v>112</v>
       </c>
@@ -13712,7 +13809,7 @@
         <v>692</v>
       </c>
       <c r="Q156" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R156" s="21">
         <v>1.83E-2</v>
@@ -13721,7 +13818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:22" hidden="1">
+    <row r="157" spans="1:22" s="21" customFormat="1">
       <c r="A157" s="21">
         <v>112</v>
       </c>
@@ -13771,7 +13868,7 @@
         <v>692</v>
       </c>
       <c r="Q157" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R157" s="21">
         <v>1.8200000000000001E-2</v>
@@ -13780,7 +13877,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="158" spans="1:22" hidden="1">
+    <row r="158" spans="1:22" s="21" customFormat="1">
       <c r="A158" s="21">
         <v>112</v>
       </c>
@@ -13830,7 +13927,7 @@
         <v>692</v>
       </c>
       <c r="Q158" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R158" s="21">
         <v>2.1100000000000001E-2</v>
@@ -13839,7 +13936,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="159" spans="1:22" hidden="1">
+    <row r="159" spans="1:22" s="21" customFormat="1">
       <c r="A159" s="21">
         <v>112</v>
       </c>
@@ -13889,7 +13986,7 @@
         <v>692</v>
       </c>
       <c r="Q159" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R159" s="21">
         <v>0.106</v>
@@ -13898,7 +13995,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="160" spans="1:22" hidden="1">
+    <row r="160" spans="1:22" s="21" customFormat="1">
       <c r="A160" s="21">
         <v>112</v>
       </c>
@@ -13948,7 +14045,7 @@
         <v>692</v>
       </c>
       <c r="Q160" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R160" s="21">
         <v>1.66E-2</v>
@@ -13957,7 +14054,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1">
+    <row r="161" spans="1:19" s="21" customFormat="1">
       <c r="A161" s="21">
         <v>112</v>
       </c>
@@ -14007,7 +14104,7 @@
         <v>692</v>
       </c>
       <c r="Q161" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R161" s="21">
         <v>1.3300000000000001E-2</v>
@@ -14016,7 +14113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1">
+    <row r="162" spans="1:19" s="21" customFormat="1">
       <c r="A162" s="21">
         <v>112</v>
       </c>
@@ -14066,7 +14163,7 @@
         <v>692</v>
       </c>
       <c r="Q162" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R162" s="21">
         <v>2.07E-2</v>
@@ -14075,7 +14172,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1">
+    <row r="163" spans="1:19" s="21" customFormat="1">
       <c r="A163" s="21">
         <v>112</v>
       </c>
@@ -14125,7 +14222,7 @@
         <v>692</v>
       </c>
       <c r="Q163" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R163" s="21">
         <v>3.2300000000000002E-2</v>
@@ -14134,7 +14231,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1">
+    <row r="164" spans="1:19" s="21" customFormat="1">
       <c r="A164" s="21">
         <v>112</v>
       </c>
@@ -14184,7 +14281,7 @@
         <v>692</v>
       </c>
       <c r="Q164" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R164" s="21">
         <v>3.1800000000000002E-2</v>
@@ -14193,7 +14290,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1">
+    <row r="165" spans="1:19" s="21" customFormat="1">
       <c r="A165" s="21">
         <v>112</v>
       </c>
@@ -14243,7 +14340,7 @@
         <v>692</v>
       </c>
       <c r="Q165" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R165" s="21">
         <v>1.5700000000000002E-2</v>
@@ -14252,7 +14349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1">
+    <row r="166" spans="1:19" s="21" customFormat="1">
       <c r="A166" s="21">
         <v>112</v>
       </c>
@@ -14302,7 +14399,7 @@
         <v>692</v>
       </c>
       <c r="Q166" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R166" s="21">
         <v>2.7000000000000003E-2</v>
@@ -14311,7 +14408,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1">
+    <row r="167" spans="1:19" s="21" customFormat="1">
       <c r="A167" s="21">
         <v>112</v>
       </c>
@@ -14361,7 +14458,7 @@
         <v>692</v>
       </c>
       <c r="Q167" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R167" s="21">
         <v>0.161</v>
@@ -14370,7 +14467,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1">
+    <row r="168" spans="1:19" s="21" customFormat="1">
       <c r="A168" s="21">
         <v>112</v>
       </c>
@@ -14420,7 +14517,7 @@
         <v>692</v>
       </c>
       <c r="Q168" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R168" s="21">
         <v>8.2899999999999988E-2</v>
@@ -14429,7 +14526,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1">
+    <row r="169" spans="1:19" s="21" customFormat="1">
       <c r="A169" s="21">
         <v>112</v>
       </c>
@@ -14479,7 +14576,7 @@
         <v>692</v>
       </c>
       <c r="Q169" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R169" s="21">
         <v>0.02</v>
@@ -14488,7 +14585,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1">
+    <row r="170" spans="1:19" s="21" customFormat="1">
       <c r="A170" s="21">
         <v>112</v>
       </c>
@@ -14538,7 +14635,7 @@
         <v>692</v>
       </c>
       <c r="Q170" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R170" s="21">
         <v>1.5700000000000002E-2</v>
@@ -14547,7 +14644,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1">
+    <row r="171" spans="1:19" s="21" customFormat="1">
       <c r="A171" s="21">
         <v>112</v>
       </c>
@@ -14597,7 +14694,7 @@
         <v>692</v>
       </c>
       <c r="Q171" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R171" s="21">
         <v>1.5100000000000001E-2</v>
@@ -14606,7 +14703,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1">
+    <row r="172" spans="1:19" s="21" customFormat="1">
       <c r="A172" s="21">
         <v>112</v>
       </c>
@@ -14656,7 +14753,7 @@
         <v>692</v>
       </c>
       <c r="Q172" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R172" s="21">
         <v>3.2300000000000002E-2</v>
@@ -14665,7 +14762,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1">
+    <row r="173" spans="1:19" s="21" customFormat="1">
       <c r="A173" s="21">
         <v>112</v>
       </c>
@@ -14715,7 +14812,7 @@
         <v>692</v>
       </c>
       <c r="Q173" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R173" s="21">
         <v>2.9100000000000001E-2</v>
@@ -14724,7 +14821,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1">
+    <row r="174" spans="1:19" s="21" customFormat="1">
       <c r="A174" s="21">
         <v>112</v>
       </c>
@@ -14774,7 +14871,7 @@
         <v>692</v>
       </c>
       <c r="Q174" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R174" s="21">
         <v>2.52E-2</v>
@@ -14783,7 +14880,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1">
+    <row r="175" spans="1:19" s="21" customFormat="1">
       <c r="A175" s="21">
         <v>112</v>
       </c>
@@ -14833,7 +14930,7 @@
         <v>692</v>
       </c>
       <c r="Q175" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R175" s="21">
         <v>1.67E-2</v>
@@ -14842,7 +14939,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1">
+    <row r="176" spans="1:19" s="21" customFormat="1">
       <c r="A176" s="21">
         <v>112</v>
       </c>
@@ -14892,7 +14989,7 @@
         <v>692</v>
       </c>
       <c r="Q176" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R176" s="21">
         <v>5.9200000000000003E-2</v>
@@ -14901,7 +14998,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="177" spans="1:22" hidden="1">
+    <row r="177" spans="1:22" s="21" customFormat="1">
       <c r="A177" s="21">
         <v>112</v>
       </c>
@@ -14951,7 +15048,7 @@
         <v>692</v>
       </c>
       <c r="Q177" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R177" s="21">
         <v>2.7400000000000004E-2</v>
@@ -14960,7 +15057,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="178" spans="1:22" hidden="1">
+    <row r="178" spans="1:22" s="21" customFormat="1">
       <c r="A178" s="21">
         <v>112</v>
       </c>
@@ -15010,7 +15107,7 @@
         <v>692</v>
       </c>
       <c r="Q178" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R178" s="21">
         <v>9.6600000000000002E-3</v>
@@ -15019,7 +15116,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="179" spans="1:22" hidden="1">
+    <row r="179" spans="1:22" s="21" customFormat="1">
       <c r="A179" s="21">
         <v>112</v>
       </c>
@@ -15069,7 +15166,7 @@
         <v>692</v>
       </c>
       <c r="Q179" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R179" s="21">
         <v>0.16500000000000001</v>
@@ -15078,7 +15175,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:22" hidden="1">
+    <row r="180" spans="1:22" s="21" customFormat="1">
       <c r="A180" s="21">
         <v>114</v>
       </c>
@@ -15128,7 +15225,7 @@
         <v>692</v>
       </c>
       <c r="Q180" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R180" s="21">
         <v>-7.5600000000000001E-2</v>
@@ -15137,7 +15234,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="181" spans="1:22" hidden="1">
+    <row r="181" spans="1:22" s="21" customFormat="1">
       <c r="A181" s="21">
         <v>114</v>
       </c>
@@ -15187,7 +15284,7 @@
         <v>692</v>
       </c>
       <c r="Q181" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R181" s="21">
         <v>-2.9499999999999998E-2</v>
@@ -15196,7 +15293,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="182" spans="1:22" hidden="1">
+    <row r="182" spans="1:22" s="21" customFormat="1">
       <c r="A182" s="21">
         <v>116</v>
       </c>
@@ -15246,10 +15343,10 @@
         <v>692</v>
       </c>
       <c r="Q182" s="21" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" hidden="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" s="21" customFormat="1">
       <c r="A183" s="21">
         <v>116</v>
       </c>
@@ -15299,10 +15396,10 @@
         <v>692</v>
       </c>
       <c r="Q183" s="21" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" hidden="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" s="21" customFormat="1">
       <c r="A184" s="21">
         <v>116</v>
       </c>
@@ -15352,10 +15449,10 @@
         <v>692</v>
       </c>
       <c r="Q184" s="21" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" hidden="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" s="21" customFormat="1">
       <c r="A185" s="21">
         <v>117</v>
       </c>
@@ -15405,13 +15502,13 @@
         <v>692</v>
       </c>
       <c r="Q185" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U185" s="21">
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:22" hidden="1">
+    <row r="186" spans="1:22" s="21" customFormat="1">
       <c r="A186" s="21">
         <v>117</v>
       </c>
@@ -15461,13 +15558,13 @@
         <v>692</v>
       </c>
       <c r="Q186" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U186" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:22" hidden="1">
+    <row r="187" spans="1:22" s="21" customFormat="1">
       <c r="A187" s="21">
         <v>118</v>
       </c>
@@ -15517,13 +15614,13 @@
         <v>692</v>
       </c>
       <c r="Q187" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U187" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:22" hidden="1">
+    <row r="188" spans="1:22" s="21" customFormat="1">
       <c r="A188" s="21">
         <v>118</v>
       </c>
@@ -15573,13 +15670,13 @@
         <v>692</v>
       </c>
       <c r="Q188" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="U188" s="21">
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:22" hidden="1">
+    <row r="189" spans="1:22" s="21" customFormat="1">
       <c r="A189" s="21">
         <v>2</v>
       </c>
@@ -15629,13 +15726,13 @@
         <v>736</v>
       </c>
       <c r="Q189" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V189" s="21" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="190" spans="1:22" hidden="1">
+    <row r="190" spans="1:22" s="21" customFormat="1">
       <c r="A190" s="21">
         <v>2</v>
       </c>
@@ -15685,10 +15782,10 @@
         <v>736</v>
       </c>
       <c r="Q190" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" s="21" customFormat="1">
       <c r="A191" s="21">
         <v>2</v>
       </c>
@@ -15738,13 +15835,13 @@
         <v>736</v>
       </c>
       <c r="Q191" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V191" s="21" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="192" spans="1:22" hidden="1">
+    <row r="192" spans="1:22" s="21" customFormat="1">
       <c r="A192" s="21">
         <v>2</v>
       </c>
@@ -15794,13 +15891,13 @@
         <v>736</v>
       </c>
       <c r="Q192" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V192" s="21" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="193" spans="1:22" hidden="1">
+    <row r="193" spans="1:22" s="21" customFormat="1">
       <c r="A193" s="21">
         <v>2</v>
       </c>
@@ -15850,10 +15947,10 @@
         <v>736</v>
       </c>
       <c r="Q193" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" s="21" customFormat="1">
       <c r="A194" s="21">
         <v>2</v>
       </c>
@@ -15903,10 +16000,10 @@
         <v>736</v>
       </c>
       <c r="Q194" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" s="21" customFormat="1">
       <c r="A195" s="21">
         <v>2</v>
       </c>
@@ -15956,10 +16053,10 @@
         <v>736</v>
       </c>
       <c r="Q195" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" s="21" customFormat="1">
       <c r="A196" s="21">
         <v>3</v>
       </c>
@@ -16009,10 +16106,10 @@
         <v>736</v>
       </c>
       <c r="Q196" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" s="21" customFormat="1">
       <c r="A197" s="21">
         <v>3</v>
       </c>
@@ -16062,10 +16159,10 @@
         <v>736</v>
       </c>
       <c r="Q197" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" s="21" customFormat="1">
       <c r="A198" s="21">
         <v>3</v>
       </c>
@@ -16115,10 +16212,10 @@
         <v>736</v>
       </c>
       <c r="Q198" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" s="21" customFormat="1">
       <c r="A199" s="21">
         <v>4</v>
       </c>
@@ -16168,10 +16265,10 @@
         <v>736</v>
       </c>
       <c r="Q199" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" s="21" customFormat="1">
       <c r="A200" s="21">
         <v>4</v>
       </c>
@@ -16221,10 +16318,10 @@
         <v>736</v>
       </c>
       <c r="Q200" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" s="21" customFormat="1">
       <c r="A201" s="21">
         <v>4</v>
       </c>
@@ -16274,10 +16371,10 @@
         <v>736</v>
       </c>
       <c r="Q201" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="202" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" s="21" customFormat="1">
       <c r="A202" s="21">
         <v>6</v>
       </c>
@@ -16327,13 +16424,13 @@
         <v>736</v>
       </c>
       <c r="Q202" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V202" s="21" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="203" spans="1:22" hidden="1">
+    <row r="203" spans="1:22" s="21" customFormat="1">
       <c r="A203" s="21">
         <v>6</v>
       </c>
@@ -16383,13 +16480,13 @@
         <v>736</v>
       </c>
       <c r="Q203" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V203" s="21" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="204" spans="1:22" hidden="1">
+    <row r="204" spans="1:22" s="21" customFormat="1">
       <c r="A204" s="21">
         <v>6</v>
       </c>
@@ -16439,13 +16536,13 @@
         <v>736</v>
       </c>
       <c r="Q204" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V204" s="21" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="205" spans="1:22" hidden="1">
+    <row r="205" spans="1:22" s="21" customFormat="1">
       <c r="A205" s="21">
         <v>6</v>
       </c>
@@ -16495,13 +16592,13 @@
         <v>736</v>
       </c>
       <c r="Q205" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V205" s="21" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="206" spans="1:22" hidden="1">
+    <row r="206" spans="1:22" s="21" customFormat="1">
       <c r="A206" s="21">
         <v>6</v>
       </c>
@@ -16551,13 +16648,13 @@
         <v>736</v>
       </c>
       <c r="Q206" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V206" s="21" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="207" spans="1:22" hidden="1">
+    <row r="207" spans="1:22" s="21" customFormat="1">
       <c r="A207" s="21">
         <v>6</v>
       </c>
@@ -16607,13 +16704,13 @@
         <v>736</v>
       </c>
       <c r="Q207" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V207" s="21" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="208" spans="1:22" hidden="1">
+    <row r="208" spans="1:22" s="21" customFormat="1">
       <c r="A208" s="21">
         <v>9</v>
       </c>
@@ -16663,10 +16760,10 @@
         <v>736</v>
       </c>
       <c r="Q208" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" s="21" customFormat="1">
       <c r="A209" s="21">
         <v>9</v>
       </c>
@@ -16716,10 +16813,10 @@
         <v>736</v>
       </c>
       <c r="Q209" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" s="21" customFormat="1">
       <c r="A210" s="21">
         <v>9</v>
       </c>
@@ -16769,10 +16866,10 @@
         <v>736</v>
       </c>
       <c r="Q210" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" s="21" customFormat="1">
       <c r="A211" s="21">
         <v>18</v>
       </c>
@@ -16822,10 +16919,10 @@
         <v>736</v>
       </c>
       <c r="Q211" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" s="21" customFormat="1">
       <c r="A212" s="21">
         <v>19</v>
       </c>
@@ -16875,10 +16972,10 @@
         <v>723</v>
       </c>
       <c r="Q212" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" s="21" customFormat="1">
       <c r="A213" s="21">
         <v>19</v>
       </c>
@@ -16928,10 +17025,10 @@
         <v>723</v>
       </c>
       <c r="Q213" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" s="21" customFormat="1">
       <c r="A214" s="21">
         <v>19</v>
       </c>
@@ -16981,10 +17078,10 @@
         <v>723</v>
       </c>
       <c r="Q214" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" s="21" customFormat="1">
       <c r="A215" s="21">
         <v>19</v>
       </c>
@@ -17034,10 +17131,10 @@
         <v>723</v>
       </c>
       <c r="Q215" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" s="21" customFormat="1">
       <c r="A216" s="21">
         <v>19</v>
       </c>
@@ -17087,10 +17184,10 @@
         <v>723</v>
       </c>
       <c r="Q216" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" s="21" customFormat="1">
       <c r="A217" s="21">
         <v>19</v>
       </c>
@@ -17140,10 +17237,10 @@
         <v>723</v>
       </c>
       <c r="Q217" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" s="21" customFormat="1">
       <c r="A218" s="21">
         <v>19</v>
       </c>
@@ -17193,10 +17290,10 @@
         <v>723</v>
       </c>
       <c r="Q218" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" s="21" customFormat="1">
       <c r="A219" s="21">
         <v>19</v>
       </c>
@@ -17246,10 +17343,10 @@
         <v>723</v>
       </c>
       <c r="Q219" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" s="21" customFormat="1">
       <c r="A220" s="21">
         <v>20</v>
       </c>
@@ -17299,10 +17396,10 @@
         <v>736</v>
       </c>
       <c r="Q220" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" s="21" customFormat="1">
       <c r="A221" s="21">
         <v>20</v>
       </c>
@@ -17352,10 +17449,10 @@
         <v>736</v>
       </c>
       <c r="Q221" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" s="21" customFormat="1">
       <c r="A222" s="21">
         <v>20</v>
       </c>
@@ -17405,10 +17502,10 @@
         <v>736</v>
       </c>
       <c r="Q222" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" s="21" customFormat="1">
       <c r="A223" s="21">
         <v>20</v>
       </c>
@@ -17458,10 +17555,10 @@
         <v>736</v>
       </c>
       <c r="Q223" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" s="21" customFormat="1">
       <c r="A224" s="21">
         <v>20</v>
       </c>
@@ -17511,10 +17608,10 @@
         <v>736</v>
       </c>
       <c r="Q224" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="225" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" s="21" customFormat="1">
       <c r="A225" s="21">
         <v>22</v>
       </c>
@@ -17564,10 +17661,10 @@
         <v>723</v>
       </c>
       <c r="Q225" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="226" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" s="21" customFormat="1">
       <c r="A226" s="21">
         <v>23</v>
       </c>
@@ -17617,10 +17714,10 @@
         <v>723</v>
       </c>
       <c r="Q226" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="227" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" s="21" customFormat="1">
       <c r="A227" s="21">
         <v>23</v>
       </c>
@@ -17670,10 +17767,10 @@
         <v>723</v>
       </c>
       <c r="Q227" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="228" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" s="21" customFormat="1">
       <c r="A228" s="21">
         <v>23</v>
       </c>
@@ -17723,10 +17820,10 @@
         <v>723</v>
       </c>
       <c r="Q228" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="229" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" s="21" customFormat="1">
       <c r="A229" s="21">
         <v>23</v>
       </c>
@@ -17776,10 +17873,10 @@
         <v>723</v>
       </c>
       <c r="Q229" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="230" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" s="21" customFormat="1">
       <c r="A230" s="21">
         <v>23</v>
       </c>
@@ -17829,10 +17926,10 @@
         <v>723</v>
       </c>
       <c r="Q230" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" s="21" customFormat="1">
       <c r="A231" s="21">
         <v>23</v>
       </c>
@@ -17882,10 +17979,10 @@
         <v>723</v>
       </c>
       <c r="Q231" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" s="21" customFormat="1">
       <c r="A232" s="21">
         <v>119</v>
       </c>
@@ -17935,13 +18032,13 @@
         <v>692</v>
       </c>
       <c r="Q232" s="21" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="V232" s="21" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="233" spans="1:22" hidden="1">
+    <row r="233" spans="1:22" s="21" customFormat="1">
       <c r="A233" s="21">
         <v>119</v>
       </c>
@@ -17991,13 +18088,13 @@
         <v>692</v>
       </c>
       <c r="Q233" s="21" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="V233" s="21" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="234" spans="1:22" hidden="1">
+    <row r="234" spans="1:22" s="21" customFormat="1">
       <c r="A234" s="21">
         <v>141</v>
       </c>
@@ -18047,7 +18144,7 @@
         <v>692</v>
       </c>
       <c r="Q234" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T234" s="21">
         <v>-0.28029999999999999</v>
@@ -18056,7 +18153,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="235" spans="1:22">
+    <row r="235" spans="1:22" s="21" customFormat="1">
       <c r="A235" s="21">
         <v>25</v>
       </c>
@@ -18109,7 +18206,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="236" spans="1:22">
+    <row r="236" spans="1:22" s="21" customFormat="1">
       <c r="A236" s="21">
         <v>25</v>
       </c>
@@ -18162,7 +18259,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="237" spans="1:22" hidden="1">
+    <row r="237" spans="1:22" s="21" customFormat="1">
       <c r="A237" s="21">
         <v>39</v>
       </c>
@@ -18212,13 +18309,13 @@
         <v>736</v>
       </c>
       <c r="Q237" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V237" s="21" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="1:22" hidden="1">
+    <row r="238" spans="1:22" s="21" customFormat="1">
       <c r="A238" s="21">
         <v>40</v>
       </c>
@@ -18268,10 +18365,10 @@
         <v>736</v>
       </c>
       <c r="Q238" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="239" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" s="21" customFormat="1">
       <c r="A239" s="21">
         <v>40</v>
       </c>
@@ -18321,10 +18418,10 @@
         <v>736</v>
       </c>
       <c r="Q239" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="240" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" s="21" customFormat="1">
       <c r="A240" s="21">
         <v>40</v>
       </c>
@@ -18374,10 +18471,10 @@
         <v>736</v>
       </c>
       <c r="Q240" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" s="21" customFormat="1">
       <c r="A241" s="21">
         <v>40</v>
       </c>
@@ -18427,10 +18524,10 @@
         <v>736</v>
       </c>
       <c r="Q241" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" s="21" customFormat="1">
       <c r="A242" s="21">
         <v>43</v>
       </c>
@@ -18480,10 +18577,10 @@
         <v>723</v>
       </c>
       <c r="Q242" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" s="21" customFormat="1">
       <c r="A243" s="21">
         <v>45</v>
       </c>
@@ -18533,10 +18630,10 @@
         <v>736</v>
       </c>
       <c r="Q243" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" s="21" customFormat="1">
       <c r="A244" s="21">
         <v>45</v>
       </c>
@@ -18586,10 +18683,10 @@
         <v>736</v>
       </c>
       <c r="Q244" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="245" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" s="21" customFormat="1">
       <c r="A245" s="21">
         <v>45</v>
       </c>
@@ -18639,10 +18736,10 @@
         <v>736</v>
       </c>
       <c r="Q245" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" s="21" customFormat="1">
       <c r="A246" s="21">
         <v>45</v>
       </c>
@@ -18692,10 +18789,10 @@
         <v>736</v>
       </c>
       <c r="Q246" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" s="21" customFormat="1">
       <c r="A247" s="21">
         <v>45</v>
       </c>
@@ -18745,10 +18842,10 @@
         <v>736</v>
       </c>
       <c r="Q247" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" s="21" customFormat="1">
       <c r="A248" s="21">
         <v>45</v>
       </c>
@@ -18798,10 +18895,10 @@
         <v>736</v>
       </c>
       <c r="Q248" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" s="21" customFormat="1">
       <c r="A249" s="21">
         <v>48</v>
       </c>
@@ -18851,10 +18948,10 @@
         <v>736</v>
       </c>
       <c r="Q249" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" s="21" customFormat="1">
       <c r="A250" s="21">
         <v>49</v>
       </c>
@@ -18904,10 +19001,10 @@
         <v>736</v>
       </c>
       <c r="Q250" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" s="21" customFormat="1">
       <c r="A251" s="21">
         <v>49</v>
       </c>
@@ -18957,10 +19054,10 @@
         <v>736</v>
       </c>
       <c r="Q251" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" s="21" customFormat="1">
       <c r="A252" s="21">
         <v>49</v>
       </c>
@@ -19010,10 +19107,10 @@
         <v>736</v>
       </c>
       <c r="Q252" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" s="21" customFormat="1">
       <c r="A253" s="21">
         <v>49</v>
       </c>
@@ -19063,10 +19160,10 @@
         <v>736</v>
       </c>
       <c r="Q253" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" s="21" customFormat="1">
       <c r="A254" s="21">
         <v>49</v>
       </c>
@@ -19116,10 +19213,10 @@
         <v>736</v>
       </c>
       <c r="Q254" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" s="21" customFormat="1">
       <c r="A255" s="21">
         <v>49</v>
       </c>
@@ -19169,10 +19266,10 @@
         <v>736</v>
       </c>
       <c r="Q255" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" s="21" customFormat="1">
       <c r="A256" s="21">
         <v>49</v>
       </c>
@@ -19222,10 +19319,10 @@
         <v>736</v>
       </c>
       <c r="Q256" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="257" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" s="21" customFormat="1">
       <c r="A257" s="21">
         <v>49</v>
       </c>
@@ -19275,10 +19372,10 @@
         <v>736</v>
       </c>
       <c r="Q257" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="258" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" s="21" customFormat="1">
       <c r="A258" s="21">
         <v>49</v>
       </c>
@@ -19328,10 +19425,10 @@
         <v>736</v>
       </c>
       <c r="Q258" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="259" spans="1:22">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" s="21" customFormat="1">
       <c r="A259" s="21">
         <v>50</v>
       </c>
@@ -19384,7 +19481,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="260" spans="1:22">
+    <row r="260" spans="1:22" s="21" customFormat="1">
       <c r="A260" s="21">
         <v>50</v>
       </c>
@@ -19437,7 +19534,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:22">
+    <row r="261" spans="1:22" s="21" customFormat="1">
       <c r="A261" s="21">
         <v>50</v>
       </c>
@@ -19490,17 +19587,17 @@
         <v>499</v>
       </c>
     </row>
-    <row r="262" spans="1:22" hidden="1">
-      <c r="A262" s="21">
+    <row r="262" spans="1:22">
+      <c r="A262" s="24">
         <v>52</v>
       </c>
-      <c r="B262" s="21" t="s">
+      <c r="B262" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C262" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D262" s="21" t="s">
+      <c r="C262" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D262" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E262" s="21" t="s">
@@ -19524,36 +19621,39 @@
       <c r="K262" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L262" s="21" t="s">
+      <c r="L262" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="M262" s="21" t="s">
+      <c r="M262" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N262" s="21" t="s">
+      <c r="N262" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O262" s="21" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P262" s="21" t="s">
+      <c r="O262" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P262" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q262" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="263" spans="1:22" hidden="1">
-      <c r="A263" s="21">
+      <c r="Q262" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V262" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22">
+      <c r="A263" s="24">
         <v>52</v>
       </c>
-      <c r="B263" s="21" t="s">
+      <c r="B263" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C263" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D263" s="21" t="s">
+      <c r="C263" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D263" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E263" s="21" t="s">
@@ -19577,36 +19677,39 @@
       <c r="K263" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L263" s="21" t="s">
+      <c r="L263" s="24" t="s">
         <v>982</v>
       </c>
-      <c r="M263" s="21" t="s">
+      <c r="M263" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N263" s="21" t="s">
+      <c r="N263" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O263" s="21" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P263" s="21" t="s">
+      <c r="O263" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P263" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q263" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22" hidden="1">
-      <c r="A264" s="21">
+      <c r="Q263" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V263" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22">
+      <c r="A264" s="24">
         <v>52</v>
       </c>
-      <c r="B264" s="21" t="s">
+      <c r="B264" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C264" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D264" s="21" t="s">
+      <c r="C264" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D264" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E264" s="21" t="s">
@@ -19630,36 +19733,39 @@
       <c r="K264" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L264" s="21" t="s">
+      <c r="L264" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="M264" s="21" t="s">
+      <c r="M264" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N264" s="21" t="s">
+      <c r="N264" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O264" s="21" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P264" s="21" t="s">
+      <c r="O264" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P264" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q264" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" hidden="1">
-      <c r="A265" s="21">
+      <c r="Q264" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V264" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22">
+      <c r="A265" s="24">
         <v>52</v>
       </c>
-      <c r="B265" s="21" t="s">
+      <c r="B265" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C265" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D265" s="21" t="s">
+      <c r="C265" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D265" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E265" s="21" t="s">
@@ -19683,36 +19789,39 @@
       <c r="K265" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L265" s="21" t="s">
+      <c r="L265" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="M265" s="21" t="s">
+      <c r="M265" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N265" s="21" t="s">
+      <c r="N265" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O265" s="21" t="s">
-        <v>1023</v>
-      </c>
-      <c r="P265" s="21" t="s">
+      <c r="O265" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P265" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q265" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22" hidden="1">
-      <c r="A266" s="21">
+      <c r="Q265" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V265" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22">
+      <c r="A266" s="24">
         <v>52</v>
       </c>
-      <c r="B266" s="21" t="s">
+      <c r="B266" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C266" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D266" s="21" t="s">
+      <c r="C266" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D266" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E266" s="21" t="s">
@@ -19736,36 +19845,39 @@
       <c r="K266" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L266" s="21" t="s">
+      <c r="L266" s="24" t="s">
         <v>982</v>
       </c>
-      <c r="M266" s="21" t="s">
+      <c r="M266" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N266" s="21" t="s">
+      <c r="N266" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O266" s="21" t="s">
-        <v>1023</v>
-      </c>
-      <c r="P266" s="21" t="s">
+      <c r="O266" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P266" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q266" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" hidden="1">
-      <c r="A267" s="21">
+      <c r="Q266" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V266" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22">
+      <c r="A267" s="24">
         <v>52</v>
       </c>
-      <c r="B267" s="21" t="s">
+      <c r="B267" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C267" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D267" s="21" t="s">
+      <c r="C267" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D267" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E267" s="21" t="s">
@@ -19789,26 +19901,29 @@
       <c r="K267" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L267" s="21" t="s">
+      <c r="L267" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="M267" s="21" t="s">
+      <c r="M267" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N267" s="21" t="s">
+      <c r="N267" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O267" s="21" t="s">
-        <v>1023</v>
-      </c>
-      <c r="P267" s="21" t="s">
+      <c r="O267" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P267" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q267" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="268" spans="1:22" hidden="1">
+      <c r="Q267" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V267" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" s="21" customFormat="1">
       <c r="A268" s="21">
         <v>141</v>
       </c>
@@ -19858,7 +19973,7 @@
         <v>692</v>
       </c>
       <c r="Q268" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T268" s="21">
         <v>-9.2200000000000004E-2</v>
@@ -19867,7 +19982,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="269" spans="1:22" hidden="1">
+    <row r="269" spans="1:22" s="21" customFormat="1">
       <c r="A269" s="21">
         <v>144</v>
       </c>
@@ -19917,7 +20032,7 @@
         <v>692</v>
       </c>
       <c r="Q269" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T269" s="21">
         <v>0.02</v>
@@ -19926,7 +20041,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="270" spans="1:22" hidden="1">
+    <row r="270" spans="1:22" s="21" customFormat="1">
       <c r="A270" s="21">
         <v>144</v>
       </c>
@@ -19976,7 +20091,7 @@
         <v>692</v>
       </c>
       <c r="Q270" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T270" s="21">
         <v>0.02</v>
@@ -19985,17 +20100,17 @@
         <v>930</v>
       </c>
     </row>
-    <row r="271" spans="1:22" hidden="1">
-      <c r="A271" s="21">
+    <row r="271" spans="1:22">
+      <c r="A271" s="24">
         <v>52</v>
       </c>
-      <c r="B271" s="21" t="s">
+      <c r="B271" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C271" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D271" s="21" t="s">
+      <c r="C271" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D271" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E271" s="21" t="s">
@@ -20019,36 +20134,39 @@
       <c r="K271" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L271" s="21" t="s">
+      <c r="L271" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="M271" s="21" t="s">
+      <c r="M271" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N271" s="21" t="s">
+      <c r="N271" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O271" s="21" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P271" s="21" t="s">
+      <c r="O271" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P271" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q271" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="272" spans="1:22" hidden="1">
-      <c r="A272" s="21">
+      <c r="Q271" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V271" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22">
+      <c r="A272" s="24">
         <v>52</v>
       </c>
-      <c r="B272" s="21" t="s">
+      <c r="B272" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C272" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D272" s="21" t="s">
+      <c r="C272" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D272" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E272" s="21" t="s">
@@ -20072,36 +20190,39 @@
       <c r="K272" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L272" s="21" t="s">
+      <c r="L272" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="M272" s="21" t="s">
+      <c r="M272" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N272" s="21" t="s">
+      <c r="N272" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O272" s="21" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P272" s="21" t="s">
+      <c r="O272" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P272" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q272" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="273" spans="1:22" hidden="1">
-      <c r="A273" s="21">
+      <c r="Q272" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V272" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22">
+      <c r="A273" s="24">
         <v>52</v>
       </c>
-      <c r="B273" s="21" t="s">
+      <c r="B273" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C273" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D273" s="21" t="s">
+      <c r="C273" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D273" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E273" s="21" t="s">
@@ -20125,36 +20246,39 @@
       <c r="K273" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L273" s="21" t="s">
+      <c r="L273" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="M273" s="21" t="s">
+      <c r="M273" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N273" s="21" t="s">
+      <c r="N273" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="O273" s="21" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P273" s="21" t="s">
+      <c r="O273" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P273" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q273" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="274" spans="1:22" hidden="1">
-      <c r="A274" s="21">
+      <c r="Q273" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V273" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22">
+      <c r="A274" s="24">
         <v>52</v>
       </c>
-      <c r="B274" s="21" t="s">
+      <c r="B274" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C274" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D274" s="21" t="s">
+      <c r="C274" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D274" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E274" s="21" t="s">
@@ -20178,36 +20302,39 @@
       <c r="K274" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L274" s="21" t="s">
+      <c r="L274" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="M274" s="21" t="s">
+      <c r="M274" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N274" s="21" t="s">
+      <c r="N274" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O274" s="21" t="s">
-        <v>1025</v>
-      </c>
-      <c r="P274" s="21" t="s">
+      <c r="O274" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P274" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q274" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="275" spans="1:22" hidden="1">
-      <c r="A275" s="21">
+      <c r="Q274" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V274" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22">
+      <c r="A275" s="24">
         <v>52</v>
       </c>
-      <c r="B275" s="21" t="s">
+      <c r="B275" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C275" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D275" s="21" t="s">
+      <c r="C275" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D275" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E275" s="21" t="s">
@@ -20231,36 +20358,39 @@
       <c r="K275" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L275" s="21" t="s">
+      <c r="L275" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="M275" s="21" t="s">
+      <c r="M275" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N275" s="21" t="s">
+      <c r="N275" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O275" s="21" t="s">
-        <v>1025</v>
-      </c>
-      <c r="P275" s="21" t="s">
+      <c r="O275" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P275" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q275" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="276" spans="1:22" hidden="1">
-      <c r="A276" s="21">
+      <c r="Q275" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V275" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22">
+      <c r="A276" s="24">
         <v>52</v>
       </c>
-      <c r="B276" s="21" t="s">
+      <c r="B276" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C276" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D276" s="21" t="s">
+      <c r="C276" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D276" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E276" s="21" t="s">
@@ -20284,26 +20414,29 @@
       <c r="K276" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L276" s="21" t="s">
+      <c r="L276" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="M276" s="21" t="s">
+      <c r="M276" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N276" s="21" t="s">
+      <c r="N276" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="O276" s="21" t="s">
-        <v>1025</v>
-      </c>
-      <c r="P276" s="21" t="s">
+      <c r="O276" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P276" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="Q276" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="277" spans="1:22" hidden="1">
+      <c r="Q276" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V276" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" s="21" customFormat="1">
       <c r="A277" s="21">
         <v>144</v>
       </c>
@@ -20353,7 +20486,7 @@
         <v>692</v>
       </c>
       <c r="Q277" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T277" s="21">
         <v>4.3999999999999997E-2</v>
@@ -20362,17 +20495,17 @@
         <v>930</v>
       </c>
     </row>
-    <row r="278" spans="1:22" hidden="1">
-      <c r="A278" s="21">
+    <row r="278" spans="1:22">
+      <c r="A278" s="24">
         <v>147</v>
       </c>
-      <c r="B278" s="21" t="s">
+      <c r="B278" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C278" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D278" s="21" t="s">
+      <c r="C278" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D278" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E278" s="21" t="s">
@@ -20396,42 +20529,45 @@
       <c r="K278" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="L278" s="21" t="s">
+      <c r="L278" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="M278" s="21" t="s">
+      <c r="M278" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N278" s="21" t="s">
+      <c r="N278" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O278" s="21" t="s">
+      <c r="O278" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="P278" s="21" t="s">
+      <c r="P278" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q278" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T278" s="21">
+      <c r="Q278" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T278" s="24">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="U278" s="21">
+      <c r="U278" s="24">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" hidden="1">
-      <c r="A279" s="21">
+      <c r="V278" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22">
+      <c r="A279" s="24">
         <v>147</v>
       </c>
-      <c r="B279" s="21" t="s">
+      <c r="B279" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C279" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D279" s="21" t="s">
+      <c r="C279" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D279" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E279" s="21" t="s">
@@ -20455,42 +20591,45 @@
       <c r="K279" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="L279" s="21" t="s">
+      <c r="L279" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="M279" s="21" t="s">
+      <c r="M279" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N279" s="21" t="s">
+      <c r="N279" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O279" s="21" t="s">
+      <c r="O279" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="P279" s="21" t="s">
+      <c r="P279" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q279" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T279" s="21">
+      <c r="Q279" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T279" s="24">
         <v>-0.06</v>
       </c>
-      <c r="U279" s="21">
+      <c r="U279" s="24">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" hidden="1">
-      <c r="A280" s="21">
+      <c r="V279" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22">
+      <c r="A280" s="24">
         <v>147</v>
       </c>
-      <c r="B280" s="21" t="s">
+      <c r="B280" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C280" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D280" s="21" t="s">
+      <c r="C280" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D280" s="24" t="s">
         <v>209</v>
       </c>
       <c r="E280" s="21" t="s">
@@ -20514,32 +20653,35 @@
       <c r="K280" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="L280" s="21" t="s">
+      <c r="L280" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="M280" s="21" t="s">
+      <c r="M280" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="N280" s="21" t="s">
+      <c r="N280" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="O280" s="21" t="s">
+      <c r="O280" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="P280" s="21" t="s">
+      <c r="P280" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="Q280" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T280" s="21">
+      <c r="Q280" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T280" s="24">
         <v>-0.05</v>
       </c>
-      <c r="U280" s="21">
+      <c r="U280" s="24">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="281" spans="1:22" hidden="1">
+      <c r="V280" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" s="21" customFormat="1">
       <c r="A281" s="21">
         <v>159</v>
       </c>
@@ -20589,7 +20731,7 @@
         <v>692</v>
       </c>
       <c r="Q281" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R281" s="21">
         <v>3.5999999999999997E-2</v>
@@ -20601,7 +20743,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="282" spans="1:22" hidden="1">
+    <row r="282" spans="1:22" s="21" customFormat="1">
       <c r="A282" s="21">
         <v>159</v>
       </c>
@@ -20651,7 +20793,7 @@
         <v>692</v>
       </c>
       <c r="Q282" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R282" s="21">
         <v>6.9000000000000006E-2</v>
@@ -20663,7 +20805,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="283" spans="1:22" hidden="1">
+    <row r="283" spans="1:22" s="21" customFormat="1">
       <c r="A283" s="21">
         <v>159</v>
       </c>
@@ -20713,7 +20855,7 @@
         <v>692</v>
       </c>
       <c r="Q283" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R283" s="21">
         <v>0.13200000000000001</v>
@@ -20725,7 +20867,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="284" spans="1:22" hidden="1">
+    <row r="284" spans="1:22" s="21" customFormat="1">
       <c r="A284" s="21">
         <v>163</v>
       </c>
@@ -20775,13 +20917,13 @@
         <v>692</v>
       </c>
       <c r="Q284" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R284" s="21">
         <v>0.09</v>
       </c>
     </row>
-    <row r="285" spans="1:22" hidden="1">
+    <row r="285" spans="1:22" s="21" customFormat="1">
       <c r="A285" s="21">
         <v>163</v>
       </c>
@@ -20825,19 +20967,19 @@
         <v>424</v>
       </c>
       <c r="O285" s="21" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="P285" s="21" t="s">
         <v>692</v>
       </c>
       <c r="Q285" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R285" s="21">
         <v>0.13</v>
       </c>
     </row>
-    <row r="286" spans="1:22" hidden="1">
+    <row r="286" spans="1:22" s="21" customFormat="1">
       <c r="A286" s="21">
         <v>57</v>
       </c>
@@ -20887,10 +21029,10 @@
         <v>723</v>
       </c>
       <c r="Q286" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="287" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" s="21" customFormat="1">
       <c r="A287" s="21">
         <v>57</v>
       </c>
@@ -20940,10 +21082,10 @@
         <v>723</v>
       </c>
       <c r="Q287" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="288" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" s="21" customFormat="1">
       <c r="A288" s="21">
         <v>57</v>
       </c>
@@ -20993,10 +21135,10 @@
         <v>723</v>
       </c>
       <c r="Q288" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="289" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" s="21" customFormat="1">
       <c r="A289" s="21">
         <v>57</v>
       </c>
@@ -21046,10 +21188,10 @@
         <v>723</v>
       </c>
       <c r="Q289" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="290" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" s="21" customFormat="1">
       <c r="A290" s="21">
         <v>57</v>
       </c>
@@ -21099,10 +21241,10 @@
         <v>723</v>
       </c>
       <c r="Q290" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="291" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" s="21" customFormat="1">
       <c r="A291" s="21">
         <v>57</v>
       </c>
@@ -21152,10 +21294,10 @@
         <v>723</v>
       </c>
       <c r="Q291" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="292" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" s="21" customFormat="1">
       <c r="A292" s="21">
         <v>57</v>
       </c>
@@ -21205,10 +21347,10 @@
         <v>723</v>
       </c>
       <c r="Q292" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="293" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" s="21" customFormat="1">
       <c r="A293" s="21">
         <v>57</v>
       </c>
@@ -21258,10 +21400,10 @@
         <v>723</v>
       </c>
       <c r="Q293" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="294" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" s="21" customFormat="1">
       <c r="A294" s="21">
         <v>57</v>
       </c>
@@ -21311,10 +21453,10 @@
         <v>723</v>
       </c>
       <c r="Q294" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="295" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" s="21" customFormat="1">
       <c r="A295" s="21">
         <v>57</v>
       </c>
@@ -21364,10 +21506,10 @@
         <v>723</v>
       </c>
       <c r="Q295" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="296" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" s="21" customFormat="1">
       <c r="A296" s="21">
         <v>57</v>
       </c>
@@ -21417,10 +21559,10 @@
         <v>723</v>
       </c>
       <c r="Q296" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="297" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" s="21" customFormat="1">
       <c r="A297" s="21">
         <v>57</v>
       </c>
@@ -21470,10 +21612,10 @@
         <v>723</v>
       </c>
       <c r="Q297" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="298" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" s="21" customFormat="1">
       <c r="A298" s="21">
         <v>58</v>
       </c>
@@ -21523,10 +21665,10 @@
         <v>736</v>
       </c>
       <c r="Q298" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="299" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" s="21" customFormat="1">
       <c r="A299" s="21">
         <v>58</v>
       </c>
@@ -21576,10 +21718,10 @@
         <v>736</v>
       </c>
       <c r="Q299" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="300" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" s="21" customFormat="1">
       <c r="A300" s="21">
         <v>61</v>
       </c>
@@ -21629,13 +21771,13 @@
         <v>736</v>
       </c>
       <c r="Q300" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V300" s="21" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="301" spans="1:22" hidden="1">
+    <row r="301" spans="1:22" s="21" customFormat="1">
       <c r="A301" s="21">
         <v>64</v>
       </c>
@@ -21685,10 +21827,10 @@
         <v>723</v>
       </c>
       <c r="Q301" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="302" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" s="21" customFormat="1">
       <c r="A302" s="21">
         <v>71</v>
       </c>
@@ -21738,10 +21880,10 @@
         <v>736</v>
       </c>
       <c r="Q302" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="303" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" s="21" customFormat="1">
       <c r="A303" s="21">
         <v>71</v>
       </c>
@@ -21791,10 +21933,10 @@
         <v>736</v>
       </c>
       <c r="Q303" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="304" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" s="21" customFormat="1">
       <c r="A304" s="21">
         <v>71</v>
       </c>
@@ -21844,10 +21986,10 @@
         <v>736</v>
       </c>
       <c r="Q304" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="305" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" s="21" customFormat="1">
       <c r="A305" s="21">
         <v>71</v>
       </c>
@@ -21897,10 +22039,10 @@
         <v>736</v>
       </c>
       <c r="Q305" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="306" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" s="21" customFormat="1">
       <c r="A306" s="21">
         <v>71</v>
       </c>
@@ -21950,10 +22092,10 @@
         <v>736</v>
       </c>
       <c r="Q306" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="307" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" s="21" customFormat="1">
       <c r="A307" s="21">
         <v>71</v>
       </c>
@@ -22003,10 +22145,10 @@
         <v>736</v>
       </c>
       <c r="Q307" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="308" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" s="21" customFormat="1">
       <c r="A308" s="21">
         <v>71</v>
       </c>
@@ -22056,10 +22198,10 @@
         <v>736</v>
       </c>
       <c r="Q308" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="309" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" s="21" customFormat="1">
       <c r="A309" s="21">
         <v>73</v>
       </c>
@@ -22109,13 +22251,13 @@
         <v>736</v>
       </c>
       <c r="Q309" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V309" s="21" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="310" spans="1:22" hidden="1">
+    <row r="310" spans="1:22" s="21" customFormat="1">
       <c r="A310" s="21">
         <v>73</v>
       </c>
@@ -22165,13 +22307,13 @@
         <v>736</v>
       </c>
       <c r="Q310" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V310" s="21" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="311" spans="1:22" hidden="1">
+    <row r="311" spans="1:22" s="21" customFormat="1">
       <c r="A311" s="21">
         <v>73</v>
       </c>
@@ -22221,13 +22363,13 @@
         <v>736</v>
       </c>
       <c r="Q311" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V311" s="21" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="312" spans="1:22" hidden="1">
+    <row r="312" spans="1:22" s="21" customFormat="1">
       <c r="A312" s="21">
         <v>74</v>
       </c>
@@ -22277,10 +22419,10 @@
         <v>736</v>
       </c>
       <c r="Q312" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="313" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" s="21" customFormat="1">
       <c r="A313" s="21">
         <v>74</v>
       </c>
@@ -22330,10 +22472,10 @@
         <v>736</v>
       </c>
       <c r="Q313" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="314" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" s="21" customFormat="1">
       <c r="A314" s="21">
         <v>77</v>
       </c>
@@ -22383,10 +22525,10 @@
         <v>736</v>
       </c>
       <c r="Q314" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="315" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" s="21" customFormat="1">
       <c r="A315" s="21">
         <v>77</v>
       </c>
@@ -22436,10 +22578,10 @@
         <v>736</v>
       </c>
       <c r="Q315" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="316" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" s="21" customFormat="1">
       <c r="A316" s="21">
         <v>77</v>
       </c>
@@ -22489,10 +22631,10 @@
         <v>736</v>
       </c>
       <c r="Q316" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="317" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" s="21" customFormat="1">
       <c r="A317" s="21">
         <v>77</v>
       </c>
@@ -22542,10 +22684,10 @@
         <v>736</v>
       </c>
       <c r="Q317" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="318" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" s="21" customFormat="1">
       <c r="A318" s="21">
         <v>77</v>
       </c>
@@ -22595,10 +22737,10 @@
         <v>736</v>
       </c>
       <c r="Q318" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="319" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" s="21" customFormat="1">
       <c r="A319" s="21">
         <v>77</v>
       </c>
@@ -22648,10 +22790,10 @@
         <v>736</v>
       </c>
       <c r="Q319" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="320" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" s="21" customFormat="1">
       <c r="A320" s="21">
         <v>77</v>
       </c>
@@ -22701,10 +22843,10 @@
         <v>736</v>
       </c>
       <c r="Q320" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="321" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" s="21" customFormat="1">
       <c r="A321" s="21">
         <v>78</v>
       </c>
@@ -22754,10 +22896,10 @@
         <v>736</v>
       </c>
       <c r="Q321" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="322" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" s="21" customFormat="1">
       <c r="A322" s="21">
         <v>78</v>
       </c>
@@ -22807,10 +22949,10 @@
         <v>736</v>
       </c>
       <c r="Q322" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="323" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" s="21" customFormat="1">
       <c r="A323" s="21">
         <v>78</v>
       </c>
@@ -22860,10 +23002,10 @@
         <v>736</v>
       </c>
       <c r="Q323" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="324" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" s="21" customFormat="1">
       <c r="A324" s="21">
         <v>79</v>
       </c>
@@ -22907,19 +23049,19 @@
         <v>453</v>
       </c>
       <c r="O324" s="21" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="P324" s="21" t="s">
         <v>723</v>
       </c>
       <c r="Q324" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V324" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="325" spans="1:22" hidden="1">
+    <row r="325" spans="1:22" s="21" customFormat="1">
       <c r="A325" s="21">
         <v>79</v>
       </c>
@@ -22963,19 +23105,19 @@
         <v>453</v>
       </c>
       <c r="O325" s="21" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="P325" s="21" t="s">
         <v>723</v>
       </c>
       <c r="Q325" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V325" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="326" spans="1:22" hidden="1">
+    <row r="326" spans="1:22" s="21" customFormat="1">
       <c r="A326" s="21">
         <v>80</v>
       </c>
@@ -23025,10 +23167,10 @@
         <v>736</v>
       </c>
       <c r="Q326" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="327" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" s="21" customFormat="1">
       <c r="A327" s="21">
         <v>80</v>
       </c>
@@ -23078,10 +23220,10 @@
         <v>736</v>
       </c>
       <c r="Q327" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="328" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" s="21" customFormat="1">
       <c r="A328" s="21">
         <v>80</v>
       </c>
@@ -23131,10 +23273,10 @@
         <v>736</v>
       </c>
       <c r="Q328" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="329" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" s="21" customFormat="1">
       <c r="A329" s="21">
         <v>80</v>
       </c>
@@ -23184,10 +23326,10 @@
         <v>736</v>
       </c>
       <c r="Q329" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="330" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" s="21" customFormat="1">
       <c r="A330" s="21">
         <v>80</v>
       </c>
@@ -23237,10 +23379,10 @@
         <v>736</v>
       </c>
       <c r="Q330" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="331" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" s="21" customFormat="1">
       <c r="A331" s="21">
         <v>80</v>
       </c>
@@ -23290,10 +23432,10 @@
         <v>736</v>
       </c>
       <c r="Q331" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="332" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" s="21" customFormat="1">
       <c r="A332" s="21">
         <v>80</v>
       </c>
@@ -23343,10 +23485,10 @@
         <v>736</v>
       </c>
       <c r="Q332" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="333" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" s="21" customFormat="1">
       <c r="A333" s="21">
         <v>80</v>
       </c>
@@ -23396,10 +23538,10 @@
         <v>736</v>
       </c>
       <c r="Q333" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="334" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" s="21" customFormat="1">
       <c r="A334" s="21">
         <v>80</v>
       </c>
@@ -23449,10 +23591,10 @@
         <v>736</v>
       </c>
       <c r="Q334" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="335" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" s="21" customFormat="1">
       <c r="A335" s="21">
         <v>80</v>
       </c>
@@ -23502,10 +23644,10 @@
         <v>736</v>
       </c>
       <c r="Q335" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="336" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" s="21" customFormat="1">
       <c r="A336" s="21">
         <v>80</v>
       </c>
@@ -23555,10 +23697,10 @@
         <v>736</v>
       </c>
       <c r="Q336" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="337" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" s="21" customFormat="1">
       <c r="A337" s="21">
         <v>80</v>
       </c>
@@ -23608,10 +23750,10 @@
         <v>736</v>
       </c>
       <c r="Q337" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="338" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" s="21" customFormat="1">
       <c r="A338" s="21">
         <v>80</v>
       </c>
@@ -23661,10 +23803,10 @@
         <v>736</v>
       </c>
       <c r="Q338" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="339" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22" s="21" customFormat="1">
       <c r="A339" s="21">
         <v>80</v>
       </c>
@@ -23714,10 +23856,10 @@
         <v>736</v>
       </c>
       <c r="Q339" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="340" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22" s="21" customFormat="1">
       <c r="A340" s="21">
         <v>80</v>
       </c>
@@ -23767,10 +23909,10 @@
         <v>736</v>
       </c>
       <c r="Q340" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="341" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22" s="21" customFormat="1">
       <c r="A341" s="21">
         <v>80</v>
       </c>
@@ -23820,10 +23962,10 @@
         <v>736</v>
       </c>
       <c r="Q341" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="342" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22" s="21" customFormat="1">
       <c r="A342" s="21">
         <v>82</v>
       </c>
@@ -23873,13 +24015,13 @@
         <v>736</v>
       </c>
       <c r="Q342" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V342" s="21" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="343" spans="1:22" hidden="1">
+    <row r="343" spans="1:22" s="21" customFormat="1">
       <c r="A343" s="21">
         <v>82</v>
       </c>
@@ -23929,13 +24071,13 @@
         <v>736</v>
       </c>
       <c r="Q343" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V343" s="21" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="344" spans="1:22" hidden="1">
+    <row r="344" spans="1:22" s="21" customFormat="1">
       <c r="A344" s="21">
         <v>82</v>
       </c>
@@ -23985,13 +24127,13 @@
         <v>736</v>
       </c>
       <c r="Q344" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V344" s="21" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="345" spans="1:22">
+    <row r="345" spans="1:22" s="21" customFormat="1">
       <c r="A345" s="21">
         <v>86</v>
       </c>
@@ -24047,7 +24189,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="346" spans="1:22" hidden="1">
+    <row r="346" spans="1:22" s="21" customFormat="1">
       <c r="A346" s="21">
         <v>88</v>
       </c>
@@ -24097,10 +24239,10 @@
         <v>736</v>
       </c>
       <c r="Q346" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="347" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" s="21" customFormat="1">
       <c r="A347" s="21">
         <v>88</v>
       </c>
@@ -24150,10 +24292,10 @@
         <v>736</v>
       </c>
       <c r="Q347" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="348" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" s="21" customFormat="1">
       <c r="A348" s="21">
         <v>88</v>
       </c>
@@ -24203,10 +24345,10 @@
         <v>736</v>
       </c>
       <c r="Q348" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="349" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" s="21" customFormat="1">
       <c r="A349" s="21">
         <v>88</v>
       </c>
@@ -24256,10 +24398,10 @@
         <v>736</v>
       </c>
       <c r="Q349" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="350" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" s="21" customFormat="1">
       <c r="A350" s="21">
         <v>164</v>
       </c>
@@ -24309,13 +24451,13 @@
         <v>692</v>
       </c>
       <c r="Q350" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T350" s="21">
         <v>0.06</v>
       </c>
     </row>
-    <row r="351" spans="1:22" hidden="1">
+    <row r="351" spans="1:22" s="21" customFormat="1">
       <c r="A351" s="21">
         <v>94</v>
       </c>
@@ -24365,13 +24507,13 @@
         <v>723</v>
       </c>
       <c r="Q351" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V351" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="352" spans="1:22" hidden="1">
+    <row r="352" spans="1:22" s="21" customFormat="1">
       <c r="A352" s="21">
         <v>94</v>
       </c>
@@ -24421,13 +24563,13 @@
         <v>723</v>
       </c>
       <c r="Q352" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V352" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1">
+    <row r="353" spans="1:20" s="21" customFormat="1">
       <c r="A353" s="21">
         <v>98</v>
       </c>
@@ -24477,10 +24619,10 @@
         <v>736</v>
       </c>
       <c r="Q353" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="354" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" s="21" customFormat="1">
       <c r="A354" s="21">
         <v>98</v>
       </c>
@@ -24530,10 +24672,10 @@
         <v>736</v>
       </c>
       <c r="Q354" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="355" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" s="21" customFormat="1">
       <c r="A355" s="21">
         <v>99</v>
       </c>
@@ -24583,10 +24725,10 @@
         <v>736</v>
       </c>
       <c r="Q355" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="356" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" s="21" customFormat="1">
       <c r="A356" s="21">
         <v>99</v>
       </c>
@@ -24636,10 +24778,10 @@
         <v>736</v>
       </c>
       <c r="Q356" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="357" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" s="21" customFormat="1">
       <c r="A357" s="21">
         <v>102</v>
       </c>
@@ -24689,10 +24831,10 @@
         <v>736</v>
       </c>
       <c r="Q357" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="358" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" s="21" customFormat="1">
       <c r="A358" s="21">
         <v>102</v>
       </c>
@@ -24742,10 +24884,10 @@
         <v>736</v>
       </c>
       <c r="Q358" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="359" spans="1:20">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" s="21" customFormat="1">
       <c r="A359" s="21">
         <v>103</v>
       </c>
@@ -24798,7 +24940,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="360" spans="1:20">
+    <row r="360" spans="1:20" s="21" customFormat="1">
       <c r="A360" s="21">
         <v>103</v>
       </c>
@@ -24851,7 +24993,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="361" spans="1:20">
+    <row r="361" spans="1:20" s="21" customFormat="1">
       <c r="A361" s="21">
         <v>103</v>
       </c>
@@ -24904,7 +25046,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="362" spans="1:20">
+    <row r="362" spans="1:20" s="21" customFormat="1">
       <c r="A362" s="21">
         <v>108</v>
       </c>
@@ -24957,7 +25099,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="363" spans="1:20">
+    <row r="363" spans="1:20" s="21" customFormat="1">
       <c r="A363" s="21">
         <v>108</v>
       </c>
@@ -25010,7 +25152,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="364" spans="1:20">
+    <row r="364" spans="1:20" s="21" customFormat="1">
       <c r="A364" s="21">
         <v>108</v>
       </c>
@@ -25063,7 +25205,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="365" spans="1:20">
+    <row r="365" spans="1:20" s="21" customFormat="1">
       <c r="A365" s="21">
         <v>108</v>
       </c>
@@ -25116,7 +25258,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1">
+    <row r="366" spans="1:20" s="21" customFormat="1">
       <c r="A366" s="21">
         <v>164</v>
       </c>
@@ -25166,13 +25308,13 @@
         <v>692</v>
       </c>
       <c r="Q366" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T366" s="21">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1">
+    <row r="367" spans="1:20" s="21" customFormat="1">
       <c r="A367" s="21">
         <v>164</v>
       </c>
@@ -25222,13 +25364,13 @@
         <v>692</v>
       </c>
       <c r="Q367" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T367" s="21">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1">
+    <row r="368" spans="1:20" s="21" customFormat="1">
       <c r="A368" s="21">
         <v>164</v>
       </c>
@@ -25278,13 +25420,13 @@
         <v>692</v>
       </c>
       <c r="Q368" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T368" s="21">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1">
+    <row r="369" spans="1:20" s="21" customFormat="1">
       <c r="A369" s="21">
         <v>164</v>
       </c>
@@ -25334,13 +25476,13 @@
         <v>692</v>
       </c>
       <c r="Q369" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T369" s="21">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1">
+    <row r="370" spans="1:20" s="21" customFormat="1">
       <c r="A370" s="21">
         <v>164</v>
       </c>
@@ -25390,13 +25532,13 @@
         <v>692</v>
       </c>
       <c r="Q370" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T370" s="21">
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1">
+    <row r="371" spans="1:20" s="21" customFormat="1">
       <c r="A371" s="21">
         <v>120</v>
       </c>
@@ -25446,10 +25588,10 @@
         <v>723</v>
       </c>
       <c r="Q371" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="372" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" s="21" customFormat="1">
       <c r="A372" s="21">
         <v>120</v>
       </c>
@@ -25499,10 +25641,10 @@
         <v>723</v>
       </c>
       <c r="Q372" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="373" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" s="21" customFormat="1">
       <c r="A373" s="21">
         <v>120</v>
       </c>
@@ -25552,10 +25694,10 @@
         <v>723</v>
       </c>
       <c r="Q373" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="374" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" s="21" customFormat="1">
       <c r="A374" s="21">
         <v>125</v>
       </c>
@@ -25605,10 +25747,10 @@
         <v>736</v>
       </c>
       <c r="Q374" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="375" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" s="21" customFormat="1">
       <c r="A375" s="21">
         <v>125</v>
       </c>
@@ -25658,10 +25800,10 @@
         <v>736</v>
       </c>
       <c r="Q375" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="376" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" s="21" customFormat="1">
       <c r="A376" s="21">
         <v>125</v>
       </c>
@@ -25711,10 +25853,10 @@
         <v>736</v>
       </c>
       <c r="Q376" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="377" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" s="21" customFormat="1">
       <c r="A377" s="21">
         <v>125</v>
       </c>
@@ -25764,10 +25906,10 @@
         <v>736</v>
       </c>
       <c r="Q377" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="378" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" s="21" customFormat="1">
       <c r="A378" s="21">
         <v>125</v>
       </c>
@@ -25817,10 +25959,10 @@
         <v>736</v>
       </c>
       <c r="Q378" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="379" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" s="21" customFormat="1">
       <c r="A379" s="21">
         <v>125</v>
       </c>
@@ -25870,10 +26012,10 @@
         <v>736</v>
       </c>
       <c r="Q379" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="380" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" s="21" customFormat="1">
       <c r="A380" s="21">
         <v>125</v>
       </c>
@@ -25923,10 +26065,10 @@
         <v>736</v>
       </c>
       <c r="Q380" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="381" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" s="21" customFormat="1">
       <c r="A381" s="21">
         <v>125</v>
       </c>
@@ -25976,10 +26118,10 @@
         <v>736</v>
       </c>
       <c r="Q381" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="382" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" s="21" customFormat="1">
       <c r="A382" s="21">
         <v>126</v>
       </c>
@@ -26029,10 +26171,10 @@
         <v>736</v>
       </c>
       <c r="Q382" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="383" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" s="21" customFormat="1">
       <c r="A383" s="21">
         <v>126</v>
       </c>
@@ -26082,10 +26224,10 @@
         <v>736</v>
       </c>
       <c r="Q383" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="384" spans="1:20" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" s="21" customFormat="1">
       <c r="A384" s="21">
         <v>126</v>
       </c>
@@ -26135,10 +26277,10 @@
         <v>736</v>
       </c>
       <c r="Q384" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="385" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" s="21" customFormat="1">
       <c r="A385" s="21">
         <v>126</v>
       </c>
@@ -26188,10 +26330,10 @@
         <v>736</v>
       </c>
       <c r="Q385" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="386" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" s="21" customFormat="1">
       <c r="A386" s="21">
         <v>126</v>
       </c>
@@ -26241,10 +26383,10 @@
         <v>736</v>
       </c>
       <c r="Q386" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="387" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" s="21" customFormat="1">
       <c r="A387" s="21">
         <v>129</v>
       </c>
@@ -26294,10 +26436,10 @@
         <v>736</v>
       </c>
       <c r="Q387" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="388" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" s="21" customFormat="1">
       <c r="A388" s="21">
         <v>133</v>
       </c>
@@ -26347,10 +26489,10 @@
         <v>736</v>
       </c>
       <c r="Q388" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="389" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" s="21" customFormat="1">
       <c r="A389" s="21">
         <v>136</v>
       </c>
@@ -26400,10 +26542,10 @@
         <v>736</v>
       </c>
       <c r="Q389" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="390" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" s="21" customFormat="1">
       <c r="A390" s="21">
         <v>136</v>
       </c>
@@ -26453,10 +26595,10 @@
         <v>736</v>
       </c>
       <c r="Q390" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="391" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" s="21" customFormat="1">
       <c r="A391" s="21">
         <v>138</v>
       </c>
@@ -26506,10 +26648,10 @@
         <v>736</v>
       </c>
       <c r="Q391" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="392" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" s="21" customFormat="1">
       <c r="A392" s="21">
         <v>138</v>
       </c>
@@ -26559,10 +26701,10 @@
         <v>736</v>
       </c>
       <c r="Q392" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="393" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" s="21" customFormat="1">
       <c r="A393" s="21">
         <v>138</v>
       </c>
@@ -26612,10 +26754,10 @@
         <v>736</v>
       </c>
       <c r="Q393" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="394" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" s="21" customFormat="1">
       <c r="A394" s="21">
         <v>138</v>
       </c>
@@ -26665,10 +26807,10 @@
         <v>736</v>
       </c>
       <c r="Q394" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="395" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" s="21" customFormat="1">
       <c r="A395" s="21">
         <v>138</v>
       </c>
@@ -26718,10 +26860,10 @@
         <v>736</v>
       </c>
       <c r="Q395" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="396" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" s="21" customFormat="1">
       <c r="A396" s="21">
         <v>138</v>
       </c>
@@ -26771,10 +26913,10 @@
         <v>736</v>
       </c>
       <c r="Q396" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="397" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" s="21" customFormat="1">
       <c r="A397" s="21">
         <v>138</v>
       </c>
@@ -26824,10 +26966,10 @@
         <v>736</v>
       </c>
       <c r="Q397" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="398" spans="1:17" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" s="21" customFormat="1">
       <c r="A398" s="21">
         <v>138</v>
       </c>
@@ -26877,10 +27019,10 @@
         <v>736</v>
       </c>
       <c r="Q398" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="399" spans="1:17">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" s="21" customFormat="1">
       <c r="A399" s="21">
         <v>139</v>
       </c>
@@ -26933,7 +27075,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" s="21" customFormat="1">
       <c r="A400" s="21">
         <v>139</v>
       </c>
@@ -26986,7 +27128,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="401" spans="1:22">
+    <row r="401" spans="1:22" s="21" customFormat="1">
       <c r="A401" s="21">
         <v>140</v>
       </c>
@@ -27042,7 +27184,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="402" spans="1:22">
+    <row r="402" spans="1:22" s="21" customFormat="1">
       <c r="A402" s="21">
         <v>140</v>
       </c>
@@ -27098,7 +27240,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="403" spans="1:22">
+    <row r="403" spans="1:22" s="21" customFormat="1">
       <c r="A403" s="21">
         <v>140</v>
       </c>
@@ -27154,7 +27296,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="404" spans="1:22">
+    <row r="404" spans="1:22" s="21" customFormat="1">
       <c r="A404" s="21">
         <v>140</v>
       </c>
@@ -27210,7 +27352,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="405" spans="1:22">
+    <row r="405" spans="1:22" s="21" customFormat="1">
       <c r="A405" s="21">
         <v>140</v>
       </c>
@@ -27266,7 +27408,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="406" spans="1:22">
+    <row r="406" spans="1:22" s="21" customFormat="1">
       <c r="A406" s="21">
         <v>140</v>
       </c>
@@ -27322,7 +27464,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="407" spans="1:22">
+    <row r="407" spans="1:22" s="21" customFormat="1">
       <c r="A407" s="21">
         <v>140</v>
       </c>
@@ -27378,7 +27520,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="408" spans="1:22">
+    <row r="408" spans="1:22" s="21" customFormat="1">
       <c r="A408" s="21">
         <v>140</v>
       </c>
@@ -27434,7 +27576,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="409" spans="1:22" hidden="1">
+    <row r="409" spans="1:22" s="21" customFormat="1">
       <c r="A409" s="21">
         <v>164</v>
       </c>
@@ -27484,13 +27626,13 @@
         <v>692</v>
       </c>
       <c r="Q409" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T409" s="21">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:22" hidden="1">
+    <row r="410" spans="1:22" s="21" customFormat="1">
       <c r="A410" s="21">
         <v>164</v>
       </c>
@@ -27540,13 +27682,13 @@
         <v>692</v>
       </c>
       <c r="Q410" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T410" s="21">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:22" hidden="1">
+    <row r="411" spans="1:22" s="21" customFormat="1">
       <c r="A411" s="21">
         <v>143</v>
       </c>
@@ -27596,10 +27738,10 @@
         <v>736</v>
       </c>
       <c r="Q411" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="412" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" s="21" customFormat="1">
       <c r="A412" s="21">
         <v>143</v>
       </c>
@@ -27649,10 +27791,10 @@
         <v>736</v>
       </c>
       <c r="Q412" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="413" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="413" spans="1:22" s="21" customFormat="1">
       <c r="A413" s="21">
         <v>143</v>
       </c>
@@ -27702,10 +27844,10 @@
         <v>736</v>
       </c>
       <c r="Q413" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="414" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" s="21" customFormat="1">
       <c r="A414" s="21">
         <v>143</v>
       </c>
@@ -27755,10 +27897,10 @@
         <v>736</v>
       </c>
       <c r="Q414" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="415" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="415" spans="1:22" s="21" customFormat="1">
       <c r="A415" s="21">
         <v>143</v>
       </c>
@@ -27808,10 +27950,10 @@
         <v>736</v>
       </c>
       <c r="Q415" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="416" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="416" spans="1:22" s="21" customFormat="1">
       <c r="A416" s="21">
         <v>143</v>
       </c>
@@ -27861,10 +28003,10 @@
         <v>736</v>
       </c>
       <c r="Q416" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="417" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="417" spans="1:22" s="21" customFormat="1">
       <c r="A417" s="21">
         <v>146</v>
       </c>
@@ -27914,13 +28056,13 @@
         <v>736</v>
       </c>
       <c r="Q417" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V417" s="21" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="418" spans="1:22" hidden="1">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" s="21" customFormat="1">
       <c r="A418" s="21">
         <v>146</v>
       </c>
@@ -27970,13 +28112,13 @@
         <v>736</v>
       </c>
       <c r="Q418" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V418" s="21" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="419" spans="1:22" hidden="1">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="419" spans="1:22" s="21" customFormat="1">
       <c r="A419" s="21">
         <v>164</v>
       </c>
@@ -28026,13 +28168,13 @@
         <v>692</v>
       </c>
       <c r="Q419" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T419" s="21">
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:22" hidden="1">
+    <row r="420" spans="1:22" s="21" customFormat="1">
       <c r="A420" s="21">
         <v>164</v>
       </c>
@@ -28082,13 +28224,13 @@
         <v>692</v>
       </c>
       <c r="Q420" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T420" s="21">
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:22" hidden="1">
+    <row r="421" spans="1:22" s="21" customFormat="1">
       <c r="A421" s="21">
         <v>164</v>
       </c>
@@ -28138,13 +28280,13 @@
         <v>692</v>
       </c>
       <c r="Q421" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T421" s="21">
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:22">
+    <row r="422" spans="1:22" s="21" customFormat="1">
       <c r="A422" s="21">
         <v>152</v>
       </c>
@@ -28197,7 +28339,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="423" spans="1:22">
+    <row r="423" spans="1:22" s="21" customFormat="1">
       <c r="A423" s="21">
         <v>152</v>
       </c>
@@ -28250,7 +28392,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="424" spans="1:22">
+    <row r="424" spans="1:22" s="21" customFormat="1">
       <c r="A424" s="21">
         <v>152</v>
       </c>
@@ -28303,7 +28445,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="425" spans="1:22" hidden="1">
+    <row r="425" spans="1:22" s="21" customFormat="1">
       <c r="A425" s="21">
         <v>157</v>
       </c>
@@ -28353,10 +28495,10 @@
         <v>736</v>
       </c>
       <c r="Q425" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="426" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" s="21" customFormat="1">
       <c r="A426" s="21">
         <v>157</v>
       </c>
@@ -28406,10 +28548,10 @@
         <v>736</v>
       </c>
       <c r="Q426" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="427" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" s="21" customFormat="1">
       <c r="A427" s="21">
         <v>157</v>
       </c>
@@ -28459,10 +28601,10 @@
         <v>736</v>
       </c>
       <c r="Q427" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="428" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" s="21" customFormat="1">
       <c r="A428" s="21">
         <v>157</v>
       </c>
@@ -28512,10 +28654,10 @@
         <v>736</v>
       </c>
       <c r="Q428" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="429" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" s="21" customFormat="1">
       <c r="A429" s="21">
         <v>157</v>
       </c>
@@ -28565,10 +28707,10 @@
         <v>736</v>
       </c>
       <c r="Q429" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="430" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="430" spans="1:22" s="21" customFormat="1">
       <c r="A430" s="21">
         <v>157</v>
       </c>
@@ -28612,19 +28754,19 @@
         <v>540</v>
       </c>
       <c r="O430" s="21" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="P430" s="21" t="s">
         <v>736</v>
       </c>
       <c r="Q430" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V430" s="21" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="431" spans="1:22" hidden="1">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" s="21" customFormat="1">
       <c r="A431" s="21">
         <v>157</v>
       </c>
@@ -28674,10 +28816,10 @@
         <v>736</v>
       </c>
       <c r="Q431" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="432" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" s="21" customFormat="1">
       <c r="A432" s="21">
         <v>157</v>
       </c>
@@ -28727,10 +28869,10 @@
         <v>736</v>
       </c>
       <c r="Q432" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="433" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="433" spans="1:22" s="21" customFormat="1">
       <c r="A433" s="21">
         <v>157</v>
       </c>
@@ -28780,10 +28922,10 @@
         <v>736</v>
       </c>
       <c r="Q433" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="434" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="434" spans="1:22" s="21" customFormat="1">
       <c r="A434" s="21">
         <v>158</v>
       </c>
@@ -28833,10 +28975,10 @@
         <v>723</v>
       </c>
       <c r="Q434" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="435" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="435" spans="1:22" s="21" customFormat="1">
       <c r="A435" s="21">
         <v>164</v>
       </c>
@@ -28886,13 +29028,13 @@
         <v>692</v>
       </c>
       <c r="Q435" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T435" s="21">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:22" hidden="1">
+    <row r="436" spans="1:22" s="21" customFormat="1">
       <c r="A436" s="21">
         <v>164</v>
       </c>
@@ -28942,13 +29084,13 @@
         <v>692</v>
       </c>
       <c r="Q436" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T436" s="21">
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:22" hidden="1">
+    <row r="437" spans="1:22" s="21" customFormat="1">
       <c r="A437" s="21">
         <v>164</v>
       </c>
@@ -28998,13 +29140,13 @@
         <v>692</v>
       </c>
       <c r="Q437" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T437" s="21">
         <v>0.432</v>
       </c>
     </row>
-    <row r="438" spans="1:22" hidden="1">
+    <row r="438" spans="1:22" s="21" customFormat="1">
       <c r="A438" s="21">
         <v>160</v>
       </c>
@@ -29054,13 +29196,13 @@
         <v>736</v>
       </c>
       <c r="Q438" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V438" s="21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="439" spans="1:22" hidden="1">
+    <row r="439" spans="1:22" s="21" customFormat="1">
       <c r="A439" s="21">
         <v>160</v>
       </c>
@@ -29110,13 +29252,13 @@
         <v>736</v>
       </c>
       <c r="Q439" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V439" s="21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="440" spans="1:22" hidden="1">
+    <row r="440" spans="1:22" s="21" customFormat="1">
       <c r="A440" s="21">
         <v>160</v>
       </c>
@@ -29160,19 +29302,19 @@
         <v>409</v>
       </c>
       <c r="O440" s="21" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="P440" s="21" t="s">
         <v>736</v>
       </c>
       <c r="Q440" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V440" s="21" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="441" spans="1:22" hidden="1">
+    <row r="441" spans="1:22" s="21" customFormat="1">
       <c r="A441" s="21">
         <v>164</v>
       </c>
@@ -29222,13 +29364,13 @@
         <v>692</v>
       </c>
       <c r="Q441" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T441" s="21">
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:22" hidden="1">
+    <row r="442" spans="1:22" s="21" customFormat="1">
       <c r="A442" s="21">
         <v>163</v>
       </c>
@@ -29278,10 +29420,10 @@
         <v>736</v>
       </c>
       <c r="Q442" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="443" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="443" spans="1:22" s="21" customFormat="1">
       <c r="A443" s="21">
         <v>164</v>
       </c>
@@ -29331,13 +29473,13 @@
         <v>692</v>
       </c>
       <c r="Q443" s="21" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T443" s="21">
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:22" hidden="1">
+    <row r="444" spans="1:22" s="21" customFormat="1">
       <c r="A444" s="21">
         <v>163</v>
       </c>
@@ -29381,16 +29523,16 @@
         <v>424</v>
       </c>
       <c r="O444" s="21" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="P444" s="21" t="s">
         <v>736</v>
       </c>
       <c r="Q444" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="445" spans="1:22">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="445" spans="1:22" s="21" customFormat="1">
       <c r="A445" s="21">
         <v>165</v>
       </c>
@@ -29446,7 +29588,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="446" spans="1:22">
+    <row r="446" spans="1:22" s="21" customFormat="1">
       <c r="A446" s="21">
         <v>165</v>
       </c>
@@ -29502,7 +29644,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="447" spans="1:22" hidden="1">
+    <row r="447" spans="1:22" s="21" customFormat="1">
       <c r="A447" s="21">
         <v>166</v>
       </c>
@@ -29552,10 +29694,10 @@
         <v>736</v>
       </c>
       <c r="Q447" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="448" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="448" spans="1:22" s="21" customFormat="1">
       <c r="A448" s="21">
         <v>166</v>
       </c>
@@ -29605,10 +29747,10 @@
         <v>736</v>
       </c>
       <c r="Q448" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="449" spans="1:22">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="449" spans="1:22" s="21" customFormat="1">
       <c r="A449" s="21">
         <v>168</v>
       </c>
@@ -29664,7 +29806,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="450" spans="1:22">
+    <row r="450" spans="1:22" s="21" customFormat="1">
       <c r="A450" s="21">
         <v>170</v>
       </c>
@@ -29717,7 +29859,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="1:22" hidden="1">
+    <row r="451" spans="1:22" s="21" customFormat="1">
       <c r="A451" s="21">
         <v>174</v>
       </c>
@@ -29764,10 +29906,10 @@
         <v>736</v>
       </c>
       <c r="Q451" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="452" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="452" spans="1:22" s="21" customFormat="1">
       <c r="A452" s="21">
         <v>176</v>
       </c>
@@ -29817,10 +29959,10 @@
         <v>736</v>
       </c>
       <c r="Q452" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="453" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="453" spans="1:22" s="21" customFormat="1">
       <c r="A453" s="21">
         <v>176</v>
       </c>
@@ -29870,10 +30012,10 @@
         <v>736</v>
       </c>
       <c r="Q453" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="454" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="454" spans="1:22" s="21" customFormat="1">
       <c r="A454" s="21">
         <v>176</v>
       </c>
@@ -29923,10 +30065,10 @@
         <v>736</v>
       </c>
       <c r="Q454" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="455" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="455" spans="1:22" s="21" customFormat="1">
       <c r="A455" s="21">
         <v>176</v>
       </c>
@@ -29976,10 +30118,10 @@
         <v>736</v>
       </c>
       <c r="Q455" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="456" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="456" spans="1:22" s="21" customFormat="1">
       <c r="A456" s="21">
         <v>176</v>
       </c>
@@ -30029,10 +30171,10 @@
         <v>736</v>
       </c>
       <c r="Q456" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="457" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="457" spans="1:22" s="21" customFormat="1">
       <c r="A457" s="21">
         <v>176</v>
       </c>
@@ -30082,10 +30224,10 @@
         <v>736</v>
       </c>
       <c r="Q457" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="458" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="458" spans="1:22" s="21" customFormat="1">
       <c r="A458" s="21">
         <v>176</v>
       </c>
@@ -30135,10 +30277,10 @@
         <v>736</v>
       </c>
       <c r="Q458" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="459" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="459" spans="1:22" s="21" customFormat="1">
       <c r="A459" s="21">
         <v>179</v>
       </c>
@@ -30188,13 +30330,13 @@
         <v>723</v>
       </c>
       <c r="Q459" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="V459" s="21" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="460" spans="1:22" hidden="1">
+    <row r="460" spans="1:22" s="21" customFormat="1">
       <c r="A460" s="21">
         <v>181</v>
       </c>
@@ -30244,10 +30386,10 @@
         <v>736</v>
       </c>
       <c r="Q460" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="461" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="461" spans="1:22" s="21" customFormat="1">
       <c r="A461" s="21">
         <v>188</v>
       </c>
@@ -30297,10 +30439,10 @@
         <v>736</v>
       </c>
       <c r="Q461" s="21" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="462" spans="1:22" hidden="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="462" spans="1:22" s="21" customFormat="1">
       <c r="A462" s="21">
         <v>188</v>
       </c>
@@ -30350,17 +30492,11 @@
         <v>736</v>
       </c>
       <c r="Q462" s="21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="TBD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA25579F-66B1-9246-91F3-4BAECD0DD7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23FF59-4447-404D-BB25-182D9CFF1E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40120" yWindow="500" windowWidth="31240" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3354,7 +3354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3380,8 +3380,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4857,50 +4855,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" style="21" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="21" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="41" style="21" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="16.33203125" style="21" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="21" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" style="21" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="54.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="24"/>
+    <col min="12" max="12" width="38.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="54.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E1" s="20" t="s">
@@ -4924,41 +4923,41 @@
       <c r="K1" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="20" t="s">
         <v>1029</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="20" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="21" customFormat="1">
+    <row r="2" spans="1:22" hidden="1">
       <c r="A2" s="21">
         <v>5</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="21" customFormat="1">
+    <row r="3" spans="1:22" hidden="1">
       <c r="A3" s="21">
         <v>5</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="21" customFormat="1">
+    <row r="4" spans="1:22" hidden="1">
       <c r="A4" s="21">
         <v>5</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="21" customFormat="1">
+    <row r="5" spans="1:22" hidden="1">
       <c r="A5" s="21">
         <v>5</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="21" customFormat="1">
+    <row r="6" spans="1:22" hidden="1">
       <c r="A6" s="21">
         <v>8</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="21" customFormat="1">
+    <row r="7" spans="1:22" hidden="1">
       <c r="A7" s="21">
         <v>8</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="21" customFormat="1">
+    <row r="8" spans="1:22" hidden="1">
       <c r="A8" s="21">
         <v>8</v>
       </c>
@@ -5362,7 +5361,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="21" customFormat="1">
+    <row r="9" spans="1:22" hidden="1">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -5418,17 +5417,17 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="24">
+    <row r="10" spans="1:22" hidden="1">
+      <c r="A10" s="21">
         <v>10</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>251</v>
       </c>
       <c r="E10" s="21" t="s">
@@ -5452,42 +5451,42 @@
       <c r="K10" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L10" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M10" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="21">
         <v>0.20499999999999999</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="V10" s="21" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="24">
+    <row r="11" spans="1:22" hidden="1">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>251</v>
       </c>
       <c r="E11" s="21" t="s">
@@ -5511,42 +5510,42 @@
       <c r="K11" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="21">
         <v>0.23300000000000001</v>
       </c>
-      <c r="V11" s="24" t="s">
+      <c r="V11" s="21" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="24">
+    <row r="12" spans="1:22" hidden="1">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>251</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -5570,32 +5569,32 @@
       <c r="K12" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M12" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="21">
         <v>0.245</v>
       </c>
-      <c r="V12" s="24" t="s">
+      <c r="V12" s="21" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="21" customFormat="1">
+    <row r="13" spans="1:22" hidden="1">
       <c r="A13" s="21">
         <v>13</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="21" customFormat="1">
+    <row r="14" spans="1:22" hidden="1">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="21" customFormat="1">
+    <row r="15" spans="1:22" hidden="1">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="21" customFormat="1">
+    <row r="16" spans="1:22" hidden="1">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="21" customFormat="1">
+    <row r="17" spans="1:21" hidden="1">
       <c r="A17" s="21">
         <v>13</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="21" customFormat="1">
+    <row r="18" spans="1:21" hidden="1">
       <c r="A18" s="21">
         <v>14</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="21" customFormat="1">
+    <row r="19" spans="1:21" hidden="1">
       <c r="A19" s="21">
         <v>14</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="21" customFormat="1">
+    <row r="20" spans="1:21" hidden="1">
       <c r="A20" s="21">
         <v>14</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="21" customFormat="1">
+    <row r="21" spans="1:21" hidden="1">
       <c r="A21" s="21">
         <v>14</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="21" customFormat="1">
+    <row r="22" spans="1:21" hidden="1">
       <c r="A22" s="21">
         <v>14</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="21" customFormat="1">
+    <row r="23" spans="1:21" hidden="1">
       <c r="A23" s="21">
         <v>14</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="21" customFormat="1">
+    <row r="24" spans="1:21" hidden="1">
       <c r="A24" s="21">
         <v>14</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="21" customFormat="1">
+    <row r="25" spans="1:21" hidden="1">
       <c r="A25" s="21">
         <v>14</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="21" customFormat="1">
+    <row r="26" spans="1:21" hidden="1">
       <c r="A26" s="21">
         <v>15</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="21" customFormat="1">
+    <row r="27" spans="1:21" hidden="1">
       <c r="A27" s="21">
         <v>15</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="21" customFormat="1">
+    <row r="28" spans="1:21" hidden="1">
       <c r="A28" s="21">
         <v>15</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="21" customFormat="1">
+    <row r="29" spans="1:21" hidden="1">
       <c r="A29" s="21">
         <v>15</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="21" customFormat="1">
+    <row r="30" spans="1:21" hidden="1">
       <c r="A30" s="21">
         <v>15</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="21" customFormat="1">
+    <row r="31" spans="1:21" hidden="1">
       <c r="A31" s="21">
         <v>17</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="21" customFormat="1">
+    <row r="32" spans="1:21" hidden="1">
       <c r="A32" s="21">
         <v>17</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="21" customFormat="1">
+    <row r="33" spans="1:22" hidden="1">
       <c r="A33" s="21">
         <v>17</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="21" customFormat="1">
+    <row r="34" spans="1:22" hidden="1">
       <c r="A34" s="21">
         <v>17</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="21" customFormat="1">
+    <row r="35" spans="1:22" hidden="1">
       <c r="A35" s="21">
         <v>21</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="21" customFormat="1">
+    <row r="36" spans="1:22" hidden="1">
       <c r="A36" s="21">
         <v>21</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="21" customFormat="1">
+    <row r="37" spans="1:22" hidden="1">
       <c r="A37" s="21">
         <v>24</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="21" customFormat="1">
+    <row r="38" spans="1:22" hidden="1">
       <c r="A38" s="21">
         <v>24</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="21" customFormat="1">
+    <row r="39" spans="1:22" hidden="1">
       <c r="A39" s="21">
         <v>24</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="21" customFormat="1">
+    <row r="40" spans="1:22" hidden="1">
       <c r="A40" s="21">
         <v>24</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="21" customFormat="1">
+    <row r="41" spans="1:22" hidden="1">
       <c r="A41" s="21">
         <v>26</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="21" customFormat="1">
+    <row r="42" spans="1:22" hidden="1">
       <c r="A42" s="21">
         <v>26</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="21" customFormat="1">
+    <row r="43" spans="1:22" hidden="1">
       <c r="A43" s="21">
         <v>27</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="21" customFormat="1">
+    <row r="44" spans="1:22" hidden="1">
       <c r="A44" s="21">
         <v>27</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="21" customFormat="1">
+    <row r="45" spans="1:22" hidden="1">
       <c r="A45" s="21">
         <v>27</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="21" customFormat="1">
+    <row r="46" spans="1:22" hidden="1">
       <c r="A46" s="21">
         <v>27</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="21" customFormat="1">
+    <row r="47" spans="1:22" hidden="1">
       <c r="A47" s="21">
         <v>28</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="21" customFormat="1">
+    <row r="48" spans="1:22" hidden="1">
       <c r="A48" s="21">
         <v>28</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="21" customFormat="1">
+    <row r="49" spans="1:22" hidden="1">
       <c r="A49" s="21">
         <v>28</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="21" customFormat="1">
+    <row r="50" spans="1:22" hidden="1">
       <c r="A50" s="21">
         <v>28</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="21" customFormat="1">
+    <row r="51" spans="1:22" hidden="1">
       <c r="A51" s="21">
         <v>28</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="21" customFormat="1">
+    <row r="52" spans="1:22" hidden="1">
       <c r="A52" s="21">
         <v>28</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="21" customFormat="1">
+    <row r="53" spans="1:22" hidden="1">
       <c r="A53" s="21">
         <v>28</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="21" customFormat="1">
+    <row r="54" spans="1:22" hidden="1">
       <c r="A54" s="21">
         <v>29</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="21" customFormat="1">
+    <row r="55" spans="1:22" hidden="1">
       <c r="A55" s="21">
         <v>29</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="21" customFormat="1">
+    <row r="56" spans="1:22" hidden="1">
       <c r="A56" s="21">
         <v>29</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="21" customFormat="1">
+    <row r="57" spans="1:22" hidden="1">
       <c r="A57" s="21">
         <v>33</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>4.9863999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="21" customFormat="1">
+    <row r="58" spans="1:22" hidden="1">
       <c r="A58" s="21">
         <v>33</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>0.93054999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="21" customFormat="1">
+    <row r="59" spans="1:22" hidden="1">
       <c r="A59" s="21">
         <v>34</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="21" customFormat="1">
+    <row r="60" spans="1:22" hidden="1">
       <c r="A60" s="21">
         <v>34</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>7.2400000000000006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="21" customFormat="1">
+    <row r="61" spans="1:22" hidden="1">
       <c r="A61" s="21">
         <v>34</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="21" customFormat="1">
+    <row r="62" spans="1:22" hidden="1">
       <c r="A62" s="21">
         <v>34</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="21" customFormat="1">
+    <row r="63" spans="1:22" hidden="1">
       <c r="A63" s="21">
         <v>34</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="21" customFormat="1">
+    <row r="64" spans="1:22" hidden="1">
       <c r="A64" s="21">
         <v>34</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="21" customFormat="1">
+    <row r="65" spans="1:22" hidden="1">
       <c r="A65" s="21">
         <v>34</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="21" customFormat="1">
+    <row r="66" spans="1:22" hidden="1">
       <c r="A66" s="21">
         <v>34</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="67" spans="1:22" s="21" customFormat="1">
+    <row r="67" spans="1:22" hidden="1">
       <c r="A67" s="21">
         <v>34</v>
       </c>
@@ -8705,7 +8704,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="21" customFormat="1">
+    <row r="68" spans="1:22" hidden="1">
       <c r="A68" s="21">
         <v>34</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="21" customFormat="1">
+    <row r="69" spans="1:22" hidden="1">
       <c r="A69" s="21">
         <v>34</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="21" customFormat="1">
+    <row r="70" spans="1:22" hidden="1">
       <c r="A70" s="21">
         <v>34</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="21" customFormat="1">
+    <row r="71" spans="1:22" hidden="1">
       <c r="A71" s="21">
         <v>34</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="21" customFormat="1">
+    <row r="72" spans="1:22" hidden="1">
       <c r="A72" s="21">
         <v>35</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="21" customFormat="1">
+    <row r="73" spans="1:22" hidden="1">
       <c r="A73" s="21">
         <v>35</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="21" customFormat="1">
+    <row r="74" spans="1:22" hidden="1">
       <c r="A74" s="21">
         <v>35</v>
       </c>
@@ -9097,7 +9096,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="75" spans="1:22" s="21" customFormat="1">
+    <row r="75" spans="1:22" hidden="1">
       <c r="A75" s="21">
         <v>35</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="21" customFormat="1">
+    <row r="76" spans="1:22" hidden="1">
       <c r="A76" s="21">
         <v>36</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="21" customFormat="1">
+    <row r="77" spans="1:22" hidden="1">
       <c r="A77" s="21">
         <v>36</v>
       </c>
@@ -9271,7 +9270,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="21" customFormat="1">
+    <row r="78" spans="1:22" hidden="1">
       <c r="A78" s="21">
         <v>36</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="79" spans="1:22" s="21" customFormat="1">
+    <row r="79" spans="1:22" hidden="1">
       <c r="A79" s="21">
         <v>37</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="21" customFormat="1">
+    <row r="80" spans="1:22" hidden="1">
       <c r="A80" s="21">
         <v>37</v>
       </c>
@@ -9442,7 +9441,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="21" customFormat="1">
+    <row r="81" spans="1:22" hidden="1">
       <c r="A81" s="21">
         <v>37</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="21" customFormat="1">
+    <row r="82" spans="1:22" hidden="1">
       <c r="A82" s="21">
         <v>37</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="21" customFormat="1">
+    <row r="83" spans="1:22" hidden="1">
       <c r="A83" s="21">
         <v>37</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="21" customFormat="1">
+    <row r="84" spans="1:22" hidden="1">
       <c r="A84" s="21">
         <v>37</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="21" customFormat="1">
+    <row r="85" spans="1:22" hidden="1">
       <c r="A85" s="21">
         <v>44</v>
       </c>
@@ -9725,7 +9724,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="21" customFormat="1">
+    <row r="86" spans="1:22" hidden="1">
       <c r="A86" s="21">
         <v>44</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="21" customFormat="1">
+    <row r="87" spans="1:22" hidden="1">
       <c r="A87" s="21">
         <v>44</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="21" customFormat="1">
+    <row r="88" spans="1:22" hidden="1">
       <c r="A88" s="21">
         <v>44</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="21" customFormat="1">
+    <row r="89" spans="1:22" hidden="1">
       <c r="A89" s="21">
         <v>44</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="21" customFormat="1">
+    <row r="90" spans="1:22" hidden="1">
       <c r="A90" s="21">
         <v>44</v>
       </c>
@@ -10020,7 +10019,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="21" customFormat="1">
+    <row r="91" spans="1:22" hidden="1">
       <c r="A91" s="21">
         <v>46</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="21" customFormat="1">
+    <row r="92" spans="1:22" hidden="1">
       <c r="A92" s="21">
         <v>46</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="21" customFormat="1">
+    <row r="93" spans="1:22" hidden="1">
       <c r="A93" s="21">
         <v>47</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="21" customFormat="1">
+    <row r="94" spans="1:22" hidden="1">
       <c r="A94" s="21">
         <v>47</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="21" customFormat="1">
+    <row r="95" spans="1:22" hidden="1">
       <c r="A95" s="21">
         <v>47</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="21" customFormat="1">
+    <row r="96" spans="1:22" hidden="1">
       <c r="A96" s="21">
         <v>47</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="21" customFormat="1">
+    <row r="97" spans="1:20" hidden="1">
       <c r="A97" s="21">
         <v>47</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="21" customFormat="1">
+    <row r="98" spans="1:20" hidden="1">
       <c r="A98" s="21">
         <v>47</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="21" customFormat="1">
+    <row r="99" spans="1:20" hidden="1">
       <c r="A99" s="21">
         <v>47</v>
       </c>
@@ -10524,7 +10523,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="21" customFormat="1">
+    <row r="100" spans="1:20" hidden="1">
       <c r="A100" s="21">
         <v>47</v>
       </c>
@@ -10580,7 +10579,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="21" customFormat="1">
+    <row r="101" spans="1:20" hidden="1">
       <c r="A101" s="21">
         <v>47</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="21" customFormat="1">
+    <row r="102" spans="1:20" hidden="1">
       <c r="A102" s="21">
         <v>47</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="21" customFormat="1">
+    <row r="103" spans="1:20" hidden="1">
       <c r="A103" s="21">
         <v>47</v>
       </c>
@@ -10748,7 +10747,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="21" customFormat="1">
+    <row r="104" spans="1:20" hidden="1">
       <c r="A104" s="21">
         <v>47</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="21" customFormat="1">
+    <row r="105" spans="1:20" hidden="1">
       <c r="A105" s="21">
         <v>51</v>
       </c>
@@ -10860,7 +10859,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="21" customFormat="1">
+    <row r="106" spans="1:20" hidden="1">
       <c r="A106" s="21">
         <v>51</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="21" customFormat="1">
+    <row r="107" spans="1:20" hidden="1">
       <c r="A107" s="21">
         <v>51</v>
       </c>
@@ -10972,7 +10971,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="21" customFormat="1">
+    <row r="108" spans="1:20" hidden="1">
       <c r="A108" s="21">
         <v>51</v>
       </c>
@@ -11028,7 +11027,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="21" customFormat="1">
+    <row r="109" spans="1:20" hidden="1">
       <c r="A109" s="21">
         <v>51</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="21" customFormat="1">
+    <row r="110" spans="1:20" hidden="1">
       <c r="A110" s="21">
         <v>51</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="21" customFormat="1">
+    <row r="111" spans="1:20" hidden="1">
       <c r="A111" s="21">
         <v>51</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="21" customFormat="1">
+    <row r="112" spans="1:20" hidden="1">
       <c r="A112" s="21">
         <v>51</v>
       </c>
@@ -11252,7 +11251,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="21" customFormat="1">
+    <row r="113" spans="1:22" hidden="1">
       <c r="A113" s="21">
         <v>51</v>
       </c>
@@ -11308,7 +11307,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:22" s="21" customFormat="1">
+    <row r="114" spans="1:22" hidden="1">
       <c r="A114" s="21">
         <v>51</v>
       </c>
@@ -11364,17 +11363,17 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
-      <c r="A115" s="24">
+    <row r="115" spans="1:22" hidden="1">
+      <c r="A115" s="21">
         <v>52</v>
       </c>
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D115" s="24" t="s">
+      <c r="C115" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D115" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E115" s="21" t="s">
@@ -11398,42 +11397,42 @@
       <c r="K115" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L115" s="24" t="s">
+      <c r="L115" s="21" t="s">
         <v>981</v>
       </c>
-      <c r="M115" s="24" t="s">
+      <c r="M115" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N115" s="24" t="s">
+      <c r="N115" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O115" s="24" t="s">
+      <c r="O115" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="P115" s="24" t="s">
+      <c r="P115" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q115" s="24" t="s">
+      <c r="Q115" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="U115" s="24">
+      <c r="U115" s="21">
         <v>0.8</v>
       </c>
-      <c r="V115" s="24" t="s">
+      <c r="V115" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
-      <c r="A116" s="24">
+    <row r="116" spans="1:22" hidden="1">
+      <c r="A116" s="21">
         <v>52</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C116" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D116" s="24" t="s">
+      <c r="C116" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D116" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E116" s="21" t="s">
@@ -11457,42 +11456,42 @@
       <c r="K116" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L116" s="24" t="s">
+      <c r="L116" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="M116" s="24" t="s">
+      <c r="M116" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N116" s="24" t="s">
+      <c r="N116" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O116" s="24" t="s">
+      <c r="O116" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="P116" s="24" t="s">
+      <c r="P116" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q116" s="24" t="s">
+      <c r="Q116" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="U116" s="24">
+      <c r="U116" s="21">
         <v>1.6</v>
       </c>
-      <c r="V116" s="24" t="s">
+      <c r="V116" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
-      <c r="A117" s="24">
+    <row r="117" spans="1:22" hidden="1">
+      <c r="A117" s="21">
         <v>52</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D117" s="24" t="s">
+      <c r="C117" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D117" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E117" s="21" t="s">
@@ -11516,42 +11515,42 @@
       <c r="K117" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L117" s="24" t="s">
+      <c r="L117" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="M117" s="24" t="s">
+      <c r="M117" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N117" s="24" t="s">
+      <c r="N117" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O117" s="24" t="s">
+      <c r="O117" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="P117" s="24" t="s">
+      <c r="P117" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q117" s="24" t="s">
+      <c r="Q117" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="U117" s="24">
+      <c r="U117" s="21">
         <v>2.8</v>
       </c>
-      <c r="V117" s="24" t="s">
+      <c r="V117" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
-      <c r="A118" s="24">
+    <row r="118" spans="1:22" hidden="1">
+      <c r="A118" s="21">
         <v>52</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D118" s="24" t="s">
+      <c r="C118" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D118" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E118" s="21" t="s">
@@ -11575,42 +11574,42 @@
       <c r="K118" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L118" s="24" t="s">
+      <c r="L118" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="M118" s="24" t="s">
+      <c r="M118" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N118" s="24" t="s">
+      <c r="N118" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O118" s="24" t="s">
+      <c r="O118" s="21" t="s">
         <v>1021</v>
       </c>
-      <c r="P118" s="24" t="s">
+      <c r="P118" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q118" s="24" t="s">
+      <c r="Q118" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="U118" s="24">
+      <c r="U118" s="21">
         <v>0.4</v>
       </c>
-      <c r="V118" s="24" t="s">
+      <c r="V118" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
-      <c r="A119" s="24">
+    <row r="119" spans="1:22" hidden="1">
+      <c r="A119" s="21">
         <v>52</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C119" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D119" s="24" t="s">
+      <c r="C119" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D119" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E119" s="21" t="s">
@@ -11634,42 +11633,42 @@
       <c r="K119" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L119" s="24" t="s">
+      <c r="L119" s="21" t="s">
         <v>984</v>
       </c>
-      <c r="M119" s="24" t="s">
+      <c r="M119" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N119" s="24" t="s">
+      <c r="N119" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O119" s="24" t="s">
+      <c r="O119" s="21" t="s">
         <v>1021</v>
       </c>
-      <c r="P119" s="24" t="s">
+      <c r="P119" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q119" s="24" t="s">
+      <c r="Q119" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="U119" s="24">
+      <c r="U119" s="21">
         <v>0.5</v>
       </c>
-      <c r="V119" s="24" t="s">
+      <c r="V119" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
-      <c r="A120" s="24">
+    <row r="120" spans="1:22" hidden="1">
+      <c r="A120" s="21">
         <v>52</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D120" s="24" t="s">
+      <c r="C120" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D120" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E120" s="21" t="s">
@@ -11693,42 +11692,42 @@
       <c r="K120" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L120" s="24" t="s">
+      <c r="L120" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="M120" s="24" t="s">
+      <c r="M120" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N120" s="24" t="s">
+      <c r="N120" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O120" s="24" t="s">
+      <c r="O120" s="21" t="s">
         <v>1021</v>
       </c>
-      <c r="P120" s="24" t="s">
+      <c r="P120" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q120" s="24" t="s">
+      <c r="Q120" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="U120" s="24">
+      <c r="U120" s="21">
         <v>0.4</v>
       </c>
-      <c r="V120" s="24" t="s">
+      <c r="V120" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
-      <c r="A121" s="24">
+    <row r="121" spans="1:22" hidden="1">
+      <c r="A121" s="21">
         <v>55</v>
       </c>
-      <c r="B121" s="24" t="s">
+      <c r="B121" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C121" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D121" s="24" t="s">
+      <c r="C121" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E121" s="21" t="s">
@@ -11752,42 +11751,42 @@
       <c r="K121" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L121" s="24" t="s">
+      <c r="L121" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="M121" s="24" t="s">
+      <c r="M121" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N121" s="24" t="s">
+      <c r="N121" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="O121" s="24" t="s">
+      <c r="O121" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="P121" s="24" t="s">
+      <c r="P121" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q121" s="24" t="s">
+      <c r="Q121" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T121" s="24">
+      <c r="T121" s="21">
         <v>3.8059999999999997E-2</v>
       </c>
-      <c r="V121" s="24" t="s">
+      <c r="V121" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
-      <c r="A122" s="24">
+    <row r="122" spans="1:22" hidden="1">
+      <c r="A122" s="21">
         <v>55</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D122" s="24" t="s">
+      <c r="C122" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E122" s="21" t="s">
@@ -11811,42 +11810,42 @@
       <c r="K122" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L122" s="24" t="s">
+      <c r="L122" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="M122" s="24" t="s">
+      <c r="M122" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N122" s="24" t="s">
+      <c r="N122" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="O122" s="24" t="s">
+      <c r="O122" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="P122" s="24" t="s">
+      <c r="P122" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q122" s="24" t="s">
+      <c r="Q122" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T122" s="24">
+      <c r="T122" s="21">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V122" s="24" t="s">
+      <c r="V122" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
-      <c r="A123" s="24">
+    <row r="123" spans="1:22" hidden="1">
+      <c r="A123" s="21">
         <v>55</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D123" s="24" t="s">
+      <c r="C123" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E123" s="21" t="s">
@@ -11870,42 +11869,42 @@
       <c r="K123" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L123" s="24" t="s">
+      <c r="L123" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="M123" s="24" t="s">
+      <c r="M123" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N123" s="24" t="s">
+      <c r="N123" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="O123" s="24" t="s">
+      <c r="O123" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="P123" s="24" t="s">
+      <c r="P123" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q123" s="24" t="s">
+      <c r="Q123" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T123" s="24">
+      <c r="T123" s="21">
         <v>0.22914399999999999</v>
       </c>
-      <c r="V123" s="24" t="s">
+      <c r="V123" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
-      <c r="A124" s="24">
+    <row r="124" spans="1:22" hidden="1">
+      <c r="A124" s="21">
         <v>55</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C124" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D124" s="24" t="s">
+      <c r="C124" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D124" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E124" s="21" t="s">
@@ -11929,42 +11928,42 @@
       <c r="K124" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L124" s="24" t="s">
+      <c r="L124" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="M124" s="24" t="s">
+      <c r="M124" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N124" s="24" t="s">
+      <c r="N124" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O124" s="24" t="s">
+      <c r="O124" s="21" t="s">
         <v>965</v>
       </c>
-      <c r="P124" s="24" t="s">
+      <c r="P124" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q124" s="24" t="s">
+      <c r="Q124" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T124" s="24">
+      <c r="T124" s="21">
         <v>0.28999999999999998</v>
       </c>
-      <c r="V124" s="24" t="s">
+      <c r="V124" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
-      <c r="A125" s="24">
+    <row r="125" spans="1:22" hidden="1">
+      <c r="A125" s="21">
         <v>55</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D125" s="24" t="s">
+      <c r="C125" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E125" s="21" t="s">
@@ -11988,42 +11987,42 @@
       <c r="K125" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L125" s="24" t="s">
+      <c r="L125" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="M125" s="24" t="s">
+      <c r="M125" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N125" s="24" t="s">
+      <c r="N125" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="O125" s="24" t="s">
+      <c r="O125" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="P125" s="24" t="s">
+      <c r="P125" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q125" s="24" t="s">
+      <c r="Q125" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T125" s="24">
+      <c r="T125" s="21">
         <v>0.33993000000000001</v>
       </c>
-      <c r="V125" s="24" t="s">
+      <c r="V125" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
-      <c r="A126" s="24">
+    <row r="126" spans="1:22" hidden="1">
+      <c r="A126" s="21">
         <v>55</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="C126" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E126" s="21" t="s">
@@ -12047,42 +12046,42 @@
       <c r="K126" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L126" s="24" t="s">
+      <c r="L126" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="M126" s="24" t="s">
+      <c r="M126" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N126" s="24" t="s">
+      <c r="N126" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="O126" s="24" t="s">
+      <c r="O126" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="P126" s="24" t="s">
+      <c r="P126" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q126" s="24" t="s">
+      <c r="Q126" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T126" s="24">
+      <c r="T126" s="21">
         <v>0.504</v>
       </c>
-      <c r="V126" s="24" t="s">
+      <c r="V126" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
-      <c r="A127" s="24">
+    <row r="127" spans="1:22" hidden="1">
+      <c r="A127" s="21">
         <v>55</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C127" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D127" s="24" t="s">
+      <c r="C127" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E127" s="21" t="s">
@@ -12106,42 +12105,42 @@
       <c r="K127" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L127" s="24" t="s">
+      <c r="L127" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="M127" s="24" t="s">
+      <c r="M127" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N127" s="24" t="s">
+      <c r="N127" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="O127" s="24" t="s">
+      <c r="O127" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="P127" s="24" t="s">
+      <c r="P127" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q127" s="24" t="s">
+      <c r="Q127" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T127" s="24">
+      <c r="T127" s="21">
         <v>0.52462200000000003</v>
       </c>
-      <c r="V127" s="24" t="s">
+      <c r="V127" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
-      <c r="A128" s="24">
+    <row r="128" spans="1:22" hidden="1">
+      <c r="A128" s="21">
         <v>55</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C128" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D128" s="24" t="s">
+      <c r="C128" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E128" s="21" t="s">
@@ -12165,42 +12164,42 @@
       <c r="K128" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L128" s="24" t="s">
+      <c r="L128" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="M128" s="24" t="s">
+      <c r="M128" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N128" s="24" t="s">
+      <c r="N128" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O128" s="24" t="s">
+      <c r="O128" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="P128" s="24" t="s">
+      <c r="P128" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q128" s="24" t="s">
+      <c r="Q128" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T128" s="24">
+      <c r="T128" s="21">
         <v>0.9</v>
       </c>
-      <c r="V128" s="24" t="s">
+      <c r="V128" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
-      <c r="A129" s="24">
+    <row r="129" spans="1:22" hidden="1">
+      <c r="A129" s="21">
         <v>55</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C129" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D129" s="24" t="s">
+      <c r="C129" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E129" s="21" t="s">
@@ -12224,42 +12223,42 @@
       <c r="K129" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L129" s="24" t="s">
+      <c r="L129" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="M129" s="24" t="s">
+      <c r="M129" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N129" s="24" t="s">
+      <c r="N129" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="O129" s="24" t="s">
+      <c r="O129" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="P129" s="24" t="s">
+      <c r="P129" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q129" s="24" t="s">
+      <c r="Q129" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T129" s="24">
+      <c r="T129" s="21">
         <v>1.424803</v>
       </c>
-      <c r="V129" s="24" t="s">
+      <c r="V129" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
-      <c r="A130" s="24">
+    <row r="130" spans="1:22" hidden="1">
+      <c r="A130" s="21">
         <v>55</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D130" s="24" t="s">
+      <c r="C130" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E130" s="21" t="s">
@@ -12283,42 +12282,42 @@
       <c r="K130" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L130" s="24" t="s">
+      <c r="L130" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="M130" s="24" t="s">
+      <c r="M130" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N130" s="24" t="s">
+      <c r="N130" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="O130" s="24" t="s">
+      <c r="O130" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="P130" s="24" t="s">
+      <c r="P130" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q130" s="24" t="s">
+      <c r="Q130" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T130" s="24">
+      <c r="T130" s="21">
         <v>3.2719999999999998</v>
       </c>
-      <c r="V130" s="24" t="s">
+      <c r="V130" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
-      <c r="A131" s="24">
+    <row r="131" spans="1:22" hidden="1">
+      <c r="A131" s="21">
         <v>55</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C131" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D131" s="24" t="s">
+      <c r="C131" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D131" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E131" s="21" t="s">
@@ -12342,42 +12341,42 @@
       <c r="K131" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L131" s="24" t="s">
+      <c r="L131" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="M131" s="24" t="s">
+      <c r="M131" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N131" s="24" t="s">
+      <c r="N131" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="O131" s="24" t="s">
+      <c r="O131" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="P131" s="24" t="s">
+      <c r="P131" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q131" s="24" t="s">
+      <c r="Q131" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T131" s="24">
+      <c r="T131" s="21">
         <v>4.2009999999999996</v>
       </c>
-      <c r="V131" s="24" t="s">
+      <c r="V131" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
-      <c r="A132" s="24">
+    <row r="132" spans="1:22" hidden="1">
+      <c r="A132" s="21">
         <v>55</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C132" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D132" s="24" t="s">
+      <c r="C132" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D132" s="21" t="s">
         <v>1017</v>
       </c>
       <c r="E132" s="21" t="s">
@@ -12401,32 +12400,32 @@
       <c r="K132" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="L132" s="24" t="s">
+      <c r="L132" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="M132" s="24" t="s">
+      <c r="M132" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N132" s="24" t="s">
+      <c r="N132" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="O132" s="24" t="s">
+      <c r="O132" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="P132" s="24" t="s">
+      <c r="P132" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q132" s="24" t="s">
+      <c r="Q132" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T132" s="24">
+      <c r="T132" s="21">
         <v>4.202</v>
       </c>
-      <c r="V132" s="24" t="s">
+      <c r="V132" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="133" spans="1:22" s="21" customFormat="1">
+    <row r="133" spans="1:22" hidden="1">
       <c r="A133" s="21">
         <v>56</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:22" s="21" customFormat="1">
+    <row r="134" spans="1:22" hidden="1">
       <c r="A134" s="21">
         <v>56</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="135" spans="1:22" s="21" customFormat="1">
+    <row r="135" spans="1:22" hidden="1">
       <c r="A135" s="21">
         <v>56</v>
       </c>
@@ -12594,7 +12593,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="136" spans="1:22" s="21" customFormat="1">
+    <row r="136" spans="1:22" hidden="1">
       <c r="A136" s="21">
         <v>56</v>
       </c>
@@ -12650,7 +12649,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="137" spans="1:22" s="21" customFormat="1">
+    <row r="137" spans="1:22" hidden="1">
       <c r="A137" s="21">
         <v>56</v>
       </c>
@@ -12706,7 +12705,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="138" spans="1:22" s="21" customFormat="1">
+    <row r="138" spans="1:22" hidden="1">
       <c r="A138" s="21">
         <v>56</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="139" spans="1:22" s="21" customFormat="1">
+    <row r="139" spans="1:22" hidden="1">
       <c r="A139" s="21">
         <v>59</v>
       </c>
@@ -12821,17 +12820,17 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
-      <c r="A140" s="24">
+    <row r="140" spans="1:22" hidden="1">
+      <c r="A140" s="21">
         <v>62</v>
       </c>
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C140" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D140" s="24" t="s">
+      <c r="C140" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D140" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E140" s="21" t="s">
@@ -12855,45 +12854,45 @@
       <c r="K140" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L140" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M140" s="24" t="s">
+      <c r="L140" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M140" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="N140" s="24" t="s">
+      <c r="N140" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="O140" s="24" t="s">
+      <c r="O140" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="P140" s="24" t="s">
+      <c r="P140" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q140" s="24" t="s">
+      <c r="Q140" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T140" s="24">
+      <c r="T140" s="21">
         <v>-0.12</v>
       </c>
-      <c r="U140" s="24">
+      <c r="U140" s="21">
         <v>5.8</v>
       </c>
-      <c r="V140" s="24" t="s">
+      <c r="V140" s="21" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
-      <c r="A141" s="24">
+    <row r="141" spans="1:22" hidden="1">
+      <c r="A141" s="21">
         <v>62</v>
       </c>
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D141" s="24" t="s">
+      <c r="C141" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D141" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E141" s="21" t="s">
@@ -12917,45 +12916,45 @@
       <c r="K141" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L141" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M141" s="24" t="s">
+      <c r="L141" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M141" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="N141" s="24" t="s">
+      <c r="N141" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="O141" s="24" t="s">
+      <c r="O141" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="P141" s="24" t="s">
+      <c r="P141" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q141" s="24" t="s">
+      <c r="Q141" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T141" s="24">
+      <c r="T141" s="21">
         <v>-0.13</v>
       </c>
-      <c r="U141" s="24">
+      <c r="U141" s="21">
         <v>5.3</v>
       </c>
-      <c r="V141" s="24" t="s">
+      <c r="V141" s="21" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
-      <c r="A142" s="24">
+    <row r="142" spans="1:22" hidden="1">
+      <c r="A142" s="21">
         <v>62</v>
       </c>
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C142" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D142" s="24" t="s">
+      <c r="C142" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D142" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E142" s="21" t="s">
@@ -12979,35 +12978,35 @@
       <c r="K142" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L142" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M142" s="24" t="s">
+      <c r="L142" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M142" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="N142" s="24" t="s">
+      <c r="N142" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="O142" s="24" t="s">
+      <c r="O142" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="P142" s="24" t="s">
+      <c r="P142" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q142" s="24" t="s">
+      <c r="Q142" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T142" s="24">
+      <c r="T142" s="21">
         <v>-0.24</v>
       </c>
-      <c r="U142" s="24">
+      <c r="U142" s="21">
         <v>2.9</v>
       </c>
-      <c r="V142" s="24" t="s">
+      <c r="V142" s="21" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="143" spans="1:22" s="21" customFormat="1">
+    <row r="143" spans="1:22" hidden="1">
       <c r="A143" s="21">
         <v>72</v>
       </c>
@@ -13063,7 +13062,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:22" s="21" customFormat="1">
+    <row r="144" spans="1:22" hidden="1">
       <c r="A144" s="21">
         <v>81</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:22" s="21" customFormat="1">
+    <row r="145" spans="1:22" hidden="1">
       <c r="A145" s="21">
         <v>81</v>
       </c>
@@ -13175,7 +13174,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:22" s="21" customFormat="1">
+    <row r="146" spans="1:22" hidden="1">
       <c r="A146" s="21">
         <v>81</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="147" spans="1:22" s="21" customFormat="1">
+    <row r="147" spans="1:22" hidden="1">
       <c r="A147" s="21">
         <v>81</v>
       </c>
@@ -13287,7 +13286,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:22" s="21" customFormat="1">
+    <row r="148" spans="1:22" hidden="1">
       <c r="A148" s="21">
         <v>84</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="149" spans="1:22" s="21" customFormat="1">
+    <row r="149" spans="1:22" hidden="1">
       <c r="A149" s="21">
         <v>84</v>
       </c>
@@ -13411,7 +13410,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="150" spans="1:22" s="21" customFormat="1">
+    <row r="150" spans="1:22" hidden="1">
       <c r="A150" s="21">
         <v>84</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="151" spans="1:22" s="21" customFormat="1">
+    <row r="151" spans="1:22" hidden="1">
       <c r="A151" s="21">
         <v>91</v>
       </c>
@@ -13529,7 +13528,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="152" spans="1:22" s="21" customFormat="1">
+    <row r="152" spans="1:22" hidden="1">
       <c r="A152" s="21">
         <v>101</v>
       </c>
@@ -13585,7 +13584,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="21" customFormat="1">
+    <row r="153" spans="1:22" hidden="1">
       <c r="A153" s="21">
         <v>101</v>
       </c>
@@ -13641,17 +13640,17 @@
         <v>-1.41E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
-      <c r="A154" s="24">
+    <row r="154" spans="1:22" hidden="1">
+      <c r="A154" s="21">
         <v>110</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C154" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D154" s="24" t="s">
+      <c r="C154" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>210</v>
       </c>
       <c r="E154" s="21" t="s">
@@ -13675,42 +13674,42 @@
       <c r="K154" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L154" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M154" s="24" t="s">
+      <c r="L154" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M154" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N154" s="24" t="s">
+      <c r="N154" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="O154" s="24" t="s">
+      <c r="O154" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="P154" s="24" t="s">
+      <c r="P154" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q154" s="24" t="s">
+      <c r="Q154" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T154" s="24">
+      <c r="T154" s="21">
         <v>-0.22739999999999999</v>
       </c>
-      <c r="V154" s="24" t="s">
+      <c r="V154" s="21" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
-      <c r="A155" s="24">
+    <row r="155" spans="1:22" hidden="1">
+      <c r="A155" s="21">
         <v>110</v>
       </c>
-      <c r="B155" s="24" t="s">
+      <c r="B155" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C155" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D155" s="24" t="s">
+      <c r="C155" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>210</v>
       </c>
       <c r="E155" s="21" t="s">
@@ -13734,32 +13733,32 @@
       <c r="K155" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L155" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="M155" s="24" t="s">
+      <c r="L155" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M155" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N155" s="24" t="s">
+      <c r="N155" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="O155" s="24" t="s">
+      <c r="O155" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="P155" s="24" t="s">
+      <c r="P155" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q155" s="24" t="s">
+      <c r="Q155" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T155" s="24">
+      <c r="T155" s="21">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="V155" s="24" t="s">
+      <c r="V155" s="21" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="156" spans="1:22" s="21" customFormat="1">
+    <row r="156" spans="1:22" hidden="1">
       <c r="A156" s="21">
         <v>112</v>
       </c>
@@ -13818,7 +13817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:22" s="21" customFormat="1">
+    <row r="157" spans="1:22" hidden="1">
       <c r="A157" s="21">
         <v>112</v>
       </c>
@@ -13877,7 +13876,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="158" spans="1:22" s="21" customFormat="1">
+    <row r="158" spans="1:22" hidden="1">
       <c r="A158" s="21">
         <v>112</v>
       </c>
@@ -13936,7 +13935,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="159" spans="1:22" s="21" customFormat="1">
+    <row r="159" spans="1:22" hidden="1">
       <c r="A159" s="21">
         <v>112</v>
       </c>
@@ -13995,7 +13994,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="160" spans="1:22" s="21" customFormat="1">
+    <row r="160" spans="1:22" hidden="1">
       <c r="A160" s="21">
         <v>112</v>
       </c>
@@ -14054,7 +14053,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="161" spans="1:19" s="21" customFormat="1">
+    <row r="161" spans="1:19" hidden="1">
       <c r="A161" s="21">
         <v>112</v>
       </c>
@@ -14113,7 +14112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:19" s="21" customFormat="1">
+    <row r="162" spans="1:19" hidden="1">
       <c r="A162" s="21">
         <v>112</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="163" spans="1:19" s="21" customFormat="1">
+    <row r="163" spans="1:19" hidden="1">
       <c r="A163" s="21">
         <v>112</v>
       </c>
@@ -14231,7 +14230,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="164" spans="1:19" s="21" customFormat="1">
+    <row r="164" spans="1:19" hidden="1">
       <c r="A164" s="21">
         <v>112</v>
       </c>
@@ -14290,7 +14289,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="165" spans="1:19" s="21" customFormat="1">
+    <row r="165" spans="1:19" hidden="1">
       <c r="A165" s="21">
         <v>112</v>
       </c>
@@ -14349,7 +14348,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:19" s="21" customFormat="1">
+    <row r="166" spans="1:19" hidden="1">
       <c r="A166" s="21">
         <v>112</v>
       </c>
@@ -14408,7 +14407,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="167" spans="1:19" s="21" customFormat="1">
+    <row r="167" spans="1:19" hidden="1">
       <c r="A167" s="21">
         <v>112</v>
       </c>
@@ -14467,7 +14466,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:19" s="21" customFormat="1">
+    <row r="168" spans="1:19" hidden="1">
       <c r="A168" s="21">
         <v>112</v>
       </c>
@@ -14526,7 +14525,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="169" spans="1:19" s="21" customFormat="1">
+    <row r="169" spans="1:19" hidden="1">
       <c r="A169" s="21">
         <v>112</v>
       </c>
@@ -14585,7 +14584,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="170" spans="1:19" s="21" customFormat="1">
+    <row r="170" spans="1:19" hidden="1">
       <c r="A170" s="21">
         <v>112</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="171" spans="1:19" s="21" customFormat="1">
+    <row r="171" spans="1:19" hidden="1">
       <c r="A171" s="21">
         <v>112</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="172" spans="1:19" s="21" customFormat="1">
+    <row r="172" spans="1:19" hidden="1">
       <c r="A172" s="21">
         <v>112</v>
       </c>
@@ -14762,7 +14761,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="173" spans="1:19" s="21" customFormat="1">
+    <row r="173" spans="1:19" hidden="1">
       <c r="A173" s="21">
         <v>112</v>
       </c>
@@ -14821,7 +14820,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="174" spans="1:19" s="21" customFormat="1">
+    <row r="174" spans="1:19" hidden="1">
       <c r="A174" s="21">
         <v>112</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="175" spans="1:19" s="21" customFormat="1">
+    <row r="175" spans="1:19" hidden="1">
       <c r="A175" s="21">
         <v>112</v>
       </c>
@@ -14939,7 +14938,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="176" spans="1:19" s="21" customFormat="1">
+    <row r="176" spans="1:19" hidden="1">
       <c r="A176" s="21">
         <v>112</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="177" spans="1:22" s="21" customFormat="1">
+    <row r="177" spans="1:22" hidden="1">
       <c r="A177" s="21">
         <v>112</v>
       </c>
@@ -15057,7 +15056,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="178" spans="1:22" s="21" customFormat="1">
+    <row r="178" spans="1:22" hidden="1">
       <c r="A178" s="21">
         <v>112</v>
       </c>
@@ -15116,7 +15115,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="179" spans="1:22" s="21" customFormat="1">
+    <row r="179" spans="1:22" hidden="1">
       <c r="A179" s="21">
         <v>112</v>
       </c>
@@ -15175,7 +15174,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:22" s="21" customFormat="1">
+    <row r="180" spans="1:22">
       <c r="A180" s="21">
         <v>114</v>
       </c>
@@ -15234,7 +15233,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="181" spans="1:22" s="21" customFormat="1">
+    <row r="181" spans="1:22">
       <c r="A181" s="21">
         <v>114</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="182" spans="1:22" s="21" customFormat="1">
+    <row r="182" spans="1:22" hidden="1">
       <c r="A182" s="21">
         <v>116</v>
       </c>
@@ -15346,7 +15345,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="183" spans="1:22" s="21" customFormat="1">
+    <row r="183" spans="1:22" hidden="1">
       <c r="A183" s="21">
         <v>116</v>
       </c>
@@ -15399,7 +15398,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="184" spans="1:22" s="21" customFormat="1">
+    <row r="184" spans="1:22" hidden="1">
       <c r="A184" s="21">
         <v>116</v>
       </c>
@@ -15452,7 +15451,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="185" spans="1:22" s="21" customFormat="1">
+    <row r="185" spans="1:22" hidden="1">
       <c r="A185" s="21">
         <v>117</v>
       </c>
@@ -15508,7 +15507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:22" s="21" customFormat="1">
+    <row r="186" spans="1:22" hidden="1">
       <c r="A186" s="21">
         <v>117</v>
       </c>
@@ -15564,7 +15563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:22" s="21" customFormat="1">
+    <row r="187" spans="1:22" hidden="1">
       <c r="A187" s="21">
         <v>118</v>
       </c>
@@ -15620,7 +15619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:22" s="21" customFormat="1">
+    <row r="188" spans="1:22" hidden="1">
       <c r="A188" s="21">
         <v>118</v>
       </c>
@@ -15676,7 +15675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:22" s="21" customFormat="1">
+    <row r="189" spans="1:22" hidden="1">
       <c r="A189" s="21">
         <v>2</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="190" spans="1:22" s="21" customFormat="1">
+    <row r="190" spans="1:22" hidden="1">
       <c r="A190" s="21">
         <v>2</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="191" spans="1:22" s="21" customFormat="1">
+    <row r="191" spans="1:22" hidden="1">
       <c r="A191" s="21">
         <v>2</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="192" spans="1:22" s="21" customFormat="1">
+    <row r="192" spans="1:22" hidden="1">
       <c r="A192" s="21">
         <v>2</v>
       </c>
@@ -15897,7 +15896,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="193" spans="1:22" s="21" customFormat="1">
+    <row r="193" spans="1:22" hidden="1">
       <c r="A193" s="21">
         <v>2</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="194" spans="1:22" s="21" customFormat="1">
+    <row r="194" spans="1:22" hidden="1">
       <c r="A194" s="21">
         <v>2</v>
       </c>
@@ -16003,7 +16002,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="195" spans="1:22" s="21" customFormat="1">
+    <row r="195" spans="1:22" hidden="1">
       <c r="A195" s="21">
         <v>2</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="196" spans="1:22" s="21" customFormat="1">
+    <row r="196" spans="1:22" hidden="1">
       <c r="A196" s="21">
         <v>3</v>
       </c>
@@ -16109,7 +16108,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="197" spans="1:22" s="21" customFormat="1">
+    <row r="197" spans="1:22" hidden="1">
       <c r="A197" s="21">
         <v>3</v>
       </c>
@@ -16162,7 +16161,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="198" spans="1:22" s="21" customFormat="1">
+    <row r="198" spans="1:22" hidden="1">
       <c r="A198" s="21">
         <v>3</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="199" spans="1:22" s="21" customFormat="1">
+    <row r="199" spans="1:22" hidden="1">
       <c r="A199" s="21">
         <v>4</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="200" spans="1:22" s="21" customFormat="1">
+    <row r="200" spans="1:22" hidden="1">
       <c r="A200" s="21">
         <v>4</v>
       </c>
@@ -16321,7 +16320,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="201" spans="1:22" s="21" customFormat="1">
+    <row r="201" spans="1:22" hidden="1">
       <c r="A201" s="21">
         <v>4</v>
       </c>
@@ -16374,7 +16373,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="202" spans="1:22" s="21" customFormat="1">
+    <row r="202" spans="1:22" hidden="1">
       <c r="A202" s="21">
         <v>6</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="203" spans="1:22" s="21" customFormat="1">
+    <row r="203" spans="1:22" hidden="1">
       <c r="A203" s="21">
         <v>6</v>
       </c>
@@ -16486,7 +16485,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="204" spans="1:22" s="21" customFormat="1">
+    <row r="204" spans="1:22" hidden="1">
       <c r="A204" s="21">
         <v>6</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="205" spans="1:22" s="21" customFormat="1">
+    <row r="205" spans="1:22" hidden="1">
       <c r="A205" s="21">
         <v>6</v>
       </c>
@@ -16598,7 +16597,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="206" spans="1:22" s="21" customFormat="1">
+    <row r="206" spans="1:22" hidden="1">
       <c r="A206" s="21">
         <v>6</v>
       </c>
@@ -16654,7 +16653,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="207" spans="1:22" s="21" customFormat="1">
+    <row r="207" spans="1:22" hidden="1">
       <c r="A207" s="21">
         <v>6</v>
       </c>
@@ -16710,7 +16709,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="208" spans="1:22" s="21" customFormat="1">
+    <row r="208" spans="1:22" hidden="1">
       <c r="A208" s="21">
         <v>9</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="209" spans="1:17" s="21" customFormat="1">
+    <row r="209" spans="1:17" hidden="1">
       <c r="A209" s="21">
         <v>9</v>
       </c>
@@ -16816,7 +16815,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="210" spans="1:17" s="21" customFormat="1">
+    <row r="210" spans="1:17" hidden="1">
       <c r="A210" s="21">
         <v>9</v>
       </c>
@@ -16869,7 +16868,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="211" spans="1:17" s="21" customFormat="1">
+    <row r="211" spans="1:17" hidden="1">
       <c r="A211" s="21">
         <v>18</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="212" spans="1:17" s="21" customFormat="1">
+    <row r="212" spans="1:17" hidden="1">
       <c r="A212" s="21">
         <v>19</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="213" spans="1:17" s="21" customFormat="1">
+    <row r="213" spans="1:17" hidden="1">
       <c r="A213" s="21">
         <v>19</v>
       </c>
@@ -17028,7 +17027,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="214" spans="1:17" s="21" customFormat="1">
+    <row r="214" spans="1:17" hidden="1">
       <c r="A214" s="21">
         <v>19</v>
       </c>
@@ -17081,7 +17080,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="215" spans="1:17" s="21" customFormat="1">
+    <row r="215" spans="1:17" hidden="1">
       <c r="A215" s="21">
         <v>19</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="216" spans="1:17" s="21" customFormat="1">
+    <row r="216" spans="1:17" hidden="1">
       <c r="A216" s="21">
         <v>19</v>
       </c>
@@ -17187,7 +17186,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="217" spans="1:17" s="21" customFormat="1">
+    <row r="217" spans="1:17" hidden="1">
       <c r="A217" s="21">
         <v>19</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="218" spans="1:17" s="21" customFormat="1">
+    <row r="218" spans="1:17" hidden="1">
       <c r="A218" s="21">
         <v>19</v>
       </c>
@@ -17293,7 +17292,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="219" spans="1:17" s="21" customFormat="1">
+    <row r="219" spans="1:17" hidden="1">
       <c r="A219" s="21">
         <v>19</v>
       </c>
@@ -17346,7 +17345,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="220" spans="1:17" s="21" customFormat="1">
+    <row r="220" spans="1:17" hidden="1">
       <c r="A220" s="21">
         <v>20</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="221" spans="1:17" s="21" customFormat="1">
+    <row r="221" spans="1:17" hidden="1">
       <c r="A221" s="21">
         <v>20</v>
       </c>
@@ -17452,7 +17451,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="222" spans="1:17" s="21" customFormat="1">
+    <row r="222" spans="1:17" hidden="1">
       <c r="A222" s="21">
         <v>20</v>
       </c>
@@ -17505,7 +17504,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="223" spans="1:17" s="21" customFormat="1">
+    <row r="223" spans="1:17" hidden="1">
       <c r="A223" s="21">
         <v>20</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="224" spans="1:17" s="21" customFormat="1">
+    <row r="224" spans="1:17" hidden="1">
       <c r="A224" s="21">
         <v>20</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="225" spans="1:22" s="21" customFormat="1">
+    <row r="225" spans="1:22" hidden="1">
       <c r="A225" s="21">
         <v>22</v>
       </c>
@@ -17664,7 +17663,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="226" spans="1:22" s="21" customFormat="1">
+    <row r="226" spans="1:22" hidden="1">
       <c r="A226" s="21">
         <v>23</v>
       </c>
@@ -17717,7 +17716,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="227" spans="1:22" s="21" customFormat="1">
+    <row r="227" spans="1:22" hidden="1">
       <c r="A227" s="21">
         <v>23</v>
       </c>
@@ -17770,7 +17769,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="228" spans="1:22" s="21" customFormat="1">
+    <row r="228" spans="1:22" hidden="1">
       <c r="A228" s="21">
         <v>23</v>
       </c>
@@ -17823,7 +17822,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="229" spans="1:22" s="21" customFormat="1">
+    <row r="229" spans="1:22" hidden="1">
       <c r="A229" s="21">
         <v>23</v>
       </c>
@@ -17876,7 +17875,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="230" spans="1:22" s="21" customFormat="1">
+    <row r="230" spans="1:22" hidden="1">
       <c r="A230" s="21">
         <v>23</v>
       </c>
@@ -17929,7 +17928,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="231" spans="1:22" s="21" customFormat="1">
+    <row r="231" spans="1:22" hidden="1">
       <c r="A231" s="21">
         <v>23</v>
       </c>
@@ -17982,7 +17981,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="232" spans="1:22" s="21" customFormat="1">
+    <row r="232" spans="1:22" hidden="1">
       <c r="A232" s="21">
         <v>119</v>
       </c>
@@ -18038,7 +18037,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="233" spans="1:22" s="21" customFormat="1">
+    <row r="233" spans="1:22" hidden="1">
       <c r="A233" s="21">
         <v>119</v>
       </c>
@@ -18094,7 +18093,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="234" spans="1:22" s="21" customFormat="1">
+    <row r="234" spans="1:22" hidden="1">
       <c r="A234" s="21">
         <v>141</v>
       </c>
@@ -18153,7 +18152,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="235" spans="1:22" s="21" customFormat="1">
+    <row r="235" spans="1:22" hidden="1">
       <c r="A235" s="21">
         <v>25</v>
       </c>
@@ -18206,7 +18205,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="236" spans="1:22" s="21" customFormat="1">
+    <row r="236" spans="1:22" hidden="1">
       <c r="A236" s="21">
         <v>25</v>
       </c>
@@ -18259,7 +18258,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="237" spans="1:22" s="21" customFormat="1">
+    <row r="237" spans="1:22" hidden="1">
       <c r="A237" s="21">
         <v>39</v>
       </c>
@@ -18315,7 +18314,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="1:22" s="21" customFormat="1">
+    <row r="238" spans="1:22" hidden="1">
       <c r="A238" s="21">
         <v>40</v>
       </c>
@@ -18368,7 +18367,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="239" spans="1:22" s="21" customFormat="1">
+    <row r="239" spans="1:22" hidden="1">
       <c r="A239" s="21">
         <v>40</v>
       </c>
@@ -18421,7 +18420,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="240" spans="1:22" s="21" customFormat="1">
+    <row r="240" spans="1:22" hidden="1">
       <c r="A240" s="21">
         <v>40</v>
       </c>
@@ -18474,7 +18473,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="241" spans="1:17" s="21" customFormat="1">
+    <row r="241" spans="1:17" hidden="1">
       <c r="A241" s="21">
         <v>40</v>
       </c>
@@ -18527,7 +18526,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="242" spans="1:17" s="21" customFormat="1">
+    <row r="242" spans="1:17" hidden="1">
       <c r="A242" s="21">
         <v>43</v>
       </c>
@@ -18580,7 +18579,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="243" spans="1:17" s="21" customFormat="1">
+    <row r="243" spans="1:17" hidden="1">
       <c r="A243" s="21">
         <v>45</v>
       </c>
@@ -18633,7 +18632,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="244" spans="1:17" s="21" customFormat="1">
+    <row r="244" spans="1:17" hidden="1">
       <c r="A244" s="21">
         <v>45</v>
       </c>
@@ -18686,7 +18685,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="245" spans="1:17" s="21" customFormat="1">
+    <row r="245" spans="1:17" hidden="1">
       <c r="A245" s="21">
         <v>45</v>
       </c>
@@ -18739,7 +18738,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="246" spans="1:17" s="21" customFormat="1">
+    <row r="246" spans="1:17" hidden="1">
       <c r="A246" s="21">
         <v>45</v>
       </c>
@@ -18792,7 +18791,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="247" spans="1:17" s="21" customFormat="1">
+    <row r="247" spans="1:17" hidden="1">
       <c r="A247" s="21">
         <v>45</v>
       </c>
@@ -18845,7 +18844,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="248" spans="1:17" s="21" customFormat="1">
+    <row r="248" spans="1:17" hidden="1">
       <c r="A248" s="21">
         <v>45</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="249" spans="1:17" s="21" customFormat="1">
+    <row r="249" spans="1:17" hidden="1">
       <c r="A249" s="21">
         <v>48</v>
       </c>
@@ -18951,7 +18950,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="250" spans="1:17" s="21" customFormat="1">
+    <row r="250" spans="1:17" hidden="1">
       <c r="A250" s="21">
         <v>49</v>
       </c>
@@ -19004,7 +19003,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="251" spans="1:17" s="21" customFormat="1">
+    <row r="251" spans="1:17" hidden="1">
       <c r="A251" s="21">
         <v>49</v>
       </c>
@@ -19057,7 +19056,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="252" spans="1:17" s="21" customFormat="1">
+    <row r="252" spans="1:17" hidden="1">
       <c r="A252" s="21">
         <v>49</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="253" spans="1:17" s="21" customFormat="1">
+    <row r="253" spans="1:17" hidden="1">
       <c r="A253" s="21">
         <v>49</v>
       </c>
@@ -19163,7 +19162,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="254" spans="1:17" s="21" customFormat="1">
+    <row r="254" spans="1:17" hidden="1">
       <c r="A254" s="21">
         <v>49</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="255" spans="1:17" s="21" customFormat="1">
+    <row r="255" spans="1:17" hidden="1">
       <c r="A255" s="21">
         <v>49</v>
       </c>
@@ -19269,7 +19268,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="256" spans="1:17" s="21" customFormat="1">
+    <row r="256" spans="1:17" hidden="1">
       <c r="A256" s="21">
         <v>49</v>
       </c>
@@ -19322,7 +19321,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="257" spans="1:22" s="21" customFormat="1">
+    <row r="257" spans="1:22" hidden="1">
       <c r="A257" s="21">
         <v>49</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="258" spans="1:22" s="21" customFormat="1">
+    <row r="258" spans="1:22" hidden="1">
       <c r="A258" s="21">
         <v>49</v>
       </c>
@@ -19428,7 +19427,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="259" spans="1:22" s="21" customFormat="1">
+    <row r="259" spans="1:22" hidden="1">
       <c r="A259" s="21">
         <v>50</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="260" spans="1:22" s="21" customFormat="1">
+    <row r="260" spans="1:22" hidden="1">
       <c r="A260" s="21">
         <v>50</v>
       </c>
@@ -19534,7 +19533,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:22" s="21" customFormat="1">
+    <row r="261" spans="1:22" hidden="1">
       <c r="A261" s="21">
         <v>50</v>
       </c>
@@ -19587,17 +19586,17 @@
         <v>499</v>
       </c>
     </row>
-    <row r="262" spans="1:22">
-      <c r="A262" s="24">
+    <row r="262" spans="1:22" hidden="1">
+      <c r="A262" s="21">
         <v>52</v>
       </c>
-      <c r="B262" s="24" t="s">
+      <c r="B262" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C262" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D262" s="24" t="s">
+      <c r="C262" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D262" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E262" s="21" t="s">
@@ -19621,39 +19620,39 @@
       <c r="K262" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L262" s="24" t="s">
+      <c r="L262" s="21" t="s">
         <v>981</v>
       </c>
-      <c r="M262" s="24" t="s">
+      <c r="M262" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N262" s="24" t="s">
+      <c r="N262" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O262" s="24" t="s">
+      <c r="O262" s="21" t="s">
         <v>1037</v>
       </c>
-      <c r="P262" s="24" t="s">
+      <c r="P262" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q262" s="24" t="s">
+      <c r="Q262" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V262" s="24" t="s">
+      <c r="V262" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="263" spans="1:22">
-      <c r="A263" s="24">
+    <row r="263" spans="1:22" hidden="1">
+      <c r="A263" s="21">
         <v>52</v>
       </c>
-      <c r="B263" s="24" t="s">
+      <c r="B263" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C263" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D263" s="24" t="s">
+      <c r="C263" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D263" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E263" s="21" t="s">
@@ -19677,39 +19676,39 @@
       <c r="K263" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L263" s="24" t="s">
+      <c r="L263" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="M263" s="24" t="s">
+      <c r="M263" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N263" s="24" t="s">
+      <c r="N263" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O263" s="24" t="s">
+      <c r="O263" s="21" t="s">
         <v>1037</v>
       </c>
-      <c r="P263" s="24" t="s">
+      <c r="P263" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q263" s="24" t="s">
+      <c r="Q263" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V263" s="24" t="s">
+      <c r="V263" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="264" spans="1:22">
-      <c r="A264" s="24">
+    <row r="264" spans="1:22" hidden="1">
+      <c r="A264" s="21">
         <v>52</v>
       </c>
-      <c r="B264" s="24" t="s">
+      <c r="B264" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C264" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D264" s="24" t="s">
+      <c r="C264" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D264" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E264" s="21" t="s">
@@ -19733,39 +19732,39 @@
       <c r="K264" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L264" s="24" t="s">
+      <c r="L264" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="M264" s="24" t="s">
+      <c r="M264" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N264" s="24" t="s">
+      <c r="N264" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O264" s="24" t="s">
+      <c r="O264" s="21" t="s">
         <v>1037</v>
       </c>
-      <c r="P264" s="24" t="s">
+      <c r="P264" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q264" s="24" t="s">
+      <c r="Q264" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V264" s="24" t="s">
+      <c r="V264" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="265" spans="1:22">
-      <c r="A265" s="24">
+    <row r="265" spans="1:22" hidden="1">
+      <c r="A265" s="21">
         <v>52</v>
       </c>
-      <c r="B265" s="24" t="s">
+      <c r="B265" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C265" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D265" s="24" t="s">
+      <c r="C265" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D265" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E265" s="21" t="s">
@@ -19789,39 +19788,39 @@
       <c r="K265" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L265" s="24" t="s">
+      <c r="L265" s="21" t="s">
         <v>981</v>
       </c>
-      <c r="M265" s="24" t="s">
+      <c r="M265" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N265" s="24" t="s">
+      <c r="N265" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O265" s="24" t="s">
+      <c r="O265" s="21" t="s">
         <v>1038</v>
       </c>
-      <c r="P265" s="24" t="s">
+      <c r="P265" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q265" s="24" t="s">
+      <c r="Q265" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V265" s="24" t="s">
+      <c r="V265" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="266" spans="1:22">
-      <c r="A266" s="24">
+    <row r="266" spans="1:22" hidden="1">
+      <c r="A266" s="21">
         <v>52</v>
       </c>
-      <c r="B266" s="24" t="s">
+      <c r="B266" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C266" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D266" s="24" t="s">
+      <c r="C266" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D266" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E266" s="21" t="s">
@@ -19845,39 +19844,39 @@
       <c r="K266" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L266" s="24" t="s">
+      <c r="L266" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="M266" s="24" t="s">
+      <c r="M266" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N266" s="24" t="s">
+      <c r="N266" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O266" s="24" t="s">
+      <c r="O266" s="21" t="s">
         <v>1038</v>
       </c>
-      <c r="P266" s="24" t="s">
+      <c r="P266" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q266" s="24" t="s">
+      <c r="Q266" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V266" s="24" t="s">
+      <c r="V266" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="267" spans="1:22">
-      <c r="A267" s="24">
+    <row r="267" spans="1:22" hidden="1">
+      <c r="A267" s="21">
         <v>52</v>
       </c>
-      <c r="B267" s="24" t="s">
+      <c r="B267" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C267" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D267" s="24" t="s">
+      <c r="C267" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D267" s="21" t="s">
         <v>225</v>
       </c>
       <c r="E267" s="21" t="s">
@@ -19901,29 +19900,29 @@
       <c r="K267" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L267" s="24" t="s">
+      <c r="L267" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="M267" s="24" t="s">
+      <c r="M267" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N267" s="24" t="s">
+      <c r="N267" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O267" s="24" t="s">
+      <c r="O267" s="21" t="s">
         <v>1038</v>
       </c>
-      <c r="P267" s="24" t="s">
+      <c r="P267" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q267" s="24" t="s">
+      <c r="Q267" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V267" s="24" t="s">
+      <c r="V267" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="268" spans="1:22" s="21" customFormat="1">
+    <row r="268" spans="1:22" hidden="1">
       <c r="A268" s="21">
         <v>141</v>
       </c>
@@ -19982,7 +19981,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="269" spans="1:22" s="21" customFormat="1">
+    <row r="269" spans="1:22" hidden="1">
       <c r="A269" s="21">
         <v>144</v>
       </c>
@@ -20041,7 +20040,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="270" spans="1:22" s="21" customFormat="1">
+    <row r="270" spans="1:22" hidden="1">
       <c r="A270" s="21">
         <v>144</v>
       </c>
@@ -20100,17 +20099,17 @@
         <v>930</v>
       </c>
     </row>
-    <row r="271" spans="1:22">
-      <c r="A271" s="24">
+    <row r="271" spans="1:22" hidden="1">
+      <c r="A271" s="21">
         <v>52</v>
       </c>
-      <c r="B271" s="24" t="s">
+      <c r="B271" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C271" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D271" s="24" t="s">
+      <c r="C271" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D271" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E271" s="21" t="s">
@@ -20134,39 +20133,39 @@
       <c r="K271" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L271" s="24" t="s">
+      <c r="L271" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="M271" s="24" t="s">
+      <c r="M271" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N271" s="24" t="s">
+      <c r="N271" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O271" s="24" t="s">
+      <c r="O271" s="21" t="s">
         <v>1039</v>
       </c>
-      <c r="P271" s="24" t="s">
+      <c r="P271" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q271" s="24" t="s">
+      <c r="Q271" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V271" s="24" t="s">
+      <c r="V271" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="272" spans="1:22">
-      <c r="A272" s="24">
+    <row r="272" spans="1:22" hidden="1">
+      <c r="A272" s="21">
         <v>52</v>
       </c>
-      <c r="B272" s="24" t="s">
+      <c r="B272" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C272" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D272" s="24" t="s">
+      <c r="C272" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D272" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E272" s="21" t="s">
@@ -20190,39 +20189,39 @@
       <c r="K272" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L272" s="24" t="s">
+      <c r="L272" s="21" t="s">
         <v>984</v>
       </c>
-      <c r="M272" s="24" t="s">
+      <c r="M272" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N272" s="24" t="s">
+      <c r="N272" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O272" s="24" t="s">
+      <c r="O272" s="21" t="s">
         <v>1039</v>
       </c>
-      <c r="P272" s="24" t="s">
+      <c r="P272" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q272" s="24" t="s">
+      <c r="Q272" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V272" s="24" t="s">
+      <c r="V272" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="273" spans="1:22">
-      <c r="A273" s="24">
+    <row r="273" spans="1:22" hidden="1">
+      <c r="A273" s="21">
         <v>52</v>
       </c>
-      <c r="B273" s="24" t="s">
+      <c r="B273" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C273" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D273" s="24" t="s">
+      <c r="C273" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D273" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E273" s="21" t="s">
@@ -20246,39 +20245,39 @@
       <c r="K273" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L273" s="24" t="s">
+      <c r="L273" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="M273" s="24" t="s">
+      <c r="M273" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N273" s="24" t="s">
+      <c r="N273" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="O273" s="24" t="s">
+      <c r="O273" s="21" t="s">
         <v>1039</v>
       </c>
-      <c r="P273" s="24" t="s">
+      <c r="P273" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q273" s="24" t="s">
+      <c r="Q273" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V273" s="24" t="s">
+      <c r="V273" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="274" spans="1:22">
-      <c r="A274" s="24">
+    <row r="274" spans="1:22" hidden="1">
+      <c r="A274" s="21">
         <v>52</v>
       </c>
-      <c r="B274" s="24" t="s">
+      <c r="B274" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C274" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D274" s="24" t="s">
+      <c r="C274" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D274" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E274" s="21" t="s">
@@ -20302,39 +20301,39 @@
       <c r="K274" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L274" s="24" t="s">
+      <c r="L274" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="M274" s="24" t="s">
+      <c r="M274" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N274" s="24" t="s">
+      <c r="N274" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O274" s="24" t="s">
+      <c r="O274" s="21" t="s">
         <v>1040</v>
       </c>
-      <c r="P274" s="24" t="s">
+      <c r="P274" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q274" s="24" t="s">
+      <c r="Q274" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V274" s="24" t="s">
+      <c r="V274" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="275" spans="1:22">
-      <c r="A275" s="24">
+    <row r="275" spans="1:22" hidden="1">
+      <c r="A275" s="21">
         <v>52</v>
       </c>
-      <c r="B275" s="24" t="s">
+      <c r="B275" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C275" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D275" s="24" t="s">
+      <c r="C275" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D275" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E275" s="21" t="s">
@@ -20358,39 +20357,39 @@
       <c r="K275" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L275" s="24" t="s">
+      <c r="L275" s="21" t="s">
         <v>984</v>
       </c>
-      <c r="M275" s="24" t="s">
+      <c r="M275" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N275" s="24" t="s">
+      <c r="N275" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O275" s="24" t="s">
+      <c r="O275" s="21" t="s">
         <v>1040</v>
       </c>
-      <c r="P275" s="24" t="s">
+      <c r="P275" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q275" s="24" t="s">
+      <c r="Q275" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V275" s="24" t="s">
+      <c r="V275" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="276" spans="1:22">
-      <c r="A276" s="24">
+    <row r="276" spans="1:22" hidden="1">
+      <c r="A276" s="21">
         <v>52</v>
       </c>
-      <c r="B276" s="24" t="s">
+      <c r="B276" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C276" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D276" s="24" t="s">
+      <c r="C276" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D276" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E276" s="21" t="s">
@@ -20414,29 +20413,29 @@
       <c r="K276" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="L276" s="24" t="s">
+      <c r="L276" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="M276" s="24" t="s">
+      <c r="M276" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N276" s="24" t="s">
+      <c r="N276" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="O276" s="24" t="s">
+      <c r="O276" s="21" t="s">
         <v>1040</v>
       </c>
-      <c r="P276" s="24" t="s">
+      <c r="P276" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="Q276" s="24" t="s">
+      <c r="Q276" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="V276" s="24" t="s">
+      <c r="V276" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="277" spans="1:22" s="21" customFormat="1">
+    <row r="277" spans="1:22" hidden="1">
       <c r="A277" s="21">
         <v>144</v>
       </c>
@@ -20495,17 +20494,17 @@
         <v>930</v>
       </c>
     </row>
-    <row r="278" spans="1:22">
-      <c r="A278" s="24">
+    <row r="278" spans="1:22" hidden="1">
+      <c r="A278" s="21">
         <v>147</v>
       </c>
-      <c r="B278" s="24" t="s">
+      <c r="B278" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C278" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D278" s="24" t="s">
+      <c r="C278" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D278" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E278" s="21" t="s">
@@ -20529,45 +20528,45 @@
       <c r="K278" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="L278" s="24" t="s">
+      <c r="L278" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="M278" s="24" t="s">
+      <c r="M278" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N278" s="24" t="s">
+      <c r="N278" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O278" s="24" t="s">
+      <c r="O278" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="P278" s="24" t="s">
+      <c r="P278" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q278" s="24" t="s">
+      <c r="Q278" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T278" s="24">
+      <c r="T278" s="21">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="U278" s="24">
+      <c r="U278" s="21">
         <v>9.9</v>
       </c>
-      <c r="V278" s="24" t="s">
+      <c r="V278" s="21" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="279" spans="1:22">
-      <c r="A279" s="24">
+    <row r="279" spans="1:22" hidden="1">
+      <c r="A279" s="21">
         <v>147</v>
       </c>
-      <c r="B279" s="24" t="s">
+      <c r="B279" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C279" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D279" s="24" t="s">
+      <c r="C279" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D279" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E279" s="21" t="s">
@@ -20591,45 +20590,45 @@
       <c r="K279" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="L279" s="24" t="s">
+      <c r="L279" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="M279" s="24" t="s">
+      <c r="M279" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N279" s="24" t="s">
+      <c r="N279" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O279" s="24" t="s">
+      <c r="O279" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="P279" s="24" t="s">
+      <c r="P279" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q279" s="24" t="s">
+      <c r="Q279" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T279" s="24">
+      <c r="T279" s="21">
         <v>-0.06</v>
       </c>
-      <c r="U279" s="24">
+      <c r="U279" s="21">
         <v>11.6</v>
       </c>
-      <c r="V279" s="24" t="s">
+      <c r="V279" s="21" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="280" spans="1:22">
-      <c r="A280" s="24">
+    <row r="280" spans="1:22" hidden="1">
+      <c r="A280" s="21">
         <v>147</v>
       </c>
-      <c r="B280" s="24" t="s">
+      <c r="B280" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C280" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D280" s="24" t="s">
+      <c r="C280" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D280" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E280" s="21" t="s">
@@ -20653,35 +20652,35 @@
       <c r="K280" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="L280" s="24" t="s">
+      <c r="L280" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="M280" s="24" t="s">
+      <c r="M280" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="N280" s="24" t="s">
+      <c r="N280" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O280" s="24" t="s">
+      <c r="O280" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="P280" s="24" t="s">
+      <c r="P280" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="Q280" s="24" t="s">
+      <c r="Q280" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="T280" s="24">
+      <c r="T280" s="21">
         <v>-0.05</v>
       </c>
-      <c r="U280" s="24">
+      <c r="U280" s="21">
         <v>13.9</v>
       </c>
-      <c r="V280" s="24" t="s">
+      <c r="V280" s="21" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="281" spans="1:22" s="21" customFormat="1">
+    <row r="281" spans="1:22" hidden="1">
       <c r="A281" s="21">
         <v>159</v>
       </c>
@@ -20743,7 +20742,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="282" spans="1:22" s="21" customFormat="1">
+    <row r="282" spans="1:22" hidden="1">
       <c r="A282" s="21">
         <v>159</v>
       </c>
@@ -20805,7 +20804,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="283" spans="1:22" s="21" customFormat="1">
+    <row r="283" spans="1:22" hidden="1">
       <c r="A283" s="21">
         <v>159</v>
       </c>
@@ -20867,7 +20866,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="284" spans="1:22" s="21" customFormat="1">
+    <row r="284" spans="1:22" hidden="1">
       <c r="A284" s="21">
         <v>163</v>
       </c>
@@ -20923,7 +20922,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="285" spans="1:22" s="21" customFormat="1">
+    <row r="285" spans="1:22" hidden="1">
       <c r="A285" s="21">
         <v>163</v>
       </c>
@@ -20979,7 +20978,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="286" spans="1:22" s="21" customFormat="1">
+    <row r="286" spans="1:22" hidden="1">
       <c r="A286" s="21">
         <v>57</v>
       </c>
@@ -21032,7 +21031,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="287" spans="1:22" s="21" customFormat="1">
+    <row r="287" spans="1:22" hidden="1">
       <c r="A287" s="21">
         <v>57</v>
       </c>
@@ -21085,7 +21084,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="288" spans="1:22" s="21" customFormat="1">
+    <row r="288" spans="1:22" hidden="1">
       <c r="A288" s="21">
         <v>57</v>
       </c>
@@ -21138,7 +21137,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="289" spans="1:22" s="21" customFormat="1">
+    <row r="289" spans="1:22" hidden="1">
       <c r="A289" s="21">
         <v>57</v>
       </c>
@@ -21191,7 +21190,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="290" spans="1:22" s="21" customFormat="1">
+    <row r="290" spans="1:22" hidden="1">
       <c r="A290" s="21">
         <v>57</v>
       </c>
@@ -21244,7 +21243,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="291" spans="1:22" s="21" customFormat="1">
+    <row r="291" spans="1:22" hidden="1">
       <c r="A291" s="21">
         <v>57</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="292" spans="1:22" s="21" customFormat="1">
+    <row r="292" spans="1:22" hidden="1">
       <c r="A292" s="21">
         <v>57</v>
       </c>
@@ -21350,7 +21349,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="293" spans="1:22" s="21" customFormat="1">
+    <row r="293" spans="1:22" hidden="1">
       <c r="A293" s="21">
         <v>57</v>
       </c>
@@ -21403,7 +21402,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="294" spans="1:22" s="21" customFormat="1">
+    <row r="294" spans="1:22" hidden="1">
       <c r="A294" s="21">
         <v>57</v>
       </c>
@@ -21456,7 +21455,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="295" spans="1:22" s="21" customFormat="1">
+    <row r="295" spans="1:22" hidden="1">
       <c r="A295" s="21">
         <v>57</v>
       </c>
@@ -21509,7 +21508,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="296" spans="1:22" s="21" customFormat="1">
+    <row r="296" spans="1:22" hidden="1">
       <c r="A296" s="21">
         <v>57</v>
       </c>
@@ -21562,7 +21561,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="297" spans="1:22" s="21" customFormat="1">
+    <row r="297" spans="1:22" hidden="1">
       <c r="A297" s="21">
         <v>57</v>
       </c>
@@ -21615,7 +21614,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="298" spans="1:22" s="21" customFormat="1">
+    <row r="298" spans="1:22" hidden="1">
       <c r="A298" s="21">
         <v>58</v>
       </c>
@@ -21668,7 +21667,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="299" spans="1:22" s="21" customFormat="1">
+    <row r="299" spans="1:22" hidden="1">
       <c r="A299" s="21">
         <v>58</v>
       </c>
@@ -21721,7 +21720,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="300" spans="1:22" s="21" customFormat="1">
+    <row r="300" spans="1:22" hidden="1">
       <c r="A300" s="21">
         <v>61</v>
       </c>
@@ -21777,7 +21776,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="301" spans="1:22" s="21" customFormat="1">
+    <row r="301" spans="1:22" hidden="1">
       <c r="A301" s="21">
         <v>64</v>
       </c>
@@ -21830,7 +21829,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="302" spans="1:22" s="21" customFormat="1">
+    <row r="302" spans="1:22" hidden="1">
       <c r="A302" s="21">
         <v>71</v>
       </c>
@@ -21883,7 +21882,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="303" spans="1:22" s="21" customFormat="1">
+    <row r="303" spans="1:22" hidden="1">
       <c r="A303" s="21">
         <v>71</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="304" spans="1:22" s="21" customFormat="1">
+    <row r="304" spans="1:22" hidden="1">
       <c r="A304" s="21">
         <v>71</v>
       </c>
@@ -21989,7 +21988,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="305" spans="1:22" s="21" customFormat="1">
+    <row r="305" spans="1:22" hidden="1">
       <c r="A305" s="21">
         <v>71</v>
       </c>
@@ -22042,7 +22041,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="306" spans="1:22" s="21" customFormat="1">
+    <row r="306" spans="1:22" hidden="1">
       <c r="A306" s="21">
         <v>71</v>
       </c>
@@ -22095,7 +22094,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="307" spans="1:22" s="21" customFormat="1">
+    <row r="307" spans="1:22" hidden="1">
       <c r="A307" s="21">
         <v>71</v>
       </c>
@@ -22148,7 +22147,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="308" spans="1:22" s="21" customFormat="1">
+    <row r="308" spans="1:22" hidden="1">
       <c r="A308" s="21">
         <v>71</v>
       </c>
@@ -22201,7 +22200,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="309" spans="1:22" s="21" customFormat="1">
+    <row r="309" spans="1:22" hidden="1">
       <c r="A309" s="21">
         <v>73</v>
       </c>
@@ -22257,7 +22256,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="310" spans="1:22" s="21" customFormat="1">
+    <row r="310" spans="1:22" hidden="1">
       <c r="A310" s="21">
         <v>73</v>
       </c>
@@ -22313,7 +22312,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="311" spans="1:22" s="21" customFormat="1">
+    <row r="311" spans="1:22" hidden="1">
       <c r="A311" s="21">
         <v>73</v>
       </c>
@@ -22369,7 +22368,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="312" spans="1:22" s="21" customFormat="1">
+    <row r="312" spans="1:22" hidden="1">
       <c r="A312" s="21">
         <v>74</v>
       </c>
@@ -22422,7 +22421,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="313" spans="1:22" s="21" customFormat="1">
+    <row r="313" spans="1:22" hidden="1">
       <c r="A313" s="21">
         <v>74</v>
       </c>
@@ -22475,7 +22474,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="314" spans="1:22" s="21" customFormat="1">
+    <row r="314" spans="1:22" hidden="1">
       <c r="A314" s="21">
         <v>77</v>
       </c>
@@ -22528,7 +22527,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="315" spans="1:22" s="21" customFormat="1">
+    <row r="315" spans="1:22" hidden="1">
       <c r="A315" s="21">
         <v>77</v>
       </c>
@@ -22581,7 +22580,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="316" spans="1:22" s="21" customFormat="1">
+    <row r="316" spans="1:22" hidden="1">
       <c r="A316" s="21">
         <v>77</v>
       </c>
@@ -22634,7 +22633,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="317" spans="1:22" s="21" customFormat="1">
+    <row r="317" spans="1:22" hidden="1">
       <c r="A317" s="21">
         <v>77</v>
       </c>
@@ -22687,7 +22686,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="318" spans="1:22" s="21" customFormat="1">
+    <row r="318" spans="1:22" hidden="1">
       <c r="A318" s="21">
         <v>77</v>
       </c>
@@ -22740,7 +22739,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="319" spans="1:22" s="21" customFormat="1">
+    <row r="319" spans="1:22" hidden="1">
       <c r="A319" s="21">
         <v>77</v>
       </c>
@@ -22793,7 +22792,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="320" spans="1:22" s="21" customFormat="1">
+    <row r="320" spans="1:22" hidden="1">
       <c r="A320" s="21">
         <v>77</v>
       </c>
@@ -22846,7 +22845,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="321" spans="1:22" s="21" customFormat="1">
+    <row r="321" spans="1:22" hidden="1">
       <c r="A321" s="21">
         <v>78</v>
       </c>
@@ -22899,7 +22898,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="322" spans="1:22" s="21" customFormat="1">
+    <row r="322" spans="1:22" hidden="1">
       <c r="A322" s="21">
         <v>78</v>
       </c>
@@ -22952,7 +22951,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="323" spans="1:22" s="21" customFormat="1">
+    <row r="323" spans="1:22" hidden="1">
       <c r="A323" s="21">
         <v>78</v>
       </c>
@@ -23005,7 +23004,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="324" spans="1:22" s="21" customFormat="1">
+    <row r="324" spans="1:22" hidden="1">
       <c r="A324" s="21">
         <v>79</v>
       </c>
@@ -23061,7 +23060,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="325" spans="1:22" s="21" customFormat="1">
+    <row r="325" spans="1:22" hidden="1">
       <c r="A325" s="21">
         <v>79</v>
       </c>
@@ -23117,7 +23116,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="326" spans="1:22" s="21" customFormat="1">
+    <row r="326" spans="1:22" hidden="1">
       <c r="A326" s="21">
         <v>80</v>
       </c>
@@ -23170,7 +23169,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="327" spans="1:22" s="21" customFormat="1">
+    <row r="327" spans="1:22" hidden="1">
       <c r="A327" s="21">
         <v>80</v>
       </c>
@@ -23223,7 +23222,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="328" spans="1:22" s="21" customFormat="1">
+    <row r="328" spans="1:22" hidden="1">
       <c r="A328" s="21">
         <v>80</v>
       </c>
@@ -23276,7 +23275,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="329" spans="1:22" s="21" customFormat="1">
+    <row r="329" spans="1:22" hidden="1">
       <c r="A329" s="21">
         <v>80</v>
       </c>
@@ -23329,7 +23328,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="330" spans="1:22" s="21" customFormat="1">
+    <row r="330" spans="1:22" hidden="1">
       <c r="A330" s="21">
         <v>80</v>
       </c>
@@ -23382,7 +23381,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="331" spans="1:22" s="21" customFormat="1">
+    <row r="331" spans="1:22" hidden="1">
       <c r="A331" s="21">
         <v>80</v>
       </c>
@@ -23435,7 +23434,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="332" spans="1:22" s="21" customFormat="1">
+    <row r="332" spans="1:22" hidden="1">
       <c r="A332" s="21">
         <v>80</v>
       </c>
@@ -23488,7 +23487,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="333" spans="1:22" s="21" customFormat="1">
+    <row r="333" spans="1:22" hidden="1">
       <c r="A333" s="21">
         <v>80</v>
       </c>
@@ -23541,7 +23540,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="334" spans="1:22" s="21" customFormat="1">
+    <row r="334" spans="1:22" hidden="1">
       <c r="A334" s="21">
         <v>80</v>
       </c>
@@ -23594,7 +23593,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="335" spans="1:22" s="21" customFormat="1">
+    <row r="335" spans="1:22" hidden="1">
       <c r="A335" s="21">
         <v>80</v>
       </c>
@@ -23647,7 +23646,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="336" spans="1:22" s="21" customFormat="1">
+    <row r="336" spans="1:22" hidden="1">
       <c r="A336" s="21">
         <v>80</v>
       </c>
@@ -23700,7 +23699,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="337" spans="1:22" s="21" customFormat="1">
+    <row r="337" spans="1:22" hidden="1">
       <c r="A337" s="21">
         <v>80</v>
       </c>
@@ -23753,7 +23752,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="338" spans="1:22" s="21" customFormat="1">
+    <row r="338" spans="1:22" hidden="1">
       <c r="A338" s="21">
         <v>80</v>
       </c>
@@ -23806,7 +23805,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="339" spans="1:22" s="21" customFormat="1">
+    <row r="339" spans="1:22" hidden="1">
       <c r="A339" s="21">
         <v>80</v>
       </c>
@@ -23859,7 +23858,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="340" spans="1:22" s="21" customFormat="1">
+    <row r="340" spans="1:22" hidden="1">
       <c r="A340" s="21">
         <v>80</v>
       </c>
@@ -23912,7 +23911,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="341" spans="1:22" s="21" customFormat="1">
+    <row r="341" spans="1:22" hidden="1">
       <c r="A341" s="21">
         <v>80</v>
       </c>
@@ -23965,7 +23964,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="342" spans="1:22" s="21" customFormat="1">
+    <row r="342" spans="1:22" hidden="1">
       <c r="A342" s="21">
         <v>82</v>
       </c>
@@ -24021,7 +24020,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="343" spans="1:22" s="21" customFormat="1">
+    <row r="343" spans="1:22" hidden="1">
       <c r="A343" s="21">
         <v>82</v>
       </c>
@@ -24077,7 +24076,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="344" spans="1:22" s="21" customFormat="1">
+    <row r="344" spans="1:22" hidden="1">
       <c r="A344" s="21">
         <v>82</v>
       </c>
@@ -24133,7 +24132,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="345" spans="1:22" s="21" customFormat="1">
+    <row r="345" spans="1:22" hidden="1">
       <c r="A345" s="21">
         <v>86</v>
       </c>
@@ -24189,7 +24188,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="346" spans="1:22" s="21" customFormat="1">
+    <row r="346" spans="1:22" hidden="1">
       <c r="A346" s="21">
         <v>88</v>
       </c>
@@ -24242,7 +24241,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="347" spans="1:22" s="21" customFormat="1">
+    <row r="347" spans="1:22" hidden="1">
       <c r="A347" s="21">
         <v>88</v>
       </c>
@@ -24295,7 +24294,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="348" spans="1:22" s="21" customFormat="1">
+    <row r="348" spans="1:22" hidden="1">
       <c r="A348" s="21">
         <v>88</v>
       </c>
@@ -24348,7 +24347,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="349" spans="1:22" s="21" customFormat="1">
+    <row r="349" spans="1:22" hidden="1">
       <c r="A349" s="21">
         <v>88</v>
       </c>
@@ -24401,7 +24400,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="350" spans="1:22" s="21" customFormat="1">
+    <row r="350" spans="1:22" hidden="1">
       <c r="A350" s="21">
         <v>164</v>
       </c>
@@ -24457,7 +24456,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="351" spans="1:22" s="21" customFormat="1">
+    <row r="351" spans="1:22" hidden="1">
       <c r="A351" s="21">
         <v>94</v>
       </c>
@@ -24513,7 +24512,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="352" spans="1:22" s="21" customFormat="1">
+    <row r="352" spans="1:22" hidden="1">
       <c r="A352" s="21">
         <v>94</v>
       </c>
@@ -24569,7 +24568,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="353" spans="1:20" s="21" customFormat="1">
+    <row r="353" spans="1:20" hidden="1">
       <c r="A353" s="21">
         <v>98</v>
       </c>
@@ -24622,7 +24621,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="354" spans="1:20" s="21" customFormat="1">
+    <row r="354" spans="1:20" hidden="1">
       <c r="A354" s="21">
         <v>98</v>
       </c>
@@ -24675,7 +24674,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="355" spans="1:20" s="21" customFormat="1">
+    <row r="355" spans="1:20" hidden="1">
       <c r="A355" s="21">
         <v>99</v>
       </c>
@@ -24728,7 +24727,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="356" spans="1:20" s="21" customFormat="1">
+    <row r="356" spans="1:20" hidden="1">
       <c r="A356" s="21">
         <v>99</v>
       </c>
@@ -24781,7 +24780,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="357" spans="1:20" s="21" customFormat="1">
+    <row r="357" spans="1:20" hidden="1">
       <c r="A357" s="21">
         <v>102</v>
       </c>
@@ -24834,7 +24833,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="358" spans="1:20" s="21" customFormat="1">
+    <row r="358" spans="1:20" hidden="1">
       <c r="A358" s="21">
         <v>102</v>
       </c>
@@ -24887,7 +24886,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="359" spans="1:20" s="21" customFormat="1">
+    <row r="359" spans="1:20" hidden="1">
       <c r="A359" s="21">
         <v>103</v>
       </c>
@@ -24940,7 +24939,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="360" spans="1:20" s="21" customFormat="1">
+    <row r="360" spans="1:20" hidden="1">
       <c r="A360" s="21">
         <v>103</v>
       </c>
@@ -24993,7 +24992,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="361" spans="1:20" s="21" customFormat="1">
+    <row r="361" spans="1:20" hidden="1">
       <c r="A361" s="21">
         <v>103</v>
       </c>
@@ -25046,7 +25045,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="362" spans="1:20" s="21" customFormat="1">
+    <row r="362" spans="1:20" hidden="1">
       <c r="A362" s="21">
         <v>108</v>
       </c>
@@ -25099,7 +25098,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="363" spans="1:20" s="21" customFormat="1">
+    <row r="363" spans="1:20" hidden="1">
       <c r="A363" s="21">
         <v>108</v>
       </c>
@@ -25152,7 +25151,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="364" spans="1:20" s="21" customFormat="1">
+    <row r="364" spans="1:20" hidden="1">
       <c r="A364" s="21">
         <v>108</v>
       </c>
@@ -25205,7 +25204,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="365" spans="1:20" s="21" customFormat="1">
+    <row r="365" spans="1:20" hidden="1">
       <c r="A365" s="21">
         <v>108</v>
       </c>
@@ -25258,7 +25257,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="366" spans="1:20" s="21" customFormat="1">
+    <row r="366" spans="1:20" hidden="1">
       <c r="A366" s="21">
         <v>164</v>
       </c>
@@ -25314,7 +25313,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:20" s="21" customFormat="1">
+    <row r="367" spans="1:20" hidden="1">
       <c r="A367" s="21">
         <v>164</v>
       </c>
@@ -25370,7 +25369,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:20" s="21" customFormat="1">
+    <row r="368" spans="1:20" hidden="1">
       <c r="A368" s="21">
         <v>164</v>
       </c>
@@ -25426,7 +25425,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:20" s="21" customFormat="1">
+    <row r="369" spans="1:20" hidden="1">
       <c r="A369" s="21">
         <v>164</v>
       </c>
@@ -25482,7 +25481,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:20" s="21" customFormat="1">
+    <row r="370" spans="1:20" hidden="1">
       <c r="A370" s="21">
         <v>164</v>
       </c>
@@ -25538,7 +25537,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:20" s="21" customFormat="1">
+    <row r="371" spans="1:20" hidden="1">
       <c r="A371" s="21">
         <v>120</v>
       </c>
@@ -25591,7 +25590,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="372" spans="1:20" s="21" customFormat="1">
+    <row r="372" spans="1:20" hidden="1">
       <c r="A372" s="21">
         <v>120</v>
       </c>
@@ -25644,7 +25643,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="373" spans="1:20" s="21" customFormat="1">
+    <row r="373" spans="1:20" hidden="1">
       <c r="A373" s="21">
         <v>120</v>
       </c>
@@ -25697,7 +25696,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="374" spans="1:20" s="21" customFormat="1">
+    <row r="374" spans="1:20" hidden="1">
       <c r="A374" s="21">
         <v>125</v>
       </c>
@@ -25750,7 +25749,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="375" spans="1:20" s="21" customFormat="1">
+    <row r="375" spans="1:20" hidden="1">
       <c r="A375" s="21">
         <v>125</v>
       </c>
@@ -25803,7 +25802,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="376" spans="1:20" s="21" customFormat="1">
+    <row r="376" spans="1:20" hidden="1">
       <c r="A376" s="21">
         <v>125</v>
       </c>
@@ -25856,7 +25855,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="377" spans="1:20" s="21" customFormat="1">
+    <row r="377" spans="1:20" hidden="1">
       <c r="A377" s="21">
         <v>125</v>
       </c>
@@ -25909,7 +25908,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="378" spans="1:20" s="21" customFormat="1">
+    <row r="378" spans="1:20" hidden="1">
       <c r="A378" s="21">
         <v>125</v>
       </c>
@@ -25962,7 +25961,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="379" spans="1:20" s="21" customFormat="1">
+    <row r="379" spans="1:20" hidden="1">
       <c r="A379" s="21">
         <v>125</v>
       </c>
@@ -26015,7 +26014,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="380" spans="1:20" s="21" customFormat="1">
+    <row r="380" spans="1:20" hidden="1">
       <c r="A380" s="21">
         <v>125</v>
       </c>
@@ -26068,7 +26067,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="381" spans="1:20" s="21" customFormat="1">
+    <row r="381" spans="1:20" hidden="1">
       <c r="A381" s="21">
         <v>125</v>
       </c>
@@ -26121,7 +26120,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="382" spans="1:20" s="21" customFormat="1">
+    <row r="382" spans="1:20" hidden="1">
       <c r="A382" s="21">
         <v>126</v>
       </c>
@@ -26174,7 +26173,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="383" spans="1:20" s="21" customFormat="1">
+    <row r="383" spans="1:20" hidden="1">
       <c r="A383" s="21">
         <v>126</v>
       </c>
@@ -26227,7 +26226,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="384" spans="1:20" s="21" customFormat="1">
+    <row r="384" spans="1:20" hidden="1">
       <c r="A384" s="21">
         <v>126</v>
       </c>
@@ -26280,7 +26279,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="385" spans="1:17" s="21" customFormat="1">
+    <row r="385" spans="1:17" hidden="1">
       <c r="A385" s="21">
         <v>126</v>
       </c>
@@ -26333,7 +26332,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="386" spans="1:17" s="21" customFormat="1">
+    <row r="386" spans="1:17" hidden="1">
       <c r="A386" s="21">
         <v>126</v>
       </c>
@@ -26386,7 +26385,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="387" spans="1:17" s="21" customFormat="1">
+    <row r="387" spans="1:17" hidden="1">
       <c r="A387" s="21">
         <v>129</v>
       </c>
@@ -26439,7 +26438,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="388" spans="1:17" s="21" customFormat="1">
+    <row r="388" spans="1:17" hidden="1">
       <c r="A388" s="21">
         <v>133</v>
       </c>
@@ -26492,7 +26491,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="389" spans="1:17" s="21" customFormat="1">
+    <row r="389" spans="1:17" hidden="1">
       <c r="A389" s="21">
         <v>136</v>
       </c>
@@ -26545,7 +26544,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="390" spans="1:17" s="21" customFormat="1">
+    <row r="390" spans="1:17" hidden="1">
       <c r="A390" s="21">
         <v>136</v>
       </c>
@@ -26598,7 +26597,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="391" spans="1:17" s="21" customFormat="1">
+    <row r="391" spans="1:17" hidden="1">
       <c r="A391" s="21">
         <v>138</v>
       </c>
@@ -26651,7 +26650,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="392" spans="1:17" s="21" customFormat="1">
+    <row r="392" spans="1:17" hidden="1">
       <c r="A392" s="21">
         <v>138</v>
       </c>
@@ -26704,7 +26703,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="393" spans="1:17" s="21" customFormat="1">
+    <row r="393" spans="1:17" hidden="1">
       <c r="A393" s="21">
         <v>138</v>
       </c>
@@ -26757,7 +26756,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="394" spans="1:17" s="21" customFormat="1">
+    <row r="394" spans="1:17" hidden="1">
       <c r="A394" s="21">
         <v>138</v>
       </c>
@@ -26810,7 +26809,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="395" spans="1:17" s="21" customFormat="1">
+    <row r="395" spans="1:17" hidden="1">
       <c r="A395" s="21">
         <v>138</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="396" spans="1:17" s="21" customFormat="1">
+    <row r="396" spans="1:17" hidden="1">
       <c r="A396" s="21">
         <v>138</v>
       </c>
@@ -26916,7 +26915,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="397" spans="1:17" s="21" customFormat="1">
+    <row r="397" spans="1:17" hidden="1">
       <c r="A397" s="21">
         <v>138</v>
       </c>
@@ -26969,7 +26968,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="398" spans="1:17" s="21" customFormat="1">
+    <row r="398" spans="1:17" hidden="1">
       <c r="A398" s="21">
         <v>138</v>
       </c>
@@ -27022,7 +27021,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="399" spans="1:17" s="21" customFormat="1">
+    <row r="399" spans="1:17" hidden="1">
       <c r="A399" s="21">
         <v>139</v>
       </c>
@@ -27075,7 +27074,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="400" spans="1:17" s="21" customFormat="1">
+    <row r="400" spans="1:17" hidden="1">
       <c r="A400" s="21">
         <v>139</v>
       </c>
@@ -27128,7 +27127,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="401" spans="1:22" s="21" customFormat="1">
+    <row r="401" spans="1:22" hidden="1">
       <c r="A401" s="21">
         <v>140</v>
       </c>
@@ -27184,7 +27183,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="402" spans="1:22" s="21" customFormat="1">
+    <row r="402" spans="1:22" hidden="1">
       <c r="A402" s="21">
         <v>140</v>
       </c>
@@ -27240,7 +27239,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="403" spans="1:22" s="21" customFormat="1">
+    <row r="403" spans="1:22" hidden="1">
       <c r="A403" s="21">
         <v>140</v>
       </c>
@@ -27296,7 +27295,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="404" spans="1:22" s="21" customFormat="1">
+    <row r="404" spans="1:22" hidden="1">
       <c r="A404" s="21">
         <v>140</v>
       </c>
@@ -27352,7 +27351,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="405" spans="1:22" s="21" customFormat="1">
+    <row r="405" spans="1:22" hidden="1">
       <c r="A405" s="21">
         <v>140</v>
       </c>
@@ -27408,7 +27407,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="406" spans="1:22" s="21" customFormat="1">
+    <row r="406" spans="1:22" hidden="1">
       <c r="A406" s="21">
         <v>140</v>
       </c>
@@ -27464,7 +27463,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="407" spans="1:22" s="21" customFormat="1">
+    <row r="407" spans="1:22" hidden="1">
       <c r="A407" s="21">
         <v>140</v>
       </c>
@@ -27520,7 +27519,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="408" spans="1:22" s="21" customFormat="1">
+    <row r="408" spans="1:22" hidden="1">
       <c r="A408" s="21">
         <v>140</v>
       </c>
@@ -27576,7 +27575,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="409" spans="1:22" s="21" customFormat="1">
+    <row r="409" spans="1:22" hidden="1">
       <c r="A409" s="21">
         <v>164</v>
       </c>
@@ -27632,7 +27631,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:22" s="21" customFormat="1">
+    <row r="410" spans="1:22" hidden="1">
       <c r="A410" s="21">
         <v>164</v>
       </c>
@@ -27688,7 +27687,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:22" s="21" customFormat="1">
+    <row r="411" spans="1:22" hidden="1">
       <c r="A411" s="21">
         <v>143</v>
       </c>
@@ -27741,7 +27740,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:22" s="21" customFormat="1">
+    <row r="412" spans="1:22" hidden="1">
       <c r="A412" s="21">
         <v>143</v>
       </c>
@@ -27794,7 +27793,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="413" spans="1:22" s="21" customFormat="1">
+    <row r="413" spans="1:22" hidden="1">
       <c r="A413" s="21">
         <v>143</v>
       </c>
@@ -27847,7 +27846,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="414" spans="1:22" s="21" customFormat="1">
+    <row r="414" spans="1:22" hidden="1">
       <c r="A414" s="21">
         <v>143</v>
       </c>
@@ -27900,7 +27899,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="415" spans="1:22" s="21" customFormat="1">
+    <row r="415" spans="1:22" hidden="1">
       <c r="A415" s="21">
         <v>143</v>
       </c>
@@ -27953,7 +27952,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="416" spans="1:22" s="21" customFormat="1">
+    <row r="416" spans="1:22" hidden="1">
       <c r="A416" s="21">
         <v>143</v>
       </c>
@@ -28006,7 +28005,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="417" spans="1:22" s="21" customFormat="1">
+    <row r="417" spans="1:22" hidden="1">
       <c r="A417" s="21">
         <v>146</v>
       </c>
@@ -28062,7 +28061,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="418" spans="1:22" s="21" customFormat="1">
+    <row r="418" spans="1:22" hidden="1">
       <c r="A418" s="21">
         <v>146</v>
       </c>
@@ -28118,7 +28117,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="419" spans="1:22" s="21" customFormat="1">
+    <row r="419" spans="1:22" hidden="1">
       <c r="A419" s="21">
         <v>164</v>
       </c>
@@ -28174,7 +28173,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:22" s="21" customFormat="1">
+    <row r="420" spans="1:22" hidden="1">
       <c r="A420" s="21">
         <v>164</v>
       </c>
@@ -28230,7 +28229,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:22" s="21" customFormat="1">
+    <row r="421" spans="1:22" hidden="1">
       <c r="A421" s="21">
         <v>164</v>
       </c>
@@ -28286,7 +28285,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:22" s="21" customFormat="1">
+    <row r="422" spans="1:22" hidden="1">
       <c r="A422" s="21">
         <v>152</v>
       </c>
@@ -28339,7 +28338,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="423" spans="1:22" s="21" customFormat="1">
+    <row r="423" spans="1:22" hidden="1">
       <c r="A423" s="21">
         <v>152</v>
       </c>
@@ -28392,7 +28391,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="424" spans="1:22" s="21" customFormat="1">
+    <row r="424" spans="1:22" hidden="1">
       <c r="A424" s="21">
         <v>152</v>
       </c>
@@ -28445,7 +28444,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="425" spans="1:22" s="21" customFormat="1">
+    <row r="425" spans="1:22" hidden="1">
       <c r="A425" s="21">
         <v>157</v>
       </c>
@@ -28498,7 +28497,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="426" spans="1:22" s="21" customFormat="1">
+    <row r="426" spans="1:22" hidden="1">
       <c r="A426" s="21">
         <v>157</v>
       </c>
@@ -28551,7 +28550,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="427" spans="1:22" s="21" customFormat="1">
+    <row r="427" spans="1:22" hidden="1">
       <c r="A427" s="21">
         <v>157</v>
       </c>
@@ -28604,7 +28603,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="428" spans="1:22" s="21" customFormat="1">
+    <row r="428" spans="1:22" hidden="1">
       <c r="A428" s="21">
         <v>157</v>
       </c>
@@ -28657,7 +28656,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="429" spans="1:22" s="21" customFormat="1">
+    <row r="429" spans="1:22" hidden="1">
       <c r="A429" s="21">
         <v>157</v>
       </c>
@@ -28710,7 +28709,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="430" spans="1:22" s="21" customFormat="1">
+    <row r="430" spans="1:22" hidden="1">
       <c r="A430" s="21">
         <v>157</v>
       </c>
@@ -28766,7 +28765,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="431" spans="1:22" s="21" customFormat="1">
+    <row r="431" spans="1:22" hidden="1">
       <c r="A431" s="21">
         <v>157</v>
       </c>
@@ -28819,7 +28818,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="432" spans="1:22" s="21" customFormat="1">
+    <row r="432" spans="1:22" hidden="1">
       <c r="A432" s="21">
         <v>157</v>
       </c>
@@ -28872,7 +28871,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="433" spans="1:22" s="21" customFormat="1">
+    <row r="433" spans="1:22" hidden="1">
       <c r="A433" s="21">
         <v>157</v>
       </c>
@@ -28925,7 +28924,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="434" spans="1:22" s="21" customFormat="1">
+    <row r="434" spans="1:22" hidden="1">
       <c r="A434" s="21">
         <v>158</v>
       </c>
@@ -28978,7 +28977,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="435" spans="1:22" s="21" customFormat="1">
+    <row r="435" spans="1:22" hidden="1">
       <c r="A435" s="21">
         <v>164</v>
       </c>
@@ -29034,7 +29033,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:22" s="21" customFormat="1">
+    <row r="436" spans="1:22" hidden="1">
       <c r="A436" s="21">
         <v>164</v>
       </c>
@@ -29090,7 +29089,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:22" s="21" customFormat="1">
+    <row r="437" spans="1:22" hidden="1">
       <c r="A437" s="21">
         <v>164</v>
       </c>
@@ -29146,7 +29145,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="438" spans="1:22" s="21" customFormat="1">
+    <row r="438" spans="1:22" hidden="1">
       <c r="A438" s="21">
         <v>160</v>
       </c>
@@ -29202,7 +29201,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="439" spans="1:22" s="21" customFormat="1">
+    <row r="439" spans="1:22" hidden="1">
       <c r="A439" s="21">
         <v>160</v>
       </c>
@@ -29258,7 +29257,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="440" spans="1:22" s="21" customFormat="1">
+    <row r="440" spans="1:22" hidden="1">
       <c r="A440" s="21">
         <v>160</v>
       </c>
@@ -29314,7 +29313,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="441" spans="1:22" s="21" customFormat="1">
+    <row r="441" spans="1:22" hidden="1">
       <c r="A441" s="21">
         <v>164</v>
       </c>
@@ -29370,7 +29369,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:22" s="21" customFormat="1">
+    <row r="442" spans="1:22" hidden="1">
       <c r="A442" s="21">
         <v>163</v>
       </c>
@@ -29423,7 +29422,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="443" spans="1:22" s="21" customFormat="1">
+    <row r="443" spans="1:22" hidden="1">
       <c r="A443" s="21">
         <v>164</v>
       </c>
@@ -29479,7 +29478,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:22" s="21" customFormat="1">
+    <row r="444" spans="1:22" hidden="1">
       <c r="A444" s="21">
         <v>163</v>
       </c>
@@ -29532,7 +29531,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="445" spans="1:22" s="21" customFormat="1">
+    <row r="445" spans="1:22" hidden="1">
       <c r="A445" s="21">
         <v>165</v>
       </c>
@@ -29588,7 +29587,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="446" spans="1:22" s="21" customFormat="1">
+    <row r="446" spans="1:22" hidden="1">
       <c r="A446" s="21">
         <v>165</v>
       </c>
@@ -29644,7 +29643,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="447" spans="1:22" s="21" customFormat="1">
+    <row r="447" spans="1:22" hidden="1">
       <c r="A447" s="21">
         <v>166</v>
       </c>
@@ -29697,7 +29696,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="448" spans="1:22" s="21" customFormat="1">
+    <row r="448" spans="1:22" hidden="1">
       <c r="A448" s="21">
         <v>166</v>
       </c>
@@ -29750,7 +29749,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="449" spans="1:22" s="21" customFormat="1">
+    <row r="449" spans="1:22" hidden="1">
       <c r="A449" s="21">
         <v>168</v>
       </c>
@@ -29806,7 +29805,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="450" spans="1:22" s="21" customFormat="1">
+    <row r="450" spans="1:22" hidden="1">
       <c r="A450" s="21">
         <v>170</v>
       </c>
@@ -29859,7 +29858,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="1:22" s="21" customFormat="1">
+    <row r="451" spans="1:22" hidden="1">
       <c r="A451" s="21">
         <v>174</v>
       </c>
@@ -29909,7 +29908,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="452" spans="1:22" s="21" customFormat="1">
+    <row r="452" spans="1:22" hidden="1">
       <c r="A452" s="21">
         <v>176</v>
       </c>
@@ -29962,7 +29961,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="453" spans="1:22" s="21" customFormat="1">
+    <row r="453" spans="1:22" hidden="1">
       <c r="A453" s="21">
         <v>176</v>
       </c>
@@ -30015,7 +30014,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="454" spans="1:22" s="21" customFormat="1">
+    <row r="454" spans="1:22" hidden="1">
       <c r="A454" s="21">
         <v>176</v>
       </c>
@@ -30068,7 +30067,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="455" spans="1:22" s="21" customFormat="1">
+    <row r="455" spans="1:22" hidden="1">
       <c r="A455" s="21">
         <v>176</v>
       </c>
@@ -30121,7 +30120,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="456" spans="1:22" s="21" customFormat="1">
+    <row r="456" spans="1:22" hidden="1">
       <c r="A456" s="21">
         <v>176</v>
       </c>
@@ -30174,7 +30173,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="457" spans="1:22" s="21" customFormat="1">
+    <row r="457" spans="1:22" hidden="1">
       <c r="A457" s="21">
         <v>176</v>
       </c>
@@ -30227,7 +30226,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="458" spans="1:22" s="21" customFormat="1">
+    <row r="458" spans="1:22" hidden="1">
       <c r="A458" s="21">
         <v>176</v>
       </c>
@@ -30280,7 +30279,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="459" spans="1:22" s="21" customFormat="1">
+    <row r="459" spans="1:22" hidden="1">
       <c r="A459" s="21">
         <v>179</v>
       </c>
@@ -30336,7 +30335,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="460" spans="1:22" s="21" customFormat="1">
+    <row r="460" spans="1:22" hidden="1">
       <c r="A460" s="21">
         <v>181</v>
       </c>
@@ -30389,7 +30388,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="461" spans="1:22" s="21" customFormat="1">
+    <row r="461" spans="1:22" hidden="1">
       <c r="A461" s="21">
         <v>188</v>
       </c>
@@ -30442,7 +30441,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="462" spans="1:22" s="21" customFormat="1">
+    <row r="462" spans="1:22" hidden="1">
       <c r="A462" s="21">
         <v>188</v>
       </c>
@@ -30496,7 +30495,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}"/>
+  <autoFilter ref="A1:V462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Paralytic shellfish toxins in zooplankton, mussels, lobsters and caged Atlantic salmon, Salmo salar, during a bloom of Alexandrium fundyense off Grand Manan Island, in the Bay of Fundy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
+++ b/data/lit_review/raw/20250618_depuration_biotoxin_marine_ocean_sea_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1340DD-139C-294F-A9FD-5DAC5C744C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D800B6A5-138F-1A46-A613-EBB1A74AE3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40120" yWindow="500" windowWidth="31240" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="31840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3624,8 +3624,8 @@
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C444" sqref="C444"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -15005,283 +15005,283 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
-      <c r="A189" s="21" t="s">
+    <row r="189" spans="1:23" s="23" customFormat="1">
+      <c r="A189" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="B189" s="21">
+      <c r="B189" s="23">
         <v>20</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D189" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E189" s="21" t="s">
+      <c r="D189" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E189" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="F189" s="21" t="s">
+      <c r="F189" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G189" s="21" t="s">
+      <c r="G189" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="H189" s="21" t="s">
+      <c r="H189" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I189" s="21" t="s">
+      <c r="I189" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="J189" s="21" t="s">
+      <c r="J189" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="K189" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L189" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M189" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N189" s="21" t="s">
+      <c r="K189" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L189" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M189" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N189" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O189" s="21" t="s">
+      <c r="O189" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="P189" s="21" t="s">
+      <c r="P189" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q189" s="21" t="s">
+      <c r="Q189" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R189" s="21" t="s">
+      <c r="R189" s="23" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
-      <c r="A190" s="21" t="s">
+    <row r="190" spans="1:23" s="23" customFormat="1">
+      <c r="A190" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="B190" s="21">
+      <c r="B190" s="23">
         <v>20</v>
       </c>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D190" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E190" s="21" t="s">
+      <c r="D190" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E190" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="F190" s="21" t="s">
+      <c r="F190" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G190" s="21" t="s">
+      <c r="G190" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="H190" s="21" t="s">
+      <c r="H190" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I190" s="21" t="s">
+      <c r="I190" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="J190" s="21" t="s">
+      <c r="J190" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="K190" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L190" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M190" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N190" s="21" t="s">
+      <c r="K190" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L190" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M190" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N190" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O190" s="21" t="s">
+      <c r="O190" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="P190" s="21" t="s">
+      <c r="P190" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q190" s="21" t="s">
+      <c r="Q190" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R190" s="21" t="s">
+      <c r="R190" s="23" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
-      <c r="A191" s="21" t="s">
+    <row r="191" spans="1:23" s="23" customFormat="1">
+      <c r="A191" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="B191" s="21">
+      <c r="B191" s="23">
         <v>20</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D191" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E191" s="21" t="s">
+      <c r="D191" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E191" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="F191" s="21" t="s">
+      <c r="F191" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G191" s="21" t="s">
+      <c r="G191" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="H191" s="21" t="s">
+      <c r="H191" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I191" s="21" t="s">
+      <c r="I191" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="J191" s="21" t="s">
+      <c r="J191" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="K191" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L191" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M191" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N191" s="21" t="s">
+      <c r="K191" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L191" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M191" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N191" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O191" s="21" t="s">
+      <c r="O191" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="P191" s="21" t="s">
+      <c r="P191" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q191" s="21" t="s">
+      <c r="Q191" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R191" s="21" t="s">
+      <c r="R191" s="23" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
-      <c r="A192" s="21" t="s">
+    <row r="192" spans="1:23" s="23" customFormat="1">
+      <c r="A192" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="B192" s="21">
+      <c r="B192" s="23">
         <v>20</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D192" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E192" s="21" t="s">
+      <c r="D192" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E192" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="F192" s="21" t="s">
+      <c r="F192" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G192" s="21" t="s">
+      <c r="G192" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="H192" s="21" t="s">
+      <c r="H192" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I192" s="21" t="s">
+      <c r="I192" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="J192" s="21" t="s">
+      <c r="J192" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="K192" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L192" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M192" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N192" s="21" t="s">
+      <c r="K192" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L192" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M192" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N192" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O192" s="21" t="s">
+      <c r="O192" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="P192" s="21" t="s">
+      <c r="P192" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q192" s="21" t="s">
+      <c r="Q192" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R192" s="21" t="s">
+      <c r="R192" s="23" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
-      <c r="A193" s="21" t="s">
+    <row r="193" spans="1:23" s="23" customFormat="1">
+      <c r="A193" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="23">
         <v>20</v>
       </c>
-      <c r="C193" s="21" t="s">
+      <c r="C193" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D193" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E193" s="21" t="s">
+      <c r="D193" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E193" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="F193" s="21" t="s">
+      <c r="F193" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G193" s="21" t="s">
+      <c r="G193" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="H193" s="21" t="s">
+      <c r="H193" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I193" s="21" t="s">
+      <c r="I193" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="J193" s="21" t="s">
+      <c r="J193" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="K193" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L193" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M193" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N193" s="21" t="s">
+      <c r="K193" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L193" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M193" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N193" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O193" s="21" t="s">
+      <c r="O193" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="P193" s="21" t="s">
+      <c r="P193" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q193" s="21" t="s">
+      <c r="Q193" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R193" s="21" t="s">
+      <c r="R193" s="23" t="s">
         <v>895</v>
       </c>
     </row>
@@ -17201,118 +17201,118 @@
         <v>895</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
-      <c r="A228" s="21" t="s">
+    <row r="228" spans="1:23" s="23" customFormat="1">
+      <c r="A228" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="B228" s="21">
+      <c r="B228" s="23">
         <v>129</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D228" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E228" s="21" t="s">
+      <c r="D228" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E228" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F228" s="21" t="s">
+      <c r="F228" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="G228" s="21" t="s">
+      <c r="G228" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H228" s="21" t="s">
+      <c r="H228" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I228" s="21" t="s">
+      <c r="I228" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J228" s="21" t="s">
+      <c r="J228" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="K228" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L228" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M228" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N228" s="21" t="s">
+      <c r="K228" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L228" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M228" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N228" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O228" s="21" t="s">
+      <c r="O228" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="P228" s="21" t="s">
+      <c r="P228" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="Q228" s="21" t="s">
+      <c r="Q228" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R228" s="21" t="s">
+      <c r="R228" s="23" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
-      <c r="A229" s="21" t="s">
+    <row r="229" spans="1:23" s="23" customFormat="1">
+      <c r="A229" s="23" t="s">
         <v>1009</v>
       </c>
-      <c r="B229" s="21">
+      <c r="B229" s="23">
         <v>179</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D229" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E229" s="21" t="s">
+      <c r="D229" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E229" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F229" s="21" t="s">
+      <c r="F229" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G229" s="21" t="s">
+      <c r="G229" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H229" s="21" t="s">
+      <c r="H229" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I229" s="21" t="s">
+      <c r="I229" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J229" s="21" t="s">
+      <c r="J229" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="K229" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L229" s="21" t="s">
+      <c r="K229" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L229" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="M229" s="21" t="s">
+      <c r="M229" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="N229" s="21" t="s">
+      <c r="N229" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="O229" s="21" t="s">
+      <c r="O229" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="P229" s="21" t="s">
+      <c r="P229" s="23" t="s">
         <v>706</v>
       </c>
-      <c r="Q229" s="21" t="s">
+      <c r="Q229" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="R229" s="21" t="s">
+      <c r="R229" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W229" s="21" t="s">
+      <c r="W229" s="23" t="s">
         <v>448</v>
       </c>
     </row>
@@ -17962,62 +17962,62 @@
         <v>758</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
-      <c r="A241" s="21" t="s">
+    <row r="241" spans="1:23" s="23" customFormat="1">
+      <c r="A241" s="23" t="s">
         <v>972</v>
       </c>
-      <c r="B241" s="21">
+      <c r="B241" s="23">
         <v>61</v>
       </c>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D241" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E241" s="21" t="s">
+      <c r="D241" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E241" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="F241" s="21" t="s">
+      <c r="F241" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="G241" s="21" t="s">
+      <c r="G241" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="H241" s="21" t="s">
+      <c r="H241" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="I241" s="21" t="s">
+      <c r="I241" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="J241" s="21" t="s">
+      <c r="J241" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="K241" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L241" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M241" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N241" s="21" t="s">
+      <c r="K241" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L241" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M241" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N241" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O241" s="21" t="s">
+      <c r="O241" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="P241" s="21" t="s">
+      <c r="P241" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="Q241" s="21" t="s">
+      <c r="Q241" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R241" s="21" t="s">
+      <c r="R241" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W241" s="21" t="s">
+      <c r="W241" s="23" t="s">
         <v>539</v>
       </c>
     </row>
@@ -28084,59 +28084,59 @@
         <v>895</v>
       </c>
     </row>
-    <row r="418" spans="1:21">
-      <c r="A418" s="21" t="s">
+    <row r="418" spans="1:21" s="23" customFormat="1">
+      <c r="A418" s="23" t="s">
         <v>950</v>
       </c>
-      <c r="B418" s="21">
+      <c r="B418" s="23">
         <v>3</v>
       </c>
-      <c r="C418" s="21" t="s">
+      <c r="C418" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D418" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E418" s="21" t="s">
+      <c r="D418" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E418" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F418" s="21" t="s">
+      <c r="F418" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="G418" s="21" t="s">
+      <c r="G418" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H418" s="21" t="s">
+      <c r="H418" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I418" s="21" t="s">
+      <c r="I418" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="J418" s="21" t="s">
+      <c r="J418" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K418" s="21" t="s">
+      <c r="K418" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="L418" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M418" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N418" s="21" t="s">
+      <c r="L418" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M418" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N418" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O418" s="21" t="s">
+      <c r="O418" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="P418" s="21" t="s">
+      <c r="P418" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="Q418" s="21" t="s">
+      <c r="Q418" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R418" s="21" t="s">
+      <c r="R418" s="23" t="s">
         <v>895</v>
       </c>
     </row>
@@ -28485,115 +28485,115 @@
         <v>461</v>
       </c>
     </row>
-    <row r="425" spans="1:21">
-      <c r="A425" s="21" t="s">
+    <row r="425" spans="1:21" s="23" customFormat="1">
+      <c r="A425" s="23" t="s">
         <v>950</v>
       </c>
-      <c r="B425" s="21">
+      <c r="B425" s="23">
         <v>3</v>
       </c>
-      <c r="C425" s="21" t="s">
+      <c r="C425" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D425" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E425" s="21" t="s">
+      <c r="D425" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E425" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F425" s="21" t="s">
+      <c r="F425" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="G425" s="21" t="s">
+      <c r="G425" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H425" s="21" t="s">
+      <c r="H425" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I425" s="21" t="s">
+      <c r="I425" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="J425" s="21" t="s">
+      <c r="J425" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K425" s="21" t="s">
+      <c r="K425" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="L425" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M425" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N425" s="21" t="s">
+      <c r="L425" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M425" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N425" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O425" s="21" t="s">
+      <c r="O425" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="P425" s="21" t="s">
+      <c r="P425" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="Q425" s="21" t="s">
+      <c r="Q425" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R425" s="21" t="s">
+      <c r="R425" s="23" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="426" spans="1:21">
-      <c r="A426" s="21" t="s">
+    <row r="426" spans="1:21" s="23" customFormat="1">
+      <c r="A426" s="23" t="s">
         <v>950</v>
       </c>
-      <c r="B426" s="21">
+      <c r="B426" s="23">
         <v>3</v>
       </c>
-      <c r="C426" s="21" t="s">
+      <c r="C426" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D426" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E426" s="21" t="s">
+      <c r="D426" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E426" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F426" s="21" t="s">
+      <c r="F426" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="G426" s="21" t="s">
+      <c r="G426" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="H426" s="21" t="s">
+      <c r="H426" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I426" s="21" t="s">
+      <c r="I426" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="J426" s="21" t="s">
+      <c r="J426" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="K426" s="21" t="s">
+      <c r="K426" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="L426" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M426" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N426" s="21" t="s">
+      <c r="L426" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M426" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N426" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="O426" s="21" t="s">
+      <c r="O426" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="P426" s="21" t="s">
+      <c r="P426" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="Q426" s="21" t="s">
+      <c r="Q426" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R426" s="21" t="s">
+      <c r="R426" s="23" t="s">
         <v>895</v>
       </c>
     </row>
@@ -29449,62 +29449,62 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:23">
-      <c r="A442" s="21" t="s">
+    <row r="442" spans="1:23" s="23" customFormat="1">
+      <c r="A442" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="B442" s="21">
+      <c r="B442" s="23">
         <v>160</v>
       </c>
-      <c r="C442" s="21" t="s">
+      <c r="C442" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D442" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E442" s="21" t="s">
+      <c r="D442" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E442" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F442" s="21" t="s">
+      <c r="F442" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G442" s="21" t="s">
+      <c r="G442" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H442" s="21" t="s">
+      <c r="H442" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I442" s="21" t="s">
+      <c r="I442" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J442" s="21" t="s">
+      <c r="J442" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K442" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L442" s="21" t="s">
+      <c r="K442" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L442" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="M442" s="21" t="s">
+      <c r="M442" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="N442" s="21" t="s">
+      <c r="N442" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="O442" s="21" t="s">
+      <c r="O442" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="P442" s="21" t="s">
+      <c r="P442" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q442" s="21" t="s">
+      <c r="Q442" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R442" s="21" t="s">
+      <c r="R442" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W442" s="21" t="s">
+      <c r="W442" s="23" t="s">
         <v>404</v>
       </c>
     </row>
@@ -29567,62 +29567,62 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:23">
-      <c r="A444" s="21" t="s">
+    <row r="444" spans="1:23" s="23" customFormat="1">
+      <c r="A444" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="B444" s="21">
+      <c r="B444" s="23">
         <v>160</v>
       </c>
-      <c r="C444" s="21" t="s">
+      <c r="C444" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D444" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E444" s="21" t="s">
+      <c r="D444" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E444" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F444" s="21" t="s">
+      <c r="F444" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G444" s="21" t="s">
+      <c r="G444" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H444" s="21" t="s">
+      <c r="H444" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I444" s="21" t="s">
+      <c r="I444" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J444" s="21" t="s">
+      <c r="J444" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K444" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L444" s="21" t="s">
+      <c r="K444" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L444" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="M444" s="21" t="s">
+      <c r="M444" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="N444" s="21" t="s">
+      <c r="N444" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O444" s="21" t="s">
+      <c r="O444" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="P444" s="21" t="s">
+      <c r="P444" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="Q444" s="21" t="s">
+      <c r="Q444" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R444" s="21" t="s">
+      <c r="R444" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W444" s="21" t="s">
+      <c r="W444" s="23" t="s">
         <v>404</v>
       </c>
     </row>
@@ -29744,62 +29744,62 @@
         <v>411</v>
       </c>
     </row>
-    <row r="447" spans="1:23">
-      <c r="A447" s="21" t="s">
+    <row r="447" spans="1:23" s="23" customFormat="1">
+      <c r="A447" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="B447" s="21">
+      <c r="B447" s="23">
         <v>160</v>
       </c>
-      <c r="C447" s="21" t="s">
+      <c r="C447" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D447" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E447" s="21" t="s">
+      <c r="D447" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E447" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F447" s="21" t="s">
+      <c r="F447" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G447" s="21" t="s">
+      <c r="G447" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="H447" s="21" t="s">
+      <c r="H447" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I447" s="21" t="s">
+      <c r="I447" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="J447" s="21" t="s">
+      <c r="J447" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K447" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="L447" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M447" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N447" s="21" t="s">
+      <c r="K447" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L447" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="M447" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N447" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O447" s="21" t="s">
+      <c r="O447" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="P447" s="21" t="s">
+      <c r="P447" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="Q447" s="21" t="s">
+      <c r="Q447" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="R447" s="21" t="s">
+      <c r="R447" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="W447" s="21" t="s">
+      <c r="W447" s="23" t="s">
         <v>407</v>
       </c>
     </row>
